--- a/Översikt HEBY.xlsx
+++ b/Översikt HEBY.xlsx
@@ -572,7 +572,7 @@
         <v>44914</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>43515</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>43805</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -854,7 +854,7 @@
         <v>43689</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>44824</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1047,7 +1047,7 @@
         <v>44914</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
         <v>44915</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>45117</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>43529</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         <v>44489</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         <v>44670</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         <v>44832</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         <v>45153</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>44049</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1865,7 +1865,7 @@
         <v>44712</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1951,7 +1951,7 @@
         <v>44889</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>44895</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>45014</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         <v>45092</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2381,7 +2381,7 @@
         <v>45124</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         <v>43523</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>43559</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>43851</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
         <v>43853</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2807,7 +2807,7 @@
         <v>43901</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2897,7 +2897,7 @@
         <v>44002</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2986,7 +2986,7 @@
         <v>44161</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3071,7 +3071,7 @@
         <v>44376</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         <v>44395</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>44568</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3330,7 +3330,7 @@
         <v>44609</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3415,7 +3415,7 @@
         <v>44805</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3500,7 +3500,7 @@
         <v>44847</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         <v>45020</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>45035</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>45037</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>45093</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>45098</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>45111</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>45120</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4188,7 +4188,7 @@
         <v>45120</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>45120</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4358,7 +4358,7 @@
         <v>45133</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4443,7 +4443,7 @@
         <v>43342</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4505,7 +4505,7 @@
         <v>43349</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>43374</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>43409</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>43413</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         <v>43416</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         <v>43418</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>43419</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>43423</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>43430</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         <v>43430</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5080,7 +5080,7 @@
         <v>43430</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5137,7 +5137,7 @@
         <v>43432</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5194,7 +5194,7 @@
         <v>43437</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5251,7 +5251,7 @@
         <v>43438</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5308,7 +5308,7 @@
         <v>43440</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>43447</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5422,7 +5422,7 @@
         <v>43452</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>43454</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>43454</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>43454</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5650,7 +5650,7 @@
         <v>43455</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>43455</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5764,7 +5764,7 @@
         <v>43461</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5821,7 +5821,7 @@
         <v>43461</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         <v>43468</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5935,7 +5935,7 @@
         <v>43480</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>43480</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6049,7 +6049,7 @@
         <v>43482</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6106,7 +6106,7 @@
         <v>43488</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>43500</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>43501</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6277,7 +6277,7 @@
         <v>43502</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6334,7 +6334,7 @@
         <v>43503</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
         <v>43511</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>43511</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>43515</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6567,7 +6567,7 @@
         <v>43521</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6624,7 +6624,7 @@
         <v>43522</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6681,7 +6681,7 @@
         <v>43525</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6738,7 +6738,7 @@
         <v>43528</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6795,7 +6795,7 @@
         <v>43528</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6852,7 +6852,7 @@
         <v>43529</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>43529</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>43530</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>43530</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>43535</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>43538</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>43539</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>43551</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>43552</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>43556</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>43559</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>43560</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>43560</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>43562</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>43563</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>43567</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>43570</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>43570</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>43580</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>43580</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>43581</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8059,7 +8059,7 @@
         <v>43598</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8116,7 +8116,7 @@
         <v>43598</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8173,7 +8173,7 @@
         <v>43606</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8230,7 +8230,7 @@
         <v>43607</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8287,7 +8287,7 @@
         <v>43608</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8344,7 +8344,7 @@
         <v>43609</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8401,7 +8401,7 @@
         <v>43615</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8458,7 +8458,7 @@
         <v>43628</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         <v>43633</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>43636</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8634,7 +8634,7 @@
         <v>43641</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8691,7 +8691,7 @@
         <v>43641</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8753,7 +8753,7 @@
         <v>43644</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8810,7 +8810,7 @@
         <v>43651</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8867,7 +8867,7 @@
         <v>43651</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8924,7 +8924,7 @@
         <v>43654</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8986,7 +8986,7 @@
         <v>43656</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9048,7 +9048,7 @@
         <v>43676</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9105,7 +9105,7 @@
         <v>43689</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9162,7 +9162,7 @@
         <v>43689</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9219,7 +9219,7 @@
         <v>43696</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9276,7 +9276,7 @@
         <v>43697</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         <v>43705</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9390,7 +9390,7 @@
         <v>43705</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         <v>43710</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>43710</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>43711</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9618,7 +9618,7 @@
         <v>43713</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9675,7 +9675,7 @@
         <v>43717</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9732,7 +9732,7 @@
         <v>43719</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9789,7 +9789,7 @@
         <v>43719</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9846,7 +9846,7 @@
         <v>43725</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9903,7 +9903,7 @@
         <v>43731</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9965,7 +9965,7 @@
         <v>43731</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         <v>43735</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10084,7 +10084,7 @@
         <v>43735</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10141,7 +10141,7 @@
         <v>43735</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10198,7 +10198,7 @@
         <v>43737</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10255,7 +10255,7 @@
         <v>43738</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10312,7 +10312,7 @@
         <v>43740</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10369,7 +10369,7 @@
         <v>43741</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10426,7 +10426,7 @@
         <v>43742</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>43745</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10545,7 +10545,7 @@
         <v>43745</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>43747</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
         <v>43749</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10726,7 +10726,7 @@
         <v>43749</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10783,7 +10783,7 @@
         <v>43754</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10840,7 +10840,7 @@
         <v>43766</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10897,7 +10897,7 @@
         <v>43766</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10974,7 +10974,7 @@
         <v>43768</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11031,7 +11031,7 @@
         <v>43775</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11088,7 +11088,7 @@
         <v>43781</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>43782</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>43783</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>43783</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>43787</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>43787</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>43787</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>43794</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11549,7 +11549,7 @@
         <v>43797</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11606,7 +11606,7 @@
         <v>43802</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11663,7 +11663,7 @@
         <v>43808</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11720,7 +11720,7 @@
         <v>43817</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11777,7 +11777,7 @@
         <v>43818</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11834,7 +11834,7 @@
         <v>43843</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11891,7 +11891,7 @@
         <v>43844</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11948,7 +11948,7 @@
         <v>43845</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>43846</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>43847</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>43852</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12176,7 +12176,7 @@
         <v>43852</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12238,7 +12238,7 @@
         <v>43858</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12300,7 +12300,7 @@
         <v>43860</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12357,7 +12357,7 @@
         <v>43861</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12414,7 +12414,7 @@
         <v>43863</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12471,7 +12471,7 @@
         <v>43864</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12533,7 +12533,7 @@
         <v>43864</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12590,7 +12590,7 @@
         <v>43866</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
         <v>43867</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12704,7 +12704,7 @@
         <v>43867</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12761,7 +12761,7 @@
         <v>43871</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12818,7 +12818,7 @@
         <v>43871</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>43882</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>43882</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>43891</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>43891</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13103,7 +13103,7 @@
         <v>43891</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13160,7 +13160,7 @@
         <v>43891</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
         <v>43901</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13279,7 +13279,7 @@
         <v>43901</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13336,7 +13336,7 @@
         <v>43901</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13398,7 +13398,7 @@
         <v>43901</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13455,7 +13455,7 @@
         <v>43906</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13512,7 +13512,7 @@
         <v>43909</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13569,7 +13569,7 @@
         <v>43909</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13626,7 +13626,7 @@
         <v>43909</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13683,7 +13683,7 @@
         <v>43909</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13740,7 +13740,7 @@
         <v>43913</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13797,7 +13797,7 @@
         <v>43915</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13854,7 +13854,7 @@
         <v>43916</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13911,7 +13911,7 @@
         <v>43920</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13968,7 +13968,7 @@
         <v>43920</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14025,7 +14025,7 @@
         <v>43943</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14082,7 +14082,7 @@
         <v>43944</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14139,7 +14139,7 @@
         <v>43950</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14196,7 +14196,7 @@
         <v>43950</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14253,7 +14253,7 @@
         <v>43956</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14310,7 +14310,7 @@
         <v>43958</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14367,7 +14367,7 @@
         <v>43959</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14424,7 +14424,7 @@
         <v>43959</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14486,7 +14486,7 @@
         <v>43962</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14543,7 +14543,7 @@
         <v>43963</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14600,7 +14600,7 @@
         <v>43983</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14657,7 +14657,7 @@
         <v>43983</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14714,7 +14714,7 @@
         <v>43984</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14776,7 +14776,7 @@
         <v>43987</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14833,7 +14833,7 @@
         <v>44007</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14890,7 +14890,7 @@
         <v>44013</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14947,7 +14947,7 @@
         <v>44021</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15004,7 +15004,7 @@
         <v>44025</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15061,7 +15061,7 @@
         <v>44026</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15118,7 +15118,7 @@
         <v>44035</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15175,7 +15175,7 @@
         <v>44035</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15232,7 +15232,7 @@
         <v>44048</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
         <v>44048</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         <v>44053</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15408,7 +15408,7 @@
         <v>44070</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15465,7 +15465,7 @@
         <v>44089</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15522,7 +15522,7 @@
         <v>44089</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15579,7 +15579,7 @@
         <v>44095</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15636,7 +15636,7 @@
         <v>44097</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15698,7 +15698,7 @@
         <v>44098</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15755,7 +15755,7 @@
         <v>44102</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15812,7 +15812,7 @@
         <v>44103</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15869,7 +15869,7 @@
         <v>44110</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15926,7 +15926,7 @@
         <v>44110</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15983,7 +15983,7 @@
         <v>44117</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16040,7 +16040,7 @@
         <v>44117</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16097,7 +16097,7 @@
         <v>44127</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16154,7 +16154,7 @@
         <v>44134</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16211,7 +16211,7 @@
         <v>44151</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16268,7 +16268,7 @@
         <v>44158</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16325,7 +16325,7 @@
         <v>44160</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16382,7 +16382,7 @@
         <v>44161</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16439,7 +16439,7 @@
         <v>44188</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16496,7 +16496,7 @@
         <v>44193</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16553,7 +16553,7 @@
         <v>44204</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16610,7 +16610,7 @@
         <v>44225</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16667,7 +16667,7 @@
         <v>44228</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16724,7 +16724,7 @@
         <v>44231</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16781,7 +16781,7 @@
         <v>44232</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16838,7 +16838,7 @@
         <v>44232</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16895,7 +16895,7 @@
         <v>44233</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16952,7 +16952,7 @@
         <v>44235</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17009,7 +17009,7 @@
         <v>44238</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17066,7 +17066,7 @@
         <v>44238</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17123,7 +17123,7 @@
         <v>44238</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17180,7 +17180,7 @@
         <v>44242</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17237,7 +17237,7 @@
         <v>44249</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17294,7 +17294,7 @@
         <v>44259</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17351,7 +17351,7 @@
         <v>44263</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17408,7 +17408,7 @@
         <v>44264</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17470,7 +17470,7 @@
         <v>44272</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17527,7 +17527,7 @@
         <v>44272</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17584,7 +17584,7 @@
         <v>44272</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
         <v>44278</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17698,7 +17698,7 @@
         <v>44279</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17760,7 +17760,7 @@
         <v>44280</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17817,7 +17817,7 @@
         <v>44285</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17874,7 +17874,7 @@
         <v>44285</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17931,7 +17931,7 @@
         <v>44287</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>44292</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         <v>44293</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>44299</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18159,7 +18159,7 @@
         <v>44300</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18216,7 +18216,7 @@
         <v>44308</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18273,7 +18273,7 @@
         <v>44308</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18335,7 +18335,7 @@
         <v>44309</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18392,7 +18392,7 @@
         <v>44314</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18454,7 +18454,7 @@
         <v>44315</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18511,7 +18511,7 @@
         <v>44334</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>44342</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18630,7 +18630,7 @@
         <v>44349</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18687,7 +18687,7 @@
         <v>44354</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18744,7 +18744,7 @@
         <v>44360</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18801,7 +18801,7 @@
         <v>44362</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18863,7 +18863,7 @@
         <v>44364</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18925,7 +18925,7 @@
         <v>44368</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18987,7 +18987,7 @@
         <v>44368</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19044,7 +19044,7 @@
         <v>44370</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         <v>44371</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19168,7 +19168,7 @@
         <v>44389</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19225,7 +19225,7 @@
         <v>44390</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19287,7 +19287,7 @@
         <v>44391</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19344,7 +19344,7 @@
         <v>44404</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19401,7 +19401,7 @@
         <v>44404</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19458,7 +19458,7 @@
         <v>44404</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19515,7 +19515,7 @@
         <v>44404</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19572,7 +19572,7 @@
         <v>44405</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19629,7 +19629,7 @@
         <v>44411</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19686,7 +19686,7 @@
         <v>44418</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19743,7 +19743,7 @@
         <v>44431</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19800,7 +19800,7 @@
         <v>44431</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19857,7 +19857,7 @@
         <v>44431</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19914,7 +19914,7 @@
         <v>44435</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19971,7 +19971,7 @@
         <v>44445</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20028,7 +20028,7 @@
         <v>44459</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20085,7 +20085,7 @@
         <v>44459</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20142,7 +20142,7 @@
         <v>44466</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20199,7 +20199,7 @@
         <v>44467</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20256,7 +20256,7 @@
         <v>44470</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20318,7 +20318,7 @@
         <v>44470</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20380,7 +20380,7 @@
         <v>44477</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20437,7 +20437,7 @@
         <v>44477</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20499,7 +20499,7 @@
         <v>44480</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20556,7 +20556,7 @@
         <v>44480</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20613,7 +20613,7 @@
         <v>44491</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20670,7 +20670,7 @@
         <v>44495</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20727,7 +20727,7 @@
         <v>44508</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20784,7 +20784,7 @@
         <v>44509</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20841,7 +20841,7 @@
         <v>44509</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20898,7 +20898,7 @@
         <v>44509</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20955,7 +20955,7 @@
         <v>44511</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21012,7 +21012,7 @@
         <v>44512</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21074,7 +21074,7 @@
         <v>44516</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21131,7 +21131,7 @@
         <v>44516</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         <v>44519</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21250,7 +21250,7 @@
         <v>44519</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21312,7 +21312,7 @@
         <v>44519</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21374,7 +21374,7 @@
         <v>44522</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21431,7 +21431,7 @@
         <v>44524</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21488,7 +21488,7 @@
         <v>44529</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21545,7 +21545,7 @@
         <v>44529</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21602,7 +21602,7 @@
         <v>44531</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21659,7 +21659,7 @@
         <v>44532</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21716,7 +21716,7 @@
         <v>44533</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21773,7 +21773,7 @@
         <v>44533</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21830,7 +21830,7 @@
         <v>44538</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21887,7 +21887,7 @@
         <v>44543</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21944,7 +21944,7 @@
         <v>44544</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22001,7 +22001,7 @@
         <v>44545</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22058,7 +22058,7 @@
         <v>44550</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22115,7 +22115,7 @@
         <v>44551</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22172,7 +22172,7 @@
         <v>44552</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22229,7 +22229,7 @@
         <v>44565</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22286,7 +22286,7 @@
         <v>44568</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22343,7 +22343,7 @@
         <v>44573</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22400,7 +22400,7 @@
         <v>44573</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22462,7 +22462,7 @@
         <v>44574</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22519,7 +22519,7 @@
         <v>44574</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22576,7 +22576,7 @@
         <v>44574</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22633,7 +22633,7 @@
         <v>44578</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22695,7 +22695,7 @@
         <v>44578</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22752,7 +22752,7 @@
         <v>44585</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22809,7 +22809,7 @@
         <v>44586</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         <v>44587</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22923,7 +22923,7 @@
         <v>44594</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22980,7 +22980,7 @@
         <v>44595</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23037,7 +23037,7 @@
         <v>44599</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23094,7 +23094,7 @@
         <v>44601</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23151,7 +23151,7 @@
         <v>44614</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23208,7 +23208,7 @@
         <v>44616</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23265,7 +23265,7 @@
         <v>44620</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23322,7 +23322,7 @@
         <v>44624</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23379,7 +23379,7 @@
         <v>44624</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23436,7 +23436,7 @@
         <v>44644</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23493,7 +23493,7 @@
         <v>44659</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23550,7 +23550,7 @@
         <v>44662</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23612,7 +23612,7 @@
         <v>44662</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23674,7 +23674,7 @@
         <v>44673</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23736,7 +23736,7 @@
         <v>44684</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23798,7 +23798,7 @@
         <v>44685</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23855,7 +23855,7 @@
         <v>44691</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23912,7 +23912,7 @@
         <v>44694</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23969,7 +23969,7 @@
         <v>44694</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24031,7 +24031,7 @@
         <v>44694</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24088,7 +24088,7 @@
         <v>44694</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24150,7 +24150,7 @@
         <v>44697</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24212,7 +24212,7 @@
         <v>44701</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24274,7 +24274,7 @@
         <v>44711</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24331,7 +24331,7 @@
         <v>44711</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24388,7 +24388,7 @@
         <v>44712</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24445,7 +24445,7 @@
         <v>44713</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24507,7 +24507,7 @@
         <v>44715</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24564,7 +24564,7 @@
         <v>44723</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24621,7 +24621,7 @@
         <v>44732</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24678,7 +24678,7 @@
         <v>44733</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24740,7 +24740,7 @@
         <v>44734</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24797,7 +24797,7 @@
         <v>44735</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24854,7 +24854,7 @@
         <v>44739</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24911,7 +24911,7 @@
         <v>44748</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24968,7 +24968,7 @@
         <v>44753</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25025,7 +25025,7 @@
         <v>44754</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25087,7 +25087,7 @@
         <v>44754</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25144,7 +25144,7 @@
         <v>44769</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25201,7 +25201,7 @@
         <v>44788</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25258,7 +25258,7 @@
         <v>44790</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25315,7 +25315,7 @@
         <v>44791</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25372,7 +25372,7 @@
         <v>44792</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25429,7 +25429,7 @@
         <v>44802</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25486,7 +25486,7 @@
         <v>44810</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25548,7 +25548,7 @@
         <v>44810</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25610,7 +25610,7 @@
         <v>44810</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25672,7 +25672,7 @@
         <v>44820</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25729,7 +25729,7 @@
         <v>44820</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25791,7 +25791,7 @@
         <v>44820</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25853,7 +25853,7 @@
         <v>44823</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25910,7 +25910,7 @@
         <v>44823</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25972,7 +25972,7 @@
         <v>44824</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26034,7 +26034,7 @@
         <v>44826</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26091,7 +26091,7 @@
         <v>44827</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26148,7 +26148,7 @@
         <v>44832</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26205,7 +26205,7 @@
         <v>44833</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26262,7 +26262,7 @@
         <v>44838</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26319,7 +26319,7 @@
         <v>44840</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26381,7 +26381,7 @@
         <v>44844</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26438,7 +26438,7 @@
         <v>44847</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26495,7 +26495,7 @@
         <v>44847</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26552,7 +26552,7 @@
         <v>44853</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26609,7 +26609,7 @@
         <v>44862</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26666,7 +26666,7 @@
         <v>44872</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26728,7 +26728,7 @@
         <v>44875</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26785,7 +26785,7 @@
         <v>44875</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26842,7 +26842,7 @@
         <v>44886</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26899,7 +26899,7 @@
         <v>44886</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26956,7 +26956,7 @@
         <v>44887</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27013,7 +27013,7 @@
         <v>44888</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27075,7 +27075,7 @@
         <v>44888</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27157,7 +27157,7 @@
         <v>44901</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27214,7 +27214,7 @@
         <v>44903</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27271,7 +27271,7 @@
         <v>44907</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27328,7 +27328,7 @@
         <v>44909</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27390,7 +27390,7 @@
         <v>44909</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27452,7 +27452,7 @@
         <v>44910</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27514,7 +27514,7 @@
         <v>44911</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27571,7 +27571,7 @@
         <v>44913</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27628,7 +27628,7 @@
         <v>44914</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27685,7 +27685,7 @@
         <v>44914</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27742,7 +27742,7 @@
         <v>44916</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27799,7 +27799,7 @@
         <v>44917</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27856,7 +27856,7 @@
         <v>44917</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27913,7 +27913,7 @@
         <v>44939</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27970,7 +27970,7 @@
         <v>44944</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28027,7 +28027,7 @@
         <v>44944</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28084,7 +28084,7 @@
         <v>44946</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28141,7 +28141,7 @@
         <v>44950</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28198,7 +28198,7 @@
         <v>44951</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28255,7 +28255,7 @@
         <v>44956</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28317,7 +28317,7 @@
         <v>44974</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28374,7 +28374,7 @@
         <v>44974</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28431,7 +28431,7 @@
         <v>44974</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28488,7 +28488,7 @@
         <v>44978</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28545,7 +28545,7 @@
         <v>44980</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28602,7 +28602,7 @@
         <v>44981</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28659,7 +28659,7 @@
         <v>44981</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28716,7 +28716,7 @@
         <v>44981</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28773,7 +28773,7 @@
         <v>44984</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28830,7 +28830,7 @@
         <v>44984</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28892,7 +28892,7 @@
         <v>44984</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28949,7 +28949,7 @@
         <v>44987</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29006,7 +29006,7 @@
         <v>44993</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29063,7 +29063,7 @@
         <v>44999</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29125,7 +29125,7 @@
         <v>45000</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29182,7 +29182,7 @@
         <v>45005</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29244,7 +29244,7 @@
         <v>45006</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29301,7 +29301,7 @@
         <v>45006</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29358,7 +29358,7 @@
         <v>45008</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29415,7 +29415,7 @@
         <v>45008</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29472,7 +29472,7 @@
         <v>45013</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29529,7 +29529,7 @@
         <v>45019</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29586,7 +29586,7 @@
         <v>45019</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29643,7 +29643,7 @@
         <v>45020</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29700,7 +29700,7 @@
         <v>45022</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29762,7 +29762,7 @@
         <v>45022</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29824,7 +29824,7 @@
         <v>45027</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29881,7 +29881,7 @@
         <v>45029</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29938,7 +29938,7 @@
         <v>45030</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29995,7 +29995,7 @@
         <v>45035</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30052,7 +30052,7 @@
         <v>45043</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30109,7 +30109,7 @@
         <v>45043</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30166,7 +30166,7 @@
         <v>45044</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30223,7 +30223,7 @@
         <v>45050</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30285,7 +30285,7 @@
         <v>45050</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30347,7 +30347,7 @@
         <v>45050</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30409,7 +30409,7 @@
         <v>45050</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30471,7 +30471,7 @@
         <v>45050</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30533,7 +30533,7 @@
         <v>45050</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30595,7 +30595,7 @@
         <v>45050</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30677,7 +30677,7 @@
         <v>45058</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30739,7 +30739,7 @@
         <v>45058</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30801,7 +30801,7 @@
         <v>45058</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30863,7 +30863,7 @@
         <v>45058</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30925,7 +30925,7 @@
         <v>45062</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30982,7 +30982,7 @@
         <v>45062</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31039,7 +31039,7 @@
         <v>45065</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31096,7 +31096,7 @@
         <v>45068</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31153,7 +31153,7 @@
         <v>45068</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31215,7 +31215,7 @@
         <v>45071</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31272,7 +31272,7 @@
         <v>45071</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31329,7 +31329,7 @@
         <v>45075</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31386,7 +31386,7 @@
         <v>45082</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31443,7 +31443,7 @@
         <v>45082</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31500,7 +31500,7 @@
         <v>45083</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31557,7 +31557,7 @@
         <v>45083</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31614,7 +31614,7 @@
         <v>45083</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31671,7 +31671,7 @@
         <v>45083</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31728,7 +31728,7 @@
         <v>45086</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31785,7 +31785,7 @@
         <v>45089</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31842,7 +31842,7 @@
         <v>45089</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31899,7 +31899,7 @@
         <v>45090</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31961,7 +31961,7 @@
         <v>45091</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32018,7 +32018,7 @@
         <v>45091</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32080,7 +32080,7 @@
         <v>45091</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32142,7 +32142,7 @@
         <v>45092</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32199,7 +32199,7 @@
         <v>45092</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32256,7 +32256,7 @@
         <v>45092</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32313,7 +32313,7 @@
         <v>45092</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32375,7 +32375,7 @@
         <v>45092</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32432,7 +32432,7 @@
         <v>45098</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32489,7 +32489,7 @@
         <v>45099</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32546,7 +32546,7 @@
         <v>45103</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32608,7 +32608,7 @@
         <v>45103</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32665,7 +32665,7 @@
         <v>45103</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32727,7 +32727,7 @@
         <v>45105</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32784,7 +32784,7 @@
         <v>45111</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32841,7 +32841,7 @@
         <v>45112</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32903,7 +32903,7 @@
         <v>45113</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32965,7 +32965,7 @@
         <v>45113</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33022,7 +33022,7 @@
         <v>45114</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33079,7 +33079,7 @@
         <v>45117</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33136,7 +33136,7 @@
         <v>45117</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33193,7 +33193,7 @@
         <v>45117</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33270,7 +33270,7 @@
         <v>45117</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33327,7 +33327,7 @@
         <v>45117</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33384,7 +33384,7 @@
         <v>45117</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33441,7 +33441,7 @@
         <v>45117</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33498,7 +33498,7 @@
         <v>45118</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33555,7 +33555,7 @@
         <v>45119</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33617,7 +33617,7 @@
         <v>45120</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33674,7 +33674,7 @@
         <v>45126</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33731,7 +33731,7 @@
         <v>45131</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33788,7 +33788,7 @@
         <v>45133</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33845,7 +33845,7 @@
         <v>45135</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33902,7 +33902,7 @@
         <v>45166</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33959,7 +33959,7 @@
         <v>45166</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34016,7 +34016,7 @@
         <v>45168</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34078,7 +34078,7 @@
         <v>45168</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>

--- a/Översikt HEBY.xlsx
+++ b/Översikt HEBY.xlsx
@@ -572,7 +572,7 @@
         <v>44914</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>43515</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>43805</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -854,7 +854,7 @@
         <v>43689</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>44824</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1047,7 +1047,7 @@
         <v>44914</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
         <v>44915</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>45117</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>43529</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         <v>44489</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         <v>44670</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         <v>44832</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         <v>45153</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>44049</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1865,7 +1865,7 @@
         <v>44712</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1951,7 +1951,7 @@
         <v>44889</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>44895</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>45014</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         <v>45092</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2381,7 +2381,7 @@
         <v>45124</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         <v>43523</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>43559</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>43851</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
         <v>43853</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2807,7 +2807,7 @@
         <v>43901</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2897,7 +2897,7 @@
         <v>44002</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2986,7 +2986,7 @@
         <v>44161</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3071,7 +3071,7 @@
         <v>44376</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         <v>44395</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>44568</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3330,7 +3330,7 @@
         <v>44609</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3415,7 +3415,7 @@
         <v>44805</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3500,7 +3500,7 @@
         <v>44847</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         <v>45020</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>45035</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>45037</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>45093</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>45098</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>45111</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>45120</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4188,7 +4188,7 @@
         <v>45120</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>45120</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4358,7 +4358,7 @@
         <v>45133</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4443,7 +4443,7 @@
         <v>43342</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4505,7 +4505,7 @@
         <v>43349</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>43374</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>43409</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>43413</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         <v>43416</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         <v>43418</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>43419</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>43423</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>43430</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         <v>43430</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5080,7 +5080,7 @@
         <v>43430</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5137,7 +5137,7 @@
         <v>43432</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5194,7 +5194,7 @@
         <v>43437</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5251,7 +5251,7 @@
         <v>43438</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5308,7 +5308,7 @@
         <v>43440</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>43447</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5422,7 +5422,7 @@
         <v>43452</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>43454</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>43454</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>43454</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5650,7 +5650,7 @@
         <v>43455</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>43455</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5764,7 +5764,7 @@
         <v>43461</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5821,7 +5821,7 @@
         <v>43461</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         <v>43468</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5935,7 +5935,7 @@
         <v>43480</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>43480</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6049,7 +6049,7 @@
         <v>43482</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6106,7 +6106,7 @@
         <v>43488</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>43500</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>43501</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6277,7 +6277,7 @@
         <v>43502</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6334,7 +6334,7 @@
         <v>43503</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
         <v>43511</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>43511</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>43515</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6567,7 +6567,7 @@
         <v>43521</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6624,7 +6624,7 @@
         <v>43522</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6681,7 +6681,7 @@
         <v>43525</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6738,7 +6738,7 @@
         <v>43528</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6795,7 +6795,7 @@
         <v>43528</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6852,7 +6852,7 @@
         <v>43529</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>43529</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>43530</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>43530</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>43535</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>43538</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>43539</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>43551</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>43552</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>43556</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>43559</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>43560</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>43560</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>43562</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>43563</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>43567</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>43570</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>43570</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>43580</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>43580</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>43581</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8059,7 +8059,7 @@
         <v>43598</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8116,7 +8116,7 @@
         <v>43598</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8173,7 +8173,7 @@
         <v>43606</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8230,7 +8230,7 @@
         <v>43607</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8287,7 +8287,7 @@
         <v>43608</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8344,7 +8344,7 @@
         <v>43609</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8401,7 +8401,7 @@
         <v>43615</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8458,7 +8458,7 @@
         <v>43628</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         <v>43633</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>43636</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8634,7 +8634,7 @@
         <v>43641</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8691,7 +8691,7 @@
         <v>43641</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8753,7 +8753,7 @@
         <v>43644</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8810,7 +8810,7 @@
         <v>43651</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8867,7 +8867,7 @@
         <v>43651</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8924,7 +8924,7 @@
         <v>43654</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8986,7 +8986,7 @@
         <v>43656</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9048,7 +9048,7 @@
         <v>43676</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9105,7 +9105,7 @@
         <v>43689</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9162,7 +9162,7 @@
         <v>43689</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9219,7 +9219,7 @@
         <v>43696</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9276,7 +9276,7 @@
         <v>43697</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         <v>43705</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9390,7 +9390,7 @@
         <v>43705</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         <v>43710</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>43710</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>43711</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9618,7 +9618,7 @@
         <v>43713</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9675,7 +9675,7 @@
         <v>43717</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9732,7 +9732,7 @@
         <v>43719</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9789,7 +9789,7 @@
         <v>43719</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9846,7 +9846,7 @@
         <v>43725</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9903,7 +9903,7 @@
         <v>43731</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9965,7 +9965,7 @@
         <v>43731</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         <v>43735</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10084,7 +10084,7 @@
         <v>43735</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10141,7 +10141,7 @@
         <v>43735</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10198,7 +10198,7 @@
         <v>43737</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10255,7 +10255,7 @@
         <v>43738</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10312,7 +10312,7 @@
         <v>43740</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10369,7 +10369,7 @@
         <v>43741</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10426,7 +10426,7 @@
         <v>43742</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>43745</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10545,7 +10545,7 @@
         <v>43745</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>43747</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
         <v>43749</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10726,7 +10726,7 @@
         <v>43749</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10783,7 +10783,7 @@
         <v>43754</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10840,7 +10840,7 @@
         <v>43766</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10897,7 +10897,7 @@
         <v>43766</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10974,7 +10974,7 @@
         <v>43768</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11031,7 +11031,7 @@
         <v>43775</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11088,7 +11088,7 @@
         <v>43781</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>43782</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>43783</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>43783</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>43787</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>43787</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>43787</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>43794</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11549,7 +11549,7 @@
         <v>43797</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11606,7 +11606,7 @@
         <v>43802</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11663,7 +11663,7 @@
         <v>43808</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11720,7 +11720,7 @@
         <v>43817</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11777,7 +11777,7 @@
         <v>43818</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11834,7 +11834,7 @@
         <v>43843</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11891,7 +11891,7 @@
         <v>43844</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11948,7 +11948,7 @@
         <v>43845</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>43846</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>43847</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>43852</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12176,7 +12176,7 @@
         <v>43852</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12238,7 +12238,7 @@
         <v>43858</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12300,7 +12300,7 @@
         <v>43860</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12357,7 +12357,7 @@
         <v>43861</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12414,7 +12414,7 @@
         <v>43863</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12471,7 +12471,7 @@
         <v>43864</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12533,7 +12533,7 @@
         <v>43864</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12590,7 +12590,7 @@
         <v>43866</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
         <v>43867</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12704,7 +12704,7 @@
         <v>43867</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12761,7 +12761,7 @@
         <v>43871</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12818,7 +12818,7 @@
         <v>43871</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>43882</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>43882</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>43891</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>43891</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13103,7 +13103,7 @@
         <v>43891</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13160,7 +13160,7 @@
         <v>43891</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
         <v>43901</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13279,7 +13279,7 @@
         <v>43901</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13336,7 +13336,7 @@
         <v>43901</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13398,7 +13398,7 @@
         <v>43901</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13455,7 +13455,7 @@
         <v>43906</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13512,7 +13512,7 @@
         <v>43909</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13569,7 +13569,7 @@
         <v>43909</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13626,7 +13626,7 @@
         <v>43909</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13683,7 +13683,7 @@
         <v>43909</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13740,7 +13740,7 @@
         <v>43913</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13797,7 +13797,7 @@
         <v>43915</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13854,7 +13854,7 @@
         <v>43916</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13911,7 +13911,7 @@
         <v>43920</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13968,7 +13968,7 @@
         <v>43920</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14025,7 +14025,7 @@
         <v>43943</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14082,7 +14082,7 @@
         <v>43944</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14139,7 +14139,7 @@
         <v>43950</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14196,7 +14196,7 @@
         <v>43950</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14253,7 +14253,7 @@
         <v>43956</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14310,7 +14310,7 @@
         <v>43958</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14367,7 +14367,7 @@
         <v>43959</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14424,7 +14424,7 @@
         <v>43959</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14486,7 +14486,7 @@
         <v>43962</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14543,7 +14543,7 @@
         <v>43963</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14600,7 +14600,7 @@
         <v>43983</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14657,7 +14657,7 @@
         <v>43983</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14714,7 +14714,7 @@
         <v>43984</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14776,7 +14776,7 @@
         <v>43987</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14833,7 +14833,7 @@
         <v>44007</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14890,7 +14890,7 @@
         <v>44013</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14947,7 +14947,7 @@
         <v>44021</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15004,7 +15004,7 @@
         <v>44025</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15061,7 +15061,7 @@
         <v>44026</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15118,7 +15118,7 @@
         <v>44035</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15175,7 +15175,7 @@
         <v>44035</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15232,7 +15232,7 @@
         <v>44048</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
         <v>44048</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         <v>44053</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15408,7 +15408,7 @@
         <v>44070</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15465,7 +15465,7 @@
         <v>44089</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15522,7 +15522,7 @@
         <v>44089</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15579,7 +15579,7 @@
         <v>44095</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15636,7 +15636,7 @@
         <v>44097</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15698,7 +15698,7 @@
         <v>44098</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15755,7 +15755,7 @@
         <v>44102</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15812,7 +15812,7 @@
         <v>44103</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15869,7 +15869,7 @@
         <v>44110</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15926,7 +15926,7 @@
         <v>44110</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15983,7 +15983,7 @@
         <v>44117</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16040,7 +16040,7 @@
         <v>44117</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16097,7 +16097,7 @@
         <v>44127</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16154,7 +16154,7 @@
         <v>44134</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16211,7 +16211,7 @@
         <v>44151</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16268,7 +16268,7 @@
         <v>44158</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16325,7 +16325,7 @@
         <v>44160</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16382,7 +16382,7 @@
         <v>44161</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16439,7 +16439,7 @@
         <v>44188</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16496,7 +16496,7 @@
         <v>44193</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16553,7 +16553,7 @@
         <v>44204</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16610,7 +16610,7 @@
         <v>44225</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16667,7 +16667,7 @@
         <v>44228</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16724,7 +16724,7 @@
         <v>44231</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16781,7 +16781,7 @@
         <v>44232</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16838,7 +16838,7 @@
         <v>44232</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16895,7 +16895,7 @@
         <v>44233</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16952,7 +16952,7 @@
         <v>44235</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17009,7 +17009,7 @@
         <v>44238</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17066,7 +17066,7 @@
         <v>44238</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17123,7 +17123,7 @@
         <v>44238</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17180,7 +17180,7 @@
         <v>44242</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17237,7 +17237,7 @@
         <v>44249</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17294,7 +17294,7 @@
         <v>44259</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17351,7 +17351,7 @@
         <v>44263</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17408,7 +17408,7 @@
         <v>44264</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17470,7 +17470,7 @@
         <v>44272</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17527,7 +17527,7 @@
         <v>44272</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17584,7 +17584,7 @@
         <v>44272</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
         <v>44278</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17698,7 +17698,7 @@
         <v>44279</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17760,7 +17760,7 @@
         <v>44280</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17817,7 +17817,7 @@
         <v>44285</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17874,7 +17874,7 @@
         <v>44285</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17931,7 +17931,7 @@
         <v>44287</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>44292</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         <v>44293</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>44299</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18159,7 +18159,7 @@
         <v>44300</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18216,7 +18216,7 @@
         <v>44308</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18273,7 +18273,7 @@
         <v>44308</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18335,7 +18335,7 @@
         <v>44309</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18392,7 +18392,7 @@
         <v>44314</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18454,7 +18454,7 @@
         <v>44315</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18511,7 +18511,7 @@
         <v>44334</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>44342</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18630,7 +18630,7 @@
         <v>44349</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18687,7 +18687,7 @@
         <v>44354</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18744,7 +18744,7 @@
         <v>44360</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18801,7 +18801,7 @@
         <v>44362</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18863,7 +18863,7 @@
         <v>44364</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18925,7 +18925,7 @@
         <v>44368</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18987,7 +18987,7 @@
         <v>44368</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19044,7 +19044,7 @@
         <v>44370</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         <v>44371</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19168,7 +19168,7 @@
         <v>44389</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19225,7 +19225,7 @@
         <v>44390</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19287,7 +19287,7 @@
         <v>44391</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19344,7 +19344,7 @@
         <v>44404</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19401,7 +19401,7 @@
         <v>44404</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19458,7 +19458,7 @@
         <v>44404</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19515,7 +19515,7 @@
         <v>44404</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19572,7 +19572,7 @@
         <v>44405</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19629,7 +19629,7 @@
         <v>44411</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19686,7 +19686,7 @@
         <v>44418</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19743,7 +19743,7 @@
         <v>44431</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19800,7 +19800,7 @@
         <v>44431</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19857,7 +19857,7 @@
         <v>44431</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19914,7 +19914,7 @@
         <v>44435</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19971,7 +19971,7 @@
         <v>44445</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20028,7 +20028,7 @@
         <v>44459</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20085,7 +20085,7 @@
         <v>44459</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20142,7 +20142,7 @@
         <v>44466</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20199,7 +20199,7 @@
         <v>44467</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20256,7 +20256,7 @@
         <v>44470</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20318,7 +20318,7 @@
         <v>44470</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20380,7 +20380,7 @@
         <v>44477</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20437,7 +20437,7 @@
         <v>44477</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20499,7 +20499,7 @@
         <v>44480</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20556,7 +20556,7 @@
         <v>44480</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20613,7 +20613,7 @@
         <v>44491</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20670,7 +20670,7 @@
         <v>44495</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20727,7 +20727,7 @@
         <v>44508</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20784,7 +20784,7 @@
         <v>44509</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20841,7 +20841,7 @@
         <v>44509</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20898,7 +20898,7 @@
         <v>44509</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20955,7 +20955,7 @@
         <v>44511</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21012,7 +21012,7 @@
         <v>44512</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21074,7 +21074,7 @@
         <v>44516</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21131,7 +21131,7 @@
         <v>44516</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         <v>44519</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21250,7 +21250,7 @@
         <v>44519</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21312,7 +21312,7 @@
         <v>44519</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21374,7 +21374,7 @@
         <v>44522</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21431,7 +21431,7 @@
         <v>44524</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21488,7 +21488,7 @@
         <v>44529</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21545,7 +21545,7 @@
         <v>44529</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21602,7 +21602,7 @@
         <v>44531</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21659,7 +21659,7 @@
         <v>44532</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21716,7 +21716,7 @@
         <v>44533</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21773,7 +21773,7 @@
         <v>44533</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21830,7 +21830,7 @@
         <v>44538</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21887,7 +21887,7 @@
         <v>44543</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21944,7 +21944,7 @@
         <v>44544</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22001,7 +22001,7 @@
         <v>44545</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22058,7 +22058,7 @@
         <v>44550</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22115,7 +22115,7 @@
         <v>44551</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22172,7 +22172,7 @@
         <v>44552</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22229,7 +22229,7 @@
         <v>44565</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22286,7 +22286,7 @@
         <v>44568</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22343,7 +22343,7 @@
         <v>44573</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22400,7 +22400,7 @@
         <v>44573</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22462,7 +22462,7 @@
         <v>44574</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22519,7 +22519,7 @@
         <v>44574</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22576,7 +22576,7 @@
         <v>44574</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22633,7 +22633,7 @@
         <v>44578</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22695,7 +22695,7 @@
         <v>44578</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22752,7 +22752,7 @@
         <v>44585</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22809,7 +22809,7 @@
         <v>44586</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         <v>44587</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22923,7 +22923,7 @@
         <v>44594</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22980,7 +22980,7 @@
         <v>44595</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23037,7 +23037,7 @@
         <v>44599</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23094,7 +23094,7 @@
         <v>44601</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23151,7 +23151,7 @@
         <v>44614</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23208,7 +23208,7 @@
         <v>44616</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23265,7 +23265,7 @@
         <v>44620</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23322,7 +23322,7 @@
         <v>44624</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23379,7 +23379,7 @@
         <v>44624</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23436,7 +23436,7 @@
         <v>44644</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23493,7 +23493,7 @@
         <v>44659</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23550,7 +23550,7 @@
         <v>44662</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23612,7 +23612,7 @@
         <v>44662</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23674,7 +23674,7 @@
         <v>44673</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23736,7 +23736,7 @@
         <v>44684</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23798,7 +23798,7 @@
         <v>44685</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23855,7 +23855,7 @@
         <v>44691</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23912,7 +23912,7 @@
         <v>44694</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23969,7 +23969,7 @@
         <v>44694</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24031,7 +24031,7 @@
         <v>44694</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24088,7 +24088,7 @@
         <v>44694</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24150,7 +24150,7 @@
         <v>44697</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24212,7 +24212,7 @@
         <v>44701</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24274,7 +24274,7 @@
         <v>44711</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24331,7 +24331,7 @@
         <v>44711</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24388,7 +24388,7 @@
         <v>44712</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24445,7 +24445,7 @@
         <v>44713</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24507,7 +24507,7 @@
         <v>44715</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24564,7 +24564,7 @@
         <v>44723</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24621,7 +24621,7 @@
         <v>44732</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24678,7 +24678,7 @@
         <v>44733</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24740,7 +24740,7 @@
         <v>44734</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24797,7 +24797,7 @@
         <v>44735</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24854,7 +24854,7 @@
         <v>44739</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24911,7 +24911,7 @@
         <v>44748</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24968,7 +24968,7 @@
         <v>44753</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25025,7 +25025,7 @@
         <v>44754</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25087,7 +25087,7 @@
         <v>44754</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25144,7 +25144,7 @@
         <v>44769</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25201,7 +25201,7 @@
         <v>44788</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25258,7 +25258,7 @@
         <v>44790</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25315,7 +25315,7 @@
         <v>44791</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25372,7 +25372,7 @@
         <v>44792</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25429,7 +25429,7 @@
         <v>44802</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25486,7 +25486,7 @@
         <v>44810</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25548,7 +25548,7 @@
         <v>44810</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25610,7 +25610,7 @@
         <v>44810</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25672,7 +25672,7 @@
         <v>44820</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25729,7 +25729,7 @@
         <v>44820</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25791,7 +25791,7 @@
         <v>44820</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25853,7 +25853,7 @@
         <v>44823</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25910,7 +25910,7 @@
         <v>44823</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25972,7 +25972,7 @@
         <v>44824</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26034,7 +26034,7 @@
         <v>44826</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26091,7 +26091,7 @@
         <v>44827</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26148,7 +26148,7 @@
         <v>44832</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26205,7 +26205,7 @@
         <v>44833</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26262,7 +26262,7 @@
         <v>44838</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26319,7 +26319,7 @@
         <v>44840</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26381,7 +26381,7 @@
         <v>44844</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26438,7 +26438,7 @@
         <v>44847</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26495,7 +26495,7 @@
         <v>44847</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26552,7 +26552,7 @@
         <v>44853</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26609,7 +26609,7 @@
         <v>44862</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26666,7 +26666,7 @@
         <v>44872</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26728,7 +26728,7 @@
         <v>44875</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26785,7 +26785,7 @@
         <v>44875</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26842,7 +26842,7 @@
         <v>44886</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26899,7 +26899,7 @@
         <v>44886</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26956,7 +26956,7 @@
         <v>44887</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27013,7 +27013,7 @@
         <v>44888</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27075,7 +27075,7 @@
         <v>44888</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27157,7 +27157,7 @@
         <v>44901</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27214,7 +27214,7 @@
         <v>44903</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27271,7 +27271,7 @@
         <v>44907</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27328,7 +27328,7 @@
         <v>44909</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27390,7 +27390,7 @@
         <v>44909</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27452,7 +27452,7 @@
         <v>44910</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27514,7 +27514,7 @@
         <v>44911</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27571,7 +27571,7 @@
         <v>44913</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27628,7 +27628,7 @@
         <v>44914</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27685,7 +27685,7 @@
         <v>44914</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27742,7 +27742,7 @@
         <v>44916</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27799,7 +27799,7 @@
         <v>44917</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27856,7 +27856,7 @@
         <v>44917</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27913,7 +27913,7 @@
         <v>44939</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27970,7 +27970,7 @@
         <v>44944</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28027,7 +28027,7 @@
         <v>44944</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28084,7 +28084,7 @@
         <v>44946</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28141,7 +28141,7 @@
         <v>44950</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28198,7 +28198,7 @@
         <v>44951</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28255,7 +28255,7 @@
         <v>44956</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28317,7 +28317,7 @@
         <v>44974</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28374,7 +28374,7 @@
         <v>44974</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28431,7 +28431,7 @@
         <v>44974</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28488,7 +28488,7 @@
         <v>44978</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28545,7 +28545,7 @@
         <v>44980</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28602,7 +28602,7 @@
         <v>44981</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28659,7 +28659,7 @@
         <v>44981</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28716,7 +28716,7 @@
         <v>44981</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28773,7 +28773,7 @@
         <v>44984</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28830,7 +28830,7 @@
         <v>44984</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28892,7 +28892,7 @@
         <v>44984</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28949,7 +28949,7 @@
         <v>44987</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29006,7 +29006,7 @@
         <v>44993</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29063,7 +29063,7 @@
         <v>44999</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29125,7 +29125,7 @@
         <v>45000</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29182,7 +29182,7 @@
         <v>45005</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29244,7 +29244,7 @@
         <v>45006</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29301,7 +29301,7 @@
         <v>45006</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29358,7 +29358,7 @@
         <v>45008</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29415,7 +29415,7 @@
         <v>45008</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29472,7 +29472,7 @@
         <v>45013</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29529,7 +29529,7 @@
         <v>45019</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29586,7 +29586,7 @@
         <v>45019</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29643,7 +29643,7 @@
         <v>45020</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29700,7 +29700,7 @@
         <v>45022</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29762,7 +29762,7 @@
         <v>45022</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29824,7 +29824,7 @@
         <v>45027</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29881,7 +29881,7 @@
         <v>45029</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29938,7 +29938,7 @@
         <v>45030</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29995,7 +29995,7 @@
         <v>45035</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30052,7 +30052,7 @@
         <v>45043</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30109,7 +30109,7 @@
         <v>45043</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30166,7 +30166,7 @@
         <v>45044</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30223,7 +30223,7 @@
         <v>45050</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30285,7 +30285,7 @@
         <v>45050</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30347,7 +30347,7 @@
         <v>45050</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30409,7 +30409,7 @@
         <v>45050</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30471,7 +30471,7 @@
         <v>45050</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30533,7 +30533,7 @@
         <v>45050</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30595,7 +30595,7 @@
         <v>45050</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30677,7 +30677,7 @@
         <v>45058</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30739,7 +30739,7 @@
         <v>45058</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30801,7 +30801,7 @@
         <v>45058</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30863,7 +30863,7 @@
         <v>45058</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30925,7 +30925,7 @@
         <v>45062</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30982,7 +30982,7 @@
         <v>45062</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31039,7 +31039,7 @@
         <v>45065</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31096,7 +31096,7 @@
         <v>45068</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31153,7 +31153,7 @@
         <v>45068</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31215,7 +31215,7 @@
         <v>45071</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31272,7 +31272,7 @@
         <v>45071</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31329,7 +31329,7 @@
         <v>45075</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31386,7 +31386,7 @@
         <v>45082</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31443,7 +31443,7 @@
         <v>45082</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31500,7 +31500,7 @@
         <v>45083</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31557,7 +31557,7 @@
         <v>45083</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31614,7 +31614,7 @@
         <v>45083</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31671,7 +31671,7 @@
         <v>45083</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31728,7 +31728,7 @@
         <v>45086</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31785,7 +31785,7 @@
         <v>45089</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31842,7 +31842,7 @@
         <v>45089</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31899,7 +31899,7 @@
         <v>45090</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31961,7 +31961,7 @@
         <v>45091</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32018,7 +32018,7 @@
         <v>45091</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32080,7 +32080,7 @@
         <v>45091</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32142,7 +32142,7 @@
         <v>45092</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32199,7 +32199,7 @@
         <v>45092</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32256,7 +32256,7 @@
         <v>45092</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32313,7 +32313,7 @@
         <v>45092</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32375,7 +32375,7 @@
         <v>45092</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32432,7 +32432,7 @@
         <v>45098</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32489,7 +32489,7 @@
         <v>45099</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32546,7 +32546,7 @@
         <v>45103</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32608,7 +32608,7 @@
         <v>45103</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32665,7 +32665,7 @@
         <v>45103</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32727,7 +32727,7 @@
         <v>45105</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32784,7 +32784,7 @@
         <v>45111</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32841,7 +32841,7 @@
         <v>45112</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32903,7 +32903,7 @@
         <v>45113</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32965,7 +32965,7 @@
         <v>45113</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33022,7 +33022,7 @@
         <v>45114</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33079,7 +33079,7 @@
         <v>45117</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33136,7 +33136,7 @@
         <v>45117</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33193,7 +33193,7 @@
         <v>45117</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33270,7 +33270,7 @@
         <v>45117</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33327,7 +33327,7 @@
         <v>45117</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33384,7 +33384,7 @@
         <v>45117</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33441,7 +33441,7 @@
         <v>45117</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33498,7 +33498,7 @@
         <v>45118</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33555,7 +33555,7 @@
         <v>45119</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33617,7 +33617,7 @@
         <v>45120</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33674,7 +33674,7 @@
         <v>45126</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33731,7 +33731,7 @@
         <v>45131</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33788,7 +33788,7 @@
         <v>45133</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33845,7 +33845,7 @@
         <v>45135</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33902,7 +33902,7 @@
         <v>45166</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33959,7 +33959,7 @@
         <v>45166</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34016,7 +34016,7 @@
         <v>45168</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34078,7 +34078,7 @@
         <v>45168</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>

--- a/Översikt HEBY.xlsx
+++ b/Översikt HEBY.xlsx
@@ -572,7 +572,7 @@
         <v>44914</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>43515</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>43805</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -854,7 +854,7 @@
         <v>43689</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>44824</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1047,7 +1047,7 @@
         <v>44914</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
         <v>44915</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>45117</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>43529</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         <v>44489</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         <v>44670</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         <v>44832</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         <v>45153</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>44049</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1865,7 +1865,7 @@
         <v>44712</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1951,7 +1951,7 @@
         <v>44889</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>44895</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>45014</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         <v>45092</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2381,7 +2381,7 @@
         <v>45124</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         <v>43523</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>43559</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>43851</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
         <v>43853</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2807,7 +2807,7 @@
         <v>43901</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2897,7 +2897,7 @@
         <v>44002</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2986,7 +2986,7 @@
         <v>44161</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3071,7 +3071,7 @@
         <v>44376</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         <v>44395</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>44568</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3330,7 +3330,7 @@
         <v>44609</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3415,7 +3415,7 @@
         <v>44805</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3500,7 +3500,7 @@
         <v>44847</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         <v>45020</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>45035</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>45037</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>45093</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>45098</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>45111</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>45120</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4188,7 +4188,7 @@
         <v>45120</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>45120</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4358,7 +4358,7 @@
         <v>45133</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4443,7 +4443,7 @@
         <v>43342</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4505,7 +4505,7 @@
         <v>43349</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>43374</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>43409</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>43413</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         <v>43416</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         <v>43418</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>43419</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>43423</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>43430</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         <v>43430</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5080,7 +5080,7 @@
         <v>43430</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5137,7 +5137,7 @@
         <v>43432</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5194,7 +5194,7 @@
         <v>43437</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5251,7 +5251,7 @@
         <v>43438</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5308,7 +5308,7 @@
         <v>43440</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>43447</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5422,7 +5422,7 @@
         <v>43452</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>43454</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>43454</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>43454</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5650,7 +5650,7 @@
         <v>43455</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>43455</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5764,7 +5764,7 @@
         <v>43461</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5821,7 +5821,7 @@
         <v>43461</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         <v>43468</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5935,7 +5935,7 @@
         <v>43480</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>43480</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6049,7 +6049,7 @@
         <v>43482</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6106,7 +6106,7 @@
         <v>43488</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>43500</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>43501</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6277,7 +6277,7 @@
         <v>43502</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6334,7 +6334,7 @@
         <v>43503</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
         <v>43511</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>43511</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>43515</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6567,7 +6567,7 @@
         <v>43521</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6624,7 +6624,7 @@
         <v>43522</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6681,7 +6681,7 @@
         <v>43525</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6738,7 +6738,7 @@
         <v>43528</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6795,7 +6795,7 @@
         <v>43528</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6852,7 +6852,7 @@
         <v>43529</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>43529</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>43530</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>43530</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>43535</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>43538</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>43539</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>43551</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>43552</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>43556</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>43559</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>43560</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>43560</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>43562</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>43563</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>43567</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>43570</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>43570</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>43580</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>43580</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>43581</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8059,7 +8059,7 @@
         <v>43598</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8116,7 +8116,7 @@
         <v>43598</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8173,7 +8173,7 @@
         <v>43606</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8230,7 +8230,7 @@
         <v>43607</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8287,7 +8287,7 @@
         <v>43608</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8344,7 +8344,7 @@
         <v>43609</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8401,7 +8401,7 @@
         <v>43615</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8458,7 +8458,7 @@
         <v>43628</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         <v>43633</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>43636</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8634,7 +8634,7 @@
         <v>43641</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8691,7 +8691,7 @@
         <v>43641</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8753,7 +8753,7 @@
         <v>43644</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8810,7 +8810,7 @@
         <v>43651</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8867,7 +8867,7 @@
         <v>43651</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8924,7 +8924,7 @@
         <v>43654</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8986,7 +8986,7 @@
         <v>43656</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9048,7 +9048,7 @@
         <v>43676</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9105,7 +9105,7 @@
         <v>43689</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9162,7 +9162,7 @@
         <v>43689</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9219,7 +9219,7 @@
         <v>43696</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9276,7 +9276,7 @@
         <v>43697</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         <v>43705</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9390,7 +9390,7 @@
         <v>43705</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         <v>43710</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>43710</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>43711</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9618,7 +9618,7 @@
         <v>43713</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9675,7 +9675,7 @@
         <v>43717</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9732,7 +9732,7 @@
         <v>43719</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9789,7 +9789,7 @@
         <v>43719</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9846,7 +9846,7 @@
         <v>43725</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9903,7 +9903,7 @@
         <v>43731</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9965,7 +9965,7 @@
         <v>43731</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         <v>43735</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10084,7 +10084,7 @@
         <v>43735</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10141,7 +10141,7 @@
         <v>43735</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10198,7 +10198,7 @@
         <v>43737</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10255,7 +10255,7 @@
         <v>43738</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10312,7 +10312,7 @@
         <v>43740</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10369,7 +10369,7 @@
         <v>43741</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10426,7 +10426,7 @@
         <v>43742</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>43745</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10545,7 +10545,7 @@
         <v>43745</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>43747</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
         <v>43749</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10726,7 +10726,7 @@
         <v>43749</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10783,7 +10783,7 @@
         <v>43754</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10840,7 +10840,7 @@
         <v>43766</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10897,7 +10897,7 @@
         <v>43766</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10974,7 +10974,7 @@
         <v>43768</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11031,7 +11031,7 @@
         <v>43775</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11088,7 +11088,7 @@
         <v>43781</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>43782</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>43783</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>43783</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>43787</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>43787</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>43787</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>43794</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11549,7 +11549,7 @@
         <v>43797</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11606,7 +11606,7 @@
         <v>43802</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11663,7 +11663,7 @@
         <v>43808</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11720,7 +11720,7 @@
         <v>43817</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11777,7 +11777,7 @@
         <v>43818</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11834,7 +11834,7 @@
         <v>43843</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11891,7 +11891,7 @@
         <v>43844</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11948,7 +11948,7 @@
         <v>43845</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>43846</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>43847</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>43852</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12176,7 +12176,7 @@
         <v>43852</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12238,7 +12238,7 @@
         <v>43858</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12300,7 +12300,7 @@
         <v>43860</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12357,7 +12357,7 @@
         <v>43861</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12414,7 +12414,7 @@
         <v>43863</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12471,7 +12471,7 @@
         <v>43864</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12533,7 +12533,7 @@
         <v>43864</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12590,7 +12590,7 @@
         <v>43866</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
         <v>43867</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12704,7 +12704,7 @@
         <v>43867</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12761,7 +12761,7 @@
         <v>43871</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12818,7 +12818,7 @@
         <v>43871</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>43882</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>43882</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>43891</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>43891</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13103,7 +13103,7 @@
         <v>43891</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13160,7 +13160,7 @@
         <v>43891</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
         <v>43901</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13279,7 +13279,7 @@
         <v>43901</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13336,7 +13336,7 @@
         <v>43901</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13398,7 +13398,7 @@
         <v>43901</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13455,7 +13455,7 @@
         <v>43906</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13512,7 +13512,7 @@
         <v>43909</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13569,7 +13569,7 @@
         <v>43909</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13626,7 +13626,7 @@
         <v>43909</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13683,7 +13683,7 @@
         <v>43909</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13740,7 +13740,7 @@
         <v>43913</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13797,7 +13797,7 @@
         <v>43915</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13854,7 +13854,7 @@
         <v>43916</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13911,7 +13911,7 @@
         <v>43920</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13968,7 +13968,7 @@
         <v>43920</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14025,7 +14025,7 @@
         <v>43943</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14082,7 +14082,7 @@
         <v>43944</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14139,7 +14139,7 @@
         <v>43950</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14196,7 +14196,7 @@
         <v>43950</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14253,7 +14253,7 @@
         <v>43956</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14310,7 +14310,7 @@
         <v>43958</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14367,7 +14367,7 @@
         <v>43959</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14424,7 +14424,7 @@
         <v>43959</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14486,7 +14486,7 @@
         <v>43962</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14543,7 +14543,7 @@
         <v>43963</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14600,7 +14600,7 @@
         <v>43983</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14657,7 +14657,7 @@
         <v>43983</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14714,7 +14714,7 @@
         <v>43984</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14776,7 +14776,7 @@
         <v>43987</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14833,7 +14833,7 @@
         <v>44007</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14890,7 +14890,7 @@
         <v>44013</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14947,7 +14947,7 @@
         <v>44021</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15004,7 +15004,7 @@
         <v>44025</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15061,7 +15061,7 @@
         <v>44026</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15118,7 +15118,7 @@
         <v>44035</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15175,7 +15175,7 @@
         <v>44035</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15232,7 +15232,7 @@
         <v>44048</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
         <v>44048</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         <v>44053</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15408,7 +15408,7 @@
         <v>44070</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15465,7 +15465,7 @@
         <v>44089</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15522,7 +15522,7 @@
         <v>44089</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15579,7 +15579,7 @@
         <v>44095</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15636,7 +15636,7 @@
         <v>44097</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15698,7 +15698,7 @@
         <v>44098</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15755,7 +15755,7 @@
         <v>44102</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15812,7 +15812,7 @@
         <v>44103</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15869,7 +15869,7 @@
         <v>44110</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15926,7 +15926,7 @@
         <v>44110</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15983,7 +15983,7 @@
         <v>44117</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16040,7 +16040,7 @@
         <v>44117</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16097,7 +16097,7 @@
         <v>44127</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16154,7 +16154,7 @@
         <v>44134</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16211,7 +16211,7 @@
         <v>44151</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16268,7 +16268,7 @@
         <v>44158</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16325,7 +16325,7 @@
         <v>44160</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16382,7 +16382,7 @@
         <v>44161</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16439,7 +16439,7 @@
         <v>44188</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16496,7 +16496,7 @@
         <v>44193</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16553,7 +16553,7 @@
         <v>44204</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16610,7 +16610,7 @@
         <v>44225</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16667,7 +16667,7 @@
         <v>44228</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16724,7 +16724,7 @@
         <v>44231</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16781,7 +16781,7 @@
         <v>44232</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16838,7 +16838,7 @@
         <v>44232</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16895,7 +16895,7 @@
         <v>44233</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16952,7 +16952,7 @@
         <v>44235</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17009,7 +17009,7 @@
         <v>44238</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17066,7 +17066,7 @@
         <v>44238</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17123,7 +17123,7 @@
         <v>44238</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17180,7 +17180,7 @@
         <v>44242</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17237,7 +17237,7 @@
         <v>44249</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17294,7 +17294,7 @@
         <v>44259</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17351,7 +17351,7 @@
         <v>44263</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17408,7 +17408,7 @@
         <v>44264</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17470,7 +17470,7 @@
         <v>44272</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17527,7 +17527,7 @@
         <v>44272</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17584,7 +17584,7 @@
         <v>44272</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
         <v>44278</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17698,7 +17698,7 @@
         <v>44279</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17760,7 +17760,7 @@
         <v>44280</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17817,7 +17817,7 @@
         <v>44285</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17874,7 +17874,7 @@
         <v>44285</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17931,7 +17931,7 @@
         <v>44287</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>44292</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         <v>44293</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>44299</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18159,7 +18159,7 @@
         <v>44300</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18216,7 +18216,7 @@
         <v>44308</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18273,7 +18273,7 @@
         <v>44308</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18335,7 +18335,7 @@
         <v>44309</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18392,7 +18392,7 @@
         <v>44314</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18454,7 +18454,7 @@
         <v>44315</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18511,7 +18511,7 @@
         <v>44334</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>44342</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18630,7 +18630,7 @@
         <v>44349</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18687,7 +18687,7 @@
         <v>44354</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18744,7 +18744,7 @@
         <v>44360</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18801,7 +18801,7 @@
         <v>44362</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18863,7 +18863,7 @@
         <v>44364</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18925,7 +18925,7 @@
         <v>44368</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18987,7 +18987,7 @@
         <v>44368</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19044,7 +19044,7 @@
         <v>44370</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         <v>44371</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19168,7 +19168,7 @@
         <v>44389</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19225,7 +19225,7 @@
         <v>44390</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19287,7 +19287,7 @@
         <v>44391</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19344,7 +19344,7 @@
         <v>44404</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19401,7 +19401,7 @@
         <v>44404</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19458,7 +19458,7 @@
         <v>44404</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19515,7 +19515,7 @@
         <v>44404</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19572,7 +19572,7 @@
         <v>44405</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19629,7 +19629,7 @@
         <v>44411</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19686,7 +19686,7 @@
         <v>44418</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19743,7 +19743,7 @@
         <v>44431</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19800,7 +19800,7 @@
         <v>44431</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19857,7 +19857,7 @@
         <v>44431</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19914,7 +19914,7 @@
         <v>44435</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19971,7 +19971,7 @@
         <v>44445</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20028,7 +20028,7 @@
         <v>44459</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20085,7 +20085,7 @@
         <v>44459</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20142,7 +20142,7 @@
         <v>44466</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20199,7 +20199,7 @@
         <v>44467</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20256,7 +20256,7 @@
         <v>44470</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20318,7 +20318,7 @@
         <v>44470</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20380,7 +20380,7 @@
         <v>44477</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20437,7 +20437,7 @@
         <v>44477</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20499,7 +20499,7 @@
         <v>44480</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20556,7 +20556,7 @@
         <v>44480</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20613,7 +20613,7 @@
         <v>44491</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20670,7 +20670,7 @@
         <v>44495</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20727,7 +20727,7 @@
         <v>44508</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20784,7 +20784,7 @@
         <v>44509</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20841,7 +20841,7 @@
         <v>44509</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20898,7 +20898,7 @@
         <v>44509</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20955,7 +20955,7 @@
         <v>44511</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21012,7 +21012,7 @@
         <v>44512</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21074,7 +21074,7 @@
         <v>44516</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21131,7 +21131,7 @@
         <v>44516</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         <v>44519</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21250,7 +21250,7 @@
         <v>44519</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21312,7 +21312,7 @@
         <v>44519</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21374,7 +21374,7 @@
         <v>44522</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21431,7 +21431,7 @@
         <v>44524</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21488,7 +21488,7 @@
         <v>44529</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21545,7 +21545,7 @@
         <v>44529</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21602,7 +21602,7 @@
         <v>44531</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21659,7 +21659,7 @@
         <v>44532</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21716,7 +21716,7 @@
         <v>44533</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21773,7 +21773,7 @@
         <v>44533</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21830,7 +21830,7 @@
         <v>44538</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21887,7 +21887,7 @@
         <v>44543</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21944,7 +21944,7 @@
         <v>44544</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22001,7 +22001,7 @@
         <v>44545</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22058,7 +22058,7 @@
         <v>44550</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22115,7 +22115,7 @@
         <v>44551</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22172,7 +22172,7 @@
         <v>44552</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22229,7 +22229,7 @@
         <v>44565</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22286,7 +22286,7 @@
         <v>44568</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22343,7 +22343,7 @@
         <v>44573</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22400,7 +22400,7 @@
         <v>44573</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22462,7 +22462,7 @@
         <v>44574</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22519,7 +22519,7 @@
         <v>44574</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22576,7 +22576,7 @@
         <v>44574</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22633,7 +22633,7 @@
         <v>44578</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22695,7 +22695,7 @@
         <v>44578</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22752,7 +22752,7 @@
         <v>44585</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22809,7 +22809,7 @@
         <v>44586</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         <v>44587</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22923,7 +22923,7 @@
         <v>44594</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22980,7 +22980,7 @@
         <v>44595</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23037,7 +23037,7 @@
         <v>44599</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23094,7 +23094,7 @@
         <v>44601</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23151,7 +23151,7 @@
         <v>44614</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23208,7 +23208,7 @@
         <v>44616</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23265,7 +23265,7 @@
         <v>44620</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23322,7 +23322,7 @@
         <v>44624</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23379,7 +23379,7 @@
         <v>44624</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23436,7 +23436,7 @@
         <v>44644</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23493,7 +23493,7 @@
         <v>44659</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23550,7 +23550,7 @@
         <v>44662</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23612,7 +23612,7 @@
         <v>44662</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23674,7 +23674,7 @@
         <v>44673</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23736,7 +23736,7 @@
         <v>44684</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23798,7 +23798,7 @@
         <v>44685</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23855,7 +23855,7 @@
         <v>44691</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23912,7 +23912,7 @@
         <v>44694</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23969,7 +23969,7 @@
         <v>44694</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24031,7 +24031,7 @@
         <v>44694</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24088,7 +24088,7 @@
         <v>44694</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24150,7 +24150,7 @@
         <v>44697</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24212,7 +24212,7 @@
         <v>44701</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24274,7 +24274,7 @@
         <v>44711</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24331,7 +24331,7 @@
         <v>44711</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24388,7 +24388,7 @@
         <v>44712</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24445,7 +24445,7 @@
         <v>44713</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24507,7 +24507,7 @@
         <v>44715</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24564,7 +24564,7 @@
         <v>44723</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24621,7 +24621,7 @@
         <v>44732</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24678,7 +24678,7 @@
         <v>44733</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24740,7 +24740,7 @@
         <v>44734</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24797,7 +24797,7 @@
         <v>44735</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24854,7 +24854,7 @@
         <v>44739</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24911,7 +24911,7 @@
         <v>44748</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24968,7 +24968,7 @@
         <v>44753</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25025,7 +25025,7 @@
         <v>44754</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25087,7 +25087,7 @@
         <v>44754</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25144,7 +25144,7 @@
         <v>44769</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25201,7 +25201,7 @@
         <v>44788</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25258,7 +25258,7 @@
         <v>44790</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25315,7 +25315,7 @@
         <v>44791</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25372,7 +25372,7 @@
         <v>44792</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25429,7 +25429,7 @@
         <v>44802</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25486,7 +25486,7 @@
         <v>44810</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25548,7 +25548,7 @@
         <v>44810</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25610,7 +25610,7 @@
         <v>44810</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25672,7 +25672,7 @@
         <v>44820</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25729,7 +25729,7 @@
         <v>44820</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25791,7 +25791,7 @@
         <v>44820</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25853,7 +25853,7 @@
         <v>44823</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25910,7 +25910,7 @@
         <v>44823</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25972,7 +25972,7 @@
         <v>44824</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26034,7 +26034,7 @@
         <v>44826</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26091,7 +26091,7 @@
         <v>44827</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26148,7 +26148,7 @@
         <v>44832</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26205,7 +26205,7 @@
         <v>44833</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26262,7 +26262,7 @@
         <v>44838</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26319,7 +26319,7 @@
         <v>44840</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26381,7 +26381,7 @@
         <v>44844</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26438,7 +26438,7 @@
         <v>44847</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26495,7 +26495,7 @@
         <v>44847</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26552,7 +26552,7 @@
         <v>44853</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26609,7 +26609,7 @@
         <v>44862</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26666,7 +26666,7 @@
         <v>44872</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26728,7 +26728,7 @@
         <v>44875</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26785,7 +26785,7 @@
         <v>44875</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26842,7 +26842,7 @@
         <v>44886</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26899,7 +26899,7 @@
         <v>44886</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26956,7 +26956,7 @@
         <v>44887</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27013,7 +27013,7 @@
         <v>44888</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27075,7 +27075,7 @@
         <v>44888</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27157,7 +27157,7 @@
         <v>44901</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27214,7 +27214,7 @@
         <v>44903</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27271,7 +27271,7 @@
         <v>44907</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27328,7 +27328,7 @@
         <v>44909</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27390,7 +27390,7 @@
         <v>44909</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27452,7 +27452,7 @@
         <v>44910</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27514,7 +27514,7 @@
         <v>44911</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27571,7 +27571,7 @@
         <v>44913</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27628,7 +27628,7 @@
         <v>44914</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27685,7 +27685,7 @@
         <v>44914</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27742,7 +27742,7 @@
         <v>44916</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27799,7 +27799,7 @@
         <v>44917</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27856,7 +27856,7 @@
         <v>44917</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27913,7 +27913,7 @@
         <v>44939</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27970,7 +27970,7 @@
         <v>44944</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28027,7 +28027,7 @@
         <v>44944</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28084,7 +28084,7 @@
         <v>44946</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28141,7 +28141,7 @@
         <v>44950</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28198,7 +28198,7 @@
         <v>44951</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28255,7 +28255,7 @@
         <v>44956</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28317,7 +28317,7 @@
         <v>44974</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28374,7 +28374,7 @@
         <v>44974</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28431,7 +28431,7 @@
         <v>44974</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28488,7 +28488,7 @@
         <v>44978</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28545,7 +28545,7 @@
         <v>44980</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28602,7 +28602,7 @@
         <v>44981</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28659,7 +28659,7 @@
         <v>44981</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28716,7 +28716,7 @@
         <v>44981</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28773,7 +28773,7 @@
         <v>44984</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28830,7 +28830,7 @@
         <v>44984</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28892,7 +28892,7 @@
         <v>44984</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28949,7 +28949,7 @@
         <v>44987</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29006,7 +29006,7 @@
         <v>44993</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29063,7 +29063,7 @@
         <v>44999</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29125,7 +29125,7 @@
         <v>45000</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29182,7 +29182,7 @@
         <v>45005</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29244,7 +29244,7 @@
         <v>45006</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29301,7 +29301,7 @@
         <v>45006</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29358,7 +29358,7 @@
         <v>45008</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29415,7 +29415,7 @@
         <v>45008</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29472,7 +29472,7 @@
         <v>45013</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29529,7 +29529,7 @@
         <v>45019</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29586,7 +29586,7 @@
         <v>45019</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29643,7 +29643,7 @@
         <v>45020</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29700,7 +29700,7 @@
         <v>45022</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29762,7 +29762,7 @@
         <v>45022</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29824,7 +29824,7 @@
         <v>45027</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29881,7 +29881,7 @@
         <v>45029</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29938,7 +29938,7 @@
         <v>45030</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29995,7 +29995,7 @@
         <v>45035</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30052,7 +30052,7 @@
         <v>45043</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30109,7 +30109,7 @@
         <v>45043</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30166,7 +30166,7 @@
         <v>45044</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30223,7 +30223,7 @@
         <v>45050</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30285,7 +30285,7 @@
         <v>45050</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30347,7 +30347,7 @@
         <v>45050</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30409,7 +30409,7 @@
         <v>45050</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30471,7 +30471,7 @@
         <v>45050</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30533,7 +30533,7 @@
         <v>45050</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30595,7 +30595,7 @@
         <v>45050</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30677,7 +30677,7 @@
         <v>45058</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30739,7 +30739,7 @@
         <v>45058</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30801,7 +30801,7 @@
         <v>45058</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30863,7 +30863,7 @@
         <v>45058</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30925,7 +30925,7 @@
         <v>45062</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30982,7 +30982,7 @@
         <v>45062</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31039,7 +31039,7 @@
         <v>45065</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31096,7 +31096,7 @@
         <v>45068</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31153,7 +31153,7 @@
         <v>45068</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31215,7 +31215,7 @@
         <v>45071</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31272,7 +31272,7 @@
         <v>45071</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31329,7 +31329,7 @@
         <v>45075</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31386,7 +31386,7 @@
         <v>45082</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31443,7 +31443,7 @@
         <v>45082</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31500,7 +31500,7 @@
         <v>45083</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31557,7 +31557,7 @@
         <v>45083</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31614,7 +31614,7 @@
         <v>45083</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31671,7 +31671,7 @@
         <v>45083</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31728,7 +31728,7 @@
         <v>45086</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31785,7 +31785,7 @@
         <v>45089</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31842,7 +31842,7 @@
         <v>45089</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31899,7 +31899,7 @@
         <v>45090</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31961,7 +31961,7 @@
         <v>45091</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32018,7 +32018,7 @@
         <v>45091</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32080,7 +32080,7 @@
         <v>45091</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32142,7 +32142,7 @@
         <v>45092</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32199,7 +32199,7 @@
         <v>45092</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32256,7 +32256,7 @@
         <v>45092</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32313,7 +32313,7 @@
         <v>45092</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32375,7 +32375,7 @@
         <v>45092</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32432,7 +32432,7 @@
         <v>45098</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32489,7 +32489,7 @@
         <v>45099</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32546,7 +32546,7 @@
         <v>45103</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32608,7 +32608,7 @@
         <v>45103</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32665,7 +32665,7 @@
         <v>45103</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32727,7 +32727,7 @@
         <v>45105</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32784,7 +32784,7 @@
         <v>45111</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32841,7 +32841,7 @@
         <v>45112</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32903,7 +32903,7 @@
         <v>45113</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32965,7 +32965,7 @@
         <v>45113</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33022,7 +33022,7 @@
         <v>45114</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33079,7 +33079,7 @@
         <v>45117</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33136,7 +33136,7 @@
         <v>45117</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33193,7 +33193,7 @@
         <v>45117</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33270,7 +33270,7 @@
         <v>45117</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33327,7 +33327,7 @@
         <v>45117</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33384,7 +33384,7 @@
         <v>45117</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33441,7 +33441,7 @@
         <v>45117</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33498,7 +33498,7 @@
         <v>45118</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33555,7 +33555,7 @@
         <v>45119</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33617,7 +33617,7 @@
         <v>45120</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33674,7 +33674,7 @@
         <v>45126</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33731,7 +33731,7 @@
         <v>45131</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33788,7 +33788,7 @@
         <v>45133</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33845,7 +33845,7 @@
         <v>45135</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33902,7 +33902,7 @@
         <v>45166</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33959,7 +33959,7 @@
         <v>45166</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34016,7 +34016,7 @@
         <v>45168</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34078,7 +34078,7 @@
         <v>45168</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>

--- a/Översikt HEBY.xlsx
+++ b/Översikt HEBY.xlsx
@@ -572,7 +572,7 @@
         <v>44914</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>43515</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>43805</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -854,7 +854,7 @@
         <v>43689</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>44824</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1047,7 +1047,7 @@
         <v>44914</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
         <v>44915</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>45117</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>43529</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         <v>44489</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         <v>44670</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         <v>44832</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         <v>45153</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>44049</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1865,7 +1865,7 @@
         <v>44712</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1951,7 +1951,7 @@
         <v>44889</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>44895</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>45014</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         <v>45092</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2381,7 +2381,7 @@
         <v>45124</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         <v>43523</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>43559</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>43851</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
         <v>43853</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2807,7 +2807,7 @@
         <v>43901</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2897,7 +2897,7 @@
         <v>44002</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2986,7 +2986,7 @@
         <v>44161</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3071,7 +3071,7 @@
         <v>44376</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         <v>44395</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>44568</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3330,7 +3330,7 @@
         <v>44609</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3415,7 +3415,7 @@
         <v>44805</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3500,7 +3500,7 @@
         <v>44847</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         <v>45020</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>45035</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>45037</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>45093</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>45098</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>45111</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>45120</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4188,7 +4188,7 @@
         <v>45120</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>45120</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4358,7 +4358,7 @@
         <v>45133</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4443,7 +4443,7 @@
         <v>43342</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4505,7 +4505,7 @@
         <v>43349</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>43374</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>43409</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>43413</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         <v>43416</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         <v>43418</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>43419</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>43423</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>43430</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         <v>43430</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5080,7 +5080,7 @@
         <v>43430</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5137,7 +5137,7 @@
         <v>43432</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5194,7 +5194,7 @@
         <v>43437</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5251,7 +5251,7 @@
         <v>43438</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5308,7 +5308,7 @@
         <v>43440</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>43447</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5422,7 +5422,7 @@
         <v>43452</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>43454</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>43454</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>43454</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5650,7 +5650,7 @@
         <v>43455</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>43455</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5764,7 +5764,7 @@
         <v>43461</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5821,7 +5821,7 @@
         <v>43461</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         <v>43468</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5935,7 +5935,7 @@
         <v>43480</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>43480</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6049,7 +6049,7 @@
         <v>43482</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6106,7 +6106,7 @@
         <v>43488</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>43500</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>43501</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6277,7 +6277,7 @@
         <v>43502</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6334,7 +6334,7 @@
         <v>43503</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
         <v>43511</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>43511</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>43515</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6567,7 +6567,7 @@
         <v>43521</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6624,7 +6624,7 @@
         <v>43522</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6681,7 +6681,7 @@
         <v>43525</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6738,7 +6738,7 @@
         <v>43528</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6795,7 +6795,7 @@
         <v>43528</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6852,7 +6852,7 @@
         <v>43529</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>43529</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>43530</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>43530</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>43535</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>43538</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>43539</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>43551</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>43552</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>43556</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>43559</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>43560</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>43560</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>43562</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>43563</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>43567</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>43570</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>43570</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>43580</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>43580</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>43581</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8059,7 +8059,7 @@
         <v>43598</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8116,7 +8116,7 @@
         <v>43598</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8173,7 +8173,7 @@
         <v>43606</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8230,7 +8230,7 @@
         <v>43607</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8287,7 +8287,7 @@
         <v>43608</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8344,7 +8344,7 @@
         <v>43609</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8401,7 +8401,7 @@
         <v>43615</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8458,7 +8458,7 @@
         <v>43628</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         <v>43633</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>43636</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8634,7 +8634,7 @@
         <v>43641</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8691,7 +8691,7 @@
         <v>43641</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8753,7 +8753,7 @@
         <v>43644</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8810,7 +8810,7 @@
         <v>43651</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8867,7 +8867,7 @@
         <v>43651</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8924,7 +8924,7 @@
         <v>43654</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8986,7 +8986,7 @@
         <v>43656</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9048,7 +9048,7 @@
         <v>43676</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9105,7 +9105,7 @@
         <v>43689</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9162,7 +9162,7 @@
         <v>43689</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9219,7 +9219,7 @@
         <v>43696</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9276,7 +9276,7 @@
         <v>43697</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         <v>43705</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9390,7 +9390,7 @@
         <v>43705</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         <v>43710</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>43710</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>43711</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9618,7 +9618,7 @@
         <v>43713</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9675,7 +9675,7 @@
         <v>43717</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9732,7 +9732,7 @@
         <v>43719</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9789,7 +9789,7 @@
         <v>43719</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9846,7 +9846,7 @@
         <v>43725</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9903,7 +9903,7 @@
         <v>43731</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9965,7 +9965,7 @@
         <v>43731</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         <v>43735</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10084,7 +10084,7 @@
         <v>43735</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10141,7 +10141,7 @@
         <v>43735</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10198,7 +10198,7 @@
         <v>43737</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10255,7 +10255,7 @@
         <v>43738</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10312,7 +10312,7 @@
         <v>43740</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10369,7 +10369,7 @@
         <v>43741</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10426,7 +10426,7 @@
         <v>43742</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>43745</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10545,7 +10545,7 @@
         <v>43745</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>43747</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
         <v>43749</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10726,7 +10726,7 @@
         <v>43749</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10783,7 +10783,7 @@
         <v>43754</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10840,7 +10840,7 @@
         <v>43766</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10897,7 +10897,7 @@
         <v>43766</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10974,7 +10974,7 @@
         <v>43768</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11031,7 +11031,7 @@
         <v>43775</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11088,7 +11088,7 @@
         <v>43781</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>43782</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>43783</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>43783</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>43787</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>43787</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>43787</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>43794</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11549,7 +11549,7 @@
         <v>43797</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11606,7 +11606,7 @@
         <v>43802</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11663,7 +11663,7 @@
         <v>43808</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11720,7 +11720,7 @@
         <v>43817</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11777,7 +11777,7 @@
         <v>43818</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11834,7 +11834,7 @@
         <v>43843</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11891,7 +11891,7 @@
         <v>43844</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11948,7 +11948,7 @@
         <v>43845</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>43846</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>43847</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>43852</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12176,7 +12176,7 @@
         <v>43852</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12238,7 +12238,7 @@
         <v>43858</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12300,7 +12300,7 @@
         <v>43860</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12357,7 +12357,7 @@
         <v>43861</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12414,7 +12414,7 @@
         <v>43863</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12471,7 +12471,7 @@
         <v>43864</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12533,7 +12533,7 @@
         <v>43864</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12590,7 +12590,7 @@
         <v>43866</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
         <v>43867</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12704,7 +12704,7 @@
         <v>43867</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12761,7 +12761,7 @@
         <v>43871</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12818,7 +12818,7 @@
         <v>43871</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>43882</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>43882</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>43891</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>43891</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13103,7 +13103,7 @@
         <v>43891</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13160,7 +13160,7 @@
         <v>43891</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
         <v>43901</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13279,7 +13279,7 @@
         <v>43901</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13336,7 +13336,7 @@
         <v>43901</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13398,7 +13398,7 @@
         <v>43901</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13455,7 +13455,7 @@
         <v>43906</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13512,7 +13512,7 @@
         <v>43909</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13569,7 +13569,7 @@
         <v>43909</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13626,7 +13626,7 @@
         <v>43909</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13683,7 +13683,7 @@
         <v>43909</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13740,7 +13740,7 @@
         <v>43913</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13797,7 +13797,7 @@
         <v>43915</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13854,7 +13854,7 @@
         <v>43916</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13911,7 +13911,7 @@
         <v>43920</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13968,7 +13968,7 @@
         <v>43920</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14025,7 +14025,7 @@
         <v>43943</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14082,7 +14082,7 @@
         <v>43944</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14139,7 +14139,7 @@
         <v>43950</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14196,7 +14196,7 @@
         <v>43950</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14253,7 +14253,7 @@
         <v>43956</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14310,7 +14310,7 @@
         <v>43958</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14367,7 +14367,7 @@
         <v>43959</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14424,7 +14424,7 @@
         <v>43959</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14486,7 +14486,7 @@
         <v>43962</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14543,7 +14543,7 @@
         <v>43963</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14600,7 +14600,7 @@
         <v>43983</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14657,7 +14657,7 @@
         <v>43983</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14714,7 +14714,7 @@
         <v>43984</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14776,7 +14776,7 @@
         <v>43987</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14833,7 +14833,7 @@
         <v>44007</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14890,7 +14890,7 @@
         <v>44013</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14947,7 +14947,7 @@
         <v>44021</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15004,7 +15004,7 @@
         <v>44025</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15061,7 +15061,7 @@
         <v>44026</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15118,7 +15118,7 @@
         <v>44035</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15175,7 +15175,7 @@
         <v>44035</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15232,7 +15232,7 @@
         <v>44048</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
         <v>44048</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         <v>44053</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15408,7 +15408,7 @@
         <v>44070</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15465,7 +15465,7 @@
         <v>44089</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15522,7 +15522,7 @@
         <v>44089</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15579,7 +15579,7 @@
         <v>44095</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15636,7 +15636,7 @@
         <v>44097</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15698,7 +15698,7 @@
         <v>44098</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15755,7 +15755,7 @@
         <v>44102</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15812,7 +15812,7 @@
         <v>44103</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15869,7 +15869,7 @@
         <v>44110</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15926,7 +15926,7 @@
         <v>44110</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15983,7 +15983,7 @@
         <v>44117</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16040,7 +16040,7 @@
         <v>44117</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16097,7 +16097,7 @@
         <v>44127</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16154,7 +16154,7 @@
         <v>44134</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16211,7 +16211,7 @@
         <v>44151</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16268,7 +16268,7 @@
         <v>44158</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16325,7 +16325,7 @@
         <v>44160</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16382,7 +16382,7 @@
         <v>44161</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16439,7 +16439,7 @@
         <v>44188</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16496,7 +16496,7 @@
         <v>44193</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16553,7 +16553,7 @@
         <v>44204</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16610,7 +16610,7 @@
         <v>44225</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16667,7 +16667,7 @@
         <v>44228</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16724,7 +16724,7 @@
         <v>44231</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16781,7 +16781,7 @@
         <v>44232</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16838,7 +16838,7 @@
         <v>44232</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16895,7 +16895,7 @@
         <v>44233</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16952,7 +16952,7 @@
         <v>44235</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17009,7 +17009,7 @@
         <v>44238</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17066,7 +17066,7 @@
         <v>44238</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17123,7 +17123,7 @@
         <v>44238</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17180,7 +17180,7 @@
         <v>44242</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17237,7 +17237,7 @@
         <v>44249</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17294,7 +17294,7 @@
         <v>44259</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17351,7 +17351,7 @@
         <v>44263</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17408,7 +17408,7 @@
         <v>44264</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17470,7 +17470,7 @@
         <v>44272</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17527,7 +17527,7 @@
         <v>44272</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17584,7 +17584,7 @@
         <v>44272</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
         <v>44278</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17698,7 +17698,7 @@
         <v>44279</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17760,7 +17760,7 @@
         <v>44280</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17817,7 +17817,7 @@
         <v>44285</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17874,7 +17874,7 @@
         <v>44285</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17931,7 +17931,7 @@
         <v>44287</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>44292</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         <v>44293</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>44299</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18159,7 +18159,7 @@
         <v>44300</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18216,7 +18216,7 @@
         <v>44308</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18273,7 +18273,7 @@
         <v>44308</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18335,7 +18335,7 @@
         <v>44309</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18392,7 +18392,7 @@
         <v>44314</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18454,7 +18454,7 @@
         <v>44315</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18511,7 +18511,7 @@
         <v>44334</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>44342</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18630,7 +18630,7 @@
         <v>44349</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18687,7 +18687,7 @@
         <v>44354</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18744,7 +18744,7 @@
         <v>44360</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18801,7 +18801,7 @@
         <v>44362</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18863,7 +18863,7 @@
         <v>44364</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18925,7 +18925,7 @@
         <v>44368</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18987,7 +18987,7 @@
         <v>44368</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19044,7 +19044,7 @@
         <v>44370</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         <v>44371</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19168,7 +19168,7 @@
         <v>44389</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19225,7 +19225,7 @@
         <v>44390</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19287,7 +19287,7 @@
         <v>44391</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19344,7 +19344,7 @@
         <v>44404</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19401,7 +19401,7 @@
         <v>44404</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19458,7 +19458,7 @@
         <v>44404</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19515,7 +19515,7 @@
         <v>44404</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19572,7 +19572,7 @@
         <v>44405</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19629,7 +19629,7 @@
         <v>44411</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19686,7 +19686,7 @@
         <v>44418</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19743,7 +19743,7 @@
         <v>44431</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19800,7 +19800,7 @@
         <v>44431</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19857,7 +19857,7 @@
         <v>44431</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19914,7 +19914,7 @@
         <v>44435</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19971,7 +19971,7 @@
         <v>44445</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20028,7 +20028,7 @@
         <v>44459</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20085,7 +20085,7 @@
         <v>44459</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20142,7 +20142,7 @@
         <v>44466</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20199,7 +20199,7 @@
         <v>44467</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20256,7 +20256,7 @@
         <v>44470</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20318,7 +20318,7 @@
         <v>44470</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20380,7 +20380,7 @@
         <v>44477</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20437,7 +20437,7 @@
         <v>44477</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20499,7 +20499,7 @@
         <v>44480</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20556,7 +20556,7 @@
         <v>44480</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20613,7 +20613,7 @@
         <v>44491</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20670,7 +20670,7 @@
         <v>44495</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20727,7 +20727,7 @@
         <v>44508</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20784,7 +20784,7 @@
         <v>44509</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20841,7 +20841,7 @@
         <v>44509</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20898,7 +20898,7 @@
         <v>44509</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20955,7 +20955,7 @@
         <v>44511</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21012,7 +21012,7 @@
         <v>44512</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21074,7 +21074,7 @@
         <v>44516</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21131,7 +21131,7 @@
         <v>44516</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         <v>44519</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21250,7 +21250,7 @@
         <v>44519</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21312,7 +21312,7 @@
         <v>44519</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21374,7 +21374,7 @@
         <v>44522</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21431,7 +21431,7 @@
         <v>44524</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21488,7 +21488,7 @@
         <v>44529</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21545,7 +21545,7 @@
         <v>44529</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21602,7 +21602,7 @@
         <v>44531</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21659,7 +21659,7 @@
         <v>44532</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21716,7 +21716,7 @@
         <v>44533</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21773,7 +21773,7 @@
         <v>44533</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21830,7 +21830,7 @@
         <v>44538</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21887,7 +21887,7 @@
         <v>44543</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21944,7 +21944,7 @@
         <v>44544</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22001,7 +22001,7 @@
         <v>44545</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22058,7 +22058,7 @@
         <v>44550</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22115,7 +22115,7 @@
         <v>44551</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22172,7 +22172,7 @@
         <v>44552</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22229,7 +22229,7 @@
         <v>44565</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22286,7 +22286,7 @@
         <v>44568</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22343,7 +22343,7 @@
         <v>44573</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22400,7 +22400,7 @@
         <v>44573</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22462,7 +22462,7 @@
         <v>44574</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22519,7 +22519,7 @@
         <v>44574</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22576,7 +22576,7 @@
         <v>44574</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22633,7 +22633,7 @@
         <v>44578</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22695,7 +22695,7 @@
         <v>44578</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22752,7 +22752,7 @@
         <v>44585</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22809,7 +22809,7 @@
         <v>44586</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         <v>44587</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22923,7 +22923,7 @@
         <v>44594</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22980,7 +22980,7 @@
         <v>44595</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23037,7 +23037,7 @@
         <v>44599</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23094,7 +23094,7 @@
         <v>44601</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23151,7 +23151,7 @@
         <v>44614</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23208,7 +23208,7 @@
         <v>44616</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23265,7 +23265,7 @@
         <v>44620</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23322,7 +23322,7 @@
         <v>44624</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23379,7 +23379,7 @@
         <v>44624</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23436,7 +23436,7 @@
         <v>44644</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23493,7 +23493,7 @@
         <v>44659</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23550,7 +23550,7 @@
         <v>44662</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23612,7 +23612,7 @@
         <v>44662</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23674,7 +23674,7 @@
         <v>44673</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23736,7 +23736,7 @@
         <v>44684</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23798,7 +23798,7 @@
         <v>44685</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23855,7 +23855,7 @@
         <v>44691</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23912,7 +23912,7 @@
         <v>44694</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23969,7 +23969,7 @@
         <v>44694</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24031,7 +24031,7 @@
         <v>44694</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24088,7 +24088,7 @@
         <v>44694</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24150,7 +24150,7 @@
         <v>44697</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24212,7 +24212,7 @@
         <v>44701</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24274,7 +24274,7 @@
         <v>44711</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24331,7 +24331,7 @@
         <v>44711</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24388,7 +24388,7 @@
         <v>44712</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24445,7 +24445,7 @@
         <v>44713</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24507,7 +24507,7 @@
         <v>44715</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24564,7 +24564,7 @@
         <v>44723</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24621,7 +24621,7 @@
         <v>44732</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24678,7 +24678,7 @@
         <v>44733</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24740,7 +24740,7 @@
         <v>44734</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24797,7 +24797,7 @@
         <v>44735</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24854,7 +24854,7 @@
         <v>44739</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24911,7 +24911,7 @@
         <v>44748</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24968,7 +24968,7 @@
         <v>44753</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25025,7 +25025,7 @@
         <v>44754</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25087,7 +25087,7 @@
         <v>44754</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25144,7 +25144,7 @@
         <v>44769</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25201,7 +25201,7 @@
         <v>44788</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25258,7 +25258,7 @@
         <v>44790</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25315,7 +25315,7 @@
         <v>44791</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25372,7 +25372,7 @@
         <v>44792</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25429,7 +25429,7 @@
         <v>44802</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25486,7 +25486,7 @@
         <v>44810</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25548,7 +25548,7 @@
         <v>44810</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25610,7 +25610,7 @@
         <v>44810</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25672,7 +25672,7 @@
         <v>44820</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25729,7 +25729,7 @@
         <v>44820</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25791,7 +25791,7 @@
         <v>44820</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25853,7 +25853,7 @@
         <v>44823</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25910,7 +25910,7 @@
         <v>44823</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25972,7 +25972,7 @@
         <v>44824</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26034,7 +26034,7 @@
         <v>44826</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26091,7 +26091,7 @@
         <v>44827</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26148,7 +26148,7 @@
         <v>44832</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26205,7 +26205,7 @@
         <v>44833</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26262,7 +26262,7 @@
         <v>44838</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26319,7 +26319,7 @@
         <v>44840</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26381,7 +26381,7 @@
         <v>44844</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26438,7 +26438,7 @@
         <v>44847</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26495,7 +26495,7 @@
         <v>44847</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26552,7 +26552,7 @@
         <v>44853</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26609,7 +26609,7 @@
         <v>44862</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26666,7 +26666,7 @@
         <v>44872</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26728,7 +26728,7 @@
         <v>44875</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26785,7 +26785,7 @@
         <v>44875</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26842,7 +26842,7 @@
         <v>44886</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26899,7 +26899,7 @@
         <v>44886</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26956,7 +26956,7 @@
         <v>44887</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27013,7 +27013,7 @@
         <v>44888</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27075,7 +27075,7 @@
         <v>44888</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27157,7 +27157,7 @@
         <v>44901</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27214,7 +27214,7 @@
         <v>44903</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27271,7 +27271,7 @@
         <v>44907</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27328,7 +27328,7 @@
         <v>44909</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27390,7 +27390,7 @@
         <v>44909</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27452,7 +27452,7 @@
         <v>44910</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27514,7 +27514,7 @@
         <v>44911</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27571,7 +27571,7 @@
         <v>44913</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27628,7 +27628,7 @@
         <v>44914</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27685,7 +27685,7 @@
         <v>44914</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27742,7 +27742,7 @@
         <v>44916</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27799,7 +27799,7 @@
         <v>44917</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27856,7 +27856,7 @@
         <v>44917</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27913,7 +27913,7 @@
         <v>44939</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27970,7 +27970,7 @@
         <v>44944</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28027,7 +28027,7 @@
         <v>44944</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28084,7 +28084,7 @@
         <v>44946</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28141,7 +28141,7 @@
         <v>44950</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28198,7 +28198,7 @@
         <v>44951</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28255,7 +28255,7 @@
         <v>44956</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28317,7 +28317,7 @@
         <v>44974</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28374,7 +28374,7 @@
         <v>44974</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28431,7 +28431,7 @@
         <v>44974</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28488,7 +28488,7 @@
         <v>44978</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28545,7 +28545,7 @@
         <v>44980</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28602,7 +28602,7 @@
         <v>44981</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28659,7 +28659,7 @@
         <v>44981</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28716,7 +28716,7 @@
         <v>44981</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28773,7 +28773,7 @@
         <v>44984</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28830,7 +28830,7 @@
         <v>44984</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28892,7 +28892,7 @@
         <v>44984</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28949,7 +28949,7 @@
         <v>44987</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29006,7 +29006,7 @@
         <v>44993</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29063,7 +29063,7 @@
         <v>44999</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29125,7 +29125,7 @@
         <v>45000</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29182,7 +29182,7 @@
         <v>45005</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29244,7 +29244,7 @@
         <v>45006</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29301,7 +29301,7 @@
         <v>45006</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29358,7 +29358,7 @@
         <v>45008</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29415,7 +29415,7 @@
         <v>45008</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29472,7 +29472,7 @@
         <v>45013</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29529,7 +29529,7 @@
         <v>45019</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29586,7 +29586,7 @@
         <v>45019</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29643,7 +29643,7 @@
         <v>45020</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29700,7 +29700,7 @@
         <v>45022</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29762,7 +29762,7 @@
         <v>45022</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29824,7 +29824,7 @@
         <v>45027</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29881,7 +29881,7 @@
         <v>45029</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29938,7 +29938,7 @@
         <v>45030</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29995,7 +29995,7 @@
         <v>45035</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30052,7 +30052,7 @@
         <v>45043</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30109,7 +30109,7 @@
         <v>45043</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30166,7 +30166,7 @@
         <v>45044</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30223,7 +30223,7 @@
         <v>45050</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30285,7 +30285,7 @@
         <v>45050</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30347,7 +30347,7 @@
         <v>45050</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30409,7 +30409,7 @@
         <v>45050</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30471,7 +30471,7 @@
         <v>45050</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30533,7 +30533,7 @@
         <v>45050</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30595,7 +30595,7 @@
         <v>45050</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30677,7 +30677,7 @@
         <v>45058</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30739,7 +30739,7 @@
         <v>45058</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30801,7 +30801,7 @@
         <v>45058</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30863,7 +30863,7 @@
         <v>45058</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30925,7 +30925,7 @@
         <v>45062</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30982,7 +30982,7 @@
         <v>45062</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31039,7 +31039,7 @@
         <v>45065</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31096,7 +31096,7 @@
         <v>45068</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31153,7 +31153,7 @@
         <v>45068</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31215,7 +31215,7 @@
         <v>45071</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31272,7 +31272,7 @@
         <v>45071</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31329,7 +31329,7 @@
         <v>45075</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31386,7 +31386,7 @@
         <v>45082</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31443,7 +31443,7 @@
         <v>45082</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31500,7 +31500,7 @@
         <v>45083</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31557,7 +31557,7 @@
         <v>45083</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31614,7 +31614,7 @@
         <v>45083</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31671,7 +31671,7 @@
         <v>45083</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31728,7 +31728,7 @@
         <v>45086</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31785,7 +31785,7 @@
         <v>45089</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31842,7 +31842,7 @@
         <v>45089</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31899,7 +31899,7 @@
         <v>45090</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31961,7 +31961,7 @@
         <v>45091</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32018,7 +32018,7 @@
         <v>45091</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32080,7 +32080,7 @@
         <v>45091</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32142,7 +32142,7 @@
         <v>45092</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32199,7 +32199,7 @@
         <v>45092</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32256,7 +32256,7 @@
         <v>45092</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32313,7 +32313,7 @@
         <v>45092</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32375,7 +32375,7 @@
         <v>45092</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32432,7 +32432,7 @@
         <v>45098</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32489,7 +32489,7 @@
         <v>45099</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32546,7 +32546,7 @@
         <v>45103</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32608,7 +32608,7 @@
         <v>45103</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32665,7 +32665,7 @@
         <v>45103</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32727,7 +32727,7 @@
         <v>45105</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32784,7 +32784,7 @@
         <v>45111</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32841,7 +32841,7 @@
         <v>45112</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32903,7 +32903,7 @@
         <v>45113</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32965,7 +32965,7 @@
         <v>45113</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33022,7 +33022,7 @@
         <v>45114</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33079,7 +33079,7 @@
         <v>45117</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33136,7 +33136,7 @@
         <v>45117</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33193,7 +33193,7 @@
         <v>45117</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33270,7 +33270,7 @@
         <v>45117</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33327,7 +33327,7 @@
         <v>45117</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33384,7 +33384,7 @@
         <v>45117</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33441,7 +33441,7 @@
         <v>45117</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33498,7 +33498,7 @@
         <v>45118</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33555,7 +33555,7 @@
         <v>45119</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33617,7 +33617,7 @@
         <v>45120</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33674,7 +33674,7 @@
         <v>45126</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33731,7 +33731,7 @@
         <v>45131</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33788,7 +33788,7 @@
         <v>45133</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33845,7 +33845,7 @@
         <v>45135</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33902,7 +33902,7 @@
         <v>45166</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33959,7 +33959,7 @@
         <v>45166</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34016,7 +34016,7 @@
         <v>45168</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34078,7 +34078,7 @@
         <v>45168</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>

--- a/Översikt HEBY.xlsx
+++ b/Översikt HEBY.xlsx
@@ -572,7 +572,7 @@
         <v>44914</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>43515</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>43805</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -854,7 +854,7 @@
         <v>43689</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>44824</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1047,7 +1047,7 @@
         <v>44914</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
         <v>44915</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>45117</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>43529</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         <v>44489</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         <v>44670</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         <v>44832</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         <v>45153</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>44049</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1865,7 +1865,7 @@
         <v>44712</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1951,7 +1951,7 @@
         <v>44889</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>44895</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>45014</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         <v>45092</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2381,7 +2381,7 @@
         <v>45124</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         <v>43523</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>43559</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>43851</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
         <v>43853</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2807,7 +2807,7 @@
         <v>43901</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2897,7 +2897,7 @@
         <v>44002</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2986,7 +2986,7 @@
         <v>44161</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3071,7 +3071,7 @@
         <v>44376</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         <v>44395</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>44568</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3330,7 +3330,7 @@
         <v>44609</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3415,7 +3415,7 @@
         <v>44805</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3500,7 +3500,7 @@
         <v>44847</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         <v>45020</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>45035</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>45037</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>45093</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>45098</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>45111</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>45120</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4188,7 +4188,7 @@
         <v>45120</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>45120</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4358,7 +4358,7 @@
         <v>45133</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4443,7 +4443,7 @@
         <v>43342</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4505,7 +4505,7 @@
         <v>43349</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>43374</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>43409</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>43413</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         <v>43416</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         <v>43418</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>43419</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>43423</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>43430</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         <v>43430</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5080,7 +5080,7 @@
         <v>43430</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5137,7 +5137,7 @@
         <v>43432</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5194,7 +5194,7 @@
         <v>43437</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5251,7 +5251,7 @@
         <v>43438</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5308,7 +5308,7 @@
         <v>43440</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>43447</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5422,7 +5422,7 @@
         <v>43452</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>43454</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>43454</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>43454</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5650,7 +5650,7 @@
         <v>43455</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>43455</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5764,7 +5764,7 @@
         <v>43461</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5821,7 +5821,7 @@
         <v>43461</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         <v>43468</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5935,7 +5935,7 @@
         <v>43480</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>43480</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6049,7 +6049,7 @@
         <v>43482</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6106,7 +6106,7 @@
         <v>43488</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>43500</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>43501</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6277,7 +6277,7 @@
         <v>43502</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6334,7 +6334,7 @@
         <v>43503</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
         <v>43511</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>43511</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>43515</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6567,7 +6567,7 @@
         <v>43521</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6624,7 +6624,7 @@
         <v>43522</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6681,7 +6681,7 @@
         <v>43525</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6738,7 +6738,7 @@
         <v>43528</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6795,7 +6795,7 @@
         <v>43528</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6852,7 +6852,7 @@
         <v>43529</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>43529</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>43530</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>43530</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>43535</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>43538</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>43539</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>43551</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>43552</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>43556</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>43559</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>43560</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>43560</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>43562</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>43563</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>43567</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>43570</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>43570</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>43580</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>43580</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>43581</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8059,7 +8059,7 @@
         <v>43598</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8116,7 +8116,7 @@
         <v>43598</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8173,7 +8173,7 @@
         <v>43606</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8230,7 +8230,7 @@
         <v>43607</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8287,7 +8287,7 @@
         <v>43608</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8344,7 +8344,7 @@
         <v>43609</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8401,7 +8401,7 @@
         <v>43615</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8458,7 +8458,7 @@
         <v>43628</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         <v>43633</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>43636</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8634,7 +8634,7 @@
         <v>43641</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8691,7 +8691,7 @@
         <v>43641</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8753,7 +8753,7 @@
         <v>43644</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8810,7 +8810,7 @@
         <v>43651</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8867,7 +8867,7 @@
         <v>43651</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8924,7 +8924,7 @@
         <v>43654</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8986,7 +8986,7 @@
         <v>43656</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9048,7 +9048,7 @@
         <v>43676</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9105,7 +9105,7 @@
         <v>43689</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9162,7 +9162,7 @@
         <v>43689</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9219,7 +9219,7 @@
         <v>43696</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9276,7 +9276,7 @@
         <v>43697</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         <v>43705</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9390,7 +9390,7 @@
         <v>43705</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         <v>43710</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>43710</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>43711</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9618,7 +9618,7 @@
         <v>43713</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9675,7 +9675,7 @@
         <v>43717</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9732,7 +9732,7 @@
         <v>43719</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9789,7 +9789,7 @@
         <v>43719</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9846,7 +9846,7 @@
         <v>43725</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9903,7 +9903,7 @@
         <v>43731</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9965,7 +9965,7 @@
         <v>43731</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         <v>43735</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10084,7 +10084,7 @@
         <v>43735</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10141,7 +10141,7 @@
         <v>43735</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10198,7 +10198,7 @@
         <v>43737</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10255,7 +10255,7 @@
         <v>43738</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10312,7 +10312,7 @@
         <v>43740</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10369,7 +10369,7 @@
         <v>43741</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10426,7 +10426,7 @@
         <v>43742</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>43745</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10545,7 +10545,7 @@
         <v>43745</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>43747</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
         <v>43749</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10726,7 +10726,7 @@
         <v>43749</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10783,7 +10783,7 @@
         <v>43754</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10840,7 +10840,7 @@
         <v>43766</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10897,7 +10897,7 @@
         <v>43766</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10974,7 +10974,7 @@
         <v>43768</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11031,7 +11031,7 @@
         <v>43775</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11088,7 +11088,7 @@
         <v>43781</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>43782</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>43783</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>43783</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>43787</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>43787</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>43787</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>43794</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11549,7 +11549,7 @@
         <v>43797</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11606,7 +11606,7 @@
         <v>43802</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11663,7 +11663,7 @@
         <v>43808</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11720,7 +11720,7 @@
         <v>43817</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11777,7 +11777,7 @@
         <v>43818</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11834,7 +11834,7 @@
         <v>43843</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11891,7 +11891,7 @@
         <v>43844</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11948,7 +11948,7 @@
         <v>43845</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>43846</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>43847</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>43852</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12176,7 +12176,7 @@
         <v>43852</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12238,7 +12238,7 @@
         <v>43858</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12300,7 +12300,7 @@
         <v>43860</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12357,7 +12357,7 @@
         <v>43861</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12414,7 +12414,7 @@
         <v>43863</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12471,7 +12471,7 @@
         <v>43864</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12533,7 +12533,7 @@
         <v>43864</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12590,7 +12590,7 @@
         <v>43866</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
         <v>43867</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12704,7 +12704,7 @@
         <v>43867</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12761,7 +12761,7 @@
         <v>43871</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12818,7 +12818,7 @@
         <v>43871</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>43882</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>43882</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>43891</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>43891</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13103,7 +13103,7 @@
         <v>43891</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13160,7 +13160,7 @@
         <v>43891</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
         <v>43901</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13279,7 +13279,7 @@
         <v>43901</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13336,7 +13336,7 @@
         <v>43901</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13398,7 +13398,7 @@
         <v>43901</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13455,7 +13455,7 @@
         <v>43906</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13512,7 +13512,7 @@
         <v>43909</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13569,7 +13569,7 @@
         <v>43909</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13626,7 +13626,7 @@
         <v>43909</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13683,7 +13683,7 @@
         <v>43909</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13740,7 +13740,7 @@
         <v>43913</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13797,7 +13797,7 @@
         <v>43915</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13854,7 +13854,7 @@
         <v>43916</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13911,7 +13911,7 @@
         <v>43920</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13968,7 +13968,7 @@
         <v>43920</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14025,7 +14025,7 @@
         <v>43943</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14082,7 +14082,7 @@
         <v>43944</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14139,7 +14139,7 @@
         <v>43950</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14196,7 +14196,7 @@
         <v>43950</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14253,7 +14253,7 @@
         <v>43956</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14310,7 +14310,7 @@
         <v>43958</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14367,7 +14367,7 @@
         <v>43959</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14424,7 +14424,7 @@
         <v>43959</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14486,7 +14486,7 @@
         <v>43962</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14543,7 +14543,7 @@
         <v>43963</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14600,7 +14600,7 @@
         <v>43983</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14657,7 +14657,7 @@
         <v>43983</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14714,7 +14714,7 @@
         <v>43984</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14776,7 +14776,7 @@
         <v>43987</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14833,7 +14833,7 @@
         <v>44007</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14890,7 +14890,7 @@
         <v>44013</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14947,7 +14947,7 @@
         <v>44021</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15004,7 +15004,7 @@
         <v>44025</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15061,7 +15061,7 @@
         <v>44026</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15118,7 +15118,7 @@
         <v>44035</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15175,7 +15175,7 @@
         <v>44035</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15232,7 +15232,7 @@
         <v>44048</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
         <v>44048</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         <v>44053</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15408,7 +15408,7 @@
         <v>44070</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15465,7 +15465,7 @@
         <v>44089</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15522,7 +15522,7 @@
         <v>44089</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15579,7 +15579,7 @@
         <v>44095</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15636,7 +15636,7 @@
         <v>44097</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15698,7 +15698,7 @@
         <v>44098</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15755,7 +15755,7 @@
         <v>44102</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15812,7 +15812,7 @@
         <v>44103</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15869,7 +15869,7 @@
         <v>44110</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15926,7 +15926,7 @@
         <v>44110</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15983,7 +15983,7 @@
         <v>44117</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16040,7 +16040,7 @@
         <v>44117</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16097,7 +16097,7 @@
         <v>44127</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16154,7 +16154,7 @@
         <v>44134</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16211,7 +16211,7 @@
         <v>44151</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16268,7 +16268,7 @@
         <v>44158</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16325,7 +16325,7 @@
         <v>44160</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16382,7 +16382,7 @@
         <v>44161</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16439,7 +16439,7 @@
         <v>44188</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16496,7 +16496,7 @@
         <v>44193</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16553,7 +16553,7 @@
         <v>44204</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16610,7 +16610,7 @@
         <v>44225</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16667,7 +16667,7 @@
         <v>44228</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16724,7 +16724,7 @@
         <v>44231</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16781,7 +16781,7 @@
         <v>44232</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16838,7 +16838,7 @@
         <v>44232</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16895,7 +16895,7 @@
         <v>44233</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16952,7 +16952,7 @@
         <v>44235</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17009,7 +17009,7 @@
         <v>44238</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17066,7 +17066,7 @@
         <v>44238</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17123,7 +17123,7 @@
         <v>44238</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17180,7 +17180,7 @@
         <v>44242</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17237,7 +17237,7 @@
         <v>44249</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17294,7 +17294,7 @@
         <v>44259</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17351,7 +17351,7 @@
         <v>44263</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17408,7 +17408,7 @@
         <v>44264</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17470,7 +17470,7 @@
         <v>44272</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17527,7 +17527,7 @@
         <v>44272</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17584,7 +17584,7 @@
         <v>44272</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
         <v>44278</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17698,7 +17698,7 @@
         <v>44279</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17760,7 +17760,7 @@
         <v>44280</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17817,7 +17817,7 @@
         <v>44285</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17874,7 +17874,7 @@
         <v>44285</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17931,7 +17931,7 @@
         <v>44287</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>44292</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         <v>44293</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>44299</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18159,7 +18159,7 @@
         <v>44300</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18216,7 +18216,7 @@
         <v>44308</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18273,7 +18273,7 @@
         <v>44308</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18335,7 +18335,7 @@
         <v>44309</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18392,7 +18392,7 @@
         <v>44314</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18454,7 +18454,7 @@
         <v>44315</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18511,7 +18511,7 @@
         <v>44334</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>44342</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18630,7 +18630,7 @@
         <v>44349</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18687,7 +18687,7 @@
         <v>44354</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18744,7 +18744,7 @@
         <v>44360</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18801,7 +18801,7 @@
         <v>44362</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18863,7 +18863,7 @@
         <v>44364</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18925,7 +18925,7 @@
         <v>44368</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18987,7 +18987,7 @@
         <v>44368</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19044,7 +19044,7 @@
         <v>44370</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         <v>44371</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19168,7 +19168,7 @@
         <v>44389</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19225,7 +19225,7 @@
         <v>44390</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19287,7 +19287,7 @@
         <v>44391</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19344,7 +19344,7 @@
         <v>44404</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19401,7 +19401,7 @@
         <v>44404</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19458,7 +19458,7 @@
         <v>44404</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19515,7 +19515,7 @@
         <v>44404</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19572,7 +19572,7 @@
         <v>44405</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19629,7 +19629,7 @@
         <v>44411</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19686,7 +19686,7 @@
         <v>44418</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19743,7 +19743,7 @@
         <v>44431</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19800,7 +19800,7 @@
         <v>44431</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19857,7 +19857,7 @@
         <v>44431</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19914,7 +19914,7 @@
         <v>44435</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19971,7 +19971,7 @@
         <v>44445</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20028,7 +20028,7 @@
         <v>44459</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20085,7 +20085,7 @@
         <v>44459</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20142,7 +20142,7 @@
         <v>44466</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20199,7 +20199,7 @@
         <v>44467</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20256,7 +20256,7 @@
         <v>44470</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20318,7 +20318,7 @@
         <v>44470</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20380,7 +20380,7 @@
         <v>44477</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20437,7 +20437,7 @@
         <v>44477</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20499,7 +20499,7 @@
         <v>44480</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20556,7 +20556,7 @@
         <v>44480</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20613,7 +20613,7 @@
         <v>44491</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20670,7 +20670,7 @@
         <v>44495</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20727,7 +20727,7 @@
         <v>44508</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20784,7 +20784,7 @@
         <v>44509</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20841,7 +20841,7 @@
         <v>44509</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20898,7 +20898,7 @@
         <v>44509</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20955,7 +20955,7 @@
         <v>44511</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21012,7 +21012,7 @@
         <v>44512</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21074,7 +21074,7 @@
         <v>44516</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21131,7 +21131,7 @@
         <v>44516</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         <v>44519</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21250,7 +21250,7 @@
         <v>44519</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21312,7 +21312,7 @@
         <v>44519</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21374,7 +21374,7 @@
         <v>44522</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21431,7 +21431,7 @@
         <v>44524</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21488,7 +21488,7 @@
         <v>44529</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21545,7 +21545,7 @@
         <v>44529</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21602,7 +21602,7 @@
         <v>44531</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21659,7 +21659,7 @@
         <v>44532</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21716,7 +21716,7 @@
         <v>44533</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21773,7 +21773,7 @@
         <v>44533</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21830,7 +21830,7 @@
         <v>44538</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21887,7 +21887,7 @@
         <v>44543</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21944,7 +21944,7 @@
         <v>44544</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22001,7 +22001,7 @@
         <v>44545</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22058,7 +22058,7 @@
         <v>44550</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22115,7 +22115,7 @@
         <v>44551</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22172,7 +22172,7 @@
         <v>44552</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22229,7 +22229,7 @@
         <v>44565</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22286,7 +22286,7 @@
         <v>44568</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22343,7 +22343,7 @@
         <v>44573</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22400,7 +22400,7 @@
         <v>44573</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22462,7 +22462,7 @@
         <v>44574</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22519,7 +22519,7 @@
         <v>44574</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22576,7 +22576,7 @@
         <v>44574</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22633,7 +22633,7 @@
         <v>44578</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22695,7 +22695,7 @@
         <v>44578</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22752,7 +22752,7 @@
         <v>44585</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22809,7 +22809,7 @@
         <v>44586</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         <v>44587</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22923,7 +22923,7 @@
         <v>44594</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22980,7 +22980,7 @@
         <v>44595</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23037,7 +23037,7 @@
         <v>44599</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23094,7 +23094,7 @@
         <v>44601</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23151,7 +23151,7 @@
         <v>44614</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23208,7 +23208,7 @@
         <v>44616</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23265,7 +23265,7 @@
         <v>44620</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23322,7 +23322,7 @@
         <v>44624</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23379,7 +23379,7 @@
         <v>44624</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23436,7 +23436,7 @@
         <v>44644</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23493,7 +23493,7 @@
         <v>44659</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23550,7 +23550,7 @@
         <v>44662</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23612,7 +23612,7 @@
         <v>44662</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23674,7 +23674,7 @@
         <v>44673</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23736,7 +23736,7 @@
         <v>44684</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23798,7 +23798,7 @@
         <v>44685</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23855,7 +23855,7 @@
         <v>44691</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23912,7 +23912,7 @@
         <v>44694</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23969,7 +23969,7 @@
         <v>44694</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24031,7 +24031,7 @@
         <v>44694</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24088,7 +24088,7 @@
         <v>44694</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24150,7 +24150,7 @@
         <v>44697</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24212,7 +24212,7 @@
         <v>44701</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24274,7 +24274,7 @@
         <v>44711</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24331,7 +24331,7 @@
         <v>44711</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24388,7 +24388,7 @@
         <v>44712</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24445,7 +24445,7 @@
         <v>44713</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24507,7 +24507,7 @@
         <v>44715</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24564,7 +24564,7 @@
         <v>44723</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24621,7 +24621,7 @@
         <v>44732</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24678,7 +24678,7 @@
         <v>44733</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24740,7 +24740,7 @@
         <v>44734</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24797,7 +24797,7 @@
         <v>44735</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24854,7 +24854,7 @@
         <v>44739</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24911,7 +24911,7 @@
         <v>44748</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24968,7 +24968,7 @@
         <v>44753</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25025,7 +25025,7 @@
         <v>44754</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25087,7 +25087,7 @@
         <v>44754</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25144,7 +25144,7 @@
         <v>44769</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25201,7 +25201,7 @@
         <v>44788</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25258,7 +25258,7 @@
         <v>44790</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25315,7 +25315,7 @@
         <v>44791</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25372,7 +25372,7 @@
         <v>44792</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25429,7 +25429,7 @@
         <v>44802</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25486,7 +25486,7 @@
         <v>44810</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25548,7 +25548,7 @@
         <v>44810</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25610,7 +25610,7 @@
         <v>44810</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25672,7 +25672,7 @@
         <v>44820</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25729,7 +25729,7 @@
         <v>44820</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25791,7 +25791,7 @@
         <v>44820</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25853,7 +25853,7 @@
         <v>44823</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25910,7 +25910,7 @@
         <v>44823</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25972,7 +25972,7 @@
         <v>44824</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26034,7 +26034,7 @@
         <v>44826</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26091,7 +26091,7 @@
         <v>44827</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26148,7 +26148,7 @@
         <v>44832</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26205,7 +26205,7 @@
         <v>44833</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26262,7 +26262,7 @@
         <v>44838</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26319,7 +26319,7 @@
         <v>44840</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26381,7 +26381,7 @@
         <v>44844</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26438,7 +26438,7 @@
         <v>44847</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26495,7 +26495,7 @@
         <v>44847</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26552,7 +26552,7 @@
         <v>44853</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26609,7 +26609,7 @@
         <v>44862</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26666,7 +26666,7 @@
         <v>44872</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26728,7 +26728,7 @@
         <v>44875</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26785,7 +26785,7 @@
         <v>44875</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26842,7 +26842,7 @@
         <v>44886</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26899,7 +26899,7 @@
         <v>44886</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26956,7 +26956,7 @@
         <v>44887</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27013,7 +27013,7 @@
         <v>44888</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27075,7 +27075,7 @@
         <v>44888</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27157,7 +27157,7 @@
         <v>44901</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27214,7 +27214,7 @@
         <v>44903</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27271,7 +27271,7 @@
         <v>44907</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27328,7 +27328,7 @@
         <v>44909</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27390,7 +27390,7 @@
         <v>44909</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27452,7 +27452,7 @@
         <v>44910</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27514,7 +27514,7 @@
         <v>44911</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27571,7 +27571,7 @@
         <v>44913</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27628,7 +27628,7 @@
         <v>44914</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27685,7 +27685,7 @@
         <v>44914</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27742,7 +27742,7 @@
         <v>44916</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27799,7 +27799,7 @@
         <v>44917</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27856,7 +27856,7 @@
         <v>44917</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27913,7 +27913,7 @@
         <v>44939</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27970,7 +27970,7 @@
         <v>44944</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28027,7 +28027,7 @@
         <v>44944</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28084,7 +28084,7 @@
         <v>44946</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28141,7 +28141,7 @@
         <v>44950</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28198,7 +28198,7 @@
         <v>44951</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28255,7 +28255,7 @@
         <v>44956</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28317,7 +28317,7 @@
         <v>44974</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28374,7 +28374,7 @@
         <v>44974</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28431,7 +28431,7 @@
         <v>44974</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28488,7 +28488,7 @@
         <v>44978</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28545,7 +28545,7 @@
         <v>44980</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28602,7 +28602,7 @@
         <v>44981</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28659,7 +28659,7 @@
         <v>44981</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28716,7 +28716,7 @@
         <v>44981</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28773,7 +28773,7 @@
         <v>44984</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28830,7 +28830,7 @@
         <v>44984</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28892,7 +28892,7 @@
         <v>44984</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28949,7 +28949,7 @@
         <v>44987</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29006,7 +29006,7 @@
         <v>44993</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29063,7 +29063,7 @@
         <v>44999</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29125,7 +29125,7 @@
         <v>45000</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29182,7 +29182,7 @@
         <v>45005</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29244,7 +29244,7 @@
         <v>45006</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29301,7 +29301,7 @@
         <v>45006</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29358,7 +29358,7 @@
         <v>45008</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29415,7 +29415,7 @@
         <v>45008</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29472,7 +29472,7 @@
         <v>45013</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29529,7 +29529,7 @@
         <v>45019</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29586,7 +29586,7 @@
         <v>45019</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29643,7 +29643,7 @@
         <v>45020</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29700,7 +29700,7 @@
         <v>45022</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29762,7 +29762,7 @@
         <v>45022</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29824,7 +29824,7 @@
         <v>45027</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29881,7 +29881,7 @@
         <v>45029</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29938,7 +29938,7 @@
         <v>45030</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29995,7 +29995,7 @@
         <v>45035</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30052,7 +30052,7 @@
         <v>45043</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30109,7 +30109,7 @@
         <v>45043</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30166,7 +30166,7 @@
         <v>45044</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30223,7 +30223,7 @@
         <v>45050</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30285,7 +30285,7 @@
         <v>45050</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30347,7 +30347,7 @@
         <v>45050</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30409,7 +30409,7 @@
         <v>45050</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30471,7 +30471,7 @@
         <v>45050</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30533,7 +30533,7 @@
         <v>45050</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30595,7 +30595,7 @@
         <v>45050</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30677,7 +30677,7 @@
         <v>45058</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30739,7 +30739,7 @@
         <v>45058</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30801,7 +30801,7 @@
         <v>45058</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30863,7 +30863,7 @@
         <v>45058</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30925,7 +30925,7 @@
         <v>45062</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30982,7 +30982,7 @@
         <v>45062</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31039,7 +31039,7 @@
         <v>45065</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31096,7 +31096,7 @@
         <v>45068</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31153,7 +31153,7 @@
         <v>45068</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31215,7 +31215,7 @@
         <v>45071</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31272,7 +31272,7 @@
         <v>45071</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31329,7 +31329,7 @@
         <v>45075</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31386,7 +31386,7 @@
         <v>45082</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31443,7 +31443,7 @@
         <v>45082</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31500,7 +31500,7 @@
         <v>45083</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31557,7 +31557,7 @@
         <v>45083</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31614,7 +31614,7 @@
         <v>45083</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31671,7 +31671,7 @@
         <v>45083</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31728,7 +31728,7 @@
         <v>45086</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31785,7 +31785,7 @@
         <v>45089</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31842,7 +31842,7 @@
         <v>45089</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31899,7 +31899,7 @@
         <v>45090</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31961,7 +31961,7 @@
         <v>45091</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32018,7 +32018,7 @@
         <v>45091</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32080,7 +32080,7 @@
         <v>45091</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32142,7 +32142,7 @@
         <v>45092</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32199,7 +32199,7 @@
         <v>45092</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32256,7 +32256,7 @@
         <v>45092</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32313,7 +32313,7 @@
         <v>45092</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32375,7 +32375,7 @@
         <v>45092</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32432,7 +32432,7 @@
         <v>45098</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32489,7 +32489,7 @@
         <v>45099</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32546,7 +32546,7 @@
         <v>45103</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32608,7 +32608,7 @@
         <v>45103</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32665,7 +32665,7 @@
         <v>45103</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32727,7 +32727,7 @@
         <v>45105</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32784,7 +32784,7 @@
         <v>45111</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32841,7 +32841,7 @@
         <v>45112</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32903,7 +32903,7 @@
         <v>45113</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32965,7 +32965,7 @@
         <v>45113</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33022,7 +33022,7 @@
         <v>45114</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33079,7 +33079,7 @@
         <v>45117</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33136,7 +33136,7 @@
         <v>45117</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33193,7 +33193,7 @@
         <v>45117</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33270,7 +33270,7 @@
         <v>45117</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33327,7 +33327,7 @@
         <v>45117</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33384,7 +33384,7 @@
         <v>45117</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33441,7 +33441,7 @@
         <v>45117</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33498,7 +33498,7 @@
         <v>45118</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33555,7 +33555,7 @@
         <v>45119</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33617,7 +33617,7 @@
         <v>45120</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33674,7 +33674,7 @@
         <v>45126</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33731,7 +33731,7 @@
         <v>45131</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33788,7 +33788,7 @@
         <v>45133</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33845,7 +33845,7 @@
         <v>45135</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33902,7 +33902,7 @@
         <v>45166</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33959,7 +33959,7 @@
         <v>45166</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34016,7 +34016,7 @@
         <v>45168</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34078,7 +34078,7 @@
         <v>45168</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>

--- a/Översikt HEBY.xlsx
+++ b/Översikt HEBY.xlsx
@@ -572,7 +572,7 @@
         <v>44914</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>43515</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>43805</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -854,7 +854,7 @@
         <v>43689</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>44824</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1047,7 +1047,7 @@
         <v>44914</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
         <v>44915</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>45117</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>43529</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         <v>44489</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         <v>44670</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         <v>44832</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         <v>45153</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>44049</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1865,7 +1865,7 @@
         <v>44712</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1951,7 +1951,7 @@
         <v>44889</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>44895</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>45014</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         <v>45092</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2381,7 +2381,7 @@
         <v>45124</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         <v>43523</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>43559</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>43851</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
         <v>43853</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2807,7 +2807,7 @@
         <v>43901</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2897,7 +2897,7 @@
         <v>44002</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2986,7 +2986,7 @@
         <v>44161</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3071,7 +3071,7 @@
         <v>44376</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         <v>44395</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>44568</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3330,7 +3330,7 @@
         <v>44609</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3415,7 +3415,7 @@
         <v>44805</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3500,7 +3500,7 @@
         <v>44847</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         <v>45020</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>45035</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>45037</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>45093</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>45098</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>45111</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>45120</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4188,7 +4188,7 @@
         <v>45120</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>45120</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4358,7 +4358,7 @@
         <v>45133</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4443,7 +4443,7 @@
         <v>43342</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4505,7 +4505,7 @@
         <v>43349</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>43374</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>43409</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>43413</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         <v>43416</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         <v>43418</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>43419</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>43423</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>43430</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         <v>43430</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5080,7 +5080,7 @@
         <v>43430</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5137,7 +5137,7 @@
         <v>43432</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5194,7 +5194,7 @@
         <v>43437</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5251,7 +5251,7 @@
         <v>43438</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5308,7 +5308,7 @@
         <v>43440</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>43447</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5422,7 +5422,7 @@
         <v>43452</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>43454</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>43454</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>43454</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5650,7 +5650,7 @@
         <v>43455</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>43455</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5764,7 +5764,7 @@
         <v>43461</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5821,7 +5821,7 @@
         <v>43461</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         <v>43468</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5935,7 +5935,7 @@
         <v>43480</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>43480</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6049,7 +6049,7 @@
         <v>43482</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6106,7 +6106,7 @@
         <v>43488</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>43500</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>43501</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6277,7 +6277,7 @@
         <v>43502</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6334,7 +6334,7 @@
         <v>43503</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
         <v>43511</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>43511</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>43515</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6567,7 +6567,7 @@
         <v>43521</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6624,7 +6624,7 @@
         <v>43522</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6681,7 +6681,7 @@
         <v>43525</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6738,7 +6738,7 @@
         <v>43528</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6795,7 +6795,7 @@
         <v>43528</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6852,7 +6852,7 @@
         <v>43529</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>43529</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>43530</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>43530</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>43535</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>43538</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>43539</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>43551</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>43552</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>43556</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>43559</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>43560</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>43560</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>43562</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>43563</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>43567</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>43570</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>43570</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>43580</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>43580</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>43581</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8059,7 +8059,7 @@
         <v>43598</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8116,7 +8116,7 @@
         <v>43598</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8173,7 +8173,7 @@
         <v>43606</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8230,7 +8230,7 @@
         <v>43607</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8287,7 +8287,7 @@
         <v>43608</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8344,7 +8344,7 @@
         <v>43609</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8401,7 +8401,7 @@
         <v>43615</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8458,7 +8458,7 @@
         <v>43628</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         <v>43633</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>43636</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8634,7 +8634,7 @@
         <v>43641</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8691,7 +8691,7 @@
         <v>43641</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8753,7 +8753,7 @@
         <v>43644</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8810,7 +8810,7 @@
         <v>43651</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8867,7 +8867,7 @@
         <v>43651</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8924,7 +8924,7 @@
         <v>43654</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8986,7 +8986,7 @@
         <v>43656</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9048,7 +9048,7 @@
         <v>43676</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9105,7 +9105,7 @@
         <v>43689</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9162,7 +9162,7 @@
         <v>43689</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9219,7 +9219,7 @@
         <v>43696</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9276,7 +9276,7 @@
         <v>43697</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         <v>43705</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9390,7 +9390,7 @@
         <v>43705</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         <v>43710</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>43710</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>43711</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9618,7 +9618,7 @@
         <v>43713</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9675,7 +9675,7 @@
         <v>43717</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9732,7 +9732,7 @@
         <v>43719</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9789,7 +9789,7 @@
         <v>43719</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9846,7 +9846,7 @@
         <v>43725</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9903,7 +9903,7 @@
         <v>43731</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9965,7 +9965,7 @@
         <v>43731</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         <v>43735</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10084,7 +10084,7 @@
         <v>43735</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10141,7 +10141,7 @@
         <v>43735</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10198,7 +10198,7 @@
         <v>43737</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10255,7 +10255,7 @@
         <v>43738</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10312,7 +10312,7 @@
         <v>43740</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10369,7 +10369,7 @@
         <v>43741</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10426,7 +10426,7 @@
         <v>43742</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>43745</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10545,7 +10545,7 @@
         <v>43745</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>43747</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
         <v>43749</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10726,7 +10726,7 @@
         <v>43749</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10783,7 +10783,7 @@
         <v>43754</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10840,7 +10840,7 @@
         <v>43766</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10897,7 +10897,7 @@
         <v>43766</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10974,7 +10974,7 @@
         <v>43768</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11031,7 +11031,7 @@
         <v>43775</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11088,7 +11088,7 @@
         <v>43781</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>43782</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>43783</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>43783</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>43787</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>43787</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>43787</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>43794</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11549,7 +11549,7 @@
         <v>43797</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11606,7 +11606,7 @@
         <v>43802</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11663,7 +11663,7 @@
         <v>43808</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11720,7 +11720,7 @@
         <v>43817</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11777,7 +11777,7 @@
         <v>43818</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11834,7 +11834,7 @@
         <v>43843</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11891,7 +11891,7 @@
         <v>43844</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11948,7 +11948,7 @@
         <v>43845</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>43846</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>43847</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>43852</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12176,7 +12176,7 @@
         <v>43852</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12238,7 +12238,7 @@
         <v>43858</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12300,7 +12300,7 @@
         <v>43860</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12357,7 +12357,7 @@
         <v>43861</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12414,7 +12414,7 @@
         <v>43863</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12471,7 +12471,7 @@
         <v>43864</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12533,7 +12533,7 @@
         <v>43864</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12590,7 +12590,7 @@
         <v>43866</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
         <v>43867</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12704,7 +12704,7 @@
         <v>43867</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12761,7 +12761,7 @@
         <v>43871</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12818,7 +12818,7 @@
         <v>43871</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>43882</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>43882</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>43891</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>43891</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13103,7 +13103,7 @@
         <v>43891</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13160,7 +13160,7 @@
         <v>43891</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
         <v>43901</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13279,7 +13279,7 @@
         <v>43901</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13336,7 +13336,7 @@
         <v>43901</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13398,7 +13398,7 @@
         <v>43901</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13455,7 +13455,7 @@
         <v>43906</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13512,7 +13512,7 @@
         <v>43909</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13569,7 +13569,7 @@
         <v>43909</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13626,7 +13626,7 @@
         <v>43909</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13683,7 +13683,7 @@
         <v>43909</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13740,7 +13740,7 @@
         <v>43913</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13797,7 +13797,7 @@
         <v>43915</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13854,7 +13854,7 @@
         <v>43916</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13911,7 +13911,7 @@
         <v>43920</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13968,7 +13968,7 @@
         <v>43920</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14025,7 +14025,7 @@
         <v>43943</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14082,7 +14082,7 @@
         <v>43944</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14139,7 +14139,7 @@
         <v>43950</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14196,7 +14196,7 @@
         <v>43950</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14253,7 +14253,7 @@
         <v>43956</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14310,7 +14310,7 @@
         <v>43958</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14367,7 +14367,7 @@
         <v>43959</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14424,7 +14424,7 @@
         <v>43959</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14486,7 +14486,7 @@
         <v>43962</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14543,7 +14543,7 @@
         <v>43963</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14600,7 +14600,7 @@
         <v>43983</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14657,7 +14657,7 @@
         <v>43983</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14714,7 +14714,7 @@
         <v>43984</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14776,7 +14776,7 @@
         <v>43987</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14833,7 +14833,7 @@
         <v>44007</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14890,7 +14890,7 @@
         <v>44013</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14947,7 +14947,7 @@
         <v>44021</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15004,7 +15004,7 @@
         <v>44025</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15061,7 +15061,7 @@
         <v>44026</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15118,7 +15118,7 @@
         <v>44035</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15175,7 +15175,7 @@
         <v>44035</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15232,7 +15232,7 @@
         <v>44048</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
         <v>44048</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         <v>44053</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15408,7 +15408,7 @@
         <v>44070</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15465,7 +15465,7 @@
         <v>44089</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15522,7 +15522,7 @@
         <v>44089</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15579,7 +15579,7 @@
         <v>44095</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15636,7 +15636,7 @@
         <v>44097</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15698,7 +15698,7 @@
         <v>44098</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15755,7 +15755,7 @@
         <v>44102</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15812,7 +15812,7 @@
         <v>44103</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15869,7 +15869,7 @@
         <v>44110</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15926,7 +15926,7 @@
         <v>44110</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15983,7 +15983,7 @@
         <v>44117</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16040,7 +16040,7 @@
         <v>44117</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16097,7 +16097,7 @@
         <v>44127</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16154,7 +16154,7 @@
         <v>44134</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16211,7 +16211,7 @@
         <v>44151</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16268,7 +16268,7 @@
         <v>44158</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16325,7 +16325,7 @@
         <v>44160</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16382,7 +16382,7 @@
         <v>44161</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16439,7 +16439,7 @@
         <v>44188</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16496,7 +16496,7 @@
         <v>44193</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16553,7 +16553,7 @@
         <v>44204</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16610,7 +16610,7 @@
         <v>44225</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16667,7 +16667,7 @@
         <v>44228</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16724,7 +16724,7 @@
         <v>44231</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16781,7 +16781,7 @@
         <v>44232</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16838,7 +16838,7 @@
         <v>44232</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16895,7 +16895,7 @@
         <v>44233</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16952,7 +16952,7 @@
         <v>44235</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17009,7 +17009,7 @@
         <v>44238</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17066,7 +17066,7 @@
         <v>44238</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17123,7 +17123,7 @@
         <v>44238</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17180,7 +17180,7 @@
         <v>44242</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17237,7 +17237,7 @@
         <v>44249</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17294,7 +17294,7 @@
         <v>44259</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17351,7 +17351,7 @@
         <v>44263</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17408,7 +17408,7 @@
         <v>44264</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17470,7 +17470,7 @@
         <v>44272</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17527,7 +17527,7 @@
         <v>44272</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17584,7 +17584,7 @@
         <v>44272</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
         <v>44278</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17698,7 +17698,7 @@
         <v>44279</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17760,7 +17760,7 @@
         <v>44280</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17817,7 +17817,7 @@
         <v>44285</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17874,7 +17874,7 @@
         <v>44285</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17931,7 +17931,7 @@
         <v>44287</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>44292</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         <v>44293</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>44299</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18159,7 +18159,7 @@
         <v>44300</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18216,7 +18216,7 @@
         <v>44308</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18273,7 +18273,7 @@
         <v>44308</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18335,7 +18335,7 @@
         <v>44309</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18392,7 +18392,7 @@
         <v>44314</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18454,7 +18454,7 @@
         <v>44315</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18511,7 +18511,7 @@
         <v>44334</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>44342</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18630,7 +18630,7 @@
         <v>44349</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18687,7 +18687,7 @@
         <v>44354</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18744,7 +18744,7 @@
         <v>44360</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18801,7 +18801,7 @@
         <v>44362</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18863,7 +18863,7 @@
         <v>44364</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18925,7 +18925,7 @@
         <v>44368</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18987,7 +18987,7 @@
         <v>44368</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19044,7 +19044,7 @@
         <v>44370</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         <v>44371</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19168,7 +19168,7 @@
         <v>44389</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19225,7 +19225,7 @@
         <v>44390</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19287,7 +19287,7 @@
         <v>44391</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19344,7 +19344,7 @@
         <v>44404</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19401,7 +19401,7 @@
         <v>44404</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19458,7 +19458,7 @@
         <v>44404</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19515,7 +19515,7 @@
         <v>44404</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19572,7 +19572,7 @@
         <v>44405</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19629,7 +19629,7 @@
         <v>44411</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19686,7 +19686,7 @@
         <v>44418</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19743,7 +19743,7 @@
         <v>44431</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19800,7 +19800,7 @@
         <v>44431</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19857,7 +19857,7 @@
         <v>44431</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19914,7 +19914,7 @@
         <v>44435</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19971,7 +19971,7 @@
         <v>44445</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20028,7 +20028,7 @@
         <v>44459</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20085,7 +20085,7 @@
         <v>44459</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20142,7 +20142,7 @@
         <v>44466</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20199,7 +20199,7 @@
         <v>44467</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20256,7 +20256,7 @@
         <v>44470</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20318,7 +20318,7 @@
         <v>44470</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20380,7 +20380,7 @@
         <v>44477</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20437,7 +20437,7 @@
         <v>44477</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20499,7 +20499,7 @@
         <v>44480</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20556,7 +20556,7 @@
         <v>44480</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20613,7 +20613,7 @@
         <v>44491</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20670,7 +20670,7 @@
         <v>44495</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20727,7 +20727,7 @@
         <v>44508</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20784,7 +20784,7 @@
         <v>44509</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20841,7 +20841,7 @@
         <v>44509</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20898,7 +20898,7 @@
         <v>44509</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20955,7 +20955,7 @@
         <v>44511</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21012,7 +21012,7 @@
         <v>44512</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21074,7 +21074,7 @@
         <v>44516</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21131,7 +21131,7 @@
         <v>44516</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         <v>44519</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21250,7 +21250,7 @@
         <v>44519</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21312,7 +21312,7 @@
         <v>44519</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21374,7 +21374,7 @@
         <v>44522</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21431,7 +21431,7 @@
         <v>44524</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21488,7 +21488,7 @@
         <v>44529</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21545,7 +21545,7 @@
         <v>44529</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21602,7 +21602,7 @@
         <v>44531</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21659,7 +21659,7 @@
         <v>44532</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21716,7 +21716,7 @@
         <v>44533</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21773,7 +21773,7 @@
         <v>44533</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21830,7 +21830,7 @@
         <v>44538</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21887,7 +21887,7 @@
         <v>44543</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21944,7 +21944,7 @@
         <v>44544</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22001,7 +22001,7 @@
         <v>44545</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22058,7 +22058,7 @@
         <v>44550</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22115,7 +22115,7 @@
         <v>44551</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22172,7 +22172,7 @@
         <v>44552</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22229,7 +22229,7 @@
         <v>44565</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22286,7 +22286,7 @@
         <v>44568</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22343,7 +22343,7 @@
         <v>44573</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22400,7 +22400,7 @@
         <v>44573</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22462,7 +22462,7 @@
         <v>44574</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22519,7 +22519,7 @@
         <v>44574</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22576,7 +22576,7 @@
         <v>44574</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22633,7 +22633,7 @@
         <v>44578</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22695,7 +22695,7 @@
         <v>44578</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22752,7 +22752,7 @@
         <v>44585</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22809,7 +22809,7 @@
         <v>44586</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         <v>44587</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22923,7 +22923,7 @@
         <v>44594</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22980,7 +22980,7 @@
         <v>44595</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23037,7 +23037,7 @@
         <v>44599</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23094,7 +23094,7 @@
         <v>44601</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23151,7 +23151,7 @@
         <v>44614</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23208,7 +23208,7 @@
         <v>44616</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23265,7 +23265,7 @@
         <v>44620</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23322,7 +23322,7 @@
         <v>44624</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23379,7 +23379,7 @@
         <v>44624</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23436,7 +23436,7 @@
         <v>44644</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23493,7 +23493,7 @@
         <v>44659</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23550,7 +23550,7 @@
         <v>44662</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23612,7 +23612,7 @@
         <v>44662</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23674,7 +23674,7 @@
         <v>44673</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23736,7 +23736,7 @@
         <v>44684</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23798,7 +23798,7 @@
         <v>44685</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23855,7 +23855,7 @@
         <v>44691</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23912,7 +23912,7 @@
         <v>44694</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23969,7 +23969,7 @@
         <v>44694</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24031,7 +24031,7 @@
         <v>44694</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24088,7 +24088,7 @@
         <v>44694</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24150,7 +24150,7 @@
         <v>44697</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24212,7 +24212,7 @@
         <v>44701</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24274,7 +24274,7 @@
         <v>44711</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24331,7 +24331,7 @@
         <v>44711</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24388,7 +24388,7 @@
         <v>44712</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24445,7 +24445,7 @@
         <v>44713</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24507,7 +24507,7 @@
         <v>44715</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24564,7 +24564,7 @@
         <v>44723</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24621,7 +24621,7 @@
         <v>44732</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24678,7 +24678,7 @@
         <v>44733</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24740,7 +24740,7 @@
         <v>44734</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24797,7 +24797,7 @@
         <v>44735</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24854,7 +24854,7 @@
         <v>44739</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24911,7 +24911,7 @@
         <v>44748</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24968,7 +24968,7 @@
         <v>44753</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25025,7 +25025,7 @@
         <v>44754</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25087,7 +25087,7 @@
         <v>44754</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25144,7 +25144,7 @@
         <v>44769</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25201,7 +25201,7 @@
         <v>44788</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25258,7 +25258,7 @@
         <v>44790</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25315,7 +25315,7 @@
         <v>44791</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25372,7 +25372,7 @@
         <v>44792</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25429,7 +25429,7 @@
         <v>44802</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25486,7 +25486,7 @@
         <v>44810</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25548,7 +25548,7 @@
         <v>44810</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25610,7 +25610,7 @@
         <v>44810</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25672,7 +25672,7 @@
         <v>44820</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25729,7 +25729,7 @@
         <v>44820</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25791,7 +25791,7 @@
         <v>44820</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25853,7 +25853,7 @@
         <v>44823</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25910,7 +25910,7 @@
         <v>44823</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25972,7 +25972,7 @@
         <v>44824</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26034,7 +26034,7 @@
         <v>44826</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26091,7 +26091,7 @@
         <v>44827</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26148,7 +26148,7 @@
         <v>44832</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26205,7 +26205,7 @@
         <v>44833</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26262,7 +26262,7 @@
         <v>44838</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26319,7 +26319,7 @@
         <v>44840</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26381,7 +26381,7 @@
         <v>44844</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26438,7 +26438,7 @@
         <v>44847</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26495,7 +26495,7 @@
         <v>44847</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26552,7 +26552,7 @@
         <v>44853</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26609,7 +26609,7 @@
         <v>44862</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26666,7 +26666,7 @@
         <v>44872</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26728,7 +26728,7 @@
         <v>44875</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26785,7 +26785,7 @@
         <v>44875</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26842,7 +26842,7 @@
         <v>44886</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26899,7 +26899,7 @@
         <v>44886</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26956,7 +26956,7 @@
         <v>44887</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27013,7 +27013,7 @@
         <v>44888</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27075,7 +27075,7 @@
         <v>44888</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27157,7 +27157,7 @@
         <v>44901</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27214,7 +27214,7 @@
         <v>44903</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27271,7 +27271,7 @@
         <v>44907</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27328,7 +27328,7 @@
         <v>44909</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27390,7 +27390,7 @@
         <v>44909</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27452,7 +27452,7 @@
         <v>44910</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27514,7 +27514,7 @@
         <v>44911</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27571,7 +27571,7 @@
         <v>44913</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27628,7 +27628,7 @@
         <v>44914</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27685,7 +27685,7 @@
         <v>44914</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27742,7 +27742,7 @@
         <v>44916</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27799,7 +27799,7 @@
         <v>44917</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27856,7 +27856,7 @@
         <v>44917</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27913,7 +27913,7 @@
         <v>44939</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27970,7 +27970,7 @@
         <v>44944</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28027,7 +28027,7 @@
         <v>44944</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28084,7 +28084,7 @@
         <v>44946</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28141,7 +28141,7 @@
         <v>44950</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28198,7 +28198,7 @@
         <v>44951</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28255,7 +28255,7 @@
         <v>44956</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28317,7 +28317,7 @@
         <v>44974</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28374,7 +28374,7 @@
         <v>44974</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28431,7 +28431,7 @@
         <v>44974</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28488,7 +28488,7 @@
         <v>44978</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28545,7 +28545,7 @@
         <v>44980</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28602,7 +28602,7 @@
         <v>44981</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28659,7 +28659,7 @@
         <v>44981</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28716,7 +28716,7 @@
         <v>44981</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28773,7 +28773,7 @@
         <v>44984</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28830,7 +28830,7 @@
         <v>44984</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28892,7 +28892,7 @@
         <v>44984</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28949,7 +28949,7 @@
         <v>44987</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29006,7 +29006,7 @@
         <v>44993</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29063,7 +29063,7 @@
         <v>44999</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29125,7 +29125,7 @@
         <v>45000</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29182,7 +29182,7 @@
         <v>45005</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29244,7 +29244,7 @@
         <v>45006</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29301,7 +29301,7 @@
         <v>45006</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29358,7 +29358,7 @@
         <v>45008</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29415,7 +29415,7 @@
         <v>45008</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29472,7 +29472,7 @@
         <v>45013</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29529,7 +29529,7 @@
         <v>45019</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29586,7 +29586,7 @@
         <v>45019</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29643,7 +29643,7 @@
         <v>45020</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29700,7 +29700,7 @@
         <v>45022</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29762,7 +29762,7 @@
         <v>45022</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29824,7 +29824,7 @@
         <v>45027</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29881,7 +29881,7 @@
         <v>45029</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29938,7 +29938,7 @@
         <v>45030</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29995,7 +29995,7 @@
         <v>45035</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30052,7 +30052,7 @@
         <v>45043</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30109,7 +30109,7 @@
         <v>45043</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30166,7 +30166,7 @@
         <v>45044</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30223,7 +30223,7 @@
         <v>45050</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30285,7 +30285,7 @@
         <v>45050</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30347,7 +30347,7 @@
         <v>45050</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30409,7 +30409,7 @@
         <v>45050</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30471,7 +30471,7 @@
         <v>45050</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30533,7 +30533,7 @@
         <v>45050</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30595,7 +30595,7 @@
         <v>45050</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30677,7 +30677,7 @@
         <v>45058</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30739,7 +30739,7 @@
         <v>45058</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30801,7 +30801,7 @@
         <v>45058</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30863,7 +30863,7 @@
         <v>45058</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30925,7 +30925,7 @@
         <v>45062</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30982,7 +30982,7 @@
         <v>45062</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31039,7 +31039,7 @@
         <v>45065</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31096,7 +31096,7 @@
         <v>45068</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31153,7 +31153,7 @@
         <v>45068</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31215,7 +31215,7 @@
         <v>45071</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31272,7 +31272,7 @@
         <v>45071</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31329,7 +31329,7 @@
         <v>45075</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31386,7 +31386,7 @@
         <v>45082</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31443,7 +31443,7 @@
         <v>45082</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31500,7 +31500,7 @@
         <v>45083</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31557,7 +31557,7 @@
         <v>45083</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31614,7 +31614,7 @@
         <v>45083</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31671,7 +31671,7 @@
         <v>45083</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31728,7 +31728,7 @@
         <v>45086</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31785,7 +31785,7 @@
         <v>45089</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31842,7 +31842,7 @@
         <v>45089</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31899,7 +31899,7 @@
         <v>45090</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31961,7 +31961,7 @@
         <v>45091</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32018,7 +32018,7 @@
         <v>45091</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32080,7 +32080,7 @@
         <v>45091</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32142,7 +32142,7 @@
         <v>45092</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32199,7 +32199,7 @@
         <v>45092</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32256,7 +32256,7 @@
         <v>45092</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32313,7 +32313,7 @@
         <v>45092</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32375,7 +32375,7 @@
         <v>45092</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32432,7 +32432,7 @@
         <v>45098</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32489,7 +32489,7 @@
         <v>45099</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32546,7 +32546,7 @@
         <v>45103</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32608,7 +32608,7 @@
         <v>45103</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32665,7 +32665,7 @@
         <v>45103</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32727,7 +32727,7 @@
         <v>45105</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32784,7 +32784,7 @@
         <v>45111</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32841,7 +32841,7 @@
         <v>45112</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32903,7 +32903,7 @@
         <v>45113</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32965,7 +32965,7 @@
         <v>45113</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33022,7 +33022,7 @@
         <v>45114</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33079,7 +33079,7 @@
         <v>45117</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33136,7 +33136,7 @@
         <v>45117</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33193,7 +33193,7 @@
         <v>45117</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33270,7 +33270,7 @@
         <v>45117</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33327,7 +33327,7 @@
         <v>45117</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33384,7 +33384,7 @@
         <v>45117</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33441,7 +33441,7 @@
         <v>45117</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33498,7 +33498,7 @@
         <v>45118</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33555,7 +33555,7 @@
         <v>45119</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33617,7 +33617,7 @@
         <v>45120</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33674,7 +33674,7 @@
         <v>45126</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33731,7 +33731,7 @@
         <v>45131</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33788,7 +33788,7 @@
         <v>45133</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33845,7 +33845,7 @@
         <v>45135</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33902,7 +33902,7 @@
         <v>45166</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33959,7 +33959,7 @@
         <v>45166</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34016,7 +34016,7 @@
         <v>45168</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34078,7 +34078,7 @@
         <v>45168</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>

--- a/Översikt HEBY.xlsx
+++ b/Översikt HEBY.xlsx
@@ -572,7 +572,7 @@
         <v>44914</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>43515</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>43805</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -854,7 +854,7 @@
         <v>43689</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>44824</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1047,7 +1047,7 @@
         <v>44914</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
         <v>44915</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>45117</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>43529</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         <v>44489</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         <v>44670</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         <v>44832</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         <v>45153</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>44049</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1865,7 +1865,7 @@
         <v>44712</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1951,7 +1951,7 @@
         <v>44889</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>44895</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>45014</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         <v>45092</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2381,7 +2381,7 @@
         <v>45124</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         <v>43523</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>43559</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>43851</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
         <v>43853</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2807,7 +2807,7 @@
         <v>43901</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2897,7 +2897,7 @@
         <v>44002</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2986,7 +2986,7 @@
         <v>44161</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3071,7 +3071,7 @@
         <v>44376</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         <v>44395</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>44568</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3330,7 +3330,7 @@
         <v>44609</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3415,7 +3415,7 @@
         <v>44805</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3500,7 +3500,7 @@
         <v>44847</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         <v>45020</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>45035</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>45037</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>45093</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>45098</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>45111</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>45120</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4188,7 +4188,7 @@
         <v>45120</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>45120</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4358,7 +4358,7 @@
         <v>45133</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4443,7 +4443,7 @@
         <v>43342</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4505,7 +4505,7 @@
         <v>43349</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>43374</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>43409</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>43413</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         <v>43416</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         <v>43418</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>43419</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>43423</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>43430</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         <v>43430</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5080,7 +5080,7 @@
         <v>43430</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5137,7 +5137,7 @@
         <v>43432</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5194,7 +5194,7 @@
         <v>43437</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5251,7 +5251,7 @@
         <v>43438</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5308,7 +5308,7 @@
         <v>43440</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>43447</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5422,7 +5422,7 @@
         <v>43452</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>43454</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>43454</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>43454</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5650,7 +5650,7 @@
         <v>43455</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>43455</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5764,7 +5764,7 @@
         <v>43461</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5821,7 +5821,7 @@
         <v>43461</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         <v>43468</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5935,7 +5935,7 @@
         <v>43480</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>43480</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6049,7 +6049,7 @@
         <v>43482</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6106,7 +6106,7 @@
         <v>43488</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>43500</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>43501</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6277,7 +6277,7 @@
         <v>43502</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6334,7 +6334,7 @@
         <v>43503</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
         <v>43511</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>43511</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>43515</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6567,7 +6567,7 @@
         <v>43521</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6624,7 +6624,7 @@
         <v>43522</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6681,7 +6681,7 @@
         <v>43525</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6738,7 +6738,7 @@
         <v>43528</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6795,7 +6795,7 @@
         <v>43528</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6852,7 +6852,7 @@
         <v>43529</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>43529</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>43530</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>43530</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>43535</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>43538</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>43539</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>43551</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>43552</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>43556</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>43559</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>43560</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>43560</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>43562</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>43563</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>43567</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>43570</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>43570</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>43580</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>43580</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>43581</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8059,7 +8059,7 @@
         <v>43598</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8116,7 +8116,7 @@
         <v>43598</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8173,7 +8173,7 @@
         <v>43606</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8230,7 +8230,7 @@
         <v>43607</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8287,7 +8287,7 @@
         <v>43608</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8344,7 +8344,7 @@
         <v>43609</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8401,7 +8401,7 @@
         <v>43615</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8458,7 +8458,7 @@
         <v>43628</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         <v>43633</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>43636</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8634,7 +8634,7 @@
         <v>43641</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8691,7 +8691,7 @@
         <v>43641</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8753,7 +8753,7 @@
         <v>43644</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8810,7 +8810,7 @@
         <v>43651</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8867,7 +8867,7 @@
         <v>43651</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8924,7 +8924,7 @@
         <v>43654</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8986,7 +8986,7 @@
         <v>43656</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9048,7 +9048,7 @@
         <v>43676</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9105,7 +9105,7 @@
         <v>43689</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9162,7 +9162,7 @@
         <v>43689</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9219,7 +9219,7 @@
         <v>43696</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9276,7 +9276,7 @@
         <v>43697</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         <v>43705</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9390,7 +9390,7 @@
         <v>43705</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         <v>43710</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>43710</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>43711</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9618,7 +9618,7 @@
         <v>43713</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9675,7 +9675,7 @@
         <v>43717</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9732,7 +9732,7 @@
         <v>43719</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9789,7 +9789,7 @@
         <v>43719</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9846,7 +9846,7 @@
         <v>43725</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9903,7 +9903,7 @@
         <v>43731</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9965,7 +9965,7 @@
         <v>43731</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         <v>43735</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10084,7 +10084,7 @@
         <v>43735</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10141,7 +10141,7 @@
         <v>43735</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10198,7 +10198,7 @@
         <v>43737</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10255,7 +10255,7 @@
         <v>43738</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10312,7 +10312,7 @@
         <v>43740</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10369,7 +10369,7 @@
         <v>43741</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10426,7 +10426,7 @@
         <v>43742</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>43745</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10545,7 +10545,7 @@
         <v>43745</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>43747</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
         <v>43749</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10726,7 +10726,7 @@
         <v>43749</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10783,7 +10783,7 @@
         <v>43754</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10840,7 +10840,7 @@
         <v>43766</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10897,7 +10897,7 @@
         <v>43766</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10974,7 +10974,7 @@
         <v>43768</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11031,7 +11031,7 @@
         <v>43775</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11088,7 +11088,7 @@
         <v>43781</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>43782</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>43783</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>43783</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>43787</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>43787</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>43787</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>43794</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11549,7 +11549,7 @@
         <v>43797</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11606,7 +11606,7 @@
         <v>43802</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11663,7 +11663,7 @@
         <v>43808</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11720,7 +11720,7 @@
         <v>43817</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11777,7 +11777,7 @@
         <v>43818</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11834,7 +11834,7 @@
         <v>43843</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11891,7 +11891,7 @@
         <v>43844</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11948,7 +11948,7 @@
         <v>43845</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>43846</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>43847</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>43852</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12176,7 +12176,7 @@
         <v>43852</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12238,7 +12238,7 @@
         <v>43858</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12300,7 +12300,7 @@
         <v>43860</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12357,7 +12357,7 @@
         <v>43861</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12414,7 +12414,7 @@
         <v>43863</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12471,7 +12471,7 @@
         <v>43864</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12533,7 +12533,7 @@
         <v>43864</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12590,7 +12590,7 @@
         <v>43866</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
         <v>43867</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12704,7 +12704,7 @@
         <v>43867</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12761,7 +12761,7 @@
         <v>43871</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12818,7 +12818,7 @@
         <v>43871</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>43882</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>43882</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>43891</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>43891</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13103,7 +13103,7 @@
         <v>43891</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13160,7 +13160,7 @@
         <v>43891</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
         <v>43901</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13279,7 +13279,7 @@
         <v>43901</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13336,7 +13336,7 @@
         <v>43901</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13398,7 +13398,7 @@
         <v>43901</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13455,7 +13455,7 @@
         <v>43906</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13512,7 +13512,7 @@
         <v>43909</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13569,7 +13569,7 @@
         <v>43909</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13626,7 +13626,7 @@
         <v>43909</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13683,7 +13683,7 @@
         <v>43909</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13740,7 +13740,7 @@
         <v>43913</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13797,7 +13797,7 @@
         <v>43915</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13854,7 +13854,7 @@
         <v>43916</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13911,7 +13911,7 @@
         <v>43920</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13968,7 +13968,7 @@
         <v>43920</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14025,7 +14025,7 @@
         <v>43943</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14082,7 +14082,7 @@
         <v>43944</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14139,7 +14139,7 @@
         <v>43950</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14196,7 +14196,7 @@
         <v>43950</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14253,7 +14253,7 @@
         <v>43956</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14310,7 +14310,7 @@
         <v>43958</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14367,7 +14367,7 @@
         <v>43959</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14424,7 +14424,7 @@
         <v>43959</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14486,7 +14486,7 @@
         <v>43962</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14543,7 +14543,7 @@
         <v>43963</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14600,7 +14600,7 @@
         <v>43983</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14657,7 +14657,7 @@
         <v>43983</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14714,7 +14714,7 @@
         <v>43984</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14776,7 +14776,7 @@
         <v>43987</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14833,7 +14833,7 @@
         <v>44007</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14890,7 +14890,7 @@
         <v>44013</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14947,7 +14947,7 @@
         <v>44021</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15004,7 +15004,7 @@
         <v>44025</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15061,7 +15061,7 @@
         <v>44026</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15118,7 +15118,7 @@
         <v>44035</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15175,7 +15175,7 @@
         <v>44035</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15232,7 +15232,7 @@
         <v>44048</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
         <v>44048</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         <v>44053</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15408,7 +15408,7 @@
         <v>44070</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15465,7 +15465,7 @@
         <v>44089</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15522,7 +15522,7 @@
         <v>44089</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15579,7 +15579,7 @@
         <v>44095</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15636,7 +15636,7 @@
         <v>44097</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15698,7 +15698,7 @@
         <v>44098</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15755,7 +15755,7 @@
         <v>44102</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15812,7 +15812,7 @@
         <v>44103</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15869,7 +15869,7 @@
         <v>44110</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15926,7 +15926,7 @@
         <v>44110</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15983,7 +15983,7 @@
         <v>44117</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16040,7 +16040,7 @@
         <v>44117</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16097,7 +16097,7 @@
         <v>44127</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16154,7 +16154,7 @@
         <v>44134</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16211,7 +16211,7 @@
         <v>44151</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16268,7 +16268,7 @@
         <v>44158</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16325,7 +16325,7 @@
         <v>44160</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16382,7 +16382,7 @@
         <v>44161</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16439,7 +16439,7 @@
         <v>44188</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16496,7 +16496,7 @@
         <v>44193</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16553,7 +16553,7 @@
         <v>44204</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16610,7 +16610,7 @@
         <v>44225</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16667,7 +16667,7 @@
         <v>44228</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16724,7 +16724,7 @@
         <v>44231</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16781,7 +16781,7 @@
         <v>44232</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16838,7 +16838,7 @@
         <v>44232</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16895,7 +16895,7 @@
         <v>44233</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16952,7 +16952,7 @@
         <v>44235</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17009,7 +17009,7 @@
         <v>44238</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17066,7 +17066,7 @@
         <v>44238</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17123,7 +17123,7 @@
         <v>44238</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17180,7 +17180,7 @@
         <v>44242</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17237,7 +17237,7 @@
         <v>44249</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17294,7 +17294,7 @@
         <v>44259</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17351,7 +17351,7 @@
         <v>44263</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17408,7 +17408,7 @@
         <v>44264</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17470,7 +17470,7 @@
         <v>44272</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17527,7 +17527,7 @@
         <v>44272</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17584,7 +17584,7 @@
         <v>44272</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
         <v>44278</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17698,7 +17698,7 @@
         <v>44279</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17760,7 +17760,7 @@
         <v>44280</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17817,7 +17817,7 @@
         <v>44285</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17874,7 +17874,7 @@
         <v>44285</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17931,7 +17931,7 @@
         <v>44287</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>44292</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         <v>44293</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>44299</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18159,7 +18159,7 @@
         <v>44300</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18216,7 +18216,7 @@
         <v>44308</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18273,7 +18273,7 @@
         <v>44308</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18335,7 +18335,7 @@
         <v>44309</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18392,7 +18392,7 @@
         <v>44314</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18454,7 +18454,7 @@
         <v>44315</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18511,7 +18511,7 @@
         <v>44334</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>44342</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18630,7 +18630,7 @@
         <v>44349</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18687,7 +18687,7 @@
         <v>44354</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18744,7 +18744,7 @@
         <v>44360</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18801,7 +18801,7 @@
         <v>44362</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18863,7 +18863,7 @@
         <v>44364</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18925,7 +18925,7 @@
         <v>44368</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18987,7 +18987,7 @@
         <v>44368</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19044,7 +19044,7 @@
         <v>44370</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         <v>44371</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19168,7 +19168,7 @@
         <v>44389</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19225,7 +19225,7 @@
         <v>44390</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19287,7 +19287,7 @@
         <v>44391</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19344,7 +19344,7 @@
         <v>44404</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19401,7 +19401,7 @@
         <v>44404</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19458,7 +19458,7 @@
         <v>44404</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19515,7 +19515,7 @@
         <v>44404</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19572,7 +19572,7 @@
         <v>44405</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19629,7 +19629,7 @@
         <v>44411</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19686,7 +19686,7 @@
         <v>44418</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19743,7 +19743,7 @@
         <v>44431</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19800,7 +19800,7 @@
         <v>44431</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19857,7 +19857,7 @@
         <v>44431</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19914,7 +19914,7 @@
         <v>44435</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19971,7 +19971,7 @@
         <v>44445</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20028,7 +20028,7 @@
         <v>44459</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20085,7 +20085,7 @@
         <v>44459</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20142,7 +20142,7 @@
         <v>44466</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20199,7 +20199,7 @@
         <v>44467</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20256,7 +20256,7 @@
         <v>44470</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20318,7 +20318,7 @@
         <v>44470</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20380,7 +20380,7 @@
         <v>44477</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20437,7 +20437,7 @@
         <v>44477</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20499,7 +20499,7 @@
         <v>44480</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20556,7 +20556,7 @@
         <v>44480</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20613,7 +20613,7 @@
         <v>44491</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20670,7 +20670,7 @@
         <v>44495</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20727,7 +20727,7 @@
         <v>44508</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20784,7 +20784,7 @@
         <v>44509</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20841,7 +20841,7 @@
         <v>44509</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20898,7 +20898,7 @@
         <v>44509</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20955,7 +20955,7 @@
         <v>44511</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21012,7 +21012,7 @@
         <v>44512</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21074,7 +21074,7 @@
         <v>44516</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21131,7 +21131,7 @@
         <v>44516</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         <v>44519</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21250,7 +21250,7 @@
         <v>44519</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21312,7 +21312,7 @@
         <v>44519</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21374,7 +21374,7 @@
         <v>44522</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21431,7 +21431,7 @@
         <v>44524</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21488,7 +21488,7 @@
         <v>44529</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21545,7 +21545,7 @@
         <v>44529</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21602,7 +21602,7 @@
         <v>44531</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21659,7 +21659,7 @@
         <v>44532</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21716,7 +21716,7 @@
         <v>44533</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21773,7 +21773,7 @@
         <v>44533</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21830,7 +21830,7 @@
         <v>44538</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21887,7 +21887,7 @@
         <v>44543</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21944,7 +21944,7 @@
         <v>44544</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22001,7 +22001,7 @@
         <v>44545</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22058,7 +22058,7 @@
         <v>44550</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22115,7 +22115,7 @@
         <v>44551</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22172,7 +22172,7 @@
         <v>44552</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22229,7 +22229,7 @@
         <v>44565</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22286,7 +22286,7 @@
         <v>44568</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22343,7 +22343,7 @@
         <v>44573</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22400,7 +22400,7 @@
         <v>44573</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22462,7 +22462,7 @@
         <v>44574</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22519,7 +22519,7 @@
         <v>44574</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22576,7 +22576,7 @@
         <v>44574</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22633,7 +22633,7 @@
         <v>44578</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22695,7 +22695,7 @@
         <v>44578</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22752,7 +22752,7 @@
         <v>44585</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22809,7 +22809,7 @@
         <v>44586</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         <v>44587</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22923,7 +22923,7 @@
         <v>44594</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22980,7 +22980,7 @@
         <v>44595</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23037,7 +23037,7 @@
         <v>44599</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23094,7 +23094,7 @@
         <v>44601</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23151,7 +23151,7 @@
         <v>44614</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23208,7 +23208,7 @@
         <v>44616</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23265,7 +23265,7 @@
         <v>44620</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23322,7 +23322,7 @@
         <v>44624</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23379,7 +23379,7 @@
         <v>44624</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23436,7 +23436,7 @@
         <v>44644</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23493,7 +23493,7 @@
         <v>44659</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23550,7 +23550,7 @@
         <v>44662</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23612,7 +23612,7 @@
         <v>44662</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23674,7 +23674,7 @@
         <v>44673</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23736,7 +23736,7 @@
         <v>44684</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23798,7 +23798,7 @@
         <v>44685</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23855,7 +23855,7 @@
         <v>44691</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23912,7 +23912,7 @@
         <v>44694</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23969,7 +23969,7 @@
         <v>44694</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24031,7 +24031,7 @@
         <v>44694</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24088,7 +24088,7 @@
         <v>44694</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24150,7 +24150,7 @@
         <v>44697</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24212,7 +24212,7 @@
         <v>44701</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24274,7 +24274,7 @@
         <v>44711</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24331,7 +24331,7 @@
         <v>44711</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24388,7 +24388,7 @@
         <v>44712</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24445,7 +24445,7 @@
         <v>44713</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24507,7 +24507,7 @@
         <v>44715</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24564,7 +24564,7 @@
         <v>44723</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24621,7 +24621,7 @@
         <v>44732</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24678,7 +24678,7 @@
         <v>44733</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24740,7 +24740,7 @@
         <v>44734</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24797,7 +24797,7 @@
         <v>44735</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24854,7 +24854,7 @@
         <v>44739</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24911,7 +24911,7 @@
         <v>44748</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24968,7 +24968,7 @@
         <v>44753</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25025,7 +25025,7 @@
         <v>44754</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25087,7 +25087,7 @@
         <v>44754</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25144,7 +25144,7 @@
         <v>44769</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25201,7 +25201,7 @@
         <v>44788</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25258,7 +25258,7 @@
         <v>44790</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25315,7 +25315,7 @@
         <v>44791</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25372,7 +25372,7 @@
         <v>44792</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25429,7 +25429,7 @@
         <v>44802</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25486,7 +25486,7 @@
         <v>44810</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25548,7 +25548,7 @@
         <v>44810</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25610,7 +25610,7 @@
         <v>44810</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25672,7 +25672,7 @@
         <v>44820</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25729,7 +25729,7 @@
         <v>44820</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25791,7 +25791,7 @@
         <v>44820</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25853,7 +25853,7 @@
         <v>44823</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25910,7 +25910,7 @@
         <v>44823</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25972,7 +25972,7 @@
         <v>44824</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26034,7 +26034,7 @@
         <v>44826</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26091,7 +26091,7 @@
         <v>44827</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26148,7 +26148,7 @@
         <v>44832</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26205,7 +26205,7 @@
         <v>44833</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26262,7 +26262,7 @@
         <v>44838</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26319,7 +26319,7 @@
         <v>44840</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26381,7 +26381,7 @@
         <v>44844</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26438,7 +26438,7 @@
         <v>44847</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26495,7 +26495,7 @@
         <v>44847</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26552,7 +26552,7 @@
         <v>44853</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26609,7 +26609,7 @@
         <v>44862</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26666,7 +26666,7 @@
         <v>44872</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26728,7 +26728,7 @@
         <v>44875</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26785,7 +26785,7 @@
         <v>44875</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26842,7 +26842,7 @@
         <v>44886</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26899,7 +26899,7 @@
         <v>44886</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26956,7 +26956,7 @@
         <v>44887</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27013,7 +27013,7 @@
         <v>44888</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27075,7 +27075,7 @@
         <v>44888</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27157,7 +27157,7 @@
         <v>44901</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27214,7 +27214,7 @@
         <v>44903</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27271,7 +27271,7 @@
         <v>44907</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27328,7 +27328,7 @@
         <v>44909</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27390,7 +27390,7 @@
         <v>44909</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27452,7 +27452,7 @@
         <v>44910</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27514,7 +27514,7 @@
         <v>44911</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27571,7 +27571,7 @@
         <v>44913</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27628,7 +27628,7 @@
         <v>44914</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27685,7 +27685,7 @@
         <v>44914</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27742,7 +27742,7 @@
         <v>44916</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27799,7 +27799,7 @@
         <v>44917</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27856,7 +27856,7 @@
         <v>44917</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27913,7 +27913,7 @@
         <v>44939</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27970,7 +27970,7 @@
         <v>44944</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28027,7 +28027,7 @@
         <v>44944</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28084,7 +28084,7 @@
         <v>44946</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28141,7 +28141,7 @@
         <v>44950</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28198,7 +28198,7 @@
         <v>44951</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28255,7 +28255,7 @@
         <v>44956</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28317,7 +28317,7 @@
         <v>44974</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28374,7 +28374,7 @@
         <v>44974</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28431,7 +28431,7 @@
         <v>44974</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28488,7 +28488,7 @@
         <v>44978</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28545,7 +28545,7 @@
         <v>44980</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28602,7 +28602,7 @@
         <v>44981</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28659,7 +28659,7 @@
         <v>44981</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28716,7 +28716,7 @@
         <v>44981</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28773,7 +28773,7 @@
         <v>44984</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28830,7 +28830,7 @@
         <v>44984</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28892,7 +28892,7 @@
         <v>44984</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28949,7 +28949,7 @@
         <v>44987</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29006,7 +29006,7 @@
         <v>44993</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29063,7 +29063,7 @@
         <v>44999</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29125,7 +29125,7 @@
         <v>45000</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29182,7 +29182,7 @@
         <v>45005</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29244,7 +29244,7 @@
         <v>45006</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29301,7 +29301,7 @@
         <v>45006</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29358,7 +29358,7 @@
         <v>45008</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29415,7 +29415,7 @@
         <v>45008</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29472,7 +29472,7 @@
         <v>45013</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29529,7 +29529,7 @@
         <v>45019</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29586,7 +29586,7 @@
         <v>45019</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29643,7 +29643,7 @@
         <v>45020</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29700,7 +29700,7 @@
         <v>45022</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29762,7 +29762,7 @@
         <v>45022</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29824,7 +29824,7 @@
         <v>45027</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29881,7 +29881,7 @@
         <v>45029</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29938,7 +29938,7 @@
         <v>45030</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29995,7 +29995,7 @@
         <v>45035</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30052,7 +30052,7 @@
         <v>45043</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30109,7 +30109,7 @@
         <v>45043</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30166,7 +30166,7 @@
         <v>45044</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30223,7 +30223,7 @@
         <v>45050</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30285,7 +30285,7 @@
         <v>45050</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30347,7 +30347,7 @@
         <v>45050</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30409,7 +30409,7 @@
         <v>45050</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30471,7 +30471,7 @@
         <v>45050</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30533,7 +30533,7 @@
         <v>45050</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30595,7 +30595,7 @@
         <v>45050</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30677,7 +30677,7 @@
         <v>45058</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30739,7 +30739,7 @@
         <v>45058</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30801,7 +30801,7 @@
         <v>45058</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30863,7 +30863,7 @@
         <v>45058</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30925,7 +30925,7 @@
         <v>45062</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30982,7 +30982,7 @@
         <v>45062</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31039,7 +31039,7 @@
         <v>45065</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31096,7 +31096,7 @@
         <v>45068</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31153,7 +31153,7 @@
         <v>45068</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31215,7 +31215,7 @@
         <v>45071</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31272,7 +31272,7 @@
         <v>45071</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31329,7 +31329,7 @@
         <v>45075</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31386,7 +31386,7 @@
         <v>45082</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31443,7 +31443,7 @@
         <v>45082</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31500,7 +31500,7 @@
         <v>45083</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31557,7 +31557,7 @@
         <v>45083</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31614,7 +31614,7 @@
         <v>45083</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31671,7 +31671,7 @@
         <v>45083</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31728,7 +31728,7 @@
         <v>45086</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31785,7 +31785,7 @@
         <v>45089</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31842,7 +31842,7 @@
         <v>45089</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31899,7 +31899,7 @@
         <v>45090</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31961,7 +31961,7 @@
         <v>45091</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32018,7 +32018,7 @@
         <v>45091</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32080,7 +32080,7 @@
         <v>45091</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32142,7 +32142,7 @@
         <v>45092</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32199,7 +32199,7 @@
         <v>45092</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32256,7 +32256,7 @@
         <v>45092</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32313,7 +32313,7 @@
         <v>45092</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32375,7 +32375,7 @@
         <v>45092</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32432,7 +32432,7 @@
         <v>45098</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32489,7 +32489,7 @@
         <v>45099</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32546,7 +32546,7 @@
         <v>45103</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32608,7 +32608,7 @@
         <v>45103</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32665,7 +32665,7 @@
         <v>45103</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32727,7 +32727,7 @@
         <v>45105</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32784,7 +32784,7 @@
         <v>45111</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32841,7 +32841,7 @@
         <v>45112</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32903,7 +32903,7 @@
         <v>45113</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32965,7 +32965,7 @@
         <v>45113</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33022,7 +33022,7 @@
         <v>45114</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33079,7 +33079,7 @@
         <v>45117</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33136,7 +33136,7 @@
         <v>45117</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33193,7 +33193,7 @@
         <v>45117</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33270,7 +33270,7 @@
         <v>45117</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33327,7 +33327,7 @@
         <v>45117</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33384,7 +33384,7 @@
         <v>45117</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33441,7 +33441,7 @@
         <v>45117</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33498,7 +33498,7 @@
         <v>45118</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33555,7 +33555,7 @@
         <v>45119</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33617,7 +33617,7 @@
         <v>45120</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33674,7 +33674,7 @@
         <v>45126</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33731,7 +33731,7 @@
         <v>45131</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33788,7 +33788,7 @@
         <v>45133</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33845,7 +33845,7 @@
         <v>45135</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33902,7 +33902,7 @@
         <v>45166</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33959,7 +33959,7 @@
         <v>45166</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34016,7 +34016,7 @@
         <v>45168</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34078,7 +34078,7 @@
         <v>45168</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>

--- a/Översikt HEBY.xlsx
+++ b/Översikt HEBY.xlsx
@@ -572,7 +572,7 @@
         <v>44914</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>43515</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>43805</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -854,7 +854,7 @@
         <v>43689</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>44824</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1047,7 +1047,7 @@
         <v>44914</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
         <v>44915</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>45117</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>43529</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         <v>44489</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         <v>44670</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         <v>44832</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         <v>45153</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>44049</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1865,7 +1865,7 @@
         <v>44712</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1951,7 +1951,7 @@
         <v>44889</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>44895</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>45014</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         <v>45092</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2381,7 +2381,7 @@
         <v>45124</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         <v>43523</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>43559</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>43851</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
         <v>43853</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2807,7 +2807,7 @@
         <v>43901</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2897,7 +2897,7 @@
         <v>44002</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2986,7 +2986,7 @@
         <v>44161</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3071,7 +3071,7 @@
         <v>44376</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         <v>44395</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>44568</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3330,7 +3330,7 @@
         <v>44609</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3415,7 +3415,7 @@
         <v>44805</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3500,7 +3500,7 @@
         <v>44847</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         <v>45020</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>45035</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>45037</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>45093</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>45098</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>45111</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>45120</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4188,7 +4188,7 @@
         <v>45120</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>45120</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4358,7 +4358,7 @@
         <v>45133</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4443,7 +4443,7 @@
         <v>43342</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4505,7 +4505,7 @@
         <v>43349</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>43374</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>43409</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>43413</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         <v>43416</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         <v>43418</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>43419</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>43423</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>43430</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         <v>43430</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5080,7 +5080,7 @@
         <v>43430</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5137,7 +5137,7 @@
         <v>43432</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5194,7 +5194,7 @@
         <v>43437</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5251,7 +5251,7 @@
         <v>43438</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5308,7 +5308,7 @@
         <v>43440</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>43447</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5422,7 +5422,7 @@
         <v>43452</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>43454</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>43454</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>43454</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5650,7 +5650,7 @@
         <v>43455</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>43455</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5764,7 +5764,7 @@
         <v>43461</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5821,7 +5821,7 @@
         <v>43461</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         <v>43468</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5935,7 +5935,7 @@
         <v>43480</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>43480</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6049,7 +6049,7 @@
         <v>43482</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6106,7 +6106,7 @@
         <v>43488</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>43500</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>43501</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6277,7 +6277,7 @@
         <v>43502</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6334,7 +6334,7 @@
         <v>43503</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
         <v>43511</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>43511</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>43515</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6567,7 +6567,7 @@
         <v>43521</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6624,7 +6624,7 @@
         <v>43522</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6681,7 +6681,7 @@
         <v>43525</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6738,7 +6738,7 @@
         <v>43528</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6795,7 +6795,7 @@
         <v>43528</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6852,7 +6852,7 @@
         <v>43529</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>43529</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>43530</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>43530</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>43535</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>43538</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>43539</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>43551</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>43552</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>43556</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>43559</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>43560</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>43560</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>43562</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>43563</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>43567</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>43570</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>43570</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>43580</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>43580</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>43581</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8059,7 +8059,7 @@
         <v>43598</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8116,7 +8116,7 @@
         <v>43598</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8173,7 +8173,7 @@
         <v>43606</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8230,7 +8230,7 @@
         <v>43607</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8287,7 +8287,7 @@
         <v>43608</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8344,7 +8344,7 @@
         <v>43609</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8401,7 +8401,7 @@
         <v>43615</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8458,7 +8458,7 @@
         <v>43628</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         <v>43633</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>43636</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8634,7 +8634,7 @@
         <v>43641</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8691,7 +8691,7 @@
         <v>43641</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8753,7 +8753,7 @@
         <v>43644</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8810,7 +8810,7 @@
         <v>43651</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8867,7 +8867,7 @@
         <v>43651</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8924,7 +8924,7 @@
         <v>43654</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8986,7 +8986,7 @@
         <v>43656</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9048,7 +9048,7 @@
         <v>43676</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9105,7 +9105,7 @@
         <v>43689</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9162,7 +9162,7 @@
         <v>43689</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9219,7 +9219,7 @@
         <v>43696</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9276,7 +9276,7 @@
         <v>43697</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         <v>43705</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9390,7 +9390,7 @@
         <v>43705</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         <v>43710</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>43710</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>43711</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9618,7 +9618,7 @@
         <v>43713</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9675,7 +9675,7 @@
         <v>43717</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9732,7 +9732,7 @@
         <v>43719</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9789,7 +9789,7 @@
         <v>43719</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9846,7 +9846,7 @@
         <v>43725</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9903,7 +9903,7 @@
         <v>43731</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9965,7 +9965,7 @@
         <v>43731</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         <v>43735</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10084,7 +10084,7 @@
         <v>43735</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10141,7 +10141,7 @@
         <v>43735</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10198,7 +10198,7 @@
         <v>43737</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10255,7 +10255,7 @@
         <v>43738</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10312,7 +10312,7 @@
         <v>43740</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10369,7 +10369,7 @@
         <v>43741</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10426,7 +10426,7 @@
         <v>43742</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>43745</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10545,7 +10545,7 @@
         <v>43745</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>43747</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
         <v>43749</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10726,7 +10726,7 @@
         <v>43749</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10783,7 +10783,7 @@
         <v>43754</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10840,7 +10840,7 @@
         <v>43766</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10897,7 +10897,7 @@
         <v>43766</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10974,7 +10974,7 @@
         <v>43768</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11031,7 +11031,7 @@
         <v>43775</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11088,7 +11088,7 @@
         <v>43781</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>43782</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>43783</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>43783</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>43787</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>43787</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>43787</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>43794</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11549,7 +11549,7 @@
         <v>43797</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11606,7 +11606,7 @@
         <v>43802</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11663,7 +11663,7 @@
         <v>43808</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11720,7 +11720,7 @@
         <v>43817</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11777,7 +11777,7 @@
         <v>43818</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11834,7 +11834,7 @@
         <v>43843</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11891,7 +11891,7 @@
         <v>43844</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11948,7 +11948,7 @@
         <v>43845</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>43846</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>43847</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>43852</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12176,7 +12176,7 @@
         <v>43852</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12238,7 +12238,7 @@
         <v>43858</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12300,7 +12300,7 @@
         <v>43860</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12357,7 +12357,7 @@
         <v>43861</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12414,7 +12414,7 @@
         <v>43863</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12471,7 +12471,7 @@
         <v>43864</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12533,7 +12533,7 @@
         <v>43864</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12590,7 +12590,7 @@
         <v>43866</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
         <v>43867</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12704,7 +12704,7 @@
         <v>43867</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12761,7 +12761,7 @@
         <v>43871</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12818,7 +12818,7 @@
         <v>43871</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>43882</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>43882</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>43891</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>43891</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13103,7 +13103,7 @@
         <v>43891</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13160,7 +13160,7 @@
         <v>43891</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
         <v>43901</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13279,7 +13279,7 @@
         <v>43901</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13336,7 +13336,7 @@
         <v>43901</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13398,7 +13398,7 @@
         <v>43901</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13455,7 +13455,7 @@
         <v>43906</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13512,7 +13512,7 @@
         <v>43909</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13569,7 +13569,7 @@
         <v>43909</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13626,7 +13626,7 @@
         <v>43909</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13683,7 +13683,7 @@
         <v>43909</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13740,7 +13740,7 @@
         <v>43913</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13797,7 +13797,7 @@
         <v>43915</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13854,7 +13854,7 @@
         <v>43916</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13911,7 +13911,7 @@
         <v>43920</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13968,7 +13968,7 @@
         <v>43920</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14025,7 +14025,7 @@
         <v>43943</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14082,7 +14082,7 @@
         <v>43944</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14139,7 +14139,7 @@
         <v>43950</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14196,7 +14196,7 @@
         <v>43950</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14253,7 +14253,7 @@
         <v>43956</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14310,7 +14310,7 @@
         <v>43958</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14367,7 +14367,7 @@
         <v>43959</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14424,7 +14424,7 @@
         <v>43959</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14486,7 +14486,7 @@
         <v>43962</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14543,7 +14543,7 @@
         <v>43963</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14600,7 +14600,7 @@
         <v>43983</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14657,7 +14657,7 @@
         <v>43983</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14714,7 +14714,7 @@
         <v>43984</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14776,7 +14776,7 @@
         <v>43987</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14833,7 +14833,7 @@
         <v>44007</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14890,7 +14890,7 @@
         <v>44013</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14947,7 +14947,7 @@
         <v>44021</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15004,7 +15004,7 @@
         <v>44025</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15061,7 +15061,7 @@
         <v>44026</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15118,7 +15118,7 @@
         <v>44035</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15175,7 +15175,7 @@
         <v>44035</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15232,7 +15232,7 @@
         <v>44048</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
         <v>44048</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         <v>44053</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15408,7 +15408,7 @@
         <v>44070</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15465,7 +15465,7 @@
         <v>44089</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15522,7 +15522,7 @@
         <v>44089</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15579,7 +15579,7 @@
         <v>44095</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15636,7 +15636,7 @@
         <v>44097</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15698,7 +15698,7 @@
         <v>44098</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15755,7 +15755,7 @@
         <v>44102</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15812,7 +15812,7 @@
         <v>44103</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15869,7 +15869,7 @@
         <v>44110</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15926,7 +15926,7 @@
         <v>44110</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15983,7 +15983,7 @@
         <v>44117</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16040,7 +16040,7 @@
         <v>44117</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16097,7 +16097,7 @@
         <v>44127</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16154,7 +16154,7 @@
         <v>44134</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16211,7 +16211,7 @@
         <v>44151</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16268,7 +16268,7 @@
         <v>44158</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16325,7 +16325,7 @@
         <v>44160</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16382,7 +16382,7 @@
         <v>44161</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16439,7 +16439,7 @@
         <v>44188</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16496,7 +16496,7 @@
         <v>44193</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16553,7 +16553,7 @@
         <v>44204</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16610,7 +16610,7 @@
         <v>44225</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16667,7 +16667,7 @@
         <v>44228</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16724,7 +16724,7 @@
         <v>44231</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16781,7 +16781,7 @@
         <v>44232</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16838,7 +16838,7 @@
         <v>44232</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16895,7 +16895,7 @@
         <v>44233</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16952,7 +16952,7 @@
         <v>44235</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17009,7 +17009,7 @@
         <v>44238</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17066,7 +17066,7 @@
         <v>44238</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17123,7 +17123,7 @@
         <v>44238</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17180,7 +17180,7 @@
         <v>44242</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17237,7 +17237,7 @@
         <v>44249</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17294,7 +17294,7 @@
         <v>44259</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17351,7 +17351,7 @@
         <v>44263</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17408,7 +17408,7 @@
         <v>44264</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17470,7 +17470,7 @@
         <v>44272</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17527,7 +17527,7 @@
         <v>44272</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17584,7 +17584,7 @@
         <v>44272</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
         <v>44278</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17698,7 +17698,7 @@
         <v>44279</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17760,7 +17760,7 @@
         <v>44280</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17817,7 +17817,7 @@
         <v>44285</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17874,7 +17874,7 @@
         <v>44285</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17931,7 +17931,7 @@
         <v>44287</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>44292</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         <v>44293</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>44299</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18159,7 +18159,7 @@
         <v>44300</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18216,7 +18216,7 @@
         <v>44308</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18273,7 +18273,7 @@
         <v>44308</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18335,7 +18335,7 @@
         <v>44309</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18392,7 +18392,7 @@
         <v>44314</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18454,7 +18454,7 @@
         <v>44315</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18511,7 +18511,7 @@
         <v>44334</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>44342</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18630,7 +18630,7 @@
         <v>44349</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18687,7 +18687,7 @@
         <v>44354</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18744,7 +18744,7 @@
         <v>44360</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18801,7 +18801,7 @@
         <v>44362</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18863,7 +18863,7 @@
         <v>44364</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18925,7 +18925,7 @@
         <v>44368</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18987,7 +18987,7 @@
         <v>44368</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19044,7 +19044,7 @@
         <v>44370</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         <v>44371</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19168,7 +19168,7 @@
         <v>44389</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19225,7 +19225,7 @@
         <v>44390</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19287,7 +19287,7 @@
         <v>44391</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19344,7 +19344,7 @@
         <v>44404</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19401,7 +19401,7 @@
         <v>44404</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19458,7 +19458,7 @@
         <v>44404</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19515,7 +19515,7 @@
         <v>44404</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19572,7 +19572,7 @@
         <v>44405</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19629,7 +19629,7 @@
         <v>44411</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19686,7 +19686,7 @@
         <v>44418</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19743,7 +19743,7 @@
         <v>44431</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19800,7 +19800,7 @@
         <v>44431</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19857,7 +19857,7 @@
         <v>44431</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19914,7 +19914,7 @@
         <v>44435</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19971,7 +19971,7 @@
         <v>44445</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20028,7 +20028,7 @@
         <v>44459</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20085,7 +20085,7 @@
         <v>44459</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20142,7 +20142,7 @@
         <v>44466</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20199,7 +20199,7 @@
         <v>44467</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20256,7 +20256,7 @@
         <v>44470</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20318,7 +20318,7 @@
         <v>44470</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20380,7 +20380,7 @@
         <v>44477</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20437,7 +20437,7 @@
         <v>44477</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20499,7 +20499,7 @@
         <v>44480</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20556,7 +20556,7 @@
         <v>44480</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20613,7 +20613,7 @@
         <v>44491</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20670,7 +20670,7 @@
         <v>44495</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20727,7 +20727,7 @@
         <v>44508</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20784,7 +20784,7 @@
         <v>44509</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20841,7 +20841,7 @@
         <v>44509</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20898,7 +20898,7 @@
         <v>44509</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20955,7 +20955,7 @@
         <v>44511</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21012,7 +21012,7 @@
         <v>44512</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21074,7 +21074,7 @@
         <v>44516</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21131,7 +21131,7 @@
         <v>44516</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         <v>44519</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21250,7 +21250,7 @@
         <v>44519</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21312,7 +21312,7 @@
         <v>44519</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21374,7 +21374,7 @@
         <v>44522</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21431,7 +21431,7 @@
         <v>44524</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21488,7 +21488,7 @@
         <v>44529</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21545,7 +21545,7 @@
         <v>44529</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21602,7 +21602,7 @@
         <v>44531</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21659,7 +21659,7 @@
         <v>44532</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21716,7 +21716,7 @@
         <v>44533</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21773,7 +21773,7 @@
         <v>44533</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21830,7 +21830,7 @@
         <v>44538</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21887,7 +21887,7 @@
         <v>44543</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21944,7 +21944,7 @@
         <v>44544</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22001,7 +22001,7 @@
         <v>44545</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22058,7 +22058,7 @@
         <v>44550</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22115,7 +22115,7 @@
         <v>44551</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22172,7 +22172,7 @@
         <v>44552</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22229,7 +22229,7 @@
         <v>44565</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22286,7 +22286,7 @@
         <v>44568</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22343,7 +22343,7 @@
         <v>44573</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22400,7 +22400,7 @@
         <v>44573</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22462,7 +22462,7 @@
         <v>44574</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22519,7 +22519,7 @@
         <v>44574</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22576,7 +22576,7 @@
         <v>44574</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22633,7 +22633,7 @@
         <v>44578</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22695,7 +22695,7 @@
         <v>44578</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22752,7 +22752,7 @@
         <v>44585</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22809,7 +22809,7 @@
         <v>44586</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         <v>44587</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22923,7 +22923,7 @@
         <v>44594</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22980,7 +22980,7 @@
         <v>44595</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23037,7 +23037,7 @@
         <v>44599</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23094,7 +23094,7 @@
         <v>44601</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23151,7 +23151,7 @@
         <v>44614</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23208,7 +23208,7 @@
         <v>44616</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23265,7 +23265,7 @@
         <v>44620</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23322,7 +23322,7 @@
         <v>44624</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23379,7 +23379,7 @@
         <v>44624</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23436,7 +23436,7 @@
         <v>44644</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23493,7 +23493,7 @@
         <v>44659</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23550,7 +23550,7 @@
         <v>44662</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23612,7 +23612,7 @@
         <v>44662</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23674,7 +23674,7 @@
         <v>44673</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23736,7 +23736,7 @@
         <v>44684</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23798,7 +23798,7 @@
         <v>44685</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23855,7 +23855,7 @@
         <v>44691</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23912,7 +23912,7 @@
         <v>44694</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23969,7 +23969,7 @@
         <v>44694</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24031,7 +24031,7 @@
         <v>44694</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24088,7 +24088,7 @@
         <v>44694</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24150,7 +24150,7 @@
         <v>44697</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24212,7 +24212,7 @@
         <v>44701</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24274,7 +24274,7 @@
         <v>44711</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24331,7 +24331,7 @@
         <v>44711</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24388,7 +24388,7 @@
         <v>44712</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24445,7 +24445,7 @@
         <v>44713</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24507,7 +24507,7 @@
         <v>44715</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24564,7 +24564,7 @@
         <v>44723</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24621,7 +24621,7 @@
         <v>44732</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24678,7 +24678,7 @@
         <v>44733</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24740,7 +24740,7 @@
         <v>44734</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24797,7 +24797,7 @@
         <v>44735</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24854,7 +24854,7 @@
         <v>44739</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24911,7 +24911,7 @@
         <v>44748</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24968,7 +24968,7 @@
         <v>44753</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25025,7 +25025,7 @@
         <v>44754</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25087,7 +25087,7 @@
         <v>44754</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25144,7 +25144,7 @@
         <v>44769</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25201,7 +25201,7 @@
         <v>44788</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25258,7 +25258,7 @@
         <v>44790</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25315,7 +25315,7 @@
         <v>44791</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25372,7 +25372,7 @@
         <v>44792</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25429,7 +25429,7 @@
         <v>44802</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25486,7 +25486,7 @@
         <v>44810</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25548,7 +25548,7 @@
         <v>44810</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25610,7 +25610,7 @@
         <v>44810</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25672,7 +25672,7 @@
         <v>44820</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25729,7 +25729,7 @@
         <v>44820</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25791,7 +25791,7 @@
         <v>44820</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25853,7 +25853,7 @@
         <v>44823</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25910,7 +25910,7 @@
         <v>44823</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25972,7 +25972,7 @@
         <v>44824</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26034,7 +26034,7 @@
         <v>44826</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26091,7 +26091,7 @@
         <v>44827</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26148,7 +26148,7 @@
         <v>44832</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26205,7 +26205,7 @@
         <v>44833</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26262,7 +26262,7 @@
         <v>44838</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26319,7 +26319,7 @@
         <v>44840</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26381,7 +26381,7 @@
         <v>44844</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26438,7 +26438,7 @@
         <v>44847</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26495,7 +26495,7 @@
         <v>44847</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26552,7 +26552,7 @@
         <v>44853</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26609,7 +26609,7 @@
         <v>44862</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26666,7 +26666,7 @@
         <v>44872</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26728,7 +26728,7 @@
         <v>44875</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26785,7 +26785,7 @@
         <v>44875</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26842,7 +26842,7 @@
         <v>44886</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26899,7 +26899,7 @@
         <v>44886</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26956,7 +26956,7 @@
         <v>44887</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27013,7 +27013,7 @@
         <v>44888</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27075,7 +27075,7 @@
         <v>44888</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27157,7 +27157,7 @@
         <v>44901</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27214,7 +27214,7 @@
         <v>44903</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27271,7 +27271,7 @@
         <v>44907</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27328,7 +27328,7 @@
         <v>44909</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27390,7 +27390,7 @@
         <v>44909</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27452,7 +27452,7 @@
         <v>44910</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27514,7 +27514,7 @@
         <v>44911</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27571,7 +27571,7 @@
         <v>44913</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27628,7 +27628,7 @@
         <v>44914</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27685,7 +27685,7 @@
         <v>44914</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27742,7 +27742,7 @@
         <v>44916</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27799,7 +27799,7 @@
         <v>44917</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27856,7 +27856,7 @@
         <v>44917</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27913,7 +27913,7 @@
         <v>44939</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27970,7 +27970,7 @@
         <v>44944</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28027,7 +28027,7 @@
         <v>44944</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28084,7 +28084,7 @@
         <v>44946</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28141,7 +28141,7 @@
         <v>44950</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28198,7 +28198,7 @@
         <v>44951</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28255,7 +28255,7 @@
         <v>44956</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28317,7 +28317,7 @@
         <v>44974</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28374,7 +28374,7 @@
         <v>44974</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28431,7 +28431,7 @@
         <v>44974</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28488,7 +28488,7 @@
         <v>44978</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28545,7 +28545,7 @@
         <v>44980</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28602,7 +28602,7 @@
         <v>44981</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28659,7 +28659,7 @@
         <v>44981</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28716,7 +28716,7 @@
         <v>44981</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28773,7 +28773,7 @@
         <v>44984</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28830,7 +28830,7 @@
         <v>44984</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28892,7 +28892,7 @@
         <v>44984</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28949,7 +28949,7 @@
         <v>44987</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29006,7 +29006,7 @@
         <v>44993</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29063,7 +29063,7 @@
         <v>44999</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29125,7 +29125,7 @@
         <v>45000</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29182,7 +29182,7 @@
         <v>45005</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29244,7 +29244,7 @@
         <v>45006</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29301,7 +29301,7 @@
         <v>45006</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29358,7 +29358,7 @@
         <v>45008</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29415,7 +29415,7 @@
         <v>45008</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29472,7 +29472,7 @@
         <v>45013</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29529,7 +29529,7 @@
         <v>45019</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29586,7 +29586,7 @@
         <v>45019</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29643,7 +29643,7 @@
         <v>45020</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29700,7 +29700,7 @@
         <v>45022</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29762,7 +29762,7 @@
         <v>45022</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29824,7 +29824,7 @@
         <v>45027</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29881,7 +29881,7 @@
         <v>45029</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29938,7 +29938,7 @@
         <v>45030</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29995,7 +29995,7 @@
         <v>45035</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30052,7 +30052,7 @@
         <v>45043</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30109,7 +30109,7 @@
         <v>45043</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30166,7 +30166,7 @@
         <v>45044</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30223,7 +30223,7 @@
         <v>45050</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30285,7 +30285,7 @@
         <v>45050</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30347,7 +30347,7 @@
         <v>45050</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30409,7 +30409,7 @@
         <v>45050</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30471,7 +30471,7 @@
         <v>45050</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30533,7 +30533,7 @@
         <v>45050</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30595,7 +30595,7 @@
         <v>45050</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30677,7 +30677,7 @@
         <v>45058</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30739,7 +30739,7 @@
         <v>45058</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30801,7 +30801,7 @@
         <v>45058</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30863,7 +30863,7 @@
         <v>45058</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30925,7 +30925,7 @@
         <v>45062</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30982,7 +30982,7 @@
         <v>45062</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31039,7 +31039,7 @@
         <v>45065</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31096,7 +31096,7 @@
         <v>45068</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31153,7 +31153,7 @@
         <v>45068</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31215,7 +31215,7 @@
         <v>45071</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31272,7 +31272,7 @@
         <v>45071</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31329,7 +31329,7 @@
         <v>45075</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31386,7 +31386,7 @@
         <v>45082</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31443,7 +31443,7 @@
         <v>45082</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31500,7 +31500,7 @@
         <v>45083</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31557,7 +31557,7 @@
         <v>45083</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31614,7 +31614,7 @@
         <v>45083</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31671,7 +31671,7 @@
         <v>45083</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31728,7 +31728,7 @@
         <v>45086</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31785,7 +31785,7 @@
         <v>45089</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31842,7 +31842,7 @@
         <v>45089</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31899,7 +31899,7 @@
         <v>45090</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31961,7 +31961,7 @@
         <v>45091</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32018,7 +32018,7 @@
         <v>45091</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32080,7 +32080,7 @@
         <v>45091</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32142,7 +32142,7 @@
         <v>45092</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32199,7 +32199,7 @@
         <v>45092</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32256,7 +32256,7 @@
         <v>45092</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32313,7 +32313,7 @@
         <v>45092</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32375,7 +32375,7 @@
         <v>45092</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32432,7 +32432,7 @@
         <v>45098</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32489,7 +32489,7 @@
         <v>45099</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32546,7 +32546,7 @@
         <v>45103</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32608,7 +32608,7 @@
         <v>45103</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32665,7 +32665,7 @@
         <v>45103</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32727,7 +32727,7 @@
         <v>45105</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32784,7 +32784,7 @@
         <v>45111</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32841,7 +32841,7 @@
         <v>45112</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32903,7 +32903,7 @@
         <v>45113</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32965,7 +32965,7 @@
         <v>45113</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33022,7 +33022,7 @@
         <v>45114</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33079,7 +33079,7 @@
         <v>45117</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33136,7 +33136,7 @@
         <v>45117</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33193,7 +33193,7 @@
         <v>45117</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33270,7 +33270,7 @@
         <v>45117</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33327,7 +33327,7 @@
         <v>45117</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33384,7 +33384,7 @@
         <v>45117</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33441,7 +33441,7 @@
         <v>45117</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33498,7 +33498,7 @@
         <v>45118</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33555,7 +33555,7 @@
         <v>45119</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33617,7 +33617,7 @@
         <v>45120</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33674,7 +33674,7 @@
         <v>45126</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33731,7 +33731,7 @@
         <v>45131</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33788,7 +33788,7 @@
         <v>45133</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33845,7 +33845,7 @@
         <v>45135</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33902,7 +33902,7 @@
         <v>45166</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33959,7 +33959,7 @@
         <v>45166</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34016,7 +34016,7 @@
         <v>45168</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34078,7 +34078,7 @@
         <v>45168</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>

--- a/Översikt HEBY.xlsx
+++ b/Översikt HEBY.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y556"/>
+  <dimension ref="A1:Y557"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44914</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>43515</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>43805</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -854,7 +854,7 @@
         <v>43689</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>44824</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1047,7 +1047,7 @@
         <v>44914</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
         <v>44915</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>45117</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>43529</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         <v>44489</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         <v>44670</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         <v>44832</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         <v>45153</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>44049</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1865,7 +1865,7 @@
         <v>44712</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1951,7 +1951,7 @@
         <v>44889</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>44895</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>45014</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         <v>45092</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2381,7 +2381,7 @@
         <v>45124</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         <v>43523</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>43559</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>43851</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
         <v>43853</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2807,7 +2807,7 @@
         <v>43901</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2897,7 +2897,7 @@
         <v>44002</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2986,7 +2986,7 @@
         <v>44161</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3071,7 +3071,7 @@
         <v>44376</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         <v>44395</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>44568</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3330,7 +3330,7 @@
         <v>44609</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3415,7 +3415,7 @@
         <v>44805</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3500,7 +3500,7 @@
         <v>44847</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         <v>45020</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>45035</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>45037</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>45093</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>45098</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>45111</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>45120</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4188,7 +4188,7 @@
         <v>45120</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>45120</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4358,7 +4358,7 @@
         <v>45133</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4443,7 +4443,7 @@
         <v>43342</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4505,7 +4505,7 @@
         <v>43349</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>43374</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>43409</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>43413</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         <v>43416</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         <v>43418</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>43419</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>43423</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>43430</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         <v>43430</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5080,7 +5080,7 @@
         <v>43430</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5137,7 +5137,7 @@
         <v>43432</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5194,7 +5194,7 @@
         <v>43437</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5251,7 +5251,7 @@
         <v>43438</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5308,7 +5308,7 @@
         <v>43440</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>43447</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5422,7 +5422,7 @@
         <v>43452</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>43454</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>43454</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>43454</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5650,7 +5650,7 @@
         <v>43455</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>43455</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5764,7 +5764,7 @@
         <v>43461</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5821,7 +5821,7 @@
         <v>43461</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         <v>43468</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5935,7 +5935,7 @@
         <v>43480</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>43480</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6049,7 +6049,7 @@
         <v>43482</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6106,7 +6106,7 @@
         <v>43488</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>43500</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>43501</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6277,7 +6277,7 @@
         <v>43502</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6334,7 +6334,7 @@
         <v>43503</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
         <v>43511</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>43511</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>43515</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6567,7 +6567,7 @@
         <v>43521</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6624,7 +6624,7 @@
         <v>43522</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6681,7 +6681,7 @@
         <v>43525</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6738,7 +6738,7 @@
         <v>43528</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6795,7 +6795,7 @@
         <v>43528</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6852,7 +6852,7 @@
         <v>43529</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>43529</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>43530</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>43530</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>43535</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>43538</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>43539</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>43551</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>43552</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>43556</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>43559</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>43560</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>43560</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>43562</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>43563</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>43567</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>43570</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>43570</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>43580</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>43580</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>43581</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8059,7 +8059,7 @@
         <v>43598</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8116,7 +8116,7 @@
         <v>43598</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8173,7 +8173,7 @@
         <v>43606</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8230,7 +8230,7 @@
         <v>43607</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8287,7 +8287,7 @@
         <v>43608</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8344,7 +8344,7 @@
         <v>43609</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8401,7 +8401,7 @@
         <v>43615</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8458,7 +8458,7 @@
         <v>43628</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         <v>43633</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>43636</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8634,7 +8634,7 @@
         <v>43641</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8691,7 +8691,7 @@
         <v>43641</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8753,7 +8753,7 @@
         <v>43644</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8810,7 +8810,7 @@
         <v>43651</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8867,7 +8867,7 @@
         <v>43651</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8924,7 +8924,7 @@
         <v>43654</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8986,7 +8986,7 @@
         <v>43656</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9048,7 +9048,7 @@
         <v>43676</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9105,7 +9105,7 @@
         <v>43689</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9162,7 +9162,7 @@
         <v>43689</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9219,7 +9219,7 @@
         <v>43696</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9276,7 +9276,7 @@
         <v>43697</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         <v>43705</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9390,7 +9390,7 @@
         <v>43705</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         <v>43710</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>43710</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>43711</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9618,7 +9618,7 @@
         <v>43713</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9675,7 +9675,7 @@
         <v>43717</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9732,7 +9732,7 @@
         <v>43719</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9789,7 +9789,7 @@
         <v>43719</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9846,7 +9846,7 @@
         <v>43725</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9903,7 +9903,7 @@
         <v>43731</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9965,7 +9965,7 @@
         <v>43731</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         <v>43735</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10084,7 +10084,7 @@
         <v>43735</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10141,7 +10141,7 @@
         <v>43735</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10198,7 +10198,7 @@
         <v>43737</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10255,7 +10255,7 @@
         <v>43738</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10312,7 +10312,7 @@
         <v>43740</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10369,7 +10369,7 @@
         <v>43741</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10426,7 +10426,7 @@
         <v>43742</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>43745</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10545,7 +10545,7 @@
         <v>43745</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>43747</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
         <v>43749</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10726,7 +10726,7 @@
         <v>43749</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10783,7 +10783,7 @@
         <v>43754</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10840,7 +10840,7 @@
         <v>43766</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10897,7 +10897,7 @@
         <v>43766</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10974,7 +10974,7 @@
         <v>43768</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11031,7 +11031,7 @@
         <v>43775</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11088,7 +11088,7 @@
         <v>43781</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>43782</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>43783</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>43783</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>43787</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>43787</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>43787</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>43794</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11549,7 +11549,7 @@
         <v>43797</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11606,7 +11606,7 @@
         <v>43802</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11663,7 +11663,7 @@
         <v>43808</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11720,7 +11720,7 @@
         <v>43817</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11777,7 +11777,7 @@
         <v>43818</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11834,7 +11834,7 @@
         <v>43843</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11891,7 +11891,7 @@
         <v>43844</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11948,7 +11948,7 @@
         <v>43845</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>43846</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>43847</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>43852</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12176,7 +12176,7 @@
         <v>43852</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12238,7 +12238,7 @@
         <v>43858</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12300,7 +12300,7 @@
         <v>43860</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12357,7 +12357,7 @@
         <v>43861</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12414,7 +12414,7 @@
         <v>43863</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12471,7 +12471,7 @@
         <v>43864</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12533,7 +12533,7 @@
         <v>43864</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12590,7 +12590,7 @@
         <v>43866</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
         <v>43867</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12704,7 +12704,7 @@
         <v>43867</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12761,7 +12761,7 @@
         <v>43871</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12818,7 +12818,7 @@
         <v>43871</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>43882</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>43882</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>43891</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>43891</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13103,7 +13103,7 @@
         <v>43891</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13160,7 +13160,7 @@
         <v>43891</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
         <v>43901</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13279,7 +13279,7 @@
         <v>43901</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13336,7 +13336,7 @@
         <v>43901</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13398,7 +13398,7 @@
         <v>43901</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13455,7 +13455,7 @@
         <v>43906</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13512,7 +13512,7 @@
         <v>43909</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13569,7 +13569,7 @@
         <v>43909</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13626,7 +13626,7 @@
         <v>43909</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13683,7 +13683,7 @@
         <v>43909</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13740,7 +13740,7 @@
         <v>43913</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13797,7 +13797,7 @@
         <v>43915</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13854,7 +13854,7 @@
         <v>43916</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13911,7 +13911,7 @@
         <v>43920</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13968,7 +13968,7 @@
         <v>43920</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14025,7 +14025,7 @@
         <v>43943</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14082,7 +14082,7 @@
         <v>43944</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14139,7 +14139,7 @@
         <v>43950</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14196,7 +14196,7 @@
         <v>43950</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14253,7 +14253,7 @@
         <v>43956</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14310,7 +14310,7 @@
         <v>43958</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14367,7 +14367,7 @@
         <v>43959</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14424,7 +14424,7 @@
         <v>43959</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14486,7 +14486,7 @@
         <v>43962</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14543,7 +14543,7 @@
         <v>43963</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14600,7 +14600,7 @@
         <v>43983</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14657,7 +14657,7 @@
         <v>43983</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14714,7 +14714,7 @@
         <v>43984</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14776,7 +14776,7 @@
         <v>43987</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14833,7 +14833,7 @@
         <v>44007</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14890,7 +14890,7 @@
         <v>44013</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14947,7 +14947,7 @@
         <v>44021</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15004,7 +15004,7 @@
         <v>44025</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15061,7 +15061,7 @@
         <v>44026</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15118,7 +15118,7 @@
         <v>44035</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15175,7 +15175,7 @@
         <v>44035</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15232,7 +15232,7 @@
         <v>44048</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
         <v>44048</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         <v>44053</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15408,7 +15408,7 @@
         <v>44070</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15465,7 +15465,7 @@
         <v>44089</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15522,7 +15522,7 @@
         <v>44089</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15579,7 +15579,7 @@
         <v>44095</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15636,7 +15636,7 @@
         <v>44097</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15698,7 +15698,7 @@
         <v>44098</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15755,7 +15755,7 @@
         <v>44102</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15812,7 +15812,7 @@
         <v>44103</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15869,7 +15869,7 @@
         <v>44110</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15926,7 +15926,7 @@
         <v>44110</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15983,7 +15983,7 @@
         <v>44117</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16040,7 +16040,7 @@
         <v>44117</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16097,7 +16097,7 @@
         <v>44127</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16154,7 +16154,7 @@
         <v>44134</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16211,7 +16211,7 @@
         <v>44151</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16268,7 +16268,7 @@
         <v>44158</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16325,7 +16325,7 @@
         <v>44160</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16382,7 +16382,7 @@
         <v>44161</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16439,7 +16439,7 @@
         <v>44188</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16496,7 +16496,7 @@
         <v>44193</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16553,7 +16553,7 @@
         <v>44204</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16610,7 +16610,7 @@
         <v>44225</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16667,7 +16667,7 @@
         <v>44228</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16724,7 +16724,7 @@
         <v>44231</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16781,7 +16781,7 @@
         <v>44232</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16838,7 +16838,7 @@
         <v>44232</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16895,7 +16895,7 @@
         <v>44233</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16952,7 +16952,7 @@
         <v>44235</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17009,7 +17009,7 @@
         <v>44238</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17066,7 +17066,7 @@
         <v>44238</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17123,7 +17123,7 @@
         <v>44238</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17180,7 +17180,7 @@
         <v>44242</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17237,7 +17237,7 @@
         <v>44249</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17294,7 +17294,7 @@
         <v>44259</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17351,7 +17351,7 @@
         <v>44263</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17408,7 +17408,7 @@
         <v>44264</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17470,7 +17470,7 @@
         <v>44272</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17527,7 +17527,7 @@
         <v>44272</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17584,7 +17584,7 @@
         <v>44272</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
         <v>44278</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17698,7 +17698,7 @@
         <v>44279</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17760,7 +17760,7 @@
         <v>44280</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17817,7 +17817,7 @@
         <v>44285</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17874,7 +17874,7 @@
         <v>44285</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17931,7 +17931,7 @@
         <v>44287</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>44292</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         <v>44293</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>44299</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18159,7 +18159,7 @@
         <v>44300</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18216,7 +18216,7 @@
         <v>44308</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18273,7 +18273,7 @@
         <v>44308</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18335,7 +18335,7 @@
         <v>44309</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18392,7 +18392,7 @@
         <v>44314</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18454,7 +18454,7 @@
         <v>44315</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18511,7 +18511,7 @@
         <v>44334</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>44342</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18630,7 +18630,7 @@
         <v>44349</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18687,7 +18687,7 @@
         <v>44354</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18744,7 +18744,7 @@
         <v>44360</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18801,7 +18801,7 @@
         <v>44362</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18863,7 +18863,7 @@
         <v>44364</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18925,7 +18925,7 @@
         <v>44368</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18987,7 +18987,7 @@
         <v>44368</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19044,7 +19044,7 @@
         <v>44370</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         <v>44371</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19168,7 +19168,7 @@
         <v>44389</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19225,7 +19225,7 @@
         <v>44390</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19287,7 +19287,7 @@
         <v>44391</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19344,7 +19344,7 @@
         <v>44404</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19401,7 +19401,7 @@
         <v>44404</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19458,7 +19458,7 @@
         <v>44404</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19515,7 +19515,7 @@
         <v>44404</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19572,7 +19572,7 @@
         <v>44405</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19629,7 +19629,7 @@
         <v>44411</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19686,7 +19686,7 @@
         <v>44418</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19743,7 +19743,7 @@
         <v>44431</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19800,7 +19800,7 @@
         <v>44431</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19857,7 +19857,7 @@
         <v>44431</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19914,7 +19914,7 @@
         <v>44435</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19971,7 +19971,7 @@
         <v>44445</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20028,7 +20028,7 @@
         <v>44459</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20085,7 +20085,7 @@
         <v>44459</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20142,7 +20142,7 @@
         <v>44466</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20199,7 +20199,7 @@
         <v>44467</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20256,7 +20256,7 @@
         <v>44470</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20318,7 +20318,7 @@
         <v>44470</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20380,7 +20380,7 @@
         <v>44477</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20437,7 +20437,7 @@
         <v>44477</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20499,7 +20499,7 @@
         <v>44480</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20556,7 +20556,7 @@
         <v>44480</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20613,7 +20613,7 @@
         <v>44491</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20670,7 +20670,7 @@
         <v>44495</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20727,7 +20727,7 @@
         <v>44508</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20784,7 +20784,7 @@
         <v>44509</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20841,7 +20841,7 @@
         <v>44509</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20898,7 +20898,7 @@
         <v>44509</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20955,7 +20955,7 @@
         <v>44511</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21012,7 +21012,7 @@
         <v>44512</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21074,7 +21074,7 @@
         <v>44516</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21131,7 +21131,7 @@
         <v>44516</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         <v>44519</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21250,7 +21250,7 @@
         <v>44519</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21312,7 +21312,7 @@
         <v>44519</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21374,7 +21374,7 @@
         <v>44522</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21431,7 +21431,7 @@
         <v>44524</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21488,7 +21488,7 @@
         <v>44529</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21545,7 +21545,7 @@
         <v>44529</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21602,7 +21602,7 @@
         <v>44531</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21659,7 +21659,7 @@
         <v>44532</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21716,7 +21716,7 @@
         <v>44533</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21773,7 +21773,7 @@
         <v>44533</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21830,7 +21830,7 @@
         <v>44538</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21887,7 +21887,7 @@
         <v>44543</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21944,7 +21944,7 @@
         <v>44544</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22001,7 +22001,7 @@
         <v>44545</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22058,7 +22058,7 @@
         <v>44550</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22115,7 +22115,7 @@
         <v>44551</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22172,7 +22172,7 @@
         <v>44552</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22229,7 +22229,7 @@
         <v>44565</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22286,7 +22286,7 @@
         <v>44568</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22343,7 +22343,7 @@
         <v>44573</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22400,7 +22400,7 @@
         <v>44573</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22462,7 +22462,7 @@
         <v>44574</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22519,7 +22519,7 @@
         <v>44574</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22576,7 +22576,7 @@
         <v>44574</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22633,7 +22633,7 @@
         <v>44578</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22695,7 +22695,7 @@
         <v>44578</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22752,7 +22752,7 @@
         <v>44585</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22809,7 +22809,7 @@
         <v>44586</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         <v>44587</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22923,7 +22923,7 @@
         <v>44594</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22980,7 +22980,7 @@
         <v>44595</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23037,7 +23037,7 @@
         <v>44599</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23094,7 +23094,7 @@
         <v>44601</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23151,7 +23151,7 @@
         <v>44614</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23208,7 +23208,7 @@
         <v>44616</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23265,7 +23265,7 @@
         <v>44620</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23322,7 +23322,7 @@
         <v>44624</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23379,7 +23379,7 @@
         <v>44624</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23436,7 +23436,7 @@
         <v>44644</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23493,7 +23493,7 @@
         <v>44659</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23550,7 +23550,7 @@
         <v>44662</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23612,7 +23612,7 @@
         <v>44662</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23674,7 +23674,7 @@
         <v>44673</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23736,7 +23736,7 @@
         <v>44684</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23798,7 +23798,7 @@
         <v>44685</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23855,7 +23855,7 @@
         <v>44691</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23912,7 +23912,7 @@
         <v>44694</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23969,7 +23969,7 @@
         <v>44694</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24031,7 +24031,7 @@
         <v>44694</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24088,7 +24088,7 @@
         <v>44694</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24150,7 +24150,7 @@
         <v>44697</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24212,7 +24212,7 @@
         <v>44701</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24274,7 +24274,7 @@
         <v>44711</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24331,7 +24331,7 @@
         <v>44711</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24388,7 +24388,7 @@
         <v>44712</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24445,7 +24445,7 @@
         <v>44713</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24507,7 +24507,7 @@
         <v>44715</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24564,7 +24564,7 @@
         <v>44723</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24621,7 +24621,7 @@
         <v>44732</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24678,7 +24678,7 @@
         <v>44733</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24740,7 +24740,7 @@
         <v>44734</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24797,7 +24797,7 @@
         <v>44735</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24854,7 +24854,7 @@
         <v>44739</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24911,7 +24911,7 @@
         <v>44748</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24968,7 +24968,7 @@
         <v>44753</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25025,7 +25025,7 @@
         <v>44754</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25087,7 +25087,7 @@
         <v>44754</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25144,7 +25144,7 @@
         <v>44769</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25201,7 +25201,7 @@
         <v>44788</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25258,7 +25258,7 @@
         <v>44790</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25315,7 +25315,7 @@
         <v>44791</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25372,7 +25372,7 @@
         <v>44792</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25429,7 +25429,7 @@
         <v>44802</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25486,7 +25486,7 @@
         <v>44810</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25548,7 +25548,7 @@
         <v>44810</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25610,7 +25610,7 @@
         <v>44810</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25672,7 +25672,7 @@
         <v>44820</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25729,7 +25729,7 @@
         <v>44820</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25791,7 +25791,7 @@
         <v>44820</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25853,7 +25853,7 @@
         <v>44823</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25910,7 +25910,7 @@
         <v>44823</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25972,7 +25972,7 @@
         <v>44824</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26034,7 +26034,7 @@
         <v>44826</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26091,7 +26091,7 @@
         <v>44827</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26148,7 +26148,7 @@
         <v>44832</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26205,7 +26205,7 @@
         <v>44833</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26262,7 +26262,7 @@
         <v>44838</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26319,7 +26319,7 @@
         <v>44840</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26381,7 +26381,7 @@
         <v>44844</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26438,7 +26438,7 @@
         <v>44847</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26495,7 +26495,7 @@
         <v>44847</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26552,7 +26552,7 @@
         <v>44853</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26609,7 +26609,7 @@
         <v>44862</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26666,7 +26666,7 @@
         <v>44872</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26728,7 +26728,7 @@
         <v>44875</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26785,7 +26785,7 @@
         <v>44875</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26842,7 +26842,7 @@
         <v>44886</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26899,7 +26899,7 @@
         <v>44886</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26956,7 +26956,7 @@
         <v>44887</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27013,7 +27013,7 @@
         <v>44888</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27075,7 +27075,7 @@
         <v>44888</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27157,7 +27157,7 @@
         <v>44901</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27214,7 +27214,7 @@
         <v>44903</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27271,7 +27271,7 @@
         <v>44907</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27328,7 +27328,7 @@
         <v>44909</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27390,7 +27390,7 @@
         <v>44909</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27452,7 +27452,7 @@
         <v>44910</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27514,7 +27514,7 @@
         <v>44911</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27571,7 +27571,7 @@
         <v>44913</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27628,7 +27628,7 @@
         <v>44914</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27685,7 +27685,7 @@
         <v>44914</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27742,7 +27742,7 @@
         <v>44916</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27799,7 +27799,7 @@
         <v>44917</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27856,7 +27856,7 @@
         <v>44917</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27913,7 +27913,7 @@
         <v>44939</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27970,7 +27970,7 @@
         <v>44944</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28027,7 +28027,7 @@
         <v>44944</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28084,7 +28084,7 @@
         <v>44946</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28141,7 +28141,7 @@
         <v>44950</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28198,7 +28198,7 @@
         <v>44951</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28255,7 +28255,7 @@
         <v>44956</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28317,7 +28317,7 @@
         <v>44974</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28374,7 +28374,7 @@
         <v>44974</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28431,7 +28431,7 @@
         <v>44974</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28488,7 +28488,7 @@
         <v>44978</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28545,7 +28545,7 @@
         <v>44980</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28602,7 +28602,7 @@
         <v>44981</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28659,7 +28659,7 @@
         <v>44981</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28716,7 +28716,7 @@
         <v>44981</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28773,7 +28773,7 @@
         <v>44984</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28830,7 +28830,7 @@
         <v>44984</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28892,7 +28892,7 @@
         <v>44984</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28949,7 +28949,7 @@
         <v>44987</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29006,7 +29006,7 @@
         <v>44993</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29063,7 +29063,7 @@
         <v>44999</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29125,7 +29125,7 @@
         <v>45000</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29182,7 +29182,7 @@
         <v>45005</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29244,7 +29244,7 @@
         <v>45006</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29301,7 +29301,7 @@
         <v>45006</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29358,7 +29358,7 @@
         <v>45008</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29415,7 +29415,7 @@
         <v>45008</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29472,7 +29472,7 @@
         <v>45013</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29529,7 +29529,7 @@
         <v>45019</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29586,7 +29586,7 @@
         <v>45019</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29643,7 +29643,7 @@
         <v>45020</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29700,7 +29700,7 @@
         <v>45022</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29762,7 +29762,7 @@
         <v>45022</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29824,7 +29824,7 @@
         <v>45027</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29881,7 +29881,7 @@
         <v>45029</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29938,7 +29938,7 @@
         <v>45030</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29995,7 +29995,7 @@
         <v>45035</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30052,7 +30052,7 @@
         <v>45043</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30109,7 +30109,7 @@
         <v>45043</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30166,7 +30166,7 @@
         <v>45044</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30223,7 +30223,7 @@
         <v>45050</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30285,7 +30285,7 @@
         <v>45050</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30347,7 +30347,7 @@
         <v>45050</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30409,7 +30409,7 @@
         <v>45050</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30471,7 +30471,7 @@
         <v>45050</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30533,7 +30533,7 @@
         <v>45050</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30595,7 +30595,7 @@
         <v>45050</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30677,7 +30677,7 @@
         <v>45058</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30739,7 +30739,7 @@
         <v>45058</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30801,7 +30801,7 @@
         <v>45058</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30863,7 +30863,7 @@
         <v>45058</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30925,7 +30925,7 @@
         <v>45062</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30982,7 +30982,7 @@
         <v>45062</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31039,7 +31039,7 @@
         <v>45065</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31096,7 +31096,7 @@
         <v>45068</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31153,7 +31153,7 @@
         <v>45068</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31215,7 +31215,7 @@
         <v>45071</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31272,7 +31272,7 @@
         <v>45071</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31329,7 +31329,7 @@
         <v>45075</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31386,7 +31386,7 @@
         <v>45082</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31443,7 +31443,7 @@
         <v>45082</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31500,7 +31500,7 @@
         <v>45083</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31557,7 +31557,7 @@
         <v>45083</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31614,7 +31614,7 @@
         <v>45083</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31671,7 +31671,7 @@
         <v>45083</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31728,7 +31728,7 @@
         <v>45086</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31785,7 +31785,7 @@
         <v>45089</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31842,7 +31842,7 @@
         <v>45089</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31899,7 +31899,7 @@
         <v>45090</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31961,7 +31961,7 @@
         <v>45091</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32018,7 +32018,7 @@
         <v>45091</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32080,7 +32080,7 @@
         <v>45091</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32142,7 +32142,7 @@
         <v>45092</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32199,7 +32199,7 @@
         <v>45092</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32256,7 +32256,7 @@
         <v>45092</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32313,7 +32313,7 @@
         <v>45092</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32375,7 +32375,7 @@
         <v>45092</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32432,7 +32432,7 @@
         <v>45098</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32489,7 +32489,7 @@
         <v>45099</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32546,7 +32546,7 @@
         <v>45103</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32608,7 +32608,7 @@
         <v>45103</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32665,7 +32665,7 @@
         <v>45103</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32727,7 +32727,7 @@
         <v>45105</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32784,7 +32784,7 @@
         <v>45111</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32841,7 +32841,7 @@
         <v>45112</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32903,7 +32903,7 @@
         <v>45113</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32965,7 +32965,7 @@
         <v>45113</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33022,7 +33022,7 @@
         <v>45114</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33079,7 +33079,7 @@
         <v>45117</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33136,7 +33136,7 @@
         <v>45117</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33193,7 +33193,7 @@
         <v>45117</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33270,7 +33270,7 @@
         <v>45117</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33327,7 +33327,7 @@
         <v>45117</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33384,7 +33384,7 @@
         <v>45117</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33441,7 +33441,7 @@
         <v>45117</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33498,7 +33498,7 @@
         <v>45118</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33555,7 +33555,7 @@
         <v>45119</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33617,7 +33617,7 @@
         <v>45120</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33674,7 +33674,7 @@
         <v>45126</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33731,7 +33731,7 @@
         <v>45131</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33788,7 +33788,7 @@
         <v>45133</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33845,7 +33845,7 @@
         <v>45135</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33902,7 +33902,7 @@
         <v>45166</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33959,7 +33959,7 @@
         <v>45166</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34016,7 +34016,7 @@
         <v>45168</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34068,7 +34068,7 @@
       </c>
       <c r="R555" s="2" t="inlineStr"/>
     </row>
-    <row r="556">
+    <row r="556" ht="15" customHeight="1">
       <c r="A556" t="inlineStr">
         <is>
           <t>A 39829-2023</t>
@@ -34078,7 +34078,7 @@
         <v>45168</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34129,6 +34129,63 @@
         <v>0</v>
       </c>
       <c r="R556" s="2" t="inlineStr"/>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>A 42691-2023</t>
+        </is>
+      </c>
+      <c r="B557" s="1" t="n">
+        <v>45181</v>
+      </c>
+      <c r="C557" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D557" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E557" t="inlineStr">
+        <is>
+          <t>HEBY</t>
+        </is>
+      </c>
+      <c r="G557" t="n">
+        <v>4</v>
+      </c>
+      <c r="H557" t="n">
+        <v>0</v>
+      </c>
+      <c r="I557" t="n">
+        <v>0</v>
+      </c>
+      <c r="J557" t="n">
+        <v>0</v>
+      </c>
+      <c r="K557" t="n">
+        <v>0</v>
+      </c>
+      <c r="L557" t="n">
+        <v>0</v>
+      </c>
+      <c r="M557" t="n">
+        <v>0</v>
+      </c>
+      <c r="N557" t="n">
+        <v>0</v>
+      </c>
+      <c r="O557" t="n">
+        <v>0</v>
+      </c>
+      <c r="P557" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q557" t="n">
+        <v>0</v>
+      </c>
+      <c r="R557" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt HEBY.xlsx
+++ b/Översikt HEBY.xlsx
@@ -572,7 +572,7 @@
         <v>44914</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -630,31 +630,31 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/artfynd/A 60805-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/artfynd/A 60805-2022.xlsx", "A 60805-2022")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/kartor/A 60805-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/kartor/A 60805-2022.png", "A 60805-2022")</f>
         <v/>
       </c>
       <c r="U2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/knärot/A 60805-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/knärot/A 60805-2022.png", "A 60805-2022")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomål/A 60805-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomål/A 60805-2022.docx", "A 60805-2022")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomålsmail/A 60805-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomålsmail/A 60805-2022.docx", "A 60805-2022")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsyn/A 60805-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsyn/A 60805-2022.docx", "A 60805-2022")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsynsmail/A 60805-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsynsmail/A 60805-2022.docx", "A 60805-2022")</f>
         <v/>
       </c>
     </row>
@@ -668,7 +668,7 @@
         <v>43515</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -725,27 +725,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/artfynd/A 10948-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/artfynd/A 10948-2019.xlsx", "A 10948-2019")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/kartor/A 10948-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/kartor/A 10948-2019.png", "A 10948-2019")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomål/A 10948-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomål/A 10948-2019.docx", "A 10948-2019")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomålsmail/A 10948-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomålsmail/A 10948-2019.docx", "A 10948-2019")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsyn/A 10948-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsyn/A 10948-2019.docx", "A 10948-2019")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsynsmail/A 10948-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsynsmail/A 10948-2019.docx", "A 10948-2019")</f>
         <v/>
       </c>
     </row>
@@ -759,7 +759,7 @@
         <v>43805</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -816,31 +816,31 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/artfynd/A 65970-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/artfynd/A 65970-2019.xlsx", "A 65970-2019")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/kartor/A 65970-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/kartor/A 65970-2019.png", "A 65970-2019")</f>
         <v/>
       </c>
       <c r="U4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/knärot/A 65970-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/knärot/A 65970-2019.png", "A 65970-2019")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomål/A 65970-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomål/A 65970-2019.docx", "A 65970-2019")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomålsmail/A 65970-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomålsmail/A 65970-2019.docx", "A 65970-2019")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsyn/A 65970-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsyn/A 65970-2019.docx", "A 65970-2019")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsynsmail/A 65970-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsynsmail/A 65970-2019.docx", "A 65970-2019")</f>
         <v/>
       </c>
     </row>
@@ -854,7 +854,7 @@
         <v>43689</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -910,31 +910,31 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/artfynd/A 39073-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/artfynd/A 39073-2019.xlsx", "A 39073-2019")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/kartor/A 39073-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/kartor/A 39073-2019.png", "A 39073-2019")</f>
         <v/>
       </c>
       <c r="U5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/knärot/A 39073-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/knärot/A 39073-2019.png", "A 39073-2019")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomål/A 39073-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomål/A 39073-2019.docx", "A 39073-2019")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomålsmail/A 39073-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomålsmail/A 39073-2019.docx", "A 39073-2019")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsyn/A 39073-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsyn/A 39073-2019.docx", "A 39073-2019")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsynsmail/A 39073-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsynsmail/A 39073-2019.docx", "A 39073-2019")</f>
         <v/>
       </c>
     </row>
@@ -948,7 +948,7 @@
         <v>44824</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1009,31 +1009,31 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/artfynd/A 41020-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/artfynd/A 41020-2022.xlsx", "A 41020-2022")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/kartor/A 41020-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/kartor/A 41020-2022.png", "A 41020-2022")</f>
         <v/>
       </c>
       <c r="U6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/knärot/A 41020-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/knärot/A 41020-2022.png", "A 41020-2022")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomål/A 41020-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomål/A 41020-2022.docx", "A 41020-2022")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomålsmail/A 41020-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomålsmail/A 41020-2022.docx", "A 41020-2022")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsyn/A 41020-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsyn/A 41020-2022.docx", "A 41020-2022")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsynsmail/A 41020-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsynsmail/A 41020-2022.docx", "A 41020-2022")</f>
         <v/>
       </c>
     </row>
@@ -1047,7 +1047,7 @@
         <v>44914</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1102,31 +1102,31 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/artfynd/A 62137-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/artfynd/A 62137-2022.xlsx", "A 62137-2022")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/kartor/A 62137-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/kartor/A 62137-2022.png", "A 62137-2022")</f>
         <v/>
       </c>
       <c r="U7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/knärot/A 62137-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/knärot/A 62137-2022.png", "A 62137-2022")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomål/A 62137-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomål/A 62137-2022.docx", "A 62137-2022")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomålsmail/A 62137-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomålsmail/A 62137-2022.docx", "A 62137-2022")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsyn/A 62137-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsyn/A 62137-2022.docx", "A 62137-2022")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsynsmail/A 62137-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsynsmail/A 62137-2022.docx", "A 62137-2022")</f>
         <v/>
       </c>
     </row>
@@ -1140,7 +1140,7 @@
         <v>44915</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1195,27 +1195,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/artfynd/A 61139-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/artfynd/A 61139-2022.xlsx", "A 61139-2022")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/kartor/A 61139-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/kartor/A 61139-2022.png", "A 61139-2022")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomål/A 61139-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomål/A 61139-2022.docx", "A 61139-2022")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomålsmail/A 61139-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomålsmail/A 61139-2022.docx", "A 61139-2022")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsyn/A 61139-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsyn/A 61139-2022.docx", "A 61139-2022")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsynsmail/A 61139-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsynsmail/A 61139-2022.docx", "A 61139-2022")</f>
         <v/>
       </c>
     </row>
@@ -1229,7 +1229,7 @@
         <v>45117</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1284,31 +1284,31 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/artfynd/A 31572-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/artfynd/A 31572-2023.xlsx", "A 31572-2023")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/kartor/A 31572-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/kartor/A 31572-2023.png", "A 31572-2023")</f>
         <v/>
       </c>
       <c r="U9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/knärot/A 31572-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/knärot/A 31572-2023.png", "A 31572-2023")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomål/A 31572-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomål/A 31572-2023.docx", "A 31572-2023")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomålsmail/A 31572-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomålsmail/A 31572-2023.docx", "A 31572-2023")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsyn/A 31572-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsyn/A 31572-2023.docx", "A 31572-2023")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsynsmail/A 31572-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsynsmail/A 31572-2023.docx", "A 31572-2023")</f>
         <v/>
       </c>
     </row>
@@ -1322,7 +1322,7 @@
         <v>43529</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1376,31 +1376,31 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/artfynd/A 13320-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/artfynd/A 13320-2019.xlsx", "A 13320-2019")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/kartor/A 13320-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/kartor/A 13320-2019.png", "A 13320-2019")</f>
         <v/>
       </c>
       <c r="U10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/knärot/A 13320-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/knärot/A 13320-2019.png", "A 13320-2019")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomål/A 13320-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomål/A 13320-2019.docx", "A 13320-2019")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomålsmail/A 13320-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomålsmail/A 13320-2019.docx", "A 13320-2019")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsyn/A 13320-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsyn/A 13320-2019.docx", "A 13320-2019")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsynsmail/A 13320-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsynsmail/A 13320-2019.docx", "A 13320-2019")</f>
         <v/>
       </c>
     </row>
@@ -1414,7 +1414,7 @@
         <v>44489</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1473,27 +1473,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/artfynd/A 58656-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/artfynd/A 58656-2021.xlsx", "A 58656-2021")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/kartor/A 58656-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/kartor/A 58656-2021.png", "A 58656-2021")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomål/A 58656-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomål/A 58656-2021.docx", "A 58656-2021")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomålsmail/A 58656-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomålsmail/A 58656-2021.docx", "A 58656-2021")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsyn/A 58656-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsyn/A 58656-2021.docx", "A 58656-2021")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsynsmail/A 58656-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsynsmail/A 58656-2021.docx", "A 58656-2021")</f>
         <v/>
       </c>
     </row>
@@ -1507,7 +1507,7 @@
         <v>44670</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1561,27 +1561,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/artfynd/A 16329-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/artfynd/A 16329-2022.xlsx", "A 16329-2022")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/kartor/A 16329-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/kartor/A 16329-2022.png", "A 16329-2022")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomål/A 16329-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomål/A 16329-2022.docx", "A 16329-2022")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomålsmail/A 16329-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomålsmail/A 16329-2022.docx", "A 16329-2022")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsyn/A 16329-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsyn/A 16329-2022.docx", "A 16329-2022")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsynsmail/A 16329-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsynsmail/A 16329-2022.docx", "A 16329-2022")</f>
         <v/>
       </c>
     </row>
@@ -1595,7 +1595,7 @@
         <v>44832</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1649,31 +1649,31 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/artfynd/A 42846-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/artfynd/A 42846-2022.xlsx", "A 42846-2022")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/kartor/A 42846-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/kartor/A 42846-2022.png", "A 42846-2022")</f>
         <v/>
       </c>
       <c r="U13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/knärot/A 42846-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/knärot/A 42846-2022.png", "A 42846-2022")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomål/A 42846-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomål/A 42846-2022.docx", "A 42846-2022")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomålsmail/A 42846-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomålsmail/A 42846-2022.docx", "A 42846-2022")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsyn/A 42846-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsyn/A 42846-2022.docx", "A 42846-2022")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsynsmail/A 42846-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsynsmail/A 42846-2022.docx", "A 42846-2022")</f>
         <v/>
       </c>
     </row>
@@ -1687,7 +1687,7 @@
         <v>45153</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1740,27 +1740,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/artfynd/A 36531-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/artfynd/A 36531-2023.xlsx", "A 36531-2023")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/kartor/A 36531-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/kartor/A 36531-2023.png", "A 36531-2023")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomål/A 36531-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomål/A 36531-2023.docx", "A 36531-2023")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomålsmail/A 36531-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomålsmail/A 36531-2023.docx", "A 36531-2023")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsyn/A 36531-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsyn/A 36531-2023.docx", "A 36531-2023")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsynsmail/A 36531-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsynsmail/A 36531-2023.docx", "A 36531-2023")</f>
         <v/>
       </c>
     </row>
@@ -1774,7 +1774,7 @@
         <v>44049</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1831,27 +1831,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/artfynd/A 36385-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/artfynd/A 36385-2020.xlsx", "A 36385-2020")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/kartor/A 36385-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/kartor/A 36385-2020.png", "A 36385-2020")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomål/A 36385-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomål/A 36385-2020.docx", "A 36385-2020")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomålsmail/A 36385-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomålsmail/A 36385-2020.docx", "A 36385-2020")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsyn/A 36385-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsyn/A 36385-2020.docx", "A 36385-2020")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsynsmail/A 36385-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsynsmail/A 36385-2020.docx", "A 36385-2020")</f>
         <v/>
       </c>
     </row>
@@ -1865,7 +1865,7 @@
         <v>44712</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1917,27 +1917,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/artfynd/A 22212-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/artfynd/A 22212-2022.xlsx", "A 22212-2022")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/kartor/A 22212-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/kartor/A 22212-2022.png", "A 22212-2022")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomål/A 22212-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomål/A 22212-2022.docx", "A 22212-2022")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomålsmail/A 22212-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomålsmail/A 22212-2022.docx", "A 22212-2022")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsyn/A 22212-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsyn/A 22212-2022.docx", "A 22212-2022")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsynsmail/A 22212-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsynsmail/A 22212-2022.docx", "A 22212-2022")</f>
         <v/>
       </c>
     </row>
@@ -1951,7 +1951,7 @@
         <v>44889</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2003,27 +2003,27 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/artfynd/A 55975-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/artfynd/A 55975-2022.xlsx", "A 55975-2022")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/kartor/A 55975-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/kartor/A 55975-2022.png", "A 55975-2022")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomål/A 55975-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomål/A 55975-2022.docx", "A 55975-2022")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomålsmail/A 55975-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomålsmail/A 55975-2022.docx", "A 55975-2022")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsyn/A 55975-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsyn/A 55975-2022.docx", "A 55975-2022")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsynsmail/A 55975-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsynsmail/A 55975-2022.docx", "A 55975-2022")</f>
         <v/>
       </c>
     </row>
@@ -2037,7 +2037,7 @@
         <v>44895</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2089,27 +2089,27 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/artfynd/A 57244-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/artfynd/A 57244-2022.xlsx", "A 57244-2022")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/kartor/A 57244-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/kartor/A 57244-2022.png", "A 57244-2022")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomål/A 57244-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomål/A 57244-2022.docx", "A 57244-2022")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomålsmail/A 57244-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomålsmail/A 57244-2022.docx", "A 57244-2022")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsyn/A 57244-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsyn/A 57244-2022.docx", "A 57244-2022")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsynsmail/A 57244-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsynsmail/A 57244-2022.docx", "A 57244-2022")</f>
         <v/>
       </c>
     </row>
@@ -2123,7 +2123,7 @@
         <v>45014</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2175,27 +2175,27 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/artfynd/A 14774-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/artfynd/A 14774-2023.xlsx", "A 14774-2023")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/kartor/A 14774-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/kartor/A 14774-2023.png", "A 14774-2023")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomål/A 14774-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomål/A 14774-2023.docx", "A 14774-2023")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomålsmail/A 14774-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomålsmail/A 14774-2023.docx", "A 14774-2023")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsyn/A 14774-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsyn/A 14774-2023.docx", "A 14774-2023")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsynsmail/A 14774-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsynsmail/A 14774-2023.docx", "A 14774-2023")</f>
         <v/>
       </c>
     </row>
@@ -2209,7 +2209,7 @@
         <v>45092</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2261,27 +2261,27 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/artfynd/A 26569-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/artfynd/A 26569-2023.xlsx", "A 26569-2023")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/kartor/A 26569-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/kartor/A 26569-2023.png", "A 26569-2023")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomål/A 26569-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomål/A 26569-2023.docx", "A 26569-2023")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomålsmail/A 26569-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomålsmail/A 26569-2023.docx", "A 26569-2023")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsyn/A 26569-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsyn/A 26569-2023.docx", "A 26569-2023")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsynsmail/A 26569-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsynsmail/A 26569-2023.docx", "A 26569-2023")</f>
         <v/>
       </c>
     </row>
@@ -2295,7 +2295,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2347,27 +2347,27 @@
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/artfynd/A 31018-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/artfynd/A 31018-2023.xlsx", "A 31018-2023")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/kartor/A 31018-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/kartor/A 31018-2023.png", "A 31018-2023")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomål/A 31018-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomål/A 31018-2023.docx", "A 31018-2023")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomålsmail/A 31018-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomålsmail/A 31018-2023.docx", "A 31018-2023")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsyn/A 31018-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsyn/A 31018-2023.docx", "A 31018-2023")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsynsmail/A 31018-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsynsmail/A 31018-2023.docx", "A 31018-2023")</f>
         <v/>
       </c>
     </row>
@@ -2381,7 +2381,7 @@
         <v>45124</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2433,27 +2433,27 @@
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/artfynd/A 32785-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/artfynd/A 32785-2023.xlsx", "A 32785-2023")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/kartor/A 32785-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/kartor/A 32785-2023.png", "A 32785-2023")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomål/A 32785-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomål/A 32785-2023.docx", "A 32785-2023")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomålsmail/A 32785-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomålsmail/A 32785-2023.docx", "A 32785-2023")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsyn/A 32785-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsyn/A 32785-2023.docx", "A 32785-2023")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsynsmail/A 32785-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsynsmail/A 32785-2023.docx", "A 32785-2023")</f>
         <v/>
       </c>
     </row>
@@ -2467,7 +2467,7 @@
         <v>43523</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2518,27 +2518,27 @@
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/artfynd/A 12288-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/artfynd/A 12288-2019.xlsx", "A 12288-2019")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/kartor/A 12288-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/kartor/A 12288-2019.png", "A 12288-2019")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomål/A 12288-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomål/A 12288-2019.docx", "A 12288-2019")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomålsmail/A 12288-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomålsmail/A 12288-2019.docx", "A 12288-2019")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsyn/A 12288-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsyn/A 12288-2019.docx", "A 12288-2019")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsynsmail/A 12288-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsynsmail/A 12288-2019.docx", "A 12288-2019")</f>
         <v/>
       </c>
     </row>
@@ -2552,7 +2552,7 @@
         <v>43559</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2603,27 +2603,27 @@
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/artfynd/A 18495-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/artfynd/A 18495-2019.xlsx", "A 18495-2019")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/kartor/A 18495-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/kartor/A 18495-2019.png", "A 18495-2019")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomål/A 18495-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomål/A 18495-2019.docx", "A 18495-2019")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomålsmail/A 18495-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomålsmail/A 18495-2019.docx", "A 18495-2019")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsyn/A 18495-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsyn/A 18495-2019.docx", "A 18495-2019")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsynsmail/A 18495-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsynsmail/A 18495-2019.docx", "A 18495-2019")</f>
         <v/>
       </c>
     </row>
@@ -2637,7 +2637,7 @@
         <v>43851</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2688,27 +2688,27 @@
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/artfynd/A 3015-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/artfynd/A 3015-2020.xlsx", "A 3015-2020")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/kartor/A 3015-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/kartor/A 3015-2020.png", "A 3015-2020")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomål/A 3015-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomål/A 3015-2020.docx", "A 3015-2020")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomålsmail/A 3015-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomålsmail/A 3015-2020.docx", "A 3015-2020")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsyn/A 3015-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsyn/A 3015-2020.docx", "A 3015-2020")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsynsmail/A 3015-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsynsmail/A 3015-2020.docx", "A 3015-2020")</f>
         <v/>
       </c>
     </row>
@@ -2722,7 +2722,7 @@
         <v>43853</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2773,27 +2773,27 @@
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/artfynd/A 3725-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/artfynd/A 3725-2020.xlsx", "A 3725-2020")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/kartor/A 3725-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/kartor/A 3725-2020.png", "A 3725-2020")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomål/A 3725-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomål/A 3725-2020.docx", "A 3725-2020")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomålsmail/A 3725-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomålsmail/A 3725-2020.docx", "A 3725-2020")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsyn/A 3725-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsyn/A 3725-2020.docx", "A 3725-2020")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsynsmail/A 3725-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsynsmail/A 3725-2020.docx", "A 3725-2020")</f>
         <v/>
       </c>
     </row>
@@ -2807,7 +2807,7 @@
         <v>43901</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2863,27 +2863,27 @@
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/artfynd/A 13172-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/artfynd/A 13172-2020.xlsx", "A 13172-2020")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/kartor/A 13172-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/kartor/A 13172-2020.png", "A 13172-2020")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomål/A 13172-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomål/A 13172-2020.docx", "A 13172-2020")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomålsmail/A 13172-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomålsmail/A 13172-2020.docx", "A 13172-2020")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsyn/A 13172-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsyn/A 13172-2020.docx", "A 13172-2020")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsynsmail/A 13172-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsynsmail/A 13172-2020.docx", "A 13172-2020")</f>
         <v/>
       </c>
     </row>
@@ -2897,7 +2897,7 @@
         <v>44002</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2948,31 +2948,31 @@
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/artfynd/A 29091-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/artfynd/A 29091-2020.xlsx", "A 29091-2020")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/kartor/A 29091-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/kartor/A 29091-2020.png", "A 29091-2020")</f>
         <v/>
       </c>
       <c r="U28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/knärot/A 29091-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/knärot/A 29091-2020.png", "A 29091-2020")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomål/A 29091-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomål/A 29091-2020.docx", "A 29091-2020")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomålsmail/A 29091-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomålsmail/A 29091-2020.docx", "A 29091-2020")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsyn/A 29091-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsyn/A 29091-2020.docx", "A 29091-2020")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsynsmail/A 29091-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsynsmail/A 29091-2020.docx", "A 29091-2020")</f>
         <v/>
       </c>
     </row>
@@ -2986,7 +2986,7 @@
         <v>44161</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3037,27 +3037,27 @@
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/artfynd/A 62718-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/artfynd/A 62718-2020.xlsx", "A 62718-2020")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/kartor/A 62718-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/kartor/A 62718-2020.png", "A 62718-2020")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomål/A 62718-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomål/A 62718-2020.docx", "A 62718-2020")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomålsmail/A 62718-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomålsmail/A 62718-2020.docx", "A 62718-2020")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsyn/A 62718-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsyn/A 62718-2020.docx", "A 62718-2020")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsynsmail/A 62718-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsynsmail/A 62718-2020.docx", "A 62718-2020")</f>
         <v/>
       </c>
     </row>
@@ -3071,7 +3071,7 @@
         <v>44376</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3122,27 +3122,27 @@
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/artfynd/A 33150-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/artfynd/A 33150-2021.xlsx", "A 33150-2021")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/kartor/A 33150-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/kartor/A 33150-2021.png", "A 33150-2021")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomål/A 33150-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomål/A 33150-2021.docx", "A 33150-2021")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomålsmail/A 33150-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomålsmail/A 33150-2021.docx", "A 33150-2021")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsyn/A 33150-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsyn/A 33150-2021.docx", "A 33150-2021")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsynsmail/A 33150-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsynsmail/A 33150-2021.docx", "A 33150-2021")</f>
         <v/>
       </c>
     </row>
@@ -3156,7 +3156,7 @@
         <v>44395</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3207,31 +3207,31 @@
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/artfynd/A 37076-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/artfynd/A 37076-2021.xlsx", "A 37076-2021")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/kartor/A 37076-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/kartor/A 37076-2021.png", "A 37076-2021")</f>
         <v/>
       </c>
       <c r="U31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/knärot/A 37076-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/knärot/A 37076-2021.png", "A 37076-2021")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomål/A 37076-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomål/A 37076-2021.docx", "A 37076-2021")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomålsmail/A 37076-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomålsmail/A 37076-2021.docx", "A 37076-2021")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsyn/A 37076-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsyn/A 37076-2021.docx", "A 37076-2021")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsynsmail/A 37076-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsynsmail/A 37076-2021.docx", "A 37076-2021")</f>
         <v/>
       </c>
     </row>
@@ -3245,7 +3245,7 @@
         <v>44568</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3296,27 +3296,27 @@
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/artfynd/A 738-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/artfynd/A 738-2022.xlsx", "A 738-2022")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/kartor/A 738-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/kartor/A 738-2022.png", "A 738-2022")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomål/A 738-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomål/A 738-2022.docx", "A 738-2022")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomålsmail/A 738-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomålsmail/A 738-2022.docx", "A 738-2022")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsyn/A 738-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsyn/A 738-2022.docx", "A 738-2022")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsynsmail/A 738-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsynsmail/A 738-2022.docx", "A 738-2022")</f>
         <v/>
       </c>
     </row>
@@ -3330,7 +3330,7 @@
         <v>44609</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3381,27 +3381,27 @@
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/artfynd/A 8181-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/artfynd/A 8181-2022.xlsx", "A 8181-2022")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/kartor/A 8181-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/kartor/A 8181-2022.png", "A 8181-2022")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomål/A 8181-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomål/A 8181-2022.docx", "A 8181-2022")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomålsmail/A 8181-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomålsmail/A 8181-2022.docx", "A 8181-2022")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsyn/A 8181-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsyn/A 8181-2022.docx", "A 8181-2022")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsynsmail/A 8181-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsynsmail/A 8181-2022.docx", "A 8181-2022")</f>
         <v/>
       </c>
     </row>
@@ -3415,7 +3415,7 @@
         <v>44805</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3466,27 +3466,27 @@
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/artfynd/A 36849-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/artfynd/A 36849-2022.xlsx", "A 36849-2022")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/kartor/A 36849-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/kartor/A 36849-2022.png", "A 36849-2022")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomål/A 36849-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomål/A 36849-2022.docx", "A 36849-2022")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomålsmail/A 36849-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomålsmail/A 36849-2022.docx", "A 36849-2022")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsyn/A 36849-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsyn/A 36849-2022.docx", "A 36849-2022")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsynsmail/A 36849-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsynsmail/A 36849-2022.docx", "A 36849-2022")</f>
         <v/>
       </c>
     </row>
@@ -3500,7 +3500,7 @@
         <v>44847</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3551,31 +3551,31 @@
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/artfynd/A 46086-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/artfynd/A 46086-2022.xlsx", "A 46086-2022")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/kartor/A 46086-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/kartor/A 46086-2022.png", "A 46086-2022")</f>
         <v/>
       </c>
       <c r="U35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/knärot/A 46086-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/knärot/A 46086-2022.png", "A 46086-2022")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomål/A 46086-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomål/A 46086-2022.docx", "A 46086-2022")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomålsmail/A 46086-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomålsmail/A 46086-2022.docx", "A 46086-2022")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsyn/A 46086-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsyn/A 46086-2022.docx", "A 46086-2022")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsynsmail/A 46086-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsynsmail/A 46086-2022.docx", "A 46086-2022")</f>
         <v/>
       </c>
     </row>
@@ -3589,7 +3589,7 @@
         <v>45020</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3640,31 +3640,31 @@
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/artfynd/A 15610-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/artfynd/A 15610-2023.xlsx", "A 15610-2023")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/kartor/A 15610-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/kartor/A 15610-2023.png", "A 15610-2023")</f>
         <v/>
       </c>
       <c r="U36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/knärot/A 15610-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/knärot/A 15610-2023.png", "A 15610-2023")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomål/A 15610-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomål/A 15610-2023.docx", "A 15610-2023")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomålsmail/A 15610-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomålsmail/A 15610-2023.docx", "A 15610-2023")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsyn/A 15610-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsyn/A 15610-2023.docx", "A 15610-2023")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsynsmail/A 15610-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsynsmail/A 15610-2023.docx", "A 15610-2023")</f>
         <v/>
       </c>
     </row>
@@ -3678,7 +3678,7 @@
         <v>45035</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3729,27 +3729,27 @@
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/artfynd/A 17389-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/artfynd/A 17389-2023.xlsx", "A 17389-2023")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/kartor/A 17389-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/kartor/A 17389-2023.png", "A 17389-2023")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomål/A 17389-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomål/A 17389-2023.docx", "A 17389-2023")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomålsmail/A 17389-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomålsmail/A 17389-2023.docx", "A 17389-2023")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsyn/A 17389-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsyn/A 17389-2023.docx", "A 17389-2023")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsynsmail/A 17389-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsynsmail/A 17389-2023.docx", "A 17389-2023")</f>
         <v/>
       </c>
     </row>
@@ -3763,7 +3763,7 @@
         <v>45037</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3814,27 +3814,27 @@
         </is>
       </c>
       <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/artfynd/A 17790-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/artfynd/A 17790-2023.xlsx", "A 17790-2023")</f>
         <v/>
       </c>
       <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/kartor/A 17790-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/kartor/A 17790-2023.png", "A 17790-2023")</f>
         <v/>
       </c>
       <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomål/A 17790-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomål/A 17790-2023.docx", "A 17790-2023")</f>
         <v/>
       </c>
       <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomålsmail/A 17790-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomålsmail/A 17790-2023.docx", "A 17790-2023")</f>
         <v/>
       </c>
       <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsyn/A 17790-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsyn/A 17790-2023.docx", "A 17790-2023")</f>
         <v/>
       </c>
       <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsynsmail/A 17790-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsynsmail/A 17790-2023.docx", "A 17790-2023")</f>
         <v/>
       </c>
     </row>
@@ -3848,7 +3848,7 @@
         <v>45093</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3899,27 +3899,27 @@
         </is>
       </c>
       <c r="S39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/artfynd/A 26932-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/artfynd/A 26932-2023.xlsx", "A 26932-2023")</f>
         <v/>
       </c>
       <c r="T39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/kartor/A 26932-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/kartor/A 26932-2023.png", "A 26932-2023")</f>
         <v/>
       </c>
       <c r="V39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomål/A 26932-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomål/A 26932-2023.docx", "A 26932-2023")</f>
         <v/>
       </c>
       <c r="W39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomålsmail/A 26932-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomålsmail/A 26932-2023.docx", "A 26932-2023")</f>
         <v/>
       </c>
       <c r="X39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsyn/A 26932-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsyn/A 26932-2023.docx", "A 26932-2023")</f>
         <v/>
       </c>
       <c r="Y39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsynsmail/A 26932-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsynsmail/A 26932-2023.docx", "A 26932-2023")</f>
         <v/>
       </c>
     </row>
@@ -3933,7 +3933,7 @@
         <v>45098</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3984,27 +3984,27 @@
         </is>
       </c>
       <c r="S40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/artfynd/A 27871-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/artfynd/A 27871-2023.xlsx", "A 27871-2023")</f>
         <v/>
       </c>
       <c r="T40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/kartor/A 27871-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/kartor/A 27871-2023.png", "A 27871-2023")</f>
         <v/>
       </c>
       <c r="V40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomål/A 27871-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomål/A 27871-2023.docx", "A 27871-2023")</f>
         <v/>
       </c>
       <c r="W40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomålsmail/A 27871-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomålsmail/A 27871-2023.docx", "A 27871-2023")</f>
         <v/>
       </c>
       <c r="X40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsyn/A 27871-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsyn/A 27871-2023.docx", "A 27871-2023")</f>
         <v/>
       </c>
       <c r="Y40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsynsmail/A 27871-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsynsmail/A 27871-2023.docx", "A 27871-2023")</f>
         <v/>
       </c>
     </row>
@@ -4018,7 +4018,7 @@
         <v>45111</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4069,27 +4069,27 @@
         </is>
       </c>
       <c r="S41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/artfynd/A 30526-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/artfynd/A 30526-2023.xlsx", "A 30526-2023")</f>
         <v/>
       </c>
       <c r="T41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/kartor/A 30526-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/kartor/A 30526-2023.png", "A 30526-2023")</f>
         <v/>
       </c>
       <c r="V41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomål/A 30526-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomål/A 30526-2023.docx", "A 30526-2023")</f>
         <v/>
       </c>
       <c r="W41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomålsmail/A 30526-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomålsmail/A 30526-2023.docx", "A 30526-2023")</f>
         <v/>
       </c>
       <c r="X41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsyn/A 30526-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsyn/A 30526-2023.docx", "A 30526-2023")</f>
         <v/>
       </c>
       <c r="Y41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsynsmail/A 30526-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsynsmail/A 30526-2023.docx", "A 30526-2023")</f>
         <v/>
       </c>
     </row>
@@ -4103,7 +4103,7 @@
         <v>45120</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4154,27 +4154,27 @@
         </is>
       </c>
       <c r="S42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/artfynd/A 32302-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/artfynd/A 32302-2023.xlsx", "A 32302-2023")</f>
         <v/>
       </c>
       <c r="T42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/kartor/A 32302-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/kartor/A 32302-2023.png", "A 32302-2023")</f>
         <v/>
       </c>
       <c r="V42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomål/A 32302-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomål/A 32302-2023.docx", "A 32302-2023")</f>
         <v/>
       </c>
       <c r="W42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomålsmail/A 32302-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomålsmail/A 32302-2023.docx", "A 32302-2023")</f>
         <v/>
       </c>
       <c r="X42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsyn/A 32302-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsyn/A 32302-2023.docx", "A 32302-2023")</f>
         <v/>
       </c>
       <c r="Y42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsynsmail/A 32302-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsynsmail/A 32302-2023.docx", "A 32302-2023")</f>
         <v/>
       </c>
     </row>
@@ -4188,7 +4188,7 @@
         <v>45120</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4239,27 +4239,27 @@
         </is>
       </c>
       <c r="S43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/artfynd/A 32292-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/artfynd/A 32292-2023.xlsx", "A 32292-2023")</f>
         <v/>
       </c>
       <c r="T43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/kartor/A 32292-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/kartor/A 32292-2023.png", "A 32292-2023")</f>
         <v/>
       </c>
       <c r="V43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomål/A 32292-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomål/A 32292-2023.docx", "A 32292-2023")</f>
         <v/>
       </c>
       <c r="W43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomålsmail/A 32292-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomålsmail/A 32292-2023.docx", "A 32292-2023")</f>
         <v/>
       </c>
       <c r="X43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsyn/A 32292-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsyn/A 32292-2023.docx", "A 32292-2023")</f>
         <v/>
       </c>
       <c r="Y43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsynsmail/A 32292-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsynsmail/A 32292-2023.docx", "A 32292-2023")</f>
         <v/>
       </c>
     </row>
@@ -4273,7 +4273,7 @@
         <v>45120</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4324,27 +4324,27 @@
         </is>
       </c>
       <c r="S44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/artfynd/A 32299-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/artfynd/A 32299-2023.xlsx", "A 32299-2023")</f>
         <v/>
       </c>
       <c r="T44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/kartor/A 32299-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/kartor/A 32299-2023.png", "A 32299-2023")</f>
         <v/>
       </c>
       <c r="V44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomål/A 32299-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomål/A 32299-2023.docx", "A 32299-2023")</f>
         <v/>
       </c>
       <c r="W44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomålsmail/A 32299-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomålsmail/A 32299-2023.docx", "A 32299-2023")</f>
         <v/>
       </c>
       <c r="X44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsyn/A 32299-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsyn/A 32299-2023.docx", "A 32299-2023")</f>
         <v/>
       </c>
       <c r="Y44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsynsmail/A 32299-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsynsmail/A 32299-2023.docx", "A 32299-2023")</f>
         <v/>
       </c>
     </row>
@@ -4358,7 +4358,7 @@
         <v>45133</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4409,27 +4409,27 @@
         </is>
       </c>
       <c r="S45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/artfynd/A 33858-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/artfynd/A 33858-2023.xlsx", "A 33858-2023")</f>
         <v/>
       </c>
       <c r="T45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/kartor/A 33858-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/kartor/A 33858-2023.png", "A 33858-2023")</f>
         <v/>
       </c>
       <c r="V45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomål/A 33858-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomål/A 33858-2023.docx", "A 33858-2023")</f>
         <v/>
       </c>
       <c r="W45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomålsmail/A 33858-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomålsmail/A 33858-2023.docx", "A 33858-2023")</f>
         <v/>
       </c>
       <c r="X45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsyn/A 33858-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsyn/A 33858-2023.docx", "A 33858-2023")</f>
         <v/>
       </c>
       <c r="Y45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsynsmail/A 33858-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsynsmail/A 33858-2023.docx", "A 33858-2023")</f>
         <v/>
       </c>
     </row>
@@ -4443,7 +4443,7 @@
         <v>43342</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4505,7 +4505,7 @@
         <v>43349</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>43374</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>43409</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>43413</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         <v>43416</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         <v>43418</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>43419</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>43423</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>43430</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         <v>43430</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5080,7 +5080,7 @@
         <v>43430</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5137,7 +5137,7 @@
         <v>43432</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5194,7 +5194,7 @@
         <v>43437</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5251,7 +5251,7 @@
         <v>43438</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5308,7 +5308,7 @@
         <v>43440</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>43447</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5422,7 +5422,7 @@
         <v>43452</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>43454</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>43454</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>43454</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5650,7 +5650,7 @@
         <v>43455</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>43455</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5764,7 +5764,7 @@
         <v>43461</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5821,7 +5821,7 @@
         <v>43461</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         <v>43468</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5935,7 +5935,7 @@
         <v>43480</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>43480</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6049,7 +6049,7 @@
         <v>43482</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6106,7 +6106,7 @@
         <v>43488</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>43500</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>43501</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6277,7 +6277,7 @@
         <v>43502</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6334,7 +6334,7 @@
         <v>43503</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
         <v>43511</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>43511</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>43515</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6567,7 +6567,7 @@
         <v>43521</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6624,7 +6624,7 @@
         <v>43522</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6681,7 +6681,7 @@
         <v>43525</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6738,7 +6738,7 @@
         <v>43528</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6795,7 +6795,7 @@
         <v>43528</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6852,7 +6852,7 @@
         <v>43529</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>43529</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>43530</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>43530</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>43535</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>43538</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>43539</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>43551</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>43552</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>43556</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>43559</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>43560</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>43560</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>43562</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>43563</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>43567</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>43570</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>43570</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>43580</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>43580</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>43581</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8059,7 +8059,7 @@
         <v>43598</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8116,7 +8116,7 @@
         <v>43598</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8173,7 +8173,7 @@
         <v>43606</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8230,7 +8230,7 @@
         <v>43607</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8287,7 +8287,7 @@
         <v>43608</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8344,7 +8344,7 @@
         <v>43609</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8401,7 +8401,7 @@
         <v>43615</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8458,7 +8458,7 @@
         <v>43628</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         <v>43633</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>43636</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8634,7 +8634,7 @@
         <v>43641</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8691,7 +8691,7 @@
         <v>43641</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8753,7 +8753,7 @@
         <v>43644</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8810,7 +8810,7 @@
         <v>43651</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8867,7 +8867,7 @@
         <v>43651</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8924,7 +8924,7 @@
         <v>43654</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8986,7 +8986,7 @@
         <v>43656</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9048,7 +9048,7 @@
         <v>43676</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9105,7 +9105,7 @@
         <v>43689</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9162,7 +9162,7 @@
         <v>43689</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9219,7 +9219,7 @@
         <v>43696</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9276,7 +9276,7 @@
         <v>43697</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         <v>43705</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9390,7 +9390,7 @@
         <v>43705</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         <v>43710</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>43710</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>43711</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9618,7 +9618,7 @@
         <v>43713</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9675,7 +9675,7 @@
         <v>43717</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9732,7 +9732,7 @@
         <v>43719</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9789,7 +9789,7 @@
         <v>43719</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9846,7 +9846,7 @@
         <v>43725</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9903,7 +9903,7 @@
         <v>43731</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9965,7 +9965,7 @@
         <v>43731</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         <v>43735</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10084,7 +10084,7 @@
         <v>43735</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10141,7 +10141,7 @@
         <v>43735</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10198,7 +10198,7 @@
         <v>43737</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10255,7 +10255,7 @@
         <v>43738</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10312,7 +10312,7 @@
         <v>43740</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10369,7 +10369,7 @@
         <v>43741</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10426,7 +10426,7 @@
         <v>43742</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>43745</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10545,7 +10545,7 @@
         <v>43745</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>43747</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
         <v>43749</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10726,7 +10726,7 @@
         <v>43749</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10783,7 +10783,7 @@
         <v>43754</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10840,7 +10840,7 @@
         <v>43766</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10897,7 +10897,7 @@
         <v>43766</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10944,23 +10944,23 @@
       </c>
       <c r="R158" s="2" t="inlineStr"/>
       <c r="U158">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/knärot/A 57134-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/knärot/A 57134-2019.png", "A 57134-2019")</f>
         <v/>
       </c>
       <c r="V158">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomål/A 57134-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomål/A 57134-2019.docx", "A 57134-2019")</f>
         <v/>
       </c>
       <c r="W158">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomålsmail/A 57134-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomålsmail/A 57134-2019.docx", "A 57134-2019")</f>
         <v/>
       </c>
       <c r="X158">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsyn/A 57134-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsyn/A 57134-2019.docx", "A 57134-2019")</f>
         <v/>
       </c>
       <c r="Y158">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsynsmail/A 57134-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsynsmail/A 57134-2019.docx", "A 57134-2019")</f>
         <v/>
       </c>
     </row>
@@ -10974,7 +10974,7 @@
         <v>43768</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11031,7 +11031,7 @@
         <v>43775</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11088,7 +11088,7 @@
         <v>43781</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>43782</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>43783</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>43783</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>43787</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>43787</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>43787</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>43794</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11549,7 +11549,7 @@
         <v>43797</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11606,7 +11606,7 @@
         <v>43802</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11663,7 +11663,7 @@
         <v>43808</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11720,7 +11720,7 @@
         <v>43817</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11777,7 +11777,7 @@
         <v>43818</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11834,7 +11834,7 @@
         <v>43843</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11891,7 +11891,7 @@
         <v>43844</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11948,7 +11948,7 @@
         <v>43845</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>43846</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>43847</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>43852</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12176,7 +12176,7 @@
         <v>43852</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12238,7 +12238,7 @@
         <v>43858</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12300,7 +12300,7 @@
         <v>43860</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12357,7 +12357,7 @@
         <v>43861</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12414,7 +12414,7 @@
         <v>43863</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12471,7 +12471,7 @@
         <v>43864</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12533,7 +12533,7 @@
         <v>43864</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12590,7 +12590,7 @@
         <v>43866</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
         <v>43867</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12704,7 +12704,7 @@
         <v>43867</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12761,7 +12761,7 @@
         <v>43871</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12818,7 +12818,7 @@
         <v>43871</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>43882</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>43882</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>43891</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>43891</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13103,7 +13103,7 @@
         <v>43891</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13160,7 +13160,7 @@
         <v>43891</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
         <v>43901</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13279,7 +13279,7 @@
         <v>43901</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13336,7 +13336,7 @@
         <v>43901</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13398,7 +13398,7 @@
         <v>43901</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13455,7 +13455,7 @@
         <v>43906</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13512,7 +13512,7 @@
         <v>43909</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13569,7 +13569,7 @@
         <v>43909</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13626,7 +13626,7 @@
         <v>43909</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13683,7 +13683,7 @@
         <v>43909</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13740,7 +13740,7 @@
         <v>43913</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13797,7 +13797,7 @@
         <v>43915</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13854,7 +13854,7 @@
         <v>43916</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13911,7 +13911,7 @@
         <v>43920</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13968,7 +13968,7 @@
         <v>43920</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14025,7 +14025,7 @@
         <v>43943</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14082,7 +14082,7 @@
         <v>43944</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14139,7 +14139,7 @@
         <v>43950</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14196,7 +14196,7 @@
         <v>43950</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14253,7 +14253,7 @@
         <v>43956</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14310,7 +14310,7 @@
         <v>43958</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14367,7 +14367,7 @@
         <v>43959</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14424,7 +14424,7 @@
         <v>43959</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14486,7 +14486,7 @@
         <v>43962</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14543,7 +14543,7 @@
         <v>43963</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14600,7 +14600,7 @@
         <v>43983</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14657,7 +14657,7 @@
         <v>43983</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14714,7 +14714,7 @@
         <v>43984</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14776,7 +14776,7 @@
         <v>43987</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14833,7 +14833,7 @@
         <v>44007</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14890,7 +14890,7 @@
         <v>44013</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14947,7 +14947,7 @@
         <v>44021</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15004,7 +15004,7 @@
         <v>44025</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15061,7 +15061,7 @@
         <v>44026</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15118,7 +15118,7 @@
         <v>44035</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15175,7 +15175,7 @@
         <v>44035</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15232,7 +15232,7 @@
         <v>44048</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
         <v>44048</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         <v>44053</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15408,7 +15408,7 @@
         <v>44070</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15465,7 +15465,7 @@
         <v>44089</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15522,7 +15522,7 @@
         <v>44089</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15579,7 +15579,7 @@
         <v>44095</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15636,7 +15636,7 @@
         <v>44097</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15698,7 +15698,7 @@
         <v>44098</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15755,7 +15755,7 @@
         <v>44102</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15812,7 +15812,7 @@
         <v>44103</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15869,7 +15869,7 @@
         <v>44110</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15926,7 +15926,7 @@
         <v>44110</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15983,7 +15983,7 @@
         <v>44117</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16040,7 +16040,7 @@
         <v>44117</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16097,7 +16097,7 @@
         <v>44127</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16154,7 +16154,7 @@
         <v>44134</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16211,7 +16211,7 @@
         <v>44151</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16268,7 +16268,7 @@
         <v>44158</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16325,7 +16325,7 @@
         <v>44160</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16382,7 +16382,7 @@
         <v>44161</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16439,7 +16439,7 @@
         <v>44188</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16496,7 +16496,7 @@
         <v>44193</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16553,7 +16553,7 @@
         <v>44204</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16610,7 +16610,7 @@
         <v>44225</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16667,7 +16667,7 @@
         <v>44228</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16724,7 +16724,7 @@
         <v>44231</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16781,7 +16781,7 @@
         <v>44232</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16838,7 +16838,7 @@
         <v>44232</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16895,7 +16895,7 @@
         <v>44233</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16952,7 +16952,7 @@
         <v>44235</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17009,7 +17009,7 @@
         <v>44238</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17066,7 +17066,7 @@
         <v>44238</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17123,7 +17123,7 @@
         <v>44238</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17180,7 +17180,7 @@
         <v>44242</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17237,7 +17237,7 @@
         <v>44249</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17294,7 +17294,7 @@
         <v>44259</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17351,7 +17351,7 @@
         <v>44263</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17408,7 +17408,7 @@
         <v>44264</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17470,7 +17470,7 @@
         <v>44272</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17527,7 +17527,7 @@
         <v>44272</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17584,7 +17584,7 @@
         <v>44272</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
         <v>44278</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17698,7 +17698,7 @@
         <v>44279</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17760,7 +17760,7 @@
         <v>44280</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17817,7 +17817,7 @@
         <v>44285</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17874,7 +17874,7 @@
         <v>44285</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17931,7 +17931,7 @@
         <v>44287</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>44292</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         <v>44293</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>44299</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18159,7 +18159,7 @@
         <v>44300</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18216,7 +18216,7 @@
         <v>44308</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18273,7 +18273,7 @@
         <v>44308</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18335,7 +18335,7 @@
         <v>44309</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18392,7 +18392,7 @@
         <v>44314</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18454,7 +18454,7 @@
         <v>44315</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18511,7 +18511,7 @@
         <v>44334</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>44342</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18630,7 +18630,7 @@
         <v>44349</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18687,7 +18687,7 @@
         <v>44354</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18744,7 +18744,7 @@
         <v>44360</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18801,7 +18801,7 @@
         <v>44362</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18863,7 +18863,7 @@
         <v>44364</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18925,7 +18925,7 @@
         <v>44368</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18987,7 +18987,7 @@
         <v>44368</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19044,7 +19044,7 @@
         <v>44370</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         <v>44371</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19168,7 +19168,7 @@
         <v>44389</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19225,7 +19225,7 @@
         <v>44390</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19287,7 +19287,7 @@
         <v>44391</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19344,7 +19344,7 @@
         <v>44404</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19401,7 +19401,7 @@
         <v>44404</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19458,7 +19458,7 @@
         <v>44404</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19515,7 +19515,7 @@
         <v>44404</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19572,7 +19572,7 @@
         <v>44405</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19629,7 +19629,7 @@
         <v>44411</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19686,7 +19686,7 @@
         <v>44418</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19743,7 +19743,7 @@
         <v>44431</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19800,7 +19800,7 @@
         <v>44431</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19857,7 +19857,7 @@
         <v>44431</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19914,7 +19914,7 @@
         <v>44435</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19971,7 +19971,7 @@
         <v>44445</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20028,7 +20028,7 @@
         <v>44459</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20085,7 +20085,7 @@
         <v>44459</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20142,7 +20142,7 @@
         <v>44466</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20199,7 +20199,7 @@
         <v>44467</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20256,7 +20256,7 @@
         <v>44470</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20318,7 +20318,7 @@
         <v>44470</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20380,7 +20380,7 @@
         <v>44477</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20437,7 +20437,7 @@
         <v>44477</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20499,7 +20499,7 @@
         <v>44480</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20556,7 +20556,7 @@
         <v>44480</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20613,7 +20613,7 @@
         <v>44491</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20670,7 +20670,7 @@
         <v>44495</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20727,7 +20727,7 @@
         <v>44508</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20784,7 +20784,7 @@
         <v>44509</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20841,7 +20841,7 @@
         <v>44509</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20898,7 +20898,7 @@
         <v>44509</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20955,7 +20955,7 @@
         <v>44511</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21012,7 +21012,7 @@
         <v>44512</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21074,7 +21074,7 @@
         <v>44516</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21131,7 +21131,7 @@
         <v>44516</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         <v>44519</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21250,7 +21250,7 @@
         <v>44519</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21312,7 +21312,7 @@
         <v>44519</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21374,7 +21374,7 @@
         <v>44522</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21431,7 +21431,7 @@
         <v>44524</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21488,7 +21488,7 @@
         <v>44529</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21545,7 +21545,7 @@
         <v>44529</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21602,7 +21602,7 @@
         <v>44531</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21659,7 +21659,7 @@
         <v>44532</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21716,7 +21716,7 @@
         <v>44533</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21773,7 +21773,7 @@
         <v>44533</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21830,7 +21830,7 @@
         <v>44538</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21887,7 +21887,7 @@
         <v>44543</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21944,7 +21944,7 @@
         <v>44544</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22001,7 +22001,7 @@
         <v>44545</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22058,7 +22058,7 @@
         <v>44550</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22115,7 +22115,7 @@
         <v>44551</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22172,7 +22172,7 @@
         <v>44552</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22229,7 +22229,7 @@
         <v>44565</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22286,7 +22286,7 @@
         <v>44568</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22343,7 +22343,7 @@
         <v>44573</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22400,7 +22400,7 @@
         <v>44573</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22462,7 +22462,7 @@
         <v>44574</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22519,7 +22519,7 @@
         <v>44574</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22576,7 +22576,7 @@
         <v>44574</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22633,7 +22633,7 @@
         <v>44578</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22695,7 +22695,7 @@
         <v>44578</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22752,7 +22752,7 @@
         <v>44585</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22809,7 +22809,7 @@
         <v>44586</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         <v>44587</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22923,7 +22923,7 @@
         <v>44594</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22980,7 +22980,7 @@
         <v>44595</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23037,7 +23037,7 @@
         <v>44599</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23094,7 +23094,7 @@
         <v>44601</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23151,7 +23151,7 @@
         <v>44614</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23208,7 +23208,7 @@
         <v>44616</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23265,7 +23265,7 @@
         <v>44620</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23322,7 +23322,7 @@
         <v>44624</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23379,7 +23379,7 @@
         <v>44624</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23436,7 +23436,7 @@
         <v>44644</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23493,7 +23493,7 @@
         <v>44659</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23550,7 +23550,7 @@
         <v>44662</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23612,7 +23612,7 @@
         <v>44662</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23674,7 +23674,7 @@
         <v>44673</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23736,7 +23736,7 @@
         <v>44684</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23798,7 +23798,7 @@
         <v>44685</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23855,7 +23855,7 @@
         <v>44691</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23912,7 +23912,7 @@
         <v>44694</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23969,7 +23969,7 @@
         <v>44694</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24031,7 +24031,7 @@
         <v>44694</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24088,7 +24088,7 @@
         <v>44694</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24150,7 +24150,7 @@
         <v>44697</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24212,7 +24212,7 @@
         <v>44701</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24274,7 +24274,7 @@
         <v>44711</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24331,7 +24331,7 @@
         <v>44711</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24388,7 +24388,7 @@
         <v>44712</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24445,7 +24445,7 @@
         <v>44713</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24507,7 +24507,7 @@
         <v>44715</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24564,7 +24564,7 @@
         <v>44723</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24621,7 +24621,7 @@
         <v>44732</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24678,7 +24678,7 @@
         <v>44733</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24740,7 +24740,7 @@
         <v>44734</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24797,7 +24797,7 @@
         <v>44735</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24854,7 +24854,7 @@
         <v>44739</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24911,7 +24911,7 @@
         <v>44748</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24968,7 +24968,7 @@
         <v>44753</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25025,7 +25025,7 @@
         <v>44754</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25087,7 +25087,7 @@
         <v>44754</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25144,7 +25144,7 @@
         <v>44769</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25201,7 +25201,7 @@
         <v>44788</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25258,7 +25258,7 @@
         <v>44790</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25315,7 +25315,7 @@
         <v>44791</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25372,7 +25372,7 @@
         <v>44792</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25429,7 +25429,7 @@
         <v>44802</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25486,7 +25486,7 @@
         <v>44810</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25548,7 +25548,7 @@
         <v>44810</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25610,7 +25610,7 @@
         <v>44810</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25672,7 +25672,7 @@
         <v>44820</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25729,7 +25729,7 @@
         <v>44820</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25791,7 +25791,7 @@
         <v>44820</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25853,7 +25853,7 @@
         <v>44823</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25910,7 +25910,7 @@
         <v>44823</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25972,7 +25972,7 @@
         <v>44824</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26034,7 +26034,7 @@
         <v>44826</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26091,7 +26091,7 @@
         <v>44827</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26148,7 +26148,7 @@
         <v>44832</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26205,7 +26205,7 @@
         <v>44833</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26262,7 +26262,7 @@
         <v>44838</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26319,7 +26319,7 @@
         <v>44840</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26381,7 +26381,7 @@
         <v>44844</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26438,7 +26438,7 @@
         <v>44847</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26495,7 +26495,7 @@
         <v>44847</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26552,7 +26552,7 @@
         <v>44853</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26609,7 +26609,7 @@
         <v>44862</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26666,7 +26666,7 @@
         <v>44872</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26728,7 +26728,7 @@
         <v>44875</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26785,7 +26785,7 @@
         <v>44875</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26842,7 +26842,7 @@
         <v>44886</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26899,7 +26899,7 @@
         <v>44886</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26956,7 +26956,7 @@
         <v>44887</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27013,7 +27013,7 @@
         <v>44888</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27075,7 +27075,7 @@
         <v>44888</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27127,23 +27127,23 @@
       </c>
       <c r="R437" s="2" t="inlineStr"/>
       <c r="U437">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/knärot/A 56896-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/knärot/A 56896-2022.png", "A 56896-2022")</f>
         <v/>
       </c>
       <c r="V437">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomål/A 56896-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomål/A 56896-2022.docx", "A 56896-2022")</f>
         <v/>
       </c>
       <c r="W437">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomålsmail/A 56896-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomålsmail/A 56896-2022.docx", "A 56896-2022")</f>
         <v/>
       </c>
       <c r="X437">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsyn/A 56896-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsyn/A 56896-2022.docx", "A 56896-2022")</f>
         <v/>
       </c>
       <c r="Y437">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsynsmail/A 56896-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsynsmail/A 56896-2022.docx", "A 56896-2022")</f>
         <v/>
       </c>
     </row>
@@ -27157,7 +27157,7 @@
         <v>44901</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27214,7 +27214,7 @@
         <v>44903</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27271,7 +27271,7 @@
         <v>44907</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27328,7 +27328,7 @@
         <v>44909</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27390,7 +27390,7 @@
         <v>44909</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27452,7 +27452,7 @@
         <v>44910</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27514,7 +27514,7 @@
         <v>44911</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27571,7 +27571,7 @@
         <v>44913</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27628,7 +27628,7 @@
         <v>44914</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27685,7 +27685,7 @@
         <v>44914</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27742,7 +27742,7 @@
         <v>44916</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27799,7 +27799,7 @@
         <v>44917</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27856,7 +27856,7 @@
         <v>44917</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27913,7 +27913,7 @@
         <v>44939</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27970,7 +27970,7 @@
         <v>44944</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28027,7 +28027,7 @@
         <v>44944</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28084,7 +28084,7 @@
         <v>44946</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28141,7 +28141,7 @@
         <v>44950</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28198,7 +28198,7 @@
         <v>44951</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28255,7 +28255,7 @@
         <v>44956</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28317,7 +28317,7 @@
         <v>44974</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28374,7 +28374,7 @@
         <v>44974</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28431,7 +28431,7 @@
         <v>44974</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28488,7 +28488,7 @@
         <v>44978</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28545,7 +28545,7 @@
         <v>44980</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28602,7 +28602,7 @@
         <v>44981</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28659,7 +28659,7 @@
         <v>44981</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28716,7 +28716,7 @@
         <v>44981</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28773,7 +28773,7 @@
         <v>44984</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28830,7 +28830,7 @@
         <v>44984</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28892,7 +28892,7 @@
         <v>44984</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28949,7 +28949,7 @@
         <v>44987</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29006,7 +29006,7 @@
         <v>44993</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29063,7 +29063,7 @@
         <v>44999</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29125,7 +29125,7 @@
         <v>45000</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29182,7 +29182,7 @@
         <v>45005</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29244,7 +29244,7 @@
         <v>45006</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29301,7 +29301,7 @@
         <v>45006</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29358,7 +29358,7 @@
         <v>45008</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29415,7 +29415,7 @@
         <v>45008</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29472,7 +29472,7 @@
         <v>45013</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29529,7 +29529,7 @@
         <v>45019</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29586,7 +29586,7 @@
         <v>45019</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29643,7 +29643,7 @@
         <v>45020</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29700,7 +29700,7 @@
         <v>45022</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29762,7 +29762,7 @@
         <v>45022</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29824,7 +29824,7 @@
         <v>45027</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29881,7 +29881,7 @@
         <v>45029</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29938,7 +29938,7 @@
         <v>45030</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29995,7 +29995,7 @@
         <v>45035</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30052,7 +30052,7 @@
         <v>45043</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30109,7 +30109,7 @@
         <v>45043</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30166,7 +30166,7 @@
         <v>45044</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30223,7 +30223,7 @@
         <v>45050</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30285,7 +30285,7 @@
         <v>45050</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30347,7 +30347,7 @@
         <v>45050</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30409,7 +30409,7 @@
         <v>45050</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30471,7 +30471,7 @@
         <v>45050</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30533,7 +30533,7 @@
         <v>45050</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30595,7 +30595,7 @@
         <v>45050</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30647,23 +30647,23 @@
       </c>
       <c r="R497" s="2" t="inlineStr"/>
       <c r="U497">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/knärot/A 19751-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/knärot/A 19751-2023.png", "A 19751-2023")</f>
         <v/>
       </c>
       <c r="V497">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomål/A 19751-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomål/A 19751-2023.docx", "A 19751-2023")</f>
         <v/>
       </c>
       <c r="W497">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomålsmail/A 19751-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomålsmail/A 19751-2023.docx", "A 19751-2023")</f>
         <v/>
       </c>
       <c r="X497">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsyn/A 19751-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsyn/A 19751-2023.docx", "A 19751-2023")</f>
         <v/>
       </c>
       <c r="Y497">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsynsmail/A 19751-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsynsmail/A 19751-2023.docx", "A 19751-2023")</f>
         <v/>
       </c>
     </row>
@@ -30677,7 +30677,7 @@
         <v>45058</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30739,7 +30739,7 @@
         <v>45058</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30801,7 +30801,7 @@
         <v>45058</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30863,7 +30863,7 @@
         <v>45058</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30925,7 +30925,7 @@
         <v>45062</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30982,7 +30982,7 @@
         <v>45062</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31039,7 +31039,7 @@
         <v>45065</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31096,7 +31096,7 @@
         <v>45068</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31153,7 +31153,7 @@
         <v>45068</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31215,7 +31215,7 @@
         <v>45071</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31272,7 +31272,7 @@
         <v>45071</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31329,7 +31329,7 @@
         <v>45075</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31386,7 +31386,7 @@
         <v>45082</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31443,7 +31443,7 @@
         <v>45082</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31500,7 +31500,7 @@
         <v>45083</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31557,7 +31557,7 @@
         <v>45083</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31614,7 +31614,7 @@
         <v>45083</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31671,7 +31671,7 @@
         <v>45083</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31728,7 +31728,7 @@
         <v>45086</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31785,7 +31785,7 @@
         <v>45089</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31842,7 +31842,7 @@
         <v>45089</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31899,7 +31899,7 @@
         <v>45090</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31961,7 +31961,7 @@
         <v>45091</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32018,7 +32018,7 @@
         <v>45091</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32080,7 +32080,7 @@
         <v>45091</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32142,7 +32142,7 @@
         <v>45092</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32199,7 +32199,7 @@
         <v>45092</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32256,7 +32256,7 @@
         <v>45092</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32313,7 +32313,7 @@
         <v>45092</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32375,7 +32375,7 @@
         <v>45092</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32432,7 +32432,7 @@
         <v>45098</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32489,7 +32489,7 @@
         <v>45099</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32546,7 +32546,7 @@
         <v>45103</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32608,7 +32608,7 @@
         <v>45103</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32665,7 +32665,7 @@
         <v>45103</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32727,7 +32727,7 @@
         <v>45105</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32784,7 +32784,7 @@
         <v>45111</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32841,7 +32841,7 @@
         <v>45112</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32903,7 +32903,7 @@
         <v>45113</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32965,7 +32965,7 @@
         <v>45113</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33022,7 +33022,7 @@
         <v>45114</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33079,7 +33079,7 @@
         <v>45117</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33136,7 +33136,7 @@
         <v>45117</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33193,7 +33193,7 @@
         <v>45117</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33240,23 +33240,23 @@
       </c>
       <c r="R541" s="2" t="inlineStr"/>
       <c r="U541">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/knärot/A 31569-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/knärot/A 31569-2023.png", "A 31569-2023")</f>
         <v/>
       </c>
       <c r="V541">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomål/A 31569-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomål/A 31569-2023.docx", "A 31569-2023")</f>
         <v/>
       </c>
       <c r="W541">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomålsmail/A 31569-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/klagomålsmail/A 31569-2023.docx", "A 31569-2023")</f>
         <v/>
       </c>
       <c r="X541">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsyn/A 31569-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsyn/A 31569-2023.docx", "A 31569-2023")</f>
         <v/>
       </c>
       <c r="Y541">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsynsmail/A 31569-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HEBY/tillsynsmail/A 31569-2023.docx", "A 31569-2023")</f>
         <v/>
       </c>
     </row>
@@ -33270,7 +33270,7 @@
         <v>45117</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33327,7 +33327,7 @@
         <v>45117</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33384,7 +33384,7 @@
         <v>45117</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33441,7 +33441,7 @@
         <v>45117</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33498,7 +33498,7 @@
         <v>45118</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33555,7 +33555,7 @@
         <v>45119</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33617,7 +33617,7 @@
         <v>45120</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33674,7 +33674,7 @@
         <v>45126</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33731,7 +33731,7 @@
         <v>45131</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33788,7 +33788,7 @@
         <v>45133</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33845,7 +33845,7 @@
         <v>45135</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33902,7 +33902,7 @@
         <v>45166</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33959,7 +33959,7 @@
         <v>45166</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34016,7 +34016,7 @@
         <v>45168</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34078,7 +34078,7 @@
         <v>45168</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34140,7 +34140,7 @@
         <v>45181</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>

--- a/Översikt HEBY.xlsx
+++ b/Översikt HEBY.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y557"/>
+  <dimension ref="A1:Y558"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44914</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>43515</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>43805</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -854,7 +854,7 @@
         <v>43689</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>44824</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1047,7 +1047,7 @@
         <v>44914</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
         <v>44915</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>45117</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>43529</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         <v>44489</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         <v>44670</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         <v>44832</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         <v>45153</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>44049</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1865,7 +1865,7 @@
         <v>44712</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1951,7 +1951,7 @@
         <v>44889</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>44895</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>45014</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         <v>45092</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2381,7 +2381,7 @@
         <v>45124</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         <v>43523</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>43559</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>43851</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
         <v>43853</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2807,7 +2807,7 @@
         <v>43901</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2897,7 +2897,7 @@
         <v>44002</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2986,7 +2986,7 @@
         <v>44161</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3071,7 +3071,7 @@
         <v>44376</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         <v>44395</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>44568</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3330,7 +3330,7 @@
         <v>44609</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3415,7 +3415,7 @@
         <v>44805</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3500,7 +3500,7 @@
         <v>44847</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         <v>45020</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>45035</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>45037</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>45093</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>45098</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>45111</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>45120</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4188,7 +4188,7 @@
         <v>45120</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>45120</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4358,7 +4358,7 @@
         <v>45133</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4443,7 +4443,7 @@
         <v>43342</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4505,7 +4505,7 @@
         <v>43349</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>43374</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>43409</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>43413</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         <v>43416</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         <v>43418</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>43419</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>43423</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>43430</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         <v>43430</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5080,7 +5080,7 @@
         <v>43430</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5137,7 +5137,7 @@
         <v>43432</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5194,7 +5194,7 @@
         <v>43437</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5251,7 +5251,7 @@
         <v>43438</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5308,7 +5308,7 @@
         <v>43440</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>43447</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5422,7 +5422,7 @@
         <v>43452</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>43454</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>43454</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>43454</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5650,7 +5650,7 @@
         <v>43455</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>43455</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5764,7 +5764,7 @@
         <v>43461</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5821,7 +5821,7 @@
         <v>43461</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         <v>43468</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5935,7 +5935,7 @@
         <v>43480</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>43480</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6049,7 +6049,7 @@
         <v>43482</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6106,7 +6106,7 @@
         <v>43488</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>43500</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>43501</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6277,7 +6277,7 @@
         <v>43502</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6334,7 +6334,7 @@
         <v>43503</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
         <v>43511</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>43511</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>43515</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6567,7 +6567,7 @@
         <v>43521</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6624,7 +6624,7 @@
         <v>43522</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6681,7 +6681,7 @@
         <v>43525</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6738,7 +6738,7 @@
         <v>43528</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6795,7 +6795,7 @@
         <v>43528</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6852,7 +6852,7 @@
         <v>43529</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>43529</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>43530</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>43530</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>43535</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>43538</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>43539</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>43551</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>43552</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>43556</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>43559</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>43560</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>43560</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>43562</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>43563</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>43567</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>43570</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>43570</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>43580</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>43580</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>43581</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8059,7 +8059,7 @@
         <v>43598</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8116,7 +8116,7 @@
         <v>43598</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8173,7 +8173,7 @@
         <v>43606</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8230,7 +8230,7 @@
         <v>43607</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8287,7 +8287,7 @@
         <v>43608</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8344,7 +8344,7 @@
         <v>43609</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8401,7 +8401,7 @@
         <v>43615</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8458,7 +8458,7 @@
         <v>43628</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         <v>43633</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>43636</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8634,7 +8634,7 @@
         <v>43641</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8691,7 +8691,7 @@
         <v>43641</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8753,7 +8753,7 @@
         <v>43644</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8810,7 +8810,7 @@
         <v>43651</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8867,7 +8867,7 @@
         <v>43651</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8924,7 +8924,7 @@
         <v>43654</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8986,7 +8986,7 @@
         <v>43656</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9048,7 +9048,7 @@
         <v>43676</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9105,7 +9105,7 @@
         <v>43689</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9162,7 +9162,7 @@
         <v>43689</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9219,7 +9219,7 @@
         <v>43696</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9276,7 +9276,7 @@
         <v>43697</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         <v>43705</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9390,7 +9390,7 @@
         <v>43705</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         <v>43710</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>43710</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>43711</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9618,7 +9618,7 @@
         <v>43713</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9675,7 +9675,7 @@
         <v>43717</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9732,7 +9732,7 @@
         <v>43719</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9789,7 +9789,7 @@
         <v>43719</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9846,7 +9846,7 @@
         <v>43725</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9903,7 +9903,7 @@
         <v>43731</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9965,7 +9965,7 @@
         <v>43731</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         <v>43735</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10084,7 +10084,7 @@
         <v>43735</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10141,7 +10141,7 @@
         <v>43735</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10198,7 +10198,7 @@
         <v>43737</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10255,7 +10255,7 @@
         <v>43738</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10312,7 +10312,7 @@
         <v>43740</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10369,7 +10369,7 @@
         <v>43741</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10426,7 +10426,7 @@
         <v>43742</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>43745</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10545,7 +10545,7 @@
         <v>43745</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>43747</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
         <v>43749</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10726,7 +10726,7 @@
         <v>43749</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10783,7 +10783,7 @@
         <v>43754</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10840,7 +10840,7 @@
         <v>43766</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10897,7 +10897,7 @@
         <v>43766</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10974,7 +10974,7 @@
         <v>43768</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11031,7 +11031,7 @@
         <v>43775</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11088,7 +11088,7 @@
         <v>43781</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>43782</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>43783</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>43783</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>43787</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>43787</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>43787</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>43794</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11549,7 +11549,7 @@
         <v>43797</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11606,7 +11606,7 @@
         <v>43802</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11663,7 +11663,7 @@
         <v>43808</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11720,7 +11720,7 @@
         <v>43817</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11777,7 +11777,7 @@
         <v>43818</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11834,7 +11834,7 @@
         <v>43843</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11891,7 +11891,7 @@
         <v>43844</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11948,7 +11948,7 @@
         <v>43845</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>43846</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>43847</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>43852</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12176,7 +12176,7 @@
         <v>43852</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12238,7 +12238,7 @@
         <v>43858</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12300,7 +12300,7 @@
         <v>43860</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12357,7 +12357,7 @@
         <v>43861</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12414,7 +12414,7 @@
         <v>43863</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12471,7 +12471,7 @@
         <v>43864</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12533,7 +12533,7 @@
         <v>43864</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12590,7 +12590,7 @@
         <v>43866</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
         <v>43867</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12704,7 +12704,7 @@
         <v>43867</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12761,7 +12761,7 @@
         <v>43871</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12818,7 +12818,7 @@
         <v>43871</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>43882</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>43882</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>43891</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>43891</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13103,7 +13103,7 @@
         <v>43891</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13160,7 +13160,7 @@
         <v>43891</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
         <v>43901</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13279,7 +13279,7 @@
         <v>43901</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13336,7 +13336,7 @@
         <v>43901</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13398,7 +13398,7 @@
         <v>43901</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13455,7 +13455,7 @@
         <v>43906</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13512,7 +13512,7 @@
         <v>43909</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13569,7 +13569,7 @@
         <v>43909</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13626,7 +13626,7 @@
         <v>43909</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13683,7 +13683,7 @@
         <v>43909</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13740,7 +13740,7 @@
         <v>43913</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13797,7 +13797,7 @@
         <v>43915</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13854,7 +13854,7 @@
         <v>43916</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13911,7 +13911,7 @@
         <v>43920</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13968,7 +13968,7 @@
         <v>43920</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14025,7 +14025,7 @@
         <v>43943</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14082,7 +14082,7 @@
         <v>43944</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14139,7 +14139,7 @@
         <v>43950</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14196,7 +14196,7 @@
         <v>43950</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14253,7 +14253,7 @@
         <v>43956</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14310,7 +14310,7 @@
         <v>43958</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14367,7 +14367,7 @@
         <v>43959</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14424,7 +14424,7 @@
         <v>43959</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14486,7 +14486,7 @@
         <v>43962</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14543,7 +14543,7 @@
         <v>43963</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14600,7 +14600,7 @@
         <v>43983</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14657,7 +14657,7 @@
         <v>43983</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14714,7 +14714,7 @@
         <v>43984</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14776,7 +14776,7 @@
         <v>43987</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14833,7 +14833,7 @@
         <v>44007</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14890,7 +14890,7 @@
         <v>44013</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14947,7 +14947,7 @@
         <v>44021</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15004,7 +15004,7 @@
         <v>44025</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15061,7 +15061,7 @@
         <v>44026</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15118,7 +15118,7 @@
         <v>44035</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15175,7 +15175,7 @@
         <v>44035</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15232,7 +15232,7 @@
         <v>44048</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
         <v>44048</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         <v>44053</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15408,7 +15408,7 @@
         <v>44070</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15465,7 +15465,7 @@
         <v>44089</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15522,7 +15522,7 @@
         <v>44089</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15579,7 +15579,7 @@
         <v>44095</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15636,7 +15636,7 @@
         <v>44097</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15698,7 +15698,7 @@
         <v>44098</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15755,7 +15755,7 @@
         <v>44102</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15812,7 +15812,7 @@
         <v>44103</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15869,7 +15869,7 @@
         <v>44110</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15926,7 +15926,7 @@
         <v>44110</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15983,7 +15983,7 @@
         <v>44117</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16040,7 +16040,7 @@
         <v>44117</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16097,7 +16097,7 @@
         <v>44127</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16154,7 +16154,7 @@
         <v>44134</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16211,7 +16211,7 @@
         <v>44151</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16268,7 +16268,7 @@
         <v>44158</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16325,7 +16325,7 @@
         <v>44160</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16382,7 +16382,7 @@
         <v>44161</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16439,7 +16439,7 @@
         <v>44188</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16496,7 +16496,7 @@
         <v>44193</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16553,7 +16553,7 @@
         <v>44204</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16610,7 +16610,7 @@
         <v>44225</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16667,7 +16667,7 @@
         <v>44228</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16724,7 +16724,7 @@
         <v>44231</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16781,7 +16781,7 @@
         <v>44232</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16838,7 +16838,7 @@
         <v>44232</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16895,7 +16895,7 @@
         <v>44233</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16952,7 +16952,7 @@
         <v>44235</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17009,7 +17009,7 @@
         <v>44238</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17066,7 +17066,7 @@
         <v>44238</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17123,7 +17123,7 @@
         <v>44238</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17180,7 +17180,7 @@
         <v>44242</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17237,7 +17237,7 @@
         <v>44249</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17294,7 +17294,7 @@
         <v>44259</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17351,7 +17351,7 @@
         <v>44263</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17408,7 +17408,7 @@
         <v>44264</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17470,7 +17470,7 @@
         <v>44272</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17527,7 +17527,7 @@
         <v>44272</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17584,7 +17584,7 @@
         <v>44272</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
         <v>44278</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17698,7 +17698,7 @@
         <v>44279</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17760,7 +17760,7 @@
         <v>44280</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17817,7 +17817,7 @@
         <v>44285</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17874,7 +17874,7 @@
         <v>44285</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17931,7 +17931,7 @@
         <v>44287</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>44292</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         <v>44293</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>44299</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18159,7 +18159,7 @@
         <v>44300</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18216,7 +18216,7 @@
         <v>44308</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18273,7 +18273,7 @@
         <v>44308</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18335,7 +18335,7 @@
         <v>44309</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18392,7 +18392,7 @@
         <v>44314</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18454,7 +18454,7 @@
         <v>44315</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18511,7 +18511,7 @@
         <v>44334</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>44342</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18630,7 +18630,7 @@
         <v>44349</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18687,7 +18687,7 @@
         <v>44354</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18744,7 +18744,7 @@
         <v>44360</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18801,7 +18801,7 @@
         <v>44362</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18863,7 +18863,7 @@
         <v>44364</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18925,7 +18925,7 @@
         <v>44368</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18987,7 +18987,7 @@
         <v>44368</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19044,7 +19044,7 @@
         <v>44370</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         <v>44371</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19168,7 +19168,7 @@
         <v>44389</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19225,7 +19225,7 @@
         <v>44390</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19287,7 +19287,7 @@
         <v>44391</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19344,7 +19344,7 @@
         <v>44404</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19401,7 +19401,7 @@
         <v>44404</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19458,7 +19458,7 @@
         <v>44404</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19515,7 +19515,7 @@
         <v>44404</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19572,7 +19572,7 @@
         <v>44405</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19629,7 +19629,7 @@
         <v>44411</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19686,7 +19686,7 @@
         <v>44418</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19743,7 +19743,7 @@
         <v>44431</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19800,7 +19800,7 @@
         <v>44431</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19857,7 +19857,7 @@
         <v>44431</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19914,7 +19914,7 @@
         <v>44435</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19971,7 +19971,7 @@
         <v>44445</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20028,7 +20028,7 @@
         <v>44459</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20085,7 +20085,7 @@
         <v>44459</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20142,7 +20142,7 @@
         <v>44466</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20199,7 +20199,7 @@
         <v>44467</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20256,7 +20256,7 @@
         <v>44470</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20318,7 +20318,7 @@
         <v>44470</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20380,7 +20380,7 @@
         <v>44477</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20437,7 +20437,7 @@
         <v>44477</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20499,7 +20499,7 @@
         <v>44480</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20556,7 +20556,7 @@
         <v>44480</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20613,7 +20613,7 @@
         <v>44491</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20670,7 +20670,7 @@
         <v>44495</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20727,7 +20727,7 @@
         <v>44508</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20784,7 +20784,7 @@
         <v>44509</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20841,7 +20841,7 @@
         <v>44509</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20898,7 +20898,7 @@
         <v>44509</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20955,7 +20955,7 @@
         <v>44511</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21012,7 +21012,7 @@
         <v>44512</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21074,7 +21074,7 @@
         <v>44516</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21131,7 +21131,7 @@
         <v>44516</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         <v>44519</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21250,7 +21250,7 @@
         <v>44519</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21312,7 +21312,7 @@
         <v>44519</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21374,7 +21374,7 @@
         <v>44522</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21431,7 +21431,7 @@
         <v>44524</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21488,7 +21488,7 @@
         <v>44529</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21545,7 +21545,7 @@
         <v>44529</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21602,7 +21602,7 @@
         <v>44531</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21659,7 +21659,7 @@
         <v>44532</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21716,7 +21716,7 @@
         <v>44533</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21773,7 +21773,7 @@
         <v>44533</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21830,7 +21830,7 @@
         <v>44538</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21887,7 +21887,7 @@
         <v>44543</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21944,7 +21944,7 @@
         <v>44544</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22001,7 +22001,7 @@
         <v>44545</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22058,7 +22058,7 @@
         <v>44550</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22115,7 +22115,7 @@
         <v>44551</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22172,7 +22172,7 @@
         <v>44552</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22229,7 +22229,7 @@
         <v>44565</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22286,7 +22286,7 @@
         <v>44568</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22343,7 +22343,7 @@
         <v>44573</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22400,7 +22400,7 @@
         <v>44573</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22462,7 +22462,7 @@
         <v>44574</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22519,7 +22519,7 @@
         <v>44574</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22576,7 +22576,7 @@
         <v>44574</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22633,7 +22633,7 @@
         <v>44578</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22695,7 +22695,7 @@
         <v>44578</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22752,7 +22752,7 @@
         <v>44585</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22809,7 +22809,7 @@
         <v>44586</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         <v>44587</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22923,7 +22923,7 @@
         <v>44594</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22980,7 +22980,7 @@
         <v>44595</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23037,7 +23037,7 @@
         <v>44599</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23094,7 +23094,7 @@
         <v>44601</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23151,7 +23151,7 @@
         <v>44614</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23208,7 +23208,7 @@
         <v>44616</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23265,7 +23265,7 @@
         <v>44620</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23322,7 +23322,7 @@
         <v>44624</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23379,7 +23379,7 @@
         <v>44624</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23436,7 +23436,7 @@
         <v>44644</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23493,7 +23493,7 @@
         <v>44659</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23550,7 +23550,7 @@
         <v>44662</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23612,7 +23612,7 @@
         <v>44662</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23674,7 +23674,7 @@
         <v>44673</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23736,7 +23736,7 @@
         <v>44684</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23798,7 +23798,7 @@
         <v>44685</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23855,7 +23855,7 @@
         <v>44691</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23912,7 +23912,7 @@
         <v>44694</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23969,7 +23969,7 @@
         <v>44694</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24031,7 +24031,7 @@
         <v>44694</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24088,7 +24088,7 @@
         <v>44694</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24150,7 +24150,7 @@
         <v>44697</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24212,7 +24212,7 @@
         <v>44701</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24274,7 +24274,7 @@
         <v>44711</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24331,7 +24331,7 @@
         <v>44711</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24388,7 +24388,7 @@
         <v>44712</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24445,7 +24445,7 @@
         <v>44713</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24507,7 +24507,7 @@
         <v>44715</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24564,7 +24564,7 @@
         <v>44723</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24621,7 +24621,7 @@
         <v>44732</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24678,7 +24678,7 @@
         <v>44733</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24740,7 +24740,7 @@
         <v>44734</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24797,7 +24797,7 @@
         <v>44735</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24854,7 +24854,7 @@
         <v>44739</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24911,7 +24911,7 @@
         <v>44748</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24968,7 +24968,7 @@
         <v>44753</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25025,7 +25025,7 @@
         <v>44754</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25087,7 +25087,7 @@
         <v>44754</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25144,7 +25144,7 @@
         <v>44769</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25201,7 +25201,7 @@
         <v>44788</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25258,7 +25258,7 @@
         <v>44790</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25315,7 +25315,7 @@
         <v>44791</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25372,7 +25372,7 @@
         <v>44792</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25429,7 +25429,7 @@
         <v>44802</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25486,7 +25486,7 @@
         <v>44810</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25548,7 +25548,7 @@
         <v>44810</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25610,7 +25610,7 @@
         <v>44810</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25672,7 +25672,7 @@
         <v>44820</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25729,7 +25729,7 @@
         <v>44820</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25791,7 +25791,7 @@
         <v>44820</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25853,7 +25853,7 @@
         <v>44823</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25910,7 +25910,7 @@
         <v>44823</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25972,7 +25972,7 @@
         <v>44824</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26034,7 +26034,7 @@
         <v>44826</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26091,7 +26091,7 @@
         <v>44827</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26148,7 +26148,7 @@
         <v>44832</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26205,7 +26205,7 @@
         <v>44833</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26262,7 +26262,7 @@
         <v>44838</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26319,7 +26319,7 @@
         <v>44840</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26381,7 +26381,7 @@
         <v>44844</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26438,7 +26438,7 @@
         <v>44847</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26495,7 +26495,7 @@
         <v>44847</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26552,7 +26552,7 @@
         <v>44853</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26609,7 +26609,7 @@
         <v>44862</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26666,7 +26666,7 @@
         <v>44872</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26728,7 +26728,7 @@
         <v>44875</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26785,7 +26785,7 @@
         <v>44875</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26842,7 +26842,7 @@
         <v>44886</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26899,7 +26899,7 @@
         <v>44886</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26956,7 +26956,7 @@
         <v>44887</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27013,7 +27013,7 @@
         <v>44888</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27075,7 +27075,7 @@
         <v>44888</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27157,7 +27157,7 @@
         <v>44901</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27214,7 +27214,7 @@
         <v>44903</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27271,7 +27271,7 @@
         <v>44907</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27328,7 +27328,7 @@
         <v>44909</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27390,7 +27390,7 @@
         <v>44909</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27452,7 +27452,7 @@
         <v>44910</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27514,7 +27514,7 @@
         <v>44911</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27571,7 +27571,7 @@
         <v>44913</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27628,7 +27628,7 @@
         <v>44914</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27685,7 +27685,7 @@
         <v>44914</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27742,7 +27742,7 @@
         <v>44916</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27799,7 +27799,7 @@
         <v>44917</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27856,7 +27856,7 @@
         <v>44917</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27913,7 +27913,7 @@
         <v>44939</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27970,7 +27970,7 @@
         <v>44944</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28027,7 +28027,7 @@
         <v>44944</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28084,7 +28084,7 @@
         <v>44946</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28141,7 +28141,7 @@
         <v>44950</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28198,7 +28198,7 @@
         <v>44951</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28255,7 +28255,7 @@
         <v>44956</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28317,7 +28317,7 @@
         <v>44974</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28374,7 +28374,7 @@
         <v>44974</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28431,7 +28431,7 @@
         <v>44974</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28488,7 +28488,7 @@
         <v>44978</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28545,7 +28545,7 @@
         <v>44980</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28602,7 +28602,7 @@
         <v>44981</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28659,7 +28659,7 @@
         <v>44981</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28716,7 +28716,7 @@
         <v>44981</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28773,7 +28773,7 @@
         <v>44984</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28830,7 +28830,7 @@
         <v>44984</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28892,7 +28892,7 @@
         <v>44984</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28949,7 +28949,7 @@
         <v>44987</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29006,7 +29006,7 @@
         <v>44993</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29063,7 +29063,7 @@
         <v>44999</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29125,7 +29125,7 @@
         <v>45000</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29182,7 +29182,7 @@
         <v>45005</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29244,7 +29244,7 @@
         <v>45006</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29301,7 +29301,7 @@
         <v>45006</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29358,7 +29358,7 @@
         <v>45008</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29415,7 +29415,7 @@
         <v>45008</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29472,7 +29472,7 @@
         <v>45013</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29529,7 +29529,7 @@
         <v>45019</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29586,7 +29586,7 @@
         <v>45019</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29643,7 +29643,7 @@
         <v>45020</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29700,7 +29700,7 @@
         <v>45022</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29762,7 +29762,7 @@
         <v>45022</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29824,7 +29824,7 @@
         <v>45027</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29881,7 +29881,7 @@
         <v>45029</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29938,7 +29938,7 @@
         <v>45030</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29995,7 +29995,7 @@
         <v>45035</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30052,7 +30052,7 @@
         <v>45043</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30109,7 +30109,7 @@
         <v>45043</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30166,7 +30166,7 @@
         <v>45044</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30223,7 +30223,7 @@
         <v>45050</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30285,7 +30285,7 @@
         <v>45050</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30347,7 +30347,7 @@
         <v>45050</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30409,7 +30409,7 @@
         <v>45050</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30471,7 +30471,7 @@
         <v>45050</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30533,7 +30533,7 @@
         <v>45050</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30595,7 +30595,7 @@
         <v>45050</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30677,7 +30677,7 @@
         <v>45058</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30739,7 +30739,7 @@
         <v>45058</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30801,7 +30801,7 @@
         <v>45058</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30863,7 +30863,7 @@
         <v>45058</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30925,7 +30925,7 @@
         <v>45062</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30982,7 +30982,7 @@
         <v>45062</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31039,7 +31039,7 @@
         <v>45065</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31096,7 +31096,7 @@
         <v>45068</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31153,7 +31153,7 @@
         <v>45068</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31215,7 +31215,7 @@
         <v>45071</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31272,7 +31272,7 @@
         <v>45071</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31329,7 +31329,7 @@
         <v>45075</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31386,7 +31386,7 @@
         <v>45082</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31443,7 +31443,7 @@
         <v>45082</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31500,7 +31500,7 @@
         <v>45083</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31557,7 +31557,7 @@
         <v>45083</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31614,7 +31614,7 @@
         <v>45083</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31671,7 +31671,7 @@
         <v>45083</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31728,7 +31728,7 @@
         <v>45086</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31785,7 +31785,7 @@
         <v>45089</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31842,7 +31842,7 @@
         <v>45089</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31899,7 +31899,7 @@
         <v>45090</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31961,7 +31961,7 @@
         <v>45091</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32018,7 +32018,7 @@
         <v>45091</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32080,7 +32080,7 @@
         <v>45091</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32142,7 +32142,7 @@
         <v>45092</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32199,7 +32199,7 @@
         <v>45092</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32256,7 +32256,7 @@
         <v>45092</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32313,7 +32313,7 @@
         <v>45092</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32375,7 +32375,7 @@
         <v>45092</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32432,7 +32432,7 @@
         <v>45098</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32489,7 +32489,7 @@
         <v>45099</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32546,7 +32546,7 @@
         <v>45103</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32608,7 +32608,7 @@
         <v>45103</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32665,7 +32665,7 @@
         <v>45103</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32727,7 +32727,7 @@
         <v>45105</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32784,7 +32784,7 @@
         <v>45111</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32841,7 +32841,7 @@
         <v>45112</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32903,7 +32903,7 @@
         <v>45113</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32965,7 +32965,7 @@
         <v>45113</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33022,7 +33022,7 @@
         <v>45114</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33079,7 +33079,7 @@
         <v>45117</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33136,7 +33136,7 @@
         <v>45117</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33193,7 +33193,7 @@
         <v>45117</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33270,7 +33270,7 @@
         <v>45117</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33327,7 +33327,7 @@
         <v>45117</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33384,7 +33384,7 @@
         <v>45117</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33441,7 +33441,7 @@
         <v>45117</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33498,7 +33498,7 @@
         <v>45118</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33555,7 +33555,7 @@
         <v>45119</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33617,7 +33617,7 @@
         <v>45120</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33674,7 +33674,7 @@
         <v>45126</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33731,7 +33731,7 @@
         <v>45131</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33788,7 +33788,7 @@
         <v>45133</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33845,7 +33845,7 @@
         <v>45135</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33902,7 +33902,7 @@
         <v>45166</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33959,7 +33959,7 @@
         <v>45166</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34016,7 +34016,7 @@
         <v>45168</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34078,7 +34078,7 @@
         <v>45168</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34130,7 +34130,7 @@
       </c>
       <c r="R556" s="2" t="inlineStr"/>
     </row>
-    <row r="557">
+    <row r="557" ht="15" customHeight="1">
       <c r="A557" t="inlineStr">
         <is>
           <t>A 42691-2023</t>
@@ -34140,7 +34140,7 @@
         <v>45181</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34186,6 +34186,63 @@
         <v>0</v>
       </c>
       <c r="R557" s="2" t="inlineStr"/>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>A 43840-2023</t>
+        </is>
+      </c>
+      <c r="B558" s="1" t="n">
+        <v>45187</v>
+      </c>
+      <c r="C558" s="1" t="n">
+        <v>45188</v>
+      </c>
+      <c r="D558" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E558" t="inlineStr">
+        <is>
+          <t>HEBY</t>
+        </is>
+      </c>
+      <c r="G558" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="H558" t="n">
+        <v>0</v>
+      </c>
+      <c r="I558" t="n">
+        <v>0</v>
+      </c>
+      <c r="J558" t="n">
+        <v>0</v>
+      </c>
+      <c r="K558" t="n">
+        <v>0</v>
+      </c>
+      <c r="L558" t="n">
+        <v>0</v>
+      </c>
+      <c r="M558" t="n">
+        <v>0</v>
+      </c>
+      <c r="N558" t="n">
+        <v>0</v>
+      </c>
+      <c r="O558" t="n">
+        <v>0</v>
+      </c>
+      <c r="P558" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q558" t="n">
+        <v>0</v>
+      </c>
+      <c r="R558" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt HEBY.xlsx
+++ b/Översikt HEBY.xlsx
@@ -572,7 +572,7 @@
         <v>44914</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>43515</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>43805</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -854,7 +854,7 @@
         <v>43689</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>44824</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1047,7 +1047,7 @@
         <v>44914</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
         <v>44915</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>45117</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>43529</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         <v>44489</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         <v>44670</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         <v>44832</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         <v>45153</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>44049</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1865,7 +1865,7 @@
         <v>44712</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1951,7 +1951,7 @@
         <v>44889</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>44895</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>45014</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         <v>45092</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2381,7 +2381,7 @@
         <v>45124</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         <v>43523</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>43559</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>43851</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
         <v>43853</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2807,7 +2807,7 @@
         <v>43901</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2897,7 +2897,7 @@
         <v>44002</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2986,7 +2986,7 @@
         <v>44161</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3071,7 +3071,7 @@
         <v>44376</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         <v>44395</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>44568</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3330,7 +3330,7 @@
         <v>44609</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3415,7 +3415,7 @@
         <v>44805</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3500,7 +3500,7 @@
         <v>44847</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         <v>45020</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>45035</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>45037</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>45093</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>45098</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>45111</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>45120</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4188,7 +4188,7 @@
         <v>45120</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>45120</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4358,7 +4358,7 @@
         <v>45133</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4443,7 +4443,7 @@
         <v>43342</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4505,7 +4505,7 @@
         <v>43349</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>43374</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>43409</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>43413</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         <v>43416</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         <v>43418</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>43419</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>43423</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>43430</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         <v>43430</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5080,7 +5080,7 @@
         <v>43430</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5137,7 +5137,7 @@
         <v>43432</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5194,7 +5194,7 @@
         <v>43437</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5251,7 +5251,7 @@
         <v>43438</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5308,7 +5308,7 @@
         <v>43440</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>43447</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5422,7 +5422,7 @@
         <v>43452</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>43454</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>43454</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>43454</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5650,7 +5650,7 @@
         <v>43455</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>43455</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5764,7 +5764,7 @@
         <v>43461</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5821,7 +5821,7 @@
         <v>43461</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         <v>43468</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5935,7 +5935,7 @@
         <v>43480</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>43480</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6049,7 +6049,7 @@
         <v>43482</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6106,7 +6106,7 @@
         <v>43488</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>43500</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>43501</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6277,7 +6277,7 @@
         <v>43502</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6334,7 +6334,7 @@
         <v>43503</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
         <v>43511</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>43511</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>43515</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6567,7 +6567,7 @@
         <v>43521</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6624,7 +6624,7 @@
         <v>43522</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6681,7 +6681,7 @@
         <v>43525</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6738,7 +6738,7 @@
         <v>43528</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6795,7 +6795,7 @@
         <v>43528</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6852,7 +6852,7 @@
         <v>43529</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>43529</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>43530</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>43530</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>43535</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>43538</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>43539</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>43551</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>43552</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>43556</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>43559</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>43560</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>43560</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>43562</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>43563</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>43567</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>43570</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>43570</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>43580</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>43580</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>43581</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8059,7 +8059,7 @@
         <v>43598</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8116,7 +8116,7 @@
         <v>43598</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8173,7 +8173,7 @@
         <v>43606</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8230,7 +8230,7 @@
         <v>43607</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8287,7 +8287,7 @@
         <v>43608</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8344,7 +8344,7 @@
         <v>43609</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8401,7 +8401,7 @@
         <v>43615</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8458,7 +8458,7 @@
         <v>43628</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         <v>43633</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>43636</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8634,7 +8634,7 @@
         <v>43641</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8691,7 +8691,7 @@
         <v>43641</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8753,7 +8753,7 @@
         <v>43644</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8810,7 +8810,7 @@
         <v>43651</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8867,7 +8867,7 @@
         <v>43651</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8924,7 +8924,7 @@
         <v>43654</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8986,7 +8986,7 @@
         <v>43656</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9048,7 +9048,7 @@
         <v>43676</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9105,7 +9105,7 @@
         <v>43689</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9162,7 +9162,7 @@
         <v>43689</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9219,7 +9219,7 @@
         <v>43696</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9276,7 +9276,7 @@
         <v>43697</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         <v>43705</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9390,7 +9390,7 @@
         <v>43705</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         <v>43710</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>43710</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>43711</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9618,7 +9618,7 @@
         <v>43713</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9675,7 +9675,7 @@
         <v>43717</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9732,7 +9732,7 @@
         <v>43719</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9789,7 +9789,7 @@
         <v>43719</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9846,7 +9846,7 @@
         <v>43725</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9903,7 +9903,7 @@
         <v>43731</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9965,7 +9965,7 @@
         <v>43731</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         <v>43735</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10084,7 +10084,7 @@
         <v>43735</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10141,7 +10141,7 @@
         <v>43735</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10198,7 +10198,7 @@
         <v>43737</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10255,7 +10255,7 @@
         <v>43738</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10312,7 +10312,7 @@
         <v>43740</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10369,7 +10369,7 @@
         <v>43741</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10426,7 +10426,7 @@
         <v>43742</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>43745</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10545,7 +10545,7 @@
         <v>43745</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>43747</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
         <v>43749</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10726,7 +10726,7 @@
         <v>43749</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10783,7 +10783,7 @@
         <v>43754</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10840,7 +10840,7 @@
         <v>43766</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10897,7 +10897,7 @@
         <v>43766</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10974,7 +10974,7 @@
         <v>43768</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11031,7 +11031,7 @@
         <v>43775</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11088,7 +11088,7 @@
         <v>43781</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>43782</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>43783</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>43783</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>43787</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>43787</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>43787</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>43794</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11549,7 +11549,7 @@
         <v>43797</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11606,7 +11606,7 @@
         <v>43802</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11663,7 +11663,7 @@
         <v>43808</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11720,7 +11720,7 @@
         <v>43817</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11777,7 +11777,7 @@
         <v>43818</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11834,7 +11834,7 @@
         <v>43843</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11891,7 +11891,7 @@
         <v>43844</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11948,7 +11948,7 @@
         <v>43845</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>43846</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>43847</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>43852</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12176,7 +12176,7 @@
         <v>43852</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12238,7 +12238,7 @@
         <v>43858</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12300,7 +12300,7 @@
         <v>43860</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12357,7 +12357,7 @@
         <v>43861</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12414,7 +12414,7 @@
         <v>43863</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12471,7 +12471,7 @@
         <v>43864</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12533,7 +12533,7 @@
         <v>43864</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12590,7 +12590,7 @@
         <v>43866</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
         <v>43867</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12704,7 +12704,7 @@
         <v>43867</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12761,7 +12761,7 @@
         <v>43871</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12818,7 +12818,7 @@
         <v>43871</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>43882</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>43882</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>43891</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>43891</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13103,7 +13103,7 @@
         <v>43891</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13160,7 +13160,7 @@
         <v>43891</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
         <v>43901</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13279,7 +13279,7 @@
         <v>43901</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13336,7 +13336,7 @@
         <v>43901</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13398,7 +13398,7 @@
         <v>43901</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13455,7 +13455,7 @@
         <v>43906</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13512,7 +13512,7 @@
         <v>43909</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13569,7 +13569,7 @@
         <v>43909</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13626,7 +13626,7 @@
         <v>43909</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13683,7 +13683,7 @@
         <v>43909</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13740,7 +13740,7 @@
         <v>43913</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13797,7 +13797,7 @@
         <v>43915</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13854,7 +13854,7 @@
         <v>43916</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13911,7 +13911,7 @@
         <v>43920</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13968,7 +13968,7 @@
         <v>43920</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14025,7 +14025,7 @@
         <v>43943</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14082,7 +14082,7 @@
         <v>43944</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14139,7 +14139,7 @@
         <v>43950</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14196,7 +14196,7 @@
         <v>43950</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14253,7 +14253,7 @@
         <v>43956</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14310,7 +14310,7 @@
         <v>43958</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14367,7 +14367,7 @@
         <v>43959</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14424,7 +14424,7 @@
         <v>43959</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14486,7 +14486,7 @@
         <v>43962</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14543,7 +14543,7 @@
         <v>43963</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14600,7 +14600,7 @@
         <v>43983</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14657,7 +14657,7 @@
         <v>43983</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14714,7 +14714,7 @@
         <v>43984</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14776,7 +14776,7 @@
         <v>43987</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14833,7 +14833,7 @@
         <v>44007</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14890,7 +14890,7 @@
         <v>44013</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14947,7 +14947,7 @@
         <v>44021</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15004,7 +15004,7 @@
         <v>44025</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15061,7 +15061,7 @@
         <v>44026</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15118,7 +15118,7 @@
         <v>44035</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15175,7 +15175,7 @@
         <v>44035</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15232,7 +15232,7 @@
         <v>44048</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
         <v>44048</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         <v>44053</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15408,7 +15408,7 @@
         <v>44070</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15465,7 +15465,7 @@
         <v>44089</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15522,7 +15522,7 @@
         <v>44089</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15579,7 +15579,7 @@
         <v>44095</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15636,7 +15636,7 @@
         <v>44097</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15698,7 +15698,7 @@
         <v>44098</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15755,7 +15755,7 @@
         <v>44102</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15812,7 +15812,7 @@
         <v>44103</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15869,7 +15869,7 @@
         <v>44110</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15926,7 +15926,7 @@
         <v>44110</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15983,7 +15983,7 @@
         <v>44117</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16040,7 +16040,7 @@
         <v>44117</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16097,7 +16097,7 @@
         <v>44127</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16154,7 +16154,7 @@
         <v>44134</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16211,7 +16211,7 @@
         <v>44151</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16268,7 +16268,7 @@
         <v>44158</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16325,7 +16325,7 @@
         <v>44160</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16382,7 +16382,7 @@
         <v>44161</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16439,7 +16439,7 @@
         <v>44188</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16496,7 +16496,7 @@
         <v>44193</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16553,7 +16553,7 @@
         <v>44204</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16610,7 +16610,7 @@
         <v>44225</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16667,7 +16667,7 @@
         <v>44228</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16724,7 +16724,7 @@
         <v>44231</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16781,7 +16781,7 @@
         <v>44232</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16838,7 +16838,7 @@
         <v>44232</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16895,7 +16895,7 @@
         <v>44233</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16952,7 +16952,7 @@
         <v>44235</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17009,7 +17009,7 @@
         <v>44238</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17066,7 +17066,7 @@
         <v>44238</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17123,7 +17123,7 @@
         <v>44238</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17180,7 +17180,7 @@
         <v>44242</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17237,7 +17237,7 @@
         <v>44249</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17294,7 +17294,7 @@
         <v>44259</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17351,7 +17351,7 @@
         <v>44263</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17408,7 +17408,7 @@
         <v>44264</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17470,7 +17470,7 @@
         <v>44272</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17527,7 +17527,7 @@
         <v>44272</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17584,7 +17584,7 @@
         <v>44272</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
         <v>44278</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17698,7 +17698,7 @@
         <v>44279</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17760,7 +17760,7 @@
         <v>44280</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17817,7 +17817,7 @@
         <v>44285</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17874,7 +17874,7 @@
         <v>44285</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17931,7 +17931,7 @@
         <v>44287</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>44292</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         <v>44293</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>44299</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18159,7 +18159,7 @@
         <v>44300</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18216,7 +18216,7 @@
         <v>44308</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18273,7 +18273,7 @@
         <v>44308</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18335,7 +18335,7 @@
         <v>44309</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18392,7 +18392,7 @@
         <v>44314</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18454,7 +18454,7 @@
         <v>44315</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18511,7 +18511,7 @@
         <v>44334</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>44342</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18630,7 +18630,7 @@
         <v>44349</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18687,7 +18687,7 @@
         <v>44354</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18744,7 +18744,7 @@
         <v>44360</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18801,7 +18801,7 @@
         <v>44362</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18863,7 +18863,7 @@
         <v>44364</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18925,7 +18925,7 @@
         <v>44368</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18987,7 +18987,7 @@
         <v>44368</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19044,7 +19044,7 @@
         <v>44370</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         <v>44371</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19168,7 +19168,7 @@
         <v>44389</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19225,7 +19225,7 @@
         <v>44390</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19287,7 +19287,7 @@
         <v>44391</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19344,7 +19344,7 @@
         <v>44404</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19401,7 +19401,7 @@
         <v>44404</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19458,7 +19458,7 @@
         <v>44404</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19515,7 +19515,7 @@
         <v>44404</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19572,7 +19572,7 @@
         <v>44405</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19629,7 +19629,7 @@
         <v>44411</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19686,7 +19686,7 @@
         <v>44418</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19743,7 +19743,7 @@
         <v>44431</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19800,7 +19800,7 @@
         <v>44431</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19857,7 +19857,7 @@
         <v>44431</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19914,7 +19914,7 @@
         <v>44435</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19971,7 +19971,7 @@
         <v>44445</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20028,7 +20028,7 @@
         <v>44459</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20085,7 +20085,7 @@
         <v>44459</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20142,7 +20142,7 @@
         <v>44466</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20199,7 +20199,7 @@
         <v>44467</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20256,7 +20256,7 @@
         <v>44470</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20318,7 +20318,7 @@
         <v>44470</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20380,7 +20380,7 @@
         <v>44477</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20437,7 +20437,7 @@
         <v>44477</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20499,7 +20499,7 @@
         <v>44480</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20556,7 +20556,7 @@
         <v>44480</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20613,7 +20613,7 @@
         <v>44491</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20670,7 +20670,7 @@
         <v>44495</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20727,7 +20727,7 @@
         <v>44508</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20784,7 +20784,7 @@
         <v>44509</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20841,7 +20841,7 @@
         <v>44509</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20898,7 +20898,7 @@
         <v>44509</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20955,7 +20955,7 @@
         <v>44511</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21012,7 +21012,7 @@
         <v>44512</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21074,7 +21074,7 @@
         <v>44516</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21131,7 +21131,7 @@
         <v>44516</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         <v>44519</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21250,7 +21250,7 @@
         <v>44519</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21312,7 +21312,7 @@
         <v>44519</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21374,7 +21374,7 @@
         <v>44522</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21431,7 +21431,7 @@
         <v>44524</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21488,7 +21488,7 @@
         <v>44529</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21545,7 +21545,7 @@
         <v>44529</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21602,7 +21602,7 @@
         <v>44531</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21659,7 +21659,7 @@
         <v>44532</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21716,7 +21716,7 @@
         <v>44533</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21773,7 +21773,7 @@
         <v>44533</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21830,7 +21830,7 @@
         <v>44538</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21887,7 +21887,7 @@
         <v>44543</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21944,7 +21944,7 @@
         <v>44544</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22001,7 +22001,7 @@
         <v>44545</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22058,7 +22058,7 @@
         <v>44550</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22115,7 +22115,7 @@
         <v>44551</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22172,7 +22172,7 @@
         <v>44552</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22229,7 +22229,7 @@
         <v>44565</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22286,7 +22286,7 @@
         <v>44568</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22343,7 +22343,7 @@
         <v>44573</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22400,7 +22400,7 @@
         <v>44573</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22462,7 +22462,7 @@
         <v>44574</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22519,7 +22519,7 @@
         <v>44574</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22576,7 +22576,7 @@
         <v>44574</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22633,7 +22633,7 @@
         <v>44578</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22695,7 +22695,7 @@
         <v>44578</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22752,7 +22752,7 @@
         <v>44585</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22809,7 +22809,7 @@
         <v>44586</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         <v>44587</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22923,7 +22923,7 @@
         <v>44594</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22980,7 +22980,7 @@
         <v>44595</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23037,7 +23037,7 @@
         <v>44599</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23094,7 +23094,7 @@
         <v>44601</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23151,7 +23151,7 @@
         <v>44614</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23208,7 +23208,7 @@
         <v>44616</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23265,7 +23265,7 @@
         <v>44620</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23322,7 +23322,7 @@
         <v>44624</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23379,7 +23379,7 @@
         <v>44624</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23436,7 +23436,7 @@
         <v>44644</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23493,7 +23493,7 @@
         <v>44659</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23550,7 +23550,7 @@
         <v>44662</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23612,7 +23612,7 @@
         <v>44662</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23674,7 +23674,7 @@
         <v>44673</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23736,7 +23736,7 @@
         <v>44684</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23798,7 +23798,7 @@
         <v>44685</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23855,7 +23855,7 @@
         <v>44691</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23912,7 +23912,7 @@
         <v>44694</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23969,7 +23969,7 @@
         <v>44694</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24031,7 +24031,7 @@
         <v>44694</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24088,7 +24088,7 @@
         <v>44694</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24150,7 +24150,7 @@
         <v>44697</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24212,7 +24212,7 @@
         <v>44701</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24274,7 +24274,7 @@
         <v>44711</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24331,7 +24331,7 @@
         <v>44711</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24388,7 +24388,7 @@
         <v>44712</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24445,7 +24445,7 @@
         <v>44713</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24507,7 +24507,7 @@
         <v>44715</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24564,7 +24564,7 @@
         <v>44723</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24621,7 +24621,7 @@
         <v>44732</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24678,7 +24678,7 @@
         <v>44733</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24740,7 +24740,7 @@
         <v>44734</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24797,7 +24797,7 @@
         <v>44735</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24854,7 +24854,7 @@
         <v>44739</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24911,7 +24911,7 @@
         <v>44748</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24968,7 +24968,7 @@
         <v>44753</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25025,7 +25025,7 @@
         <v>44754</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25087,7 +25087,7 @@
         <v>44754</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25144,7 +25144,7 @@
         <v>44769</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25201,7 +25201,7 @@
         <v>44788</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25258,7 +25258,7 @@
         <v>44790</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25315,7 +25315,7 @@
         <v>44791</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25372,7 +25372,7 @@
         <v>44792</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25429,7 +25429,7 @@
         <v>44802</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25486,7 +25486,7 @@
         <v>44810</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25548,7 +25548,7 @@
         <v>44810</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25610,7 +25610,7 @@
         <v>44810</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25672,7 +25672,7 @@
         <v>44820</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25729,7 +25729,7 @@
         <v>44820</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25791,7 +25791,7 @@
         <v>44820</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25853,7 +25853,7 @@
         <v>44823</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25910,7 +25910,7 @@
         <v>44823</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25972,7 +25972,7 @@
         <v>44824</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26034,7 +26034,7 @@
         <v>44826</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26091,7 +26091,7 @@
         <v>44827</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26148,7 +26148,7 @@
         <v>44832</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26205,7 +26205,7 @@
         <v>44833</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26262,7 +26262,7 @@
         <v>44838</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26319,7 +26319,7 @@
         <v>44840</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26381,7 +26381,7 @@
         <v>44844</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26438,7 +26438,7 @@
         <v>44847</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26495,7 +26495,7 @@
         <v>44847</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26552,7 +26552,7 @@
         <v>44853</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26609,7 +26609,7 @@
         <v>44862</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26666,7 +26666,7 @@
         <v>44872</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26728,7 +26728,7 @@
         <v>44875</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26785,7 +26785,7 @@
         <v>44875</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26842,7 +26842,7 @@
         <v>44886</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26899,7 +26899,7 @@
         <v>44886</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26956,7 +26956,7 @@
         <v>44887</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27013,7 +27013,7 @@
         <v>44888</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27075,7 +27075,7 @@
         <v>44888</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27157,7 +27157,7 @@
         <v>44901</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27214,7 +27214,7 @@
         <v>44903</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27271,7 +27271,7 @@
         <v>44907</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27328,7 +27328,7 @@
         <v>44909</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27390,7 +27390,7 @@
         <v>44909</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27452,7 +27452,7 @@
         <v>44910</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27514,7 +27514,7 @@
         <v>44911</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27571,7 +27571,7 @@
         <v>44913</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27628,7 +27628,7 @@
         <v>44914</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27685,7 +27685,7 @@
         <v>44914</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27742,7 +27742,7 @@
         <v>44916</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27799,7 +27799,7 @@
         <v>44917</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27856,7 +27856,7 @@
         <v>44917</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27913,7 +27913,7 @@
         <v>44939</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27970,7 +27970,7 @@
         <v>44944</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28027,7 +28027,7 @@
         <v>44944</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28084,7 +28084,7 @@
         <v>44946</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28141,7 +28141,7 @@
         <v>44950</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28198,7 +28198,7 @@
         <v>44951</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28255,7 +28255,7 @@
         <v>44956</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28317,7 +28317,7 @@
         <v>44974</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28374,7 +28374,7 @@
         <v>44974</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28431,7 +28431,7 @@
         <v>44974</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28488,7 +28488,7 @@
         <v>44978</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28545,7 +28545,7 @@
         <v>44980</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28602,7 +28602,7 @@
         <v>44981</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28659,7 +28659,7 @@
         <v>44981</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28716,7 +28716,7 @@
         <v>44981</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28773,7 +28773,7 @@
         <v>44984</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28830,7 +28830,7 @@
         <v>44984</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28892,7 +28892,7 @@
         <v>44984</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28949,7 +28949,7 @@
         <v>44987</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29006,7 +29006,7 @@
         <v>44993</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29063,7 +29063,7 @@
         <v>44999</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29125,7 +29125,7 @@
         <v>45000</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29182,7 +29182,7 @@
         <v>45005</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29244,7 +29244,7 @@
         <v>45006</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29301,7 +29301,7 @@
         <v>45006</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29358,7 +29358,7 @@
         <v>45008</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29415,7 +29415,7 @@
         <v>45008</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29472,7 +29472,7 @@
         <v>45013</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29529,7 +29529,7 @@
         <v>45019</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29586,7 +29586,7 @@
         <v>45019</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29643,7 +29643,7 @@
         <v>45020</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29700,7 +29700,7 @@
         <v>45022</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29762,7 +29762,7 @@
         <v>45022</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29824,7 +29824,7 @@
         <v>45027</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29881,7 +29881,7 @@
         <v>45029</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29938,7 +29938,7 @@
         <v>45030</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29995,7 +29995,7 @@
         <v>45035</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30052,7 +30052,7 @@
         <v>45043</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30109,7 +30109,7 @@
         <v>45043</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30166,7 +30166,7 @@
         <v>45044</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30223,7 +30223,7 @@
         <v>45050</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30285,7 +30285,7 @@
         <v>45050</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30347,7 +30347,7 @@
         <v>45050</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30409,7 +30409,7 @@
         <v>45050</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30471,7 +30471,7 @@
         <v>45050</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30533,7 +30533,7 @@
         <v>45050</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30595,7 +30595,7 @@
         <v>45050</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30677,7 +30677,7 @@
         <v>45058</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30739,7 +30739,7 @@
         <v>45058</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30801,7 +30801,7 @@
         <v>45058</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30863,7 +30863,7 @@
         <v>45058</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30925,7 +30925,7 @@
         <v>45062</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30982,7 +30982,7 @@
         <v>45062</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31039,7 +31039,7 @@
         <v>45065</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31096,7 +31096,7 @@
         <v>45068</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31153,7 +31153,7 @@
         <v>45068</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31215,7 +31215,7 @@
         <v>45071</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31272,7 +31272,7 @@
         <v>45071</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31329,7 +31329,7 @@
         <v>45075</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31386,7 +31386,7 @@
         <v>45082</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31443,7 +31443,7 @@
         <v>45082</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31500,7 +31500,7 @@
         <v>45083</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31557,7 +31557,7 @@
         <v>45083</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31614,7 +31614,7 @@
         <v>45083</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31671,7 +31671,7 @@
         <v>45083</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31728,7 +31728,7 @@
         <v>45086</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31785,7 +31785,7 @@
         <v>45089</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31842,7 +31842,7 @@
         <v>45089</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31899,7 +31899,7 @@
         <v>45090</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31961,7 +31961,7 @@
         <v>45091</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32018,7 +32018,7 @@
         <v>45091</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32080,7 +32080,7 @@
         <v>45091</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32142,7 +32142,7 @@
         <v>45092</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32199,7 +32199,7 @@
         <v>45092</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32256,7 +32256,7 @@
         <v>45092</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32313,7 +32313,7 @@
         <v>45092</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32375,7 +32375,7 @@
         <v>45092</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32432,7 +32432,7 @@
         <v>45098</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32489,7 +32489,7 @@
         <v>45099</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32546,7 +32546,7 @@
         <v>45103</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32608,7 +32608,7 @@
         <v>45103</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32665,7 +32665,7 @@
         <v>45103</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32727,7 +32727,7 @@
         <v>45105</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32784,7 +32784,7 @@
         <v>45111</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32841,7 +32841,7 @@
         <v>45112</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32903,7 +32903,7 @@
         <v>45113</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32965,7 +32965,7 @@
         <v>45113</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33022,7 +33022,7 @@
         <v>45114</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33079,7 +33079,7 @@
         <v>45117</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33136,7 +33136,7 @@
         <v>45117</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33193,7 +33193,7 @@
         <v>45117</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33270,7 +33270,7 @@
         <v>45117</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33327,7 +33327,7 @@
         <v>45117</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33384,7 +33384,7 @@
         <v>45117</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33441,7 +33441,7 @@
         <v>45117</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33498,7 +33498,7 @@
         <v>45118</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33555,7 +33555,7 @@
         <v>45119</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33617,7 +33617,7 @@
         <v>45120</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33674,7 +33674,7 @@
         <v>45126</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33731,7 +33731,7 @@
         <v>45131</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33788,7 +33788,7 @@
         <v>45133</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33845,7 +33845,7 @@
         <v>45135</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33902,7 +33902,7 @@
         <v>45166</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33959,7 +33959,7 @@
         <v>45166</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34016,7 +34016,7 @@
         <v>45168</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34078,7 +34078,7 @@
         <v>45168</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34140,7 +34140,7 @@
         <v>45181</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34197,7 +34197,7 @@
         <v>45187</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>

--- a/Översikt HEBY.xlsx
+++ b/Översikt HEBY.xlsx
@@ -572,7 +572,7 @@
         <v>44914</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>43515</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>43805</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -854,7 +854,7 @@
         <v>43689</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>44824</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1047,7 +1047,7 @@
         <v>44914</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
         <v>44915</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>45117</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>43529</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         <v>44489</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         <v>44670</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         <v>44832</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         <v>45153</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>44049</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1865,7 +1865,7 @@
         <v>44712</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1951,7 +1951,7 @@
         <v>44889</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>44895</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>45014</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         <v>45092</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2381,7 +2381,7 @@
         <v>45124</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         <v>43523</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>43559</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>43851</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
         <v>43853</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2807,7 +2807,7 @@
         <v>43901</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2897,7 +2897,7 @@
         <v>44002</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2986,7 +2986,7 @@
         <v>44161</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3071,7 +3071,7 @@
         <v>44376</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         <v>44395</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>44568</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3330,7 +3330,7 @@
         <v>44609</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3415,7 +3415,7 @@
         <v>44805</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3500,7 +3500,7 @@
         <v>44847</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         <v>45020</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>45035</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>45037</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>45093</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>45098</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>45111</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>45120</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4188,7 +4188,7 @@
         <v>45120</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>45120</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4358,7 +4358,7 @@
         <v>45133</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4443,7 +4443,7 @@
         <v>43342</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4505,7 +4505,7 @@
         <v>43349</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>43374</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>43409</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>43413</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         <v>43416</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         <v>43418</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>43419</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>43423</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>43430</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         <v>43430</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5080,7 +5080,7 @@
         <v>43430</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5137,7 +5137,7 @@
         <v>43432</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5194,7 +5194,7 @@
         <v>43437</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5251,7 +5251,7 @@
         <v>43438</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5308,7 +5308,7 @@
         <v>43440</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>43447</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5422,7 +5422,7 @@
         <v>43452</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>43454</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>43454</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>43454</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5650,7 +5650,7 @@
         <v>43455</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>43455</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5764,7 +5764,7 @@
         <v>43461</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5821,7 +5821,7 @@
         <v>43461</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         <v>43468</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5935,7 +5935,7 @@
         <v>43480</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>43480</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6049,7 +6049,7 @@
         <v>43482</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6106,7 +6106,7 @@
         <v>43488</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>43500</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>43501</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6277,7 +6277,7 @@
         <v>43502</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6334,7 +6334,7 @@
         <v>43503</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
         <v>43511</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>43511</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>43515</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6567,7 +6567,7 @@
         <v>43521</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6624,7 +6624,7 @@
         <v>43522</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6681,7 +6681,7 @@
         <v>43525</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6738,7 +6738,7 @@
         <v>43528</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6795,7 +6795,7 @@
         <v>43528</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6852,7 +6852,7 @@
         <v>43529</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>43529</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>43530</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>43530</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>43535</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>43538</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>43539</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>43551</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>43552</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>43556</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>43559</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>43560</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>43560</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>43562</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>43563</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>43567</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>43570</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>43570</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>43580</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>43580</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>43581</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8059,7 +8059,7 @@
         <v>43598</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8116,7 +8116,7 @@
         <v>43598</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8173,7 +8173,7 @@
         <v>43606</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8230,7 +8230,7 @@
         <v>43607</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8287,7 +8287,7 @@
         <v>43608</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8344,7 +8344,7 @@
         <v>43609</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8401,7 +8401,7 @@
         <v>43615</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8458,7 +8458,7 @@
         <v>43628</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         <v>43633</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>43636</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8634,7 +8634,7 @@
         <v>43641</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8691,7 +8691,7 @@
         <v>43641</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8753,7 +8753,7 @@
         <v>43644</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8810,7 +8810,7 @@
         <v>43651</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8867,7 +8867,7 @@
         <v>43651</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8924,7 +8924,7 @@
         <v>43654</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8986,7 +8986,7 @@
         <v>43656</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9048,7 +9048,7 @@
         <v>43676</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9105,7 +9105,7 @@
         <v>43689</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9162,7 +9162,7 @@
         <v>43689</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9219,7 +9219,7 @@
         <v>43696</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9276,7 +9276,7 @@
         <v>43697</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         <v>43705</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9390,7 +9390,7 @@
         <v>43705</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         <v>43710</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>43710</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>43711</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9618,7 +9618,7 @@
         <v>43713</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9675,7 +9675,7 @@
         <v>43717</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9732,7 +9732,7 @@
         <v>43719</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9789,7 +9789,7 @@
         <v>43719</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9846,7 +9846,7 @@
         <v>43725</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9903,7 +9903,7 @@
         <v>43731</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9965,7 +9965,7 @@
         <v>43731</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         <v>43735</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10084,7 +10084,7 @@
         <v>43735</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10141,7 +10141,7 @@
         <v>43735</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10198,7 +10198,7 @@
         <v>43737</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10255,7 +10255,7 @@
         <v>43738</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10312,7 +10312,7 @@
         <v>43740</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10369,7 +10369,7 @@
         <v>43741</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10426,7 +10426,7 @@
         <v>43742</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>43745</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10545,7 +10545,7 @@
         <v>43745</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>43747</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
         <v>43749</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10726,7 +10726,7 @@
         <v>43749</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10783,7 +10783,7 @@
         <v>43754</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10840,7 +10840,7 @@
         <v>43766</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10897,7 +10897,7 @@
         <v>43766</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10974,7 +10974,7 @@
         <v>43768</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11031,7 +11031,7 @@
         <v>43775</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11088,7 +11088,7 @@
         <v>43781</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>43782</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>43783</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>43783</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>43787</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>43787</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>43787</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>43794</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11549,7 +11549,7 @@
         <v>43797</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11606,7 +11606,7 @@
         <v>43802</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11663,7 +11663,7 @@
         <v>43808</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11720,7 +11720,7 @@
         <v>43817</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11777,7 +11777,7 @@
         <v>43818</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11834,7 +11834,7 @@
         <v>43843</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11891,7 +11891,7 @@
         <v>43844</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11948,7 +11948,7 @@
         <v>43845</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>43846</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>43847</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>43852</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12176,7 +12176,7 @@
         <v>43852</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12238,7 +12238,7 @@
         <v>43858</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12300,7 +12300,7 @@
         <v>43860</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12357,7 +12357,7 @@
         <v>43861</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12414,7 +12414,7 @@
         <v>43863</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12471,7 +12471,7 @@
         <v>43864</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12533,7 +12533,7 @@
         <v>43864</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12590,7 +12590,7 @@
         <v>43866</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
         <v>43867</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12704,7 +12704,7 @@
         <v>43867</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12761,7 +12761,7 @@
         <v>43871</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12818,7 +12818,7 @@
         <v>43871</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>43882</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>43882</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>43891</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>43891</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13103,7 +13103,7 @@
         <v>43891</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13160,7 +13160,7 @@
         <v>43891</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
         <v>43901</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13279,7 +13279,7 @@
         <v>43901</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13336,7 +13336,7 @@
         <v>43901</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13398,7 +13398,7 @@
         <v>43901</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13455,7 +13455,7 @@
         <v>43906</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13512,7 +13512,7 @@
         <v>43909</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13569,7 +13569,7 @@
         <v>43909</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13626,7 +13626,7 @@
         <v>43909</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13683,7 +13683,7 @@
         <v>43909</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13740,7 +13740,7 @@
         <v>43913</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13797,7 +13797,7 @@
         <v>43915</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13854,7 +13854,7 @@
         <v>43916</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13911,7 +13911,7 @@
         <v>43920</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13968,7 +13968,7 @@
         <v>43920</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14025,7 +14025,7 @@
         <v>43943</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14082,7 +14082,7 @@
         <v>43944</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14139,7 +14139,7 @@
         <v>43950</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14196,7 +14196,7 @@
         <v>43950</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14253,7 +14253,7 @@
         <v>43956</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14310,7 +14310,7 @@
         <v>43958</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14367,7 +14367,7 @@
         <v>43959</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14424,7 +14424,7 @@
         <v>43959</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14486,7 +14486,7 @@
         <v>43962</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14543,7 +14543,7 @@
         <v>43963</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14600,7 +14600,7 @@
         <v>43983</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14657,7 +14657,7 @@
         <v>43983</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14714,7 +14714,7 @@
         <v>43984</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14776,7 +14776,7 @@
         <v>43987</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14833,7 +14833,7 @@
         <v>44007</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14890,7 +14890,7 @@
         <v>44013</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14947,7 +14947,7 @@
         <v>44021</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15004,7 +15004,7 @@
         <v>44025</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15061,7 +15061,7 @@
         <v>44026</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15118,7 +15118,7 @@
         <v>44035</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15175,7 +15175,7 @@
         <v>44035</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15232,7 +15232,7 @@
         <v>44048</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
         <v>44048</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         <v>44053</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15408,7 +15408,7 @@
         <v>44070</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15465,7 +15465,7 @@
         <v>44089</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15522,7 +15522,7 @@
         <v>44089</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15579,7 +15579,7 @@
         <v>44095</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15636,7 +15636,7 @@
         <v>44097</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15698,7 +15698,7 @@
         <v>44098</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15755,7 +15755,7 @@
         <v>44102</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15812,7 +15812,7 @@
         <v>44103</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15869,7 +15869,7 @@
         <v>44110</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15926,7 +15926,7 @@
         <v>44110</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15983,7 +15983,7 @@
         <v>44117</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16040,7 +16040,7 @@
         <v>44117</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16097,7 +16097,7 @@
         <v>44127</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16154,7 +16154,7 @@
         <v>44134</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16211,7 +16211,7 @@
         <v>44151</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16268,7 +16268,7 @@
         <v>44158</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16325,7 +16325,7 @@
         <v>44160</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16382,7 +16382,7 @@
         <v>44161</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16439,7 +16439,7 @@
         <v>44188</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16496,7 +16496,7 @@
         <v>44193</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16553,7 +16553,7 @@
         <v>44204</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16610,7 +16610,7 @@
         <v>44225</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16667,7 +16667,7 @@
         <v>44228</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16724,7 +16724,7 @@
         <v>44231</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16781,7 +16781,7 @@
         <v>44232</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16838,7 +16838,7 @@
         <v>44232</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16895,7 +16895,7 @@
         <v>44233</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16952,7 +16952,7 @@
         <v>44235</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17009,7 +17009,7 @@
         <v>44238</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17066,7 +17066,7 @@
         <v>44238</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17123,7 +17123,7 @@
         <v>44238</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17180,7 +17180,7 @@
         <v>44242</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17237,7 +17237,7 @@
         <v>44249</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17294,7 +17294,7 @@
         <v>44259</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17351,7 +17351,7 @@
         <v>44263</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17408,7 +17408,7 @@
         <v>44264</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17470,7 +17470,7 @@
         <v>44272</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17527,7 +17527,7 @@
         <v>44272</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17584,7 +17584,7 @@
         <v>44272</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
         <v>44278</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17698,7 +17698,7 @@
         <v>44279</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17760,7 +17760,7 @@
         <v>44280</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17817,7 +17817,7 @@
         <v>44285</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17874,7 +17874,7 @@
         <v>44285</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17931,7 +17931,7 @@
         <v>44287</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>44292</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         <v>44293</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>44299</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18159,7 +18159,7 @@
         <v>44300</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18216,7 +18216,7 @@
         <v>44308</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18273,7 +18273,7 @@
         <v>44308</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18335,7 +18335,7 @@
         <v>44309</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18392,7 +18392,7 @@
         <v>44314</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18454,7 +18454,7 @@
         <v>44315</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18511,7 +18511,7 @@
         <v>44334</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>44342</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18630,7 +18630,7 @@
         <v>44349</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18687,7 +18687,7 @@
         <v>44354</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18744,7 +18744,7 @@
         <v>44360</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18801,7 +18801,7 @@
         <v>44362</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18863,7 +18863,7 @@
         <v>44364</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18925,7 +18925,7 @@
         <v>44368</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18987,7 +18987,7 @@
         <v>44368</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19044,7 +19044,7 @@
         <v>44370</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         <v>44371</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19168,7 +19168,7 @@
         <v>44389</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19225,7 +19225,7 @@
         <v>44390</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19287,7 +19287,7 @@
         <v>44391</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19344,7 +19344,7 @@
         <v>44404</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19401,7 +19401,7 @@
         <v>44404</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19458,7 +19458,7 @@
         <v>44404</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19515,7 +19515,7 @@
         <v>44404</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19572,7 +19572,7 @@
         <v>44405</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19629,7 +19629,7 @@
         <v>44411</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19686,7 +19686,7 @@
         <v>44418</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19743,7 +19743,7 @@
         <v>44431</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19800,7 +19800,7 @@
         <v>44431</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19857,7 +19857,7 @@
         <v>44431</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19914,7 +19914,7 @@
         <v>44435</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19971,7 +19971,7 @@
         <v>44445</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20028,7 +20028,7 @@
         <v>44459</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20085,7 +20085,7 @@
         <v>44459</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20142,7 +20142,7 @@
         <v>44466</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20199,7 +20199,7 @@
         <v>44467</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20256,7 +20256,7 @@
         <v>44470</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20318,7 +20318,7 @@
         <v>44470</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20380,7 +20380,7 @@
         <v>44477</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20437,7 +20437,7 @@
         <v>44477</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20499,7 +20499,7 @@
         <v>44480</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20556,7 +20556,7 @@
         <v>44480</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20613,7 +20613,7 @@
         <v>44491</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20670,7 +20670,7 @@
         <v>44495</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20727,7 +20727,7 @@
         <v>44508</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20784,7 +20784,7 @@
         <v>44509</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20841,7 +20841,7 @@
         <v>44509</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20898,7 +20898,7 @@
         <v>44509</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20955,7 +20955,7 @@
         <v>44511</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21012,7 +21012,7 @@
         <v>44512</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21074,7 +21074,7 @@
         <v>44516</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21131,7 +21131,7 @@
         <v>44516</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         <v>44519</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21250,7 +21250,7 @@
         <v>44519</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21312,7 +21312,7 @@
         <v>44519</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21374,7 +21374,7 @@
         <v>44522</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21431,7 +21431,7 @@
         <v>44524</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21488,7 +21488,7 @@
         <v>44529</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21545,7 +21545,7 @@
         <v>44529</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21602,7 +21602,7 @@
         <v>44531</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21659,7 +21659,7 @@
         <v>44532</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21716,7 +21716,7 @@
         <v>44533</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21773,7 +21773,7 @@
         <v>44533</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21830,7 +21830,7 @@
         <v>44538</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21887,7 +21887,7 @@
         <v>44543</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21944,7 +21944,7 @@
         <v>44544</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22001,7 +22001,7 @@
         <v>44545</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22058,7 +22058,7 @@
         <v>44550</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22115,7 +22115,7 @@
         <v>44551</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22172,7 +22172,7 @@
         <v>44552</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22229,7 +22229,7 @@
         <v>44565</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22286,7 +22286,7 @@
         <v>44568</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22343,7 +22343,7 @@
         <v>44573</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22400,7 +22400,7 @@
         <v>44573</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22462,7 +22462,7 @@
         <v>44574</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22519,7 +22519,7 @@
         <v>44574</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22576,7 +22576,7 @@
         <v>44574</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22633,7 +22633,7 @@
         <v>44578</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22695,7 +22695,7 @@
         <v>44578</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22752,7 +22752,7 @@
         <v>44585</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22809,7 +22809,7 @@
         <v>44586</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         <v>44587</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22923,7 +22923,7 @@
         <v>44594</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22980,7 +22980,7 @@
         <v>44595</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23037,7 +23037,7 @@
         <v>44599</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23094,7 +23094,7 @@
         <v>44601</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23151,7 +23151,7 @@
         <v>44614</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23208,7 +23208,7 @@
         <v>44616</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23265,7 +23265,7 @@
         <v>44620</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23322,7 +23322,7 @@
         <v>44624</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23379,7 +23379,7 @@
         <v>44624</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23436,7 +23436,7 @@
         <v>44644</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23493,7 +23493,7 @@
         <v>44659</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23550,7 +23550,7 @@
         <v>44662</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23612,7 +23612,7 @@
         <v>44662</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23674,7 +23674,7 @@
         <v>44673</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23736,7 +23736,7 @@
         <v>44684</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23798,7 +23798,7 @@
         <v>44685</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23855,7 +23855,7 @@
         <v>44691</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23912,7 +23912,7 @@
         <v>44694</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23969,7 +23969,7 @@
         <v>44694</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24031,7 +24031,7 @@
         <v>44694</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24088,7 +24088,7 @@
         <v>44694</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24150,7 +24150,7 @@
         <v>44697</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24212,7 +24212,7 @@
         <v>44701</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24274,7 +24274,7 @@
         <v>44711</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24331,7 +24331,7 @@
         <v>44711</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24388,7 +24388,7 @@
         <v>44712</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24445,7 +24445,7 @@
         <v>44713</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24507,7 +24507,7 @@
         <v>44715</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24564,7 +24564,7 @@
         <v>44723</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24621,7 +24621,7 @@
         <v>44732</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24678,7 +24678,7 @@
         <v>44733</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24740,7 +24740,7 @@
         <v>44734</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24797,7 +24797,7 @@
         <v>44735</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24854,7 +24854,7 @@
         <v>44739</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24911,7 +24911,7 @@
         <v>44748</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24968,7 +24968,7 @@
         <v>44753</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25025,7 +25025,7 @@
         <v>44754</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25087,7 +25087,7 @@
         <v>44754</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25144,7 +25144,7 @@
         <v>44769</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25201,7 +25201,7 @@
         <v>44788</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25258,7 +25258,7 @@
         <v>44790</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25315,7 +25315,7 @@
         <v>44791</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25372,7 +25372,7 @@
         <v>44792</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25429,7 +25429,7 @@
         <v>44802</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25486,7 +25486,7 @@
         <v>44810</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25548,7 +25548,7 @@
         <v>44810</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25610,7 +25610,7 @@
         <v>44810</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25672,7 +25672,7 @@
         <v>44820</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25729,7 +25729,7 @@
         <v>44820</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25791,7 +25791,7 @@
         <v>44820</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25853,7 +25853,7 @@
         <v>44823</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25910,7 +25910,7 @@
         <v>44823</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25972,7 +25972,7 @@
         <v>44824</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26034,7 +26034,7 @@
         <v>44826</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26091,7 +26091,7 @@
         <v>44827</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26148,7 +26148,7 @@
         <v>44832</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26205,7 +26205,7 @@
         <v>44833</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26262,7 +26262,7 @@
         <v>44838</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26319,7 +26319,7 @@
         <v>44840</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26381,7 +26381,7 @@
         <v>44844</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26438,7 +26438,7 @@
         <v>44847</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26495,7 +26495,7 @@
         <v>44847</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26552,7 +26552,7 @@
         <v>44853</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26609,7 +26609,7 @@
         <v>44862</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26666,7 +26666,7 @@
         <v>44872</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26728,7 +26728,7 @@
         <v>44875</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26785,7 +26785,7 @@
         <v>44875</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26842,7 +26842,7 @@
         <v>44886</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26899,7 +26899,7 @@
         <v>44886</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26956,7 +26956,7 @@
         <v>44887</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27013,7 +27013,7 @@
         <v>44888</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27075,7 +27075,7 @@
         <v>44888</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27157,7 +27157,7 @@
         <v>44901</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27214,7 +27214,7 @@
         <v>44903</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27271,7 +27271,7 @@
         <v>44907</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27328,7 +27328,7 @@
         <v>44909</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27390,7 +27390,7 @@
         <v>44909</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27452,7 +27452,7 @@
         <v>44910</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27514,7 +27514,7 @@
         <v>44911</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27571,7 +27571,7 @@
         <v>44913</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27628,7 +27628,7 @@
         <v>44914</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27685,7 +27685,7 @@
         <v>44914</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27742,7 +27742,7 @@
         <v>44916</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27799,7 +27799,7 @@
         <v>44917</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27856,7 +27856,7 @@
         <v>44917</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27913,7 +27913,7 @@
         <v>44939</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27970,7 +27970,7 @@
         <v>44944</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28027,7 +28027,7 @@
         <v>44944</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28084,7 +28084,7 @@
         <v>44946</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28141,7 +28141,7 @@
         <v>44950</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28198,7 +28198,7 @@
         <v>44951</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28255,7 +28255,7 @@
         <v>44956</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28317,7 +28317,7 @@
         <v>44974</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28374,7 +28374,7 @@
         <v>44974</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28431,7 +28431,7 @@
         <v>44974</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28488,7 +28488,7 @@
         <v>44978</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28545,7 +28545,7 @@
         <v>44980</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28602,7 +28602,7 @@
         <v>44981</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28659,7 +28659,7 @@
         <v>44981</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28716,7 +28716,7 @@
         <v>44981</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28773,7 +28773,7 @@
         <v>44984</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28830,7 +28830,7 @@
         <v>44984</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28892,7 +28892,7 @@
         <v>44984</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28949,7 +28949,7 @@
         <v>44987</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29006,7 +29006,7 @@
         <v>44993</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29063,7 +29063,7 @@
         <v>44999</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29125,7 +29125,7 @@
         <v>45000</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29182,7 +29182,7 @@
         <v>45005</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29244,7 +29244,7 @@
         <v>45006</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29301,7 +29301,7 @@
         <v>45006</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29358,7 +29358,7 @@
         <v>45008</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29415,7 +29415,7 @@
         <v>45008</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29472,7 +29472,7 @@
         <v>45013</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29529,7 +29529,7 @@
         <v>45019</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29586,7 +29586,7 @@
         <v>45019</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29643,7 +29643,7 @@
         <v>45020</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29700,7 +29700,7 @@
         <v>45022</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29762,7 +29762,7 @@
         <v>45022</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29824,7 +29824,7 @@
         <v>45027</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29881,7 +29881,7 @@
         <v>45029</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29938,7 +29938,7 @@
         <v>45030</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29995,7 +29995,7 @@
         <v>45035</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30052,7 +30052,7 @@
         <v>45043</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30109,7 +30109,7 @@
         <v>45043</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30166,7 +30166,7 @@
         <v>45044</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30223,7 +30223,7 @@
         <v>45050</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30285,7 +30285,7 @@
         <v>45050</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30347,7 +30347,7 @@
         <v>45050</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30409,7 +30409,7 @@
         <v>45050</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30471,7 +30471,7 @@
         <v>45050</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30533,7 +30533,7 @@
         <v>45050</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30595,7 +30595,7 @@
         <v>45050</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30677,7 +30677,7 @@
         <v>45058</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30739,7 +30739,7 @@
         <v>45058</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30801,7 +30801,7 @@
         <v>45058</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30863,7 +30863,7 @@
         <v>45058</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30925,7 +30925,7 @@
         <v>45062</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30982,7 +30982,7 @@
         <v>45062</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31039,7 +31039,7 @@
         <v>45065</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31096,7 +31096,7 @@
         <v>45068</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31153,7 +31153,7 @@
         <v>45068</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31215,7 +31215,7 @@
         <v>45071</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31272,7 +31272,7 @@
         <v>45071</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31329,7 +31329,7 @@
         <v>45075</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31386,7 +31386,7 @@
         <v>45082</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31443,7 +31443,7 @@
         <v>45082</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31500,7 +31500,7 @@
         <v>45083</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31557,7 +31557,7 @@
         <v>45083</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31614,7 +31614,7 @@
         <v>45083</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31671,7 +31671,7 @@
         <v>45083</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31728,7 +31728,7 @@
         <v>45086</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31785,7 +31785,7 @@
         <v>45089</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31842,7 +31842,7 @@
         <v>45089</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31899,7 +31899,7 @@
         <v>45090</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31961,7 +31961,7 @@
         <v>45091</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32018,7 +32018,7 @@
         <v>45091</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32080,7 +32080,7 @@
         <v>45091</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32142,7 +32142,7 @@
         <v>45092</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32199,7 +32199,7 @@
         <v>45092</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32256,7 +32256,7 @@
         <v>45092</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32313,7 +32313,7 @@
         <v>45092</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32375,7 +32375,7 @@
         <v>45092</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32432,7 +32432,7 @@
         <v>45098</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32489,7 +32489,7 @@
         <v>45099</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32546,7 +32546,7 @@
         <v>45103</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32608,7 +32608,7 @@
         <v>45103</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32665,7 +32665,7 @@
         <v>45103</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32727,7 +32727,7 @@
         <v>45105</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32784,7 +32784,7 @@
         <v>45111</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32841,7 +32841,7 @@
         <v>45112</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32903,7 +32903,7 @@
         <v>45113</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32965,7 +32965,7 @@
         <v>45113</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33022,7 +33022,7 @@
         <v>45114</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33079,7 +33079,7 @@
         <v>45117</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33136,7 +33136,7 @@
         <v>45117</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33193,7 +33193,7 @@
         <v>45117</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33270,7 +33270,7 @@
         <v>45117</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33327,7 +33327,7 @@
         <v>45117</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33384,7 +33384,7 @@
         <v>45117</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33441,7 +33441,7 @@
         <v>45117</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33498,7 +33498,7 @@
         <v>45118</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33555,7 +33555,7 @@
         <v>45119</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33617,7 +33617,7 @@
         <v>45120</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33674,7 +33674,7 @@
         <v>45126</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33731,7 +33731,7 @@
         <v>45131</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33788,7 +33788,7 @@
         <v>45133</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33845,7 +33845,7 @@
         <v>45135</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33902,7 +33902,7 @@
         <v>45166</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33959,7 +33959,7 @@
         <v>45166</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34016,7 +34016,7 @@
         <v>45168</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34078,7 +34078,7 @@
         <v>45168</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34140,7 +34140,7 @@
         <v>45181</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34197,7 +34197,7 @@
         <v>45187</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>

--- a/Översikt HEBY.xlsx
+++ b/Översikt HEBY.xlsx
@@ -572,7 +572,7 @@
         <v>44914</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>43515</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>43805</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -854,7 +854,7 @@
         <v>43689</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>44824</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1047,7 +1047,7 @@
         <v>44914</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
         <v>44915</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>45117</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>43529</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         <v>44489</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         <v>44670</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         <v>44832</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         <v>45153</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>44049</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1865,7 +1865,7 @@
         <v>44712</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1951,7 +1951,7 @@
         <v>44889</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>44895</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>45014</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         <v>45092</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2381,7 +2381,7 @@
         <v>45124</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         <v>43523</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>43559</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>43851</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
         <v>43853</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2807,7 +2807,7 @@
         <v>43901</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2897,7 +2897,7 @@
         <v>44002</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2986,7 +2986,7 @@
         <v>44161</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3071,7 +3071,7 @@
         <v>44376</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         <v>44395</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>44568</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3330,7 +3330,7 @@
         <v>44609</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3415,7 +3415,7 @@
         <v>44805</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3500,7 +3500,7 @@
         <v>44847</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         <v>45020</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>45035</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>45037</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>45093</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>45098</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>45111</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>45120</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4188,7 +4188,7 @@
         <v>45120</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>45120</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4358,7 +4358,7 @@
         <v>45133</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4443,7 +4443,7 @@
         <v>43342</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4505,7 +4505,7 @@
         <v>43349</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>43374</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>43409</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>43413</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         <v>43416</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         <v>43418</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>43419</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>43423</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>43430</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         <v>43430</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5080,7 +5080,7 @@
         <v>43430</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5137,7 +5137,7 @@
         <v>43432</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5194,7 +5194,7 @@
         <v>43437</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5251,7 +5251,7 @@
         <v>43438</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5308,7 +5308,7 @@
         <v>43440</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>43447</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5422,7 +5422,7 @@
         <v>43452</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>43454</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>43454</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>43454</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5650,7 +5650,7 @@
         <v>43455</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>43455</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5764,7 +5764,7 @@
         <v>43461</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5821,7 +5821,7 @@
         <v>43461</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         <v>43468</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5935,7 +5935,7 @@
         <v>43480</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>43480</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6049,7 +6049,7 @@
         <v>43482</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6106,7 +6106,7 @@
         <v>43488</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>43500</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>43501</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6277,7 +6277,7 @@
         <v>43502</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6334,7 +6334,7 @@
         <v>43503</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
         <v>43511</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>43511</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>43515</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6567,7 +6567,7 @@
         <v>43521</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6624,7 +6624,7 @@
         <v>43522</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6681,7 +6681,7 @@
         <v>43525</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6738,7 +6738,7 @@
         <v>43528</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6795,7 +6795,7 @@
         <v>43528</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6852,7 +6852,7 @@
         <v>43529</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>43529</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>43530</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>43530</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>43535</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>43538</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>43539</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>43551</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>43552</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>43556</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>43559</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>43560</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>43560</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>43562</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>43563</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>43567</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>43570</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>43570</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>43580</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>43580</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>43581</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8059,7 +8059,7 @@
         <v>43598</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8116,7 +8116,7 @@
         <v>43598</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8173,7 +8173,7 @@
         <v>43606</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8230,7 +8230,7 @@
         <v>43607</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8287,7 +8287,7 @@
         <v>43608</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8344,7 +8344,7 @@
         <v>43609</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8401,7 +8401,7 @@
         <v>43615</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8458,7 +8458,7 @@
         <v>43628</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         <v>43633</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>43636</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8634,7 +8634,7 @@
         <v>43641</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8691,7 +8691,7 @@
         <v>43641</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8753,7 +8753,7 @@
         <v>43644</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8810,7 +8810,7 @@
         <v>43651</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8867,7 +8867,7 @@
         <v>43651</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8924,7 +8924,7 @@
         <v>43654</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8986,7 +8986,7 @@
         <v>43656</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9048,7 +9048,7 @@
         <v>43676</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9105,7 +9105,7 @@
         <v>43689</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9162,7 +9162,7 @@
         <v>43689</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9219,7 +9219,7 @@
         <v>43696</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9276,7 +9276,7 @@
         <v>43697</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         <v>43705</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9390,7 +9390,7 @@
         <v>43705</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         <v>43710</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>43710</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>43711</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9618,7 +9618,7 @@
         <v>43713</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9675,7 +9675,7 @@
         <v>43717</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9732,7 +9732,7 @@
         <v>43719</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9789,7 +9789,7 @@
         <v>43719</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9846,7 +9846,7 @@
         <v>43725</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9903,7 +9903,7 @@
         <v>43731</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9965,7 +9965,7 @@
         <v>43731</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         <v>43735</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10084,7 +10084,7 @@
         <v>43735</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10141,7 +10141,7 @@
         <v>43735</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10198,7 +10198,7 @@
         <v>43737</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10255,7 +10255,7 @@
         <v>43738</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10312,7 +10312,7 @@
         <v>43740</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10369,7 +10369,7 @@
         <v>43741</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10426,7 +10426,7 @@
         <v>43742</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>43745</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10545,7 +10545,7 @@
         <v>43745</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>43747</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
         <v>43749</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10726,7 +10726,7 @@
         <v>43749</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10783,7 +10783,7 @@
         <v>43754</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10840,7 +10840,7 @@
         <v>43766</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10897,7 +10897,7 @@
         <v>43766</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10974,7 +10974,7 @@
         <v>43768</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11031,7 +11031,7 @@
         <v>43775</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11088,7 +11088,7 @@
         <v>43781</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>43782</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>43783</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>43783</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>43787</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>43787</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>43787</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>43794</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11549,7 +11549,7 @@
         <v>43797</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11606,7 +11606,7 @@
         <v>43802</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11663,7 +11663,7 @@
         <v>43808</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11720,7 +11720,7 @@
         <v>43817</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11777,7 +11777,7 @@
         <v>43818</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11834,7 +11834,7 @@
         <v>43843</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11891,7 +11891,7 @@
         <v>43844</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11948,7 +11948,7 @@
         <v>43845</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>43846</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>43847</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>43852</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12176,7 +12176,7 @@
         <v>43852</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12238,7 +12238,7 @@
         <v>43858</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12300,7 +12300,7 @@
         <v>43860</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12357,7 +12357,7 @@
         <v>43861</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12414,7 +12414,7 @@
         <v>43863</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12471,7 +12471,7 @@
         <v>43864</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12533,7 +12533,7 @@
         <v>43864</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12590,7 +12590,7 @@
         <v>43866</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
         <v>43867</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12704,7 +12704,7 @@
         <v>43867</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12761,7 +12761,7 @@
         <v>43871</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12818,7 +12818,7 @@
         <v>43871</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>43882</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>43882</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>43891</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>43891</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13103,7 +13103,7 @@
         <v>43891</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13160,7 +13160,7 @@
         <v>43891</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
         <v>43901</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13279,7 +13279,7 @@
         <v>43901</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13336,7 +13336,7 @@
         <v>43901</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13398,7 +13398,7 @@
         <v>43901</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13455,7 +13455,7 @@
         <v>43906</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13512,7 +13512,7 @@
         <v>43909</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13569,7 +13569,7 @@
         <v>43909</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13626,7 +13626,7 @@
         <v>43909</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13683,7 +13683,7 @@
         <v>43909</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13740,7 +13740,7 @@
         <v>43913</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13797,7 +13797,7 @@
         <v>43915</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13854,7 +13854,7 @@
         <v>43916</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13911,7 +13911,7 @@
         <v>43920</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13968,7 +13968,7 @@
         <v>43920</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14025,7 +14025,7 @@
         <v>43943</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14082,7 +14082,7 @@
         <v>43944</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14139,7 +14139,7 @@
         <v>43950</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14196,7 +14196,7 @@
         <v>43950</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14253,7 +14253,7 @@
         <v>43956</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14310,7 +14310,7 @@
         <v>43958</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14367,7 +14367,7 @@
         <v>43959</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14424,7 +14424,7 @@
         <v>43959</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14486,7 +14486,7 @@
         <v>43962</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14543,7 +14543,7 @@
         <v>43963</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14600,7 +14600,7 @@
         <v>43983</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14657,7 +14657,7 @@
         <v>43983</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14714,7 +14714,7 @@
         <v>43984</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14776,7 +14776,7 @@
         <v>43987</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14833,7 +14833,7 @@
         <v>44007</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14890,7 +14890,7 @@
         <v>44013</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14947,7 +14947,7 @@
         <v>44021</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15004,7 +15004,7 @@
         <v>44025</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15061,7 +15061,7 @@
         <v>44026</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15118,7 +15118,7 @@
         <v>44035</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15175,7 +15175,7 @@
         <v>44035</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15232,7 +15232,7 @@
         <v>44048</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
         <v>44048</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         <v>44053</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15408,7 +15408,7 @@
         <v>44070</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15465,7 +15465,7 @@
         <v>44089</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15522,7 +15522,7 @@
         <v>44089</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15579,7 +15579,7 @@
         <v>44095</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15636,7 +15636,7 @@
         <v>44097</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15698,7 +15698,7 @@
         <v>44098</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15755,7 +15755,7 @@
         <v>44102</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15812,7 +15812,7 @@
         <v>44103</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15869,7 +15869,7 @@
         <v>44110</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15926,7 +15926,7 @@
         <v>44110</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15983,7 +15983,7 @@
         <v>44117</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16040,7 +16040,7 @@
         <v>44117</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16097,7 +16097,7 @@
         <v>44127</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16154,7 +16154,7 @@
         <v>44134</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16211,7 +16211,7 @@
         <v>44151</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16268,7 +16268,7 @@
         <v>44158</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16325,7 +16325,7 @@
         <v>44160</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16382,7 +16382,7 @@
         <v>44161</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16439,7 +16439,7 @@
         <v>44188</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16496,7 +16496,7 @@
         <v>44193</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16553,7 +16553,7 @@
         <v>44204</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16610,7 +16610,7 @@
         <v>44225</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16667,7 +16667,7 @@
         <v>44228</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16724,7 +16724,7 @@
         <v>44231</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16781,7 +16781,7 @@
         <v>44232</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16838,7 +16838,7 @@
         <v>44232</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16895,7 +16895,7 @@
         <v>44233</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16952,7 +16952,7 @@
         <v>44235</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17009,7 +17009,7 @@
         <v>44238</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17066,7 +17066,7 @@
         <v>44238</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17123,7 +17123,7 @@
         <v>44238</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17180,7 +17180,7 @@
         <v>44242</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17237,7 +17237,7 @@
         <v>44249</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17294,7 +17294,7 @@
         <v>44259</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17351,7 +17351,7 @@
         <v>44263</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17408,7 +17408,7 @@
         <v>44264</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17470,7 +17470,7 @@
         <v>44272</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17527,7 +17527,7 @@
         <v>44272</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17584,7 +17584,7 @@
         <v>44272</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
         <v>44278</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17698,7 +17698,7 @@
         <v>44279</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17760,7 +17760,7 @@
         <v>44280</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17817,7 +17817,7 @@
         <v>44285</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17874,7 +17874,7 @@
         <v>44285</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17931,7 +17931,7 @@
         <v>44287</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>44292</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         <v>44293</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>44299</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18159,7 +18159,7 @@
         <v>44300</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18216,7 +18216,7 @@
         <v>44308</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18273,7 +18273,7 @@
         <v>44308</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18335,7 +18335,7 @@
         <v>44309</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18392,7 +18392,7 @@
         <v>44314</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18454,7 +18454,7 @@
         <v>44315</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18511,7 +18511,7 @@
         <v>44334</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>44342</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18630,7 +18630,7 @@
         <v>44349</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18687,7 +18687,7 @@
         <v>44354</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18744,7 +18744,7 @@
         <v>44360</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18801,7 +18801,7 @@
         <v>44362</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18863,7 +18863,7 @@
         <v>44364</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18925,7 +18925,7 @@
         <v>44368</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18987,7 +18987,7 @@
         <v>44368</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19044,7 +19044,7 @@
         <v>44370</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         <v>44371</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19168,7 +19168,7 @@
         <v>44389</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19225,7 +19225,7 @@
         <v>44390</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19287,7 +19287,7 @@
         <v>44391</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19344,7 +19344,7 @@
         <v>44404</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19401,7 +19401,7 @@
         <v>44404</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19458,7 +19458,7 @@
         <v>44404</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19515,7 +19515,7 @@
         <v>44404</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19572,7 +19572,7 @@
         <v>44405</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19629,7 +19629,7 @@
         <v>44411</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19686,7 +19686,7 @@
         <v>44418</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19743,7 +19743,7 @@
         <v>44431</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19800,7 +19800,7 @@
         <v>44431</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19857,7 +19857,7 @@
         <v>44431</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19914,7 +19914,7 @@
         <v>44435</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19971,7 +19971,7 @@
         <v>44445</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20028,7 +20028,7 @@
         <v>44459</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20085,7 +20085,7 @@
         <v>44459</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20142,7 +20142,7 @@
         <v>44466</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20199,7 +20199,7 @@
         <v>44467</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20256,7 +20256,7 @@
         <v>44470</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20318,7 +20318,7 @@
         <v>44470</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20380,7 +20380,7 @@
         <v>44477</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20437,7 +20437,7 @@
         <v>44477</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20499,7 +20499,7 @@
         <v>44480</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20556,7 +20556,7 @@
         <v>44480</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20613,7 +20613,7 @@
         <v>44491</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20670,7 +20670,7 @@
         <v>44495</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20727,7 +20727,7 @@
         <v>44508</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20784,7 +20784,7 @@
         <v>44509</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20841,7 +20841,7 @@
         <v>44509</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20898,7 +20898,7 @@
         <v>44509</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20955,7 +20955,7 @@
         <v>44511</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21012,7 +21012,7 @@
         <v>44512</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21074,7 +21074,7 @@
         <v>44516</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21131,7 +21131,7 @@
         <v>44516</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         <v>44519</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21250,7 +21250,7 @@
         <v>44519</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21312,7 +21312,7 @@
         <v>44519</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21374,7 +21374,7 @@
         <v>44522</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21431,7 +21431,7 @@
         <v>44524</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21488,7 +21488,7 @@
         <v>44529</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21545,7 +21545,7 @@
         <v>44529</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21602,7 +21602,7 @@
         <v>44531</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21659,7 +21659,7 @@
         <v>44532</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21716,7 +21716,7 @@
         <v>44533</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21773,7 +21773,7 @@
         <v>44533</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21830,7 +21830,7 @@
         <v>44538</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21887,7 +21887,7 @@
         <v>44543</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21944,7 +21944,7 @@
         <v>44544</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22001,7 +22001,7 @@
         <v>44545</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22058,7 +22058,7 @@
         <v>44550</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22115,7 +22115,7 @@
         <v>44551</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22172,7 +22172,7 @@
         <v>44552</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22229,7 +22229,7 @@
         <v>44565</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22286,7 +22286,7 @@
         <v>44568</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22343,7 +22343,7 @@
         <v>44573</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22400,7 +22400,7 @@
         <v>44573</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22462,7 +22462,7 @@
         <v>44574</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22519,7 +22519,7 @@
         <v>44574</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22576,7 +22576,7 @@
         <v>44574</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22633,7 +22633,7 @@
         <v>44578</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22695,7 +22695,7 @@
         <v>44578</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22752,7 +22752,7 @@
         <v>44585</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22809,7 +22809,7 @@
         <v>44586</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         <v>44587</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22923,7 +22923,7 @@
         <v>44594</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22980,7 +22980,7 @@
         <v>44595</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23037,7 +23037,7 @@
         <v>44599</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23094,7 +23094,7 @@
         <v>44601</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23151,7 +23151,7 @@
         <v>44614</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23208,7 +23208,7 @@
         <v>44616</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23265,7 +23265,7 @@
         <v>44620</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23322,7 +23322,7 @@
         <v>44624</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23379,7 +23379,7 @@
         <v>44624</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23436,7 +23436,7 @@
         <v>44644</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23493,7 +23493,7 @@
         <v>44659</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23550,7 +23550,7 @@
         <v>44662</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23612,7 +23612,7 @@
         <v>44662</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23674,7 +23674,7 @@
         <v>44673</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23736,7 +23736,7 @@
         <v>44684</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23798,7 +23798,7 @@
         <v>44685</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23855,7 +23855,7 @@
         <v>44691</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23912,7 +23912,7 @@
         <v>44694</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23969,7 +23969,7 @@
         <v>44694</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24031,7 +24031,7 @@
         <v>44694</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24088,7 +24088,7 @@
         <v>44694</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24150,7 +24150,7 @@
         <v>44697</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24212,7 +24212,7 @@
         <v>44701</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24274,7 +24274,7 @@
         <v>44711</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24331,7 +24331,7 @@
         <v>44711</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24388,7 +24388,7 @@
         <v>44712</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24445,7 +24445,7 @@
         <v>44713</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24507,7 +24507,7 @@
         <v>44715</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24564,7 +24564,7 @@
         <v>44723</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24621,7 +24621,7 @@
         <v>44732</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24678,7 +24678,7 @@
         <v>44733</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24740,7 +24740,7 @@
         <v>44734</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24797,7 +24797,7 @@
         <v>44735</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24854,7 +24854,7 @@
         <v>44739</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24911,7 +24911,7 @@
         <v>44748</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24968,7 +24968,7 @@
         <v>44753</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25025,7 +25025,7 @@
         <v>44754</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25087,7 +25087,7 @@
         <v>44754</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25144,7 +25144,7 @@
         <v>44769</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25201,7 +25201,7 @@
         <v>44788</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25258,7 +25258,7 @@
         <v>44790</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25315,7 +25315,7 @@
         <v>44791</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25372,7 +25372,7 @@
         <v>44792</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25429,7 +25429,7 @@
         <v>44802</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25486,7 +25486,7 @@
         <v>44810</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25548,7 +25548,7 @@
         <v>44810</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25610,7 +25610,7 @@
         <v>44810</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25672,7 +25672,7 @@
         <v>44820</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25729,7 +25729,7 @@
         <v>44820</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25791,7 +25791,7 @@
         <v>44820</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25853,7 +25853,7 @@
         <v>44823</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25910,7 +25910,7 @@
         <v>44823</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25972,7 +25972,7 @@
         <v>44824</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26034,7 +26034,7 @@
         <v>44826</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26091,7 +26091,7 @@
         <v>44827</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26148,7 +26148,7 @@
         <v>44832</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26205,7 +26205,7 @@
         <v>44833</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26262,7 +26262,7 @@
         <v>44838</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26319,7 +26319,7 @@
         <v>44840</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26381,7 +26381,7 @@
         <v>44844</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26438,7 +26438,7 @@
         <v>44847</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26495,7 +26495,7 @@
         <v>44847</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26552,7 +26552,7 @@
         <v>44853</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26609,7 +26609,7 @@
         <v>44862</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26666,7 +26666,7 @@
         <v>44872</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26728,7 +26728,7 @@
         <v>44875</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26785,7 +26785,7 @@
         <v>44875</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26842,7 +26842,7 @@
         <v>44886</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26899,7 +26899,7 @@
         <v>44886</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26956,7 +26956,7 @@
         <v>44887</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27013,7 +27013,7 @@
         <v>44888</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27075,7 +27075,7 @@
         <v>44888</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27157,7 +27157,7 @@
         <v>44901</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27214,7 +27214,7 @@
         <v>44903</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27271,7 +27271,7 @@
         <v>44907</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27328,7 +27328,7 @@
         <v>44909</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27390,7 +27390,7 @@
         <v>44909</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27452,7 +27452,7 @@
         <v>44910</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27514,7 +27514,7 @@
         <v>44911</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27571,7 +27571,7 @@
         <v>44913</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27628,7 +27628,7 @@
         <v>44914</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27685,7 +27685,7 @@
         <v>44914</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27742,7 +27742,7 @@
         <v>44916</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27799,7 +27799,7 @@
         <v>44917</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27856,7 +27856,7 @@
         <v>44917</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27913,7 +27913,7 @@
         <v>44939</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27970,7 +27970,7 @@
         <v>44944</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28027,7 +28027,7 @@
         <v>44944</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28084,7 +28084,7 @@
         <v>44946</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28141,7 +28141,7 @@
         <v>44950</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28198,7 +28198,7 @@
         <v>44951</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28255,7 +28255,7 @@
         <v>44956</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28317,7 +28317,7 @@
         <v>44974</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28374,7 +28374,7 @@
         <v>44974</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28431,7 +28431,7 @@
         <v>44974</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28488,7 +28488,7 @@
         <v>44978</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28545,7 +28545,7 @@
         <v>44980</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28602,7 +28602,7 @@
         <v>44981</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28659,7 +28659,7 @@
         <v>44981</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28716,7 +28716,7 @@
         <v>44981</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28773,7 +28773,7 @@
         <v>44984</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28830,7 +28830,7 @@
         <v>44984</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28892,7 +28892,7 @@
         <v>44984</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28949,7 +28949,7 @@
         <v>44987</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29006,7 +29006,7 @@
         <v>44993</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29063,7 +29063,7 @@
         <v>44999</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29125,7 +29125,7 @@
         <v>45000</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29182,7 +29182,7 @@
         <v>45005</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29244,7 +29244,7 @@
         <v>45006</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29301,7 +29301,7 @@
         <v>45006</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29358,7 +29358,7 @@
         <v>45008</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29415,7 +29415,7 @@
         <v>45008</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29472,7 +29472,7 @@
         <v>45013</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29529,7 +29529,7 @@
         <v>45019</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29586,7 +29586,7 @@
         <v>45019</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29643,7 +29643,7 @@
         <v>45020</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29700,7 +29700,7 @@
         <v>45022</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29762,7 +29762,7 @@
         <v>45022</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29824,7 +29824,7 @@
         <v>45027</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29881,7 +29881,7 @@
         <v>45029</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29938,7 +29938,7 @@
         <v>45030</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29995,7 +29995,7 @@
         <v>45035</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30052,7 +30052,7 @@
         <v>45043</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30109,7 +30109,7 @@
         <v>45043</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30166,7 +30166,7 @@
         <v>45044</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30223,7 +30223,7 @@
         <v>45050</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30285,7 +30285,7 @@
         <v>45050</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30347,7 +30347,7 @@
         <v>45050</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30409,7 +30409,7 @@
         <v>45050</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30471,7 +30471,7 @@
         <v>45050</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30533,7 +30533,7 @@
         <v>45050</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30595,7 +30595,7 @@
         <v>45050</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30677,7 +30677,7 @@
         <v>45058</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30739,7 +30739,7 @@
         <v>45058</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30801,7 +30801,7 @@
         <v>45058</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30863,7 +30863,7 @@
         <v>45058</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30925,7 +30925,7 @@
         <v>45062</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30982,7 +30982,7 @@
         <v>45062</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31039,7 +31039,7 @@
         <v>45065</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31096,7 +31096,7 @@
         <v>45068</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31153,7 +31153,7 @@
         <v>45068</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31215,7 +31215,7 @@
         <v>45071</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31272,7 +31272,7 @@
         <v>45071</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31329,7 +31329,7 @@
         <v>45075</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31386,7 +31386,7 @@
         <v>45082</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31443,7 +31443,7 @@
         <v>45082</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31500,7 +31500,7 @@
         <v>45083</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31557,7 +31557,7 @@
         <v>45083</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31614,7 +31614,7 @@
         <v>45083</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31671,7 +31671,7 @@
         <v>45083</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31728,7 +31728,7 @@
         <v>45086</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31785,7 +31785,7 @@
         <v>45089</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31842,7 +31842,7 @@
         <v>45089</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31899,7 +31899,7 @@
         <v>45090</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31961,7 +31961,7 @@
         <v>45091</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32018,7 +32018,7 @@
         <v>45091</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32080,7 +32080,7 @@
         <v>45091</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32142,7 +32142,7 @@
         <v>45092</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32199,7 +32199,7 @@
         <v>45092</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32256,7 +32256,7 @@
         <v>45092</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32313,7 +32313,7 @@
         <v>45092</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32375,7 +32375,7 @@
         <v>45092</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32432,7 +32432,7 @@
         <v>45098</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32489,7 +32489,7 @@
         <v>45099</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32546,7 +32546,7 @@
         <v>45103</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32608,7 +32608,7 @@
         <v>45103</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32665,7 +32665,7 @@
         <v>45103</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32727,7 +32727,7 @@
         <v>45105</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32784,7 +32784,7 @@
         <v>45111</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32841,7 +32841,7 @@
         <v>45112</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32903,7 +32903,7 @@
         <v>45113</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32965,7 +32965,7 @@
         <v>45113</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33022,7 +33022,7 @@
         <v>45114</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33079,7 +33079,7 @@
         <v>45117</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33136,7 +33136,7 @@
         <v>45117</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33193,7 +33193,7 @@
         <v>45117</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33270,7 +33270,7 @@
         <v>45117</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33327,7 +33327,7 @@
         <v>45117</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33384,7 +33384,7 @@
         <v>45117</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33441,7 +33441,7 @@
         <v>45117</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33498,7 +33498,7 @@
         <v>45118</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33555,7 +33555,7 @@
         <v>45119</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33617,7 +33617,7 @@
         <v>45120</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33674,7 +33674,7 @@
         <v>45126</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33731,7 +33731,7 @@
         <v>45131</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33788,7 +33788,7 @@
         <v>45133</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33845,7 +33845,7 @@
         <v>45135</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33902,7 +33902,7 @@
         <v>45166</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33959,7 +33959,7 @@
         <v>45166</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34016,7 +34016,7 @@
         <v>45168</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34078,7 +34078,7 @@
         <v>45168</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34140,7 +34140,7 @@
         <v>45181</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34197,7 +34197,7 @@
         <v>45187</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>

--- a/Översikt HEBY.xlsx
+++ b/Översikt HEBY.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y558"/>
+  <dimension ref="A1:Y560"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44914</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>43515</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>43805</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -854,7 +854,7 @@
         <v>43689</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>44824</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1047,7 +1047,7 @@
         <v>44914</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
         <v>44915</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>45117</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>43529</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         <v>44489</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         <v>44670</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         <v>44832</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         <v>45153</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>44049</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1865,7 +1865,7 @@
         <v>44712</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1951,7 +1951,7 @@
         <v>44889</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>44895</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>45014</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         <v>45092</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2381,7 +2381,7 @@
         <v>45124</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         <v>43523</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>43559</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>43851</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
         <v>43853</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2807,7 +2807,7 @@
         <v>43901</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2897,7 +2897,7 @@
         <v>44002</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2986,7 +2986,7 @@
         <v>44161</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3071,7 +3071,7 @@
         <v>44376</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         <v>44395</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>44568</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3330,7 +3330,7 @@
         <v>44609</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3415,7 +3415,7 @@
         <v>44805</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3500,7 +3500,7 @@
         <v>44847</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         <v>45020</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>45035</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>45037</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>45093</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>45098</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>45111</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>45120</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4188,7 +4188,7 @@
         <v>45120</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>45120</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4358,7 +4358,7 @@
         <v>45133</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4443,7 +4443,7 @@
         <v>43342</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4505,7 +4505,7 @@
         <v>43349</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>43374</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>43409</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>43413</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         <v>43416</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         <v>43418</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>43419</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>43423</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>43430</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         <v>43430</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5080,7 +5080,7 @@
         <v>43430</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5137,7 +5137,7 @@
         <v>43432</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5194,7 +5194,7 @@
         <v>43437</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5251,7 +5251,7 @@
         <v>43438</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5308,7 +5308,7 @@
         <v>43440</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>43447</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5422,7 +5422,7 @@
         <v>43452</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>43454</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>43454</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>43454</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5650,7 +5650,7 @@
         <v>43455</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>43455</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5764,7 +5764,7 @@
         <v>43461</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5821,7 +5821,7 @@
         <v>43461</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         <v>43468</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5935,7 +5935,7 @@
         <v>43480</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>43480</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6049,7 +6049,7 @@
         <v>43482</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6106,7 +6106,7 @@
         <v>43488</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>43500</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>43501</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6277,7 +6277,7 @@
         <v>43502</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6334,7 +6334,7 @@
         <v>43503</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
         <v>43511</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>43511</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>43515</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6567,7 +6567,7 @@
         <v>43521</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6624,7 +6624,7 @@
         <v>43522</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6681,7 +6681,7 @@
         <v>43525</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6738,7 +6738,7 @@
         <v>43528</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6795,7 +6795,7 @@
         <v>43528</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6852,7 +6852,7 @@
         <v>43529</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>43529</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>43530</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>43530</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>43535</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>43538</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>43539</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>43551</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>43552</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>43556</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>43559</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>43560</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>43560</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>43562</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>43563</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>43567</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>43570</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>43570</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>43580</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>43580</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>43581</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8059,7 +8059,7 @@
         <v>43598</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8116,7 +8116,7 @@
         <v>43598</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8173,7 +8173,7 @@
         <v>43606</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8230,7 +8230,7 @@
         <v>43607</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8287,7 +8287,7 @@
         <v>43608</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8344,7 +8344,7 @@
         <v>43609</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8401,7 +8401,7 @@
         <v>43615</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8458,7 +8458,7 @@
         <v>43628</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         <v>43633</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>43636</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8634,7 +8634,7 @@
         <v>43641</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8691,7 +8691,7 @@
         <v>43641</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8753,7 +8753,7 @@
         <v>43644</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8810,7 +8810,7 @@
         <v>43651</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8867,7 +8867,7 @@
         <v>43651</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8924,7 +8924,7 @@
         <v>43654</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8986,7 +8986,7 @@
         <v>43656</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9048,7 +9048,7 @@
         <v>43676</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9105,7 +9105,7 @@
         <v>43689</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9162,7 +9162,7 @@
         <v>43689</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9219,7 +9219,7 @@
         <v>43696</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9276,7 +9276,7 @@
         <v>43697</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         <v>43705</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9390,7 +9390,7 @@
         <v>43705</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         <v>43710</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>43710</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>43711</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9618,7 +9618,7 @@
         <v>43713</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9675,7 +9675,7 @@
         <v>43717</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9732,7 +9732,7 @@
         <v>43719</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9789,7 +9789,7 @@
         <v>43719</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9846,7 +9846,7 @@
         <v>43725</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9903,7 +9903,7 @@
         <v>43731</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9965,7 +9965,7 @@
         <v>43731</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         <v>43735</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10084,7 +10084,7 @@
         <v>43735</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10141,7 +10141,7 @@
         <v>43735</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10198,7 +10198,7 @@
         <v>43737</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10255,7 +10255,7 @@
         <v>43738</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10312,7 +10312,7 @@
         <v>43740</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10369,7 +10369,7 @@
         <v>43741</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10426,7 +10426,7 @@
         <v>43742</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>43745</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10545,7 +10545,7 @@
         <v>43745</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>43747</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
         <v>43749</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10726,7 +10726,7 @@
         <v>43749</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10783,7 +10783,7 @@
         <v>43754</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10840,7 +10840,7 @@
         <v>43766</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10897,7 +10897,7 @@
         <v>43766</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10974,7 +10974,7 @@
         <v>43768</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11031,7 +11031,7 @@
         <v>43775</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11088,7 +11088,7 @@
         <v>43781</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>43782</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>43783</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>43783</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>43787</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>43787</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>43787</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>43794</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11549,7 +11549,7 @@
         <v>43797</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11606,7 +11606,7 @@
         <v>43802</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11663,7 +11663,7 @@
         <v>43808</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11720,7 +11720,7 @@
         <v>43817</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11777,7 +11777,7 @@
         <v>43818</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11834,7 +11834,7 @@
         <v>43843</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11891,7 +11891,7 @@
         <v>43844</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11948,7 +11948,7 @@
         <v>43845</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>43846</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>43847</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>43852</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12176,7 +12176,7 @@
         <v>43852</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12238,7 +12238,7 @@
         <v>43858</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12300,7 +12300,7 @@
         <v>43860</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12357,7 +12357,7 @@
         <v>43861</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12414,7 +12414,7 @@
         <v>43863</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12471,7 +12471,7 @@
         <v>43864</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12533,7 +12533,7 @@
         <v>43864</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12590,7 +12590,7 @@
         <v>43866</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
         <v>43867</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12704,7 +12704,7 @@
         <v>43867</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12761,7 +12761,7 @@
         <v>43871</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12818,7 +12818,7 @@
         <v>43871</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>43882</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>43882</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>43891</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>43891</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13103,7 +13103,7 @@
         <v>43891</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13160,7 +13160,7 @@
         <v>43891</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
         <v>43901</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13279,7 +13279,7 @@
         <v>43901</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13336,7 +13336,7 @@
         <v>43901</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13398,7 +13398,7 @@
         <v>43901</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13455,7 +13455,7 @@
         <v>43906</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13512,7 +13512,7 @@
         <v>43909</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13569,7 +13569,7 @@
         <v>43909</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13626,7 +13626,7 @@
         <v>43909</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13683,7 +13683,7 @@
         <v>43909</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13740,7 +13740,7 @@
         <v>43913</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13797,7 +13797,7 @@
         <v>43915</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13854,7 +13854,7 @@
         <v>43916</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13911,7 +13911,7 @@
         <v>43920</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13968,7 +13968,7 @@
         <v>43920</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14025,7 +14025,7 @@
         <v>43943</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14082,7 +14082,7 @@
         <v>43944</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14139,7 +14139,7 @@
         <v>43950</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14196,7 +14196,7 @@
         <v>43950</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14253,7 +14253,7 @@
         <v>43956</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14310,7 +14310,7 @@
         <v>43958</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14367,7 +14367,7 @@
         <v>43959</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14424,7 +14424,7 @@
         <v>43959</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14486,7 +14486,7 @@
         <v>43962</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14543,7 +14543,7 @@
         <v>43963</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14600,7 +14600,7 @@
         <v>43983</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14657,7 +14657,7 @@
         <v>43983</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14714,7 +14714,7 @@
         <v>43984</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14776,7 +14776,7 @@
         <v>43987</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14833,7 +14833,7 @@
         <v>44007</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14890,7 +14890,7 @@
         <v>44013</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14947,7 +14947,7 @@
         <v>44021</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15004,7 +15004,7 @@
         <v>44025</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15061,7 +15061,7 @@
         <v>44026</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15118,7 +15118,7 @@
         <v>44035</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15175,7 +15175,7 @@
         <v>44035</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15232,7 +15232,7 @@
         <v>44048</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
         <v>44048</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         <v>44053</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15408,7 +15408,7 @@
         <v>44070</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15465,7 +15465,7 @@
         <v>44089</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15522,7 +15522,7 @@
         <v>44089</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15579,7 +15579,7 @@
         <v>44095</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15636,7 +15636,7 @@
         <v>44097</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15698,7 +15698,7 @@
         <v>44098</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15755,7 +15755,7 @@
         <v>44102</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15812,7 +15812,7 @@
         <v>44103</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15869,7 +15869,7 @@
         <v>44110</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15926,7 +15926,7 @@
         <v>44110</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15983,7 +15983,7 @@
         <v>44117</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16040,7 +16040,7 @@
         <v>44117</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16097,7 +16097,7 @@
         <v>44127</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16154,7 +16154,7 @@
         <v>44134</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16211,7 +16211,7 @@
         <v>44151</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16268,7 +16268,7 @@
         <v>44158</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16325,7 +16325,7 @@
         <v>44160</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16382,7 +16382,7 @@
         <v>44161</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16439,7 +16439,7 @@
         <v>44188</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16496,7 +16496,7 @@
         <v>44193</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16553,7 +16553,7 @@
         <v>44204</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16610,7 +16610,7 @@
         <v>44225</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16667,7 +16667,7 @@
         <v>44228</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16724,7 +16724,7 @@
         <v>44231</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16781,7 +16781,7 @@
         <v>44232</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16838,7 +16838,7 @@
         <v>44232</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16895,7 +16895,7 @@
         <v>44233</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16952,7 +16952,7 @@
         <v>44235</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17009,7 +17009,7 @@
         <v>44238</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17066,7 +17066,7 @@
         <v>44238</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17123,7 +17123,7 @@
         <v>44238</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17180,7 +17180,7 @@
         <v>44242</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17237,7 +17237,7 @@
         <v>44249</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17294,7 +17294,7 @@
         <v>44259</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17351,7 +17351,7 @@
         <v>44263</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17408,7 +17408,7 @@
         <v>44264</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17470,7 +17470,7 @@
         <v>44272</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17527,7 +17527,7 @@
         <v>44272</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17584,7 +17584,7 @@
         <v>44272</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
         <v>44278</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17698,7 +17698,7 @@
         <v>44279</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17760,7 +17760,7 @@
         <v>44280</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17817,7 +17817,7 @@
         <v>44285</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17874,7 +17874,7 @@
         <v>44285</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17931,7 +17931,7 @@
         <v>44287</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>44292</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         <v>44293</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>44299</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18159,7 +18159,7 @@
         <v>44300</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18216,7 +18216,7 @@
         <v>44308</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18273,7 +18273,7 @@
         <v>44308</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18335,7 +18335,7 @@
         <v>44309</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18392,7 +18392,7 @@
         <v>44314</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18454,7 +18454,7 @@
         <v>44315</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18511,7 +18511,7 @@
         <v>44334</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>44342</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18630,7 +18630,7 @@
         <v>44349</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18687,7 +18687,7 @@
         <v>44354</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18744,7 +18744,7 @@
         <v>44360</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18801,7 +18801,7 @@
         <v>44362</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18863,7 +18863,7 @@
         <v>44364</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18925,7 +18925,7 @@
         <v>44368</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18987,7 +18987,7 @@
         <v>44368</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19044,7 +19044,7 @@
         <v>44370</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         <v>44371</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19168,7 +19168,7 @@
         <v>44389</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19225,7 +19225,7 @@
         <v>44390</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19287,7 +19287,7 @@
         <v>44391</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19344,7 +19344,7 @@
         <v>44404</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19401,7 +19401,7 @@
         <v>44404</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19458,7 +19458,7 @@
         <v>44404</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19515,7 +19515,7 @@
         <v>44404</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19572,7 +19572,7 @@
         <v>44405</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19629,7 +19629,7 @@
         <v>44411</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19686,7 +19686,7 @@
         <v>44418</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19743,7 +19743,7 @@
         <v>44431</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19800,7 +19800,7 @@
         <v>44431</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19857,7 +19857,7 @@
         <v>44431</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19914,7 +19914,7 @@
         <v>44435</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19971,7 +19971,7 @@
         <v>44445</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20028,7 +20028,7 @@
         <v>44459</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20085,7 +20085,7 @@
         <v>44459</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20142,7 +20142,7 @@
         <v>44466</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20199,7 +20199,7 @@
         <v>44467</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20256,7 +20256,7 @@
         <v>44470</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20318,7 +20318,7 @@
         <v>44470</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20380,7 +20380,7 @@
         <v>44477</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20437,7 +20437,7 @@
         <v>44477</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20499,7 +20499,7 @@
         <v>44480</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20556,7 +20556,7 @@
         <v>44480</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20613,7 +20613,7 @@
         <v>44491</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20670,7 +20670,7 @@
         <v>44495</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20727,7 +20727,7 @@
         <v>44508</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20784,7 +20784,7 @@
         <v>44509</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20841,7 +20841,7 @@
         <v>44509</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20898,7 +20898,7 @@
         <v>44509</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20955,7 +20955,7 @@
         <v>44511</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21012,7 +21012,7 @@
         <v>44512</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21074,7 +21074,7 @@
         <v>44516</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21131,7 +21131,7 @@
         <v>44516</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         <v>44519</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21250,7 +21250,7 @@
         <v>44519</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21312,7 +21312,7 @@
         <v>44519</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21374,7 +21374,7 @@
         <v>44522</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21431,7 +21431,7 @@
         <v>44524</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21488,7 +21488,7 @@
         <v>44529</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21545,7 +21545,7 @@
         <v>44529</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21602,7 +21602,7 @@
         <v>44531</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21659,7 +21659,7 @@
         <v>44532</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21716,7 +21716,7 @@
         <v>44533</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21773,7 +21773,7 @@
         <v>44533</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21830,7 +21830,7 @@
         <v>44538</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21887,7 +21887,7 @@
         <v>44543</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21944,7 +21944,7 @@
         <v>44544</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22001,7 +22001,7 @@
         <v>44545</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22058,7 +22058,7 @@
         <v>44550</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22115,7 +22115,7 @@
         <v>44551</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22172,7 +22172,7 @@
         <v>44552</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22229,7 +22229,7 @@
         <v>44565</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22286,7 +22286,7 @@
         <v>44568</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22343,7 +22343,7 @@
         <v>44573</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22400,7 +22400,7 @@
         <v>44573</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22462,7 +22462,7 @@
         <v>44574</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22519,7 +22519,7 @@
         <v>44574</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22576,7 +22576,7 @@
         <v>44574</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22633,7 +22633,7 @@
         <v>44578</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22695,7 +22695,7 @@
         <v>44578</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22752,7 +22752,7 @@
         <v>44585</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22809,7 +22809,7 @@
         <v>44586</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         <v>44587</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22923,7 +22923,7 @@
         <v>44594</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22980,7 +22980,7 @@
         <v>44595</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23037,7 +23037,7 @@
         <v>44599</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23094,7 +23094,7 @@
         <v>44601</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23151,7 +23151,7 @@
         <v>44614</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23208,7 +23208,7 @@
         <v>44616</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23265,7 +23265,7 @@
         <v>44620</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23322,7 +23322,7 @@
         <v>44624</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23379,7 +23379,7 @@
         <v>44624</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23436,7 +23436,7 @@
         <v>44644</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23493,7 +23493,7 @@
         <v>44659</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23550,7 +23550,7 @@
         <v>44662</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23612,7 +23612,7 @@
         <v>44662</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23674,7 +23674,7 @@
         <v>44673</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23736,7 +23736,7 @@
         <v>44684</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23798,7 +23798,7 @@
         <v>44685</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23855,7 +23855,7 @@
         <v>44691</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23912,7 +23912,7 @@
         <v>44694</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23969,7 +23969,7 @@
         <v>44694</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24031,7 +24031,7 @@
         <v>44694</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24088,7 +24088,7 @@
         <v>44694</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24150,7 +24150,7 @@
         <v>44697</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24212,7 +24212,7 @@
         <v>44701</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24274,7 +24274,7 @@
         <v>44711</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24331,7 +24331,7 @@
         <v>44711</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24388,7 +24388,7 @@
         <v>44712</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24445,7 +24445,7 @@
         <v>44713</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24507,7 +24507,7 @@
         <v>44715</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24564,7 +24564,7 @@
         <v>44723</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24621,7 +24621,7 @@
         <v>44732</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24678,7 +24678,7 @@
         <v>44733</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24740,7 +24740,7 @@
         <v>44734</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24797,7 +24797,7 @@
         <v>44735</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24854,7 +24854,7 @@
         <v>44739</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24911,7 +24911,7 @@
         <v>44748</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24968,7 +24968,7 @@
         <v>44753</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25025,7 +25025,7 @@
         <v>44754</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25087,7 +25087,7 @@
         <v>44754</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25144,7 +25144,7 @@
         <v>44769</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25201,7 +25201,7 @@
         <v>44788</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25258,7 +25258,7 @@
         <v>44790</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25315,7 +25315,7 @@
         <v>44791</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25372,7 +25372,7 @@
         <v>44792</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25429,7 +25429,7 @@
         <v>44802</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25486,7 +25486,7 @@
         <v>44810</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25548,7 +25548,7 @@
         <v>44810</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25610,7 +25610,7 @@
         <v>44810</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25672,7 +25672,7 @@
         <v>44820</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25729,7 +25729,7 @@
         <v>44820</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25791,7 +25791,7 @@
         <v>44820</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25853,7 +25853,7 @@
         <v>44823</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25910,7 +25910,7 @@
         <v>44823</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25972,7 +25972,7 @@
         <v>44824</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26034,7 +26034,7 @@
         <v>44826</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26091,7 +26091,7 @@
         <v>44827</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26148,7 +26148,7 @@
         <v>44832</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26205,7 +26205,7 @@
         <v>44833</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26262,7 +26262,7 @@
         <v>44838</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26319,7 +26319,7 @@
         <v>44840</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26381,7 +26381,7 @@
         <v>44844</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26438,7 +26438,7 @@
         <v>44847</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26495,7 +26495,7 @@
         <v>44847</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26552,7 +26552,7 @@
         <v>44853</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26609,7 +26609,7 @@
         <v>44862</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26666,7 +26666,7 @@
         <v>44872</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26728,7 +26728,7 @@
         <v>44875</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26785,7 +26785,7 @@
         <v>44875</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26842,7 +26842,7 @@
         <v>44886</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26899,7 +26899,7 @@
         <v>44886</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26956,7 +26956,7 @@
         <v>44887</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27013,7 +27013,7 @@
         <v>44888</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27075,7 +27075,7 @@
         <v>44888</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27157,7 +27157,7 @@
         <v>44901</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27214,7 +27214,7 @@
         <v>44903</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27271,7 +27271,7 @@
         <v>44907</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27328,7 +27328,7 @@
         <v>44909</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27390,7 +27390,7 @@
         <v>44909</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27452,7 +27452,7 @@
         <v>44910</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27514,7 +27514,7 @@
         <v>44911</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27571,7 +27571,7 @@
         <v>44913</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27628,7 +27628,7 @@
         <v>44914</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27685,7 +27685,7 @@
         <v>44914</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27742,7 +27742,7 @@
         <v>44916</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27799,7 +27799,7 @@
         <v>44917</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27856,7 +27856,7 @@
         <v>44917</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27913,7 +27913,7 @@
         <v>44939</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27970,7 +27970,7 @@
         <v>44944</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28027,7 +28027,7 @@
         <v>44944</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28084,7 +28084,7 @@
         <v>44946</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28141,7 +28141,7 @@
         <v>44950</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28198,7 +28198,7 @@
         <v>44951</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28255,7 +28255,7 @@
         <v>44956</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28317,7 +28317,7 @@
         <v>44974</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28374,7 +28374,7 @@
         <v>44974</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28431,7 +28431,7 @@
         <v>44974</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28488,7 +28488,7 @@
         <v>44978</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28545,7 +28545,7 @@
         <v>44980</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28602,7 +28602,7 @@
         <v>44981</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28659,7 +28659,7 @@
         <v>44981</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28716,7 +28716,7 @@
         <v>44981</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28773,7 +28773,7 @@
         <v>44984</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28830,7 +28830,7 @@
         <v>44984</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28892,7 +28892,7 @@
         <v>44984</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28949,7 +28949,7 @@
         <v>44987</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29006,7 +29006,7 @@
         <v>44993</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29063,7 +29063,7 @@
         <v>44999</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29125,7 +29125,7 @@
         <v>45000</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29182,7 +29182,7 @@
         <v>45005</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29244,7 +29244,7 @@
         <v>45006</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29301,7 +29301,7 @@
         <v>45006</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29358,7 +29358,7 @@
         <v>45008</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29415,7 +29415,7 @@
         <v>45008</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29472,7 +29472,7 @@
         <v>45013</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29529,7 +29529,7 @@
         <v>45019</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29586,7 +29586,7 @@
         <v>45019</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29643,7 +29643,7 @@
         <v>45020</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29700,7 +29700,7 @@
         <v>45022</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29762,7 +29762,7 @@
         <v>45022</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29824,7 +29824,7 @@
         <v>45027</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29881,7 +29881,7 @@
         <v>45029</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29938,7 +29938,7 @@
         <v>45030</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29995,7 +29995,7 @@
         <v>45035</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30052,7 +30052,7 @@
         <v>45043</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30109,7 +30109,7 @@
         <v>45043</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30166,7 +30166,7 @@
         <v>45044</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30223,7 +30223,7 @@
         <v>45050</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30285,7 +30285,7 @@
         <v>45050</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30347,7 +30347,7 @@
         <v>45050</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30409,7 +30409,7 @@
         <v>45050</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30471,7 +30471,7 @@
         <v>45050</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30533,7 +30533,7 @@
         <v>45050</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30595,7 +30595,7 @@
         <v>45050</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30677,7 +30677,7 @@
         <v>45058</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30739,7 +30739,7 @@
         <v>45058</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30801,7 +30801,7 @@
         <v>45058</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30863,7 +30863,7 @@
         <v>45058</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30925,7 +30925,7 @@
         <v>45062</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30982,7 +30982,7 @@
         <v>45062</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31039,7 +31039,7 @@
         <v>45065</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31096,7 +31096,7 @@
         <v>45068</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31153,7 +31153,7 @@
         <v>45068</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31215,7 +31215,7 @@
         <v>45071</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31272,7 +31272,7 @@
         <v>45071</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31329,7 +31329,7 @@
         <v>45075</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31386,7 +31386,7 @@
         <v>45082</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31443,7 +31443,7 @@
         <v>45082</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31500,7 +31500,7 @@
         <v>45083</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31557,7 +31557,7 @@
         <v>45083</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31614,7 +31614,7 @@
         <v>45083</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31671,7 +31671,7 @@
         <v>45083</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31728,7 +31728,7 @@
         <v>45086</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31785,7 +31785,7 @@
         <v>45089</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31842,7 +31842,7 @@
         <v>45089</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31899,7 +31899,7 @@
         <v>45090</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31961,7 +31961,7 @@
         <v>45091</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32018,7 +32018,7 @@
         <v>45091</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32080,7 +32080,7 @@
         <v>45091</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32142,7 +32142,7 @@
         <v>45092</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32199,7 +32199,7 @@
         <v>45092</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32256,7 +32256,7 @@
         <v>45092</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32313,7 +32313,7 @@
         <v>45092</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32375,7 +32375,7 @@
         <v>45092</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32432,7 +32432,7 @@
         <v>45098</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32489,7 +32489,7 @@
         <v>45099</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32546,7 +32546,7 @@
         <v>45103</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32608,7 +32608,7 @@
         <v>45103</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32665,7 +32665,7 @@
         <v>45103</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32727,7 +32727,7 @@
         <v>45105</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32784,7 +32784,7 @@
         <v>45111</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32841,7 +32841,7 @@
         <v>45112</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32903,7 +32903,7 @@
         <v>45113</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32965,7 +32965,7 @@
         <v>45113</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33022,7 +33022,7 @@
         <v>45114</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33079,7 +33079,7 @@
         <v>45117</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33136,7 +33136,7 @@
         <v>45117</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33193,7 +33193,7 @@
         <v>45117</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33270,7 +33270,7 @@
         <v>45117</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33327,7 +33327,7 @@
         <v>45117</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33384,7 +33384,7 @@
         <v>45117</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33441,7 +33441,7 @@
         <v>45117</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33498,7 +33498,7 @@
         <v>45118</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33555,7 +33555,7 @@
         <v>45119</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33617,7 +33617,7 @@
         <v>45120</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33674,7 +33674,7 @@
         <v>45126</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33731,7 +33731,7 @@
         <v>45131</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33788,7 +33788,7 @@
         <v>45133</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33845,7 +33845,7 @@
         <v>45135</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33902,7 +33902,7 @@
         <v>45166</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33959,7 +33959,7 @@
         <v>45166</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34016,7 +34016,7 @@
         <v>45168</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34078,7 +34078,7 @@
         <v>45168</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34140,7 +34140,7 @@
         <v>45181</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34187,7 +34187,7 @@
       </c>
       <c r="R557" s="2" t="inlineStr"/>
     </row>
-    <row r="558">
+    <row r="558" ht="15" customHeight="1">
       <c r="A558" t="inlineStr">
         <is>
           <t>A 43840-2023</t>
@@ -34197,7 +34197,7 @@
         <v>45187</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34243,6 +34243,120 @@
         <v>0</v>
       </c>
       <c r="R558" s="2" t="inlineStr"/>
+    </row>
+    <row r="559" ht="15" customHeight="1">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>A 45916-2023</t>
+        </is>
+      </c>
+      <c r="B559" s="1" t="n">
+        <v>45195</v>
+      </c>
+      <c r="C559" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D559" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E559" t="inlineStr">
+        <is>
+          <t>HEBY</t>
+        </is>
+      </c>
+      <c r="G559" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H559" t="n">
+        <v>0</v>
+      </c>
+      <c r="I559" t="n">
+        <v>0</v>
+      </c>
+      <c r="J559" t="n">
+        <v>0</v>
+      </c>
+      <c r="K559" t="n">
+        <v>0</v>
+      </c>
+      <c r="L559" t="n">
+        <v>0</v>
+      </c>
+      <c r="M559" t="n">
+        <v>0</v>
+      </c>
+      <c r="N559" t="n">
+        <v>0</v>
+      </c>
+      <c r="O559" t="n">
+        <v>0</v>
+      </c>
+      <c r="P559" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q559" t="n">
+        <v>0</v>
+      </c>
+      <c r="R559" s="2" t="inlineStr"/>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>A 45917-2023</t>
+        </is>
+      </c>
+      <c r="B560" s="1" t="n">
+        <v>45195</v>
+      </c>
+      <c r="C560" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D560" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E560" t="inlineStr">
+        <is>
+          <t>HEBY</t>
+        </is>
+      </c>
+      <c r="G560" t="n">
+        <v>1</v>
+      </c>
+      <c r="H560" t="n">
+        <v>0</v>
+      </c>
+      <c r="I560" t="n">
+        <v>0</v>
+      </c>
+      <c r="J560" t="n">
+        <v>0</v>
+      </c>
+      <c r="K560" t="n">
+        <v>0</v>
+      </c>
+      <c r="L560" t="n">
+        <v>0</v>
+      </c>
+      <c r="M560" t="n">
+        <v>0</v>
+      </c>
+      <c r="N560" t="n">
+        <v>0</v>
+      </c>
+      <c r="O560" t="n">
+        <v>0</v>
+      </c>
+      <c r="P560" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q560" t="n">
+        <v>0</v>
+      </c>
+      <c r="R560" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt HEBY.xlsx
+++ b/Översikt HEBY.xlsx
@@ -572,7 +572,7 @@
         <v>44914</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>43515</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>43805</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -854,7 +854,7 @@
         <v>43689</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>44824</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1047,7 +1047,7 @@
         <v>44914</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
         <v>44915</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>45117</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>43529</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         <v>44489</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         <v>44670</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         <v>44832</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         <v>45153</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>44049</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1865,7 +1865,7 @@
         <v>44712</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1951,7 +1951,7 @@
         <v>44889</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>44895</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>45014</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         <v>45092</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2381,7 +2381,7 @@
         <v>45124</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         <v>43523</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>43559</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>43851</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
         <v>43853</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2807,7 +2807,7 @@
         <v>43901</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2897,7 +2897,7 @@
         <v>44002</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2986,7 +2986,7 @@
         <v>44161</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3071,7 +3071,7 @@
         <v>44376</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         <v>44395</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>44568</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3330,7 +3330,7 @@
         <v>44609</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3415,7 +3415,7 @@
         <v>44805</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3500,7 +3500,7 @@
         <v>44847</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         <v>45020</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>45035</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>45037</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>45093</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>45098</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>45111</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>45120</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4188,7 +4188,7 @@
         <v>45120</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>45120</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4358,7 +4358,7 @@
         <v>45133</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4443,7 +4443,7 @@
         <v>43342</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4505,7 +4505,7 @@
         <v>43349</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>43374</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>43409</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>43413</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         <v>43416</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         <v>43418</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>43419</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>43423</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>43430</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         <v>43430</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5080,7 +5080,7 @@
         <v>43430</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5137,7 +5137,7 @@
         <v>43432</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5194,7 +5194,7 @@
         <v>43437</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5251,7 +5251,7 @@
         <v>43438</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5308,7 +5308,7 @@
         <v>43440</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>43447</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5422,7 +5422,7 @@
         <v>43452</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>43454</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>43454</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>43454</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5650,7 +5650,7 @@
         <v>43455</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>43455</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5764,7 +5764,7 @@
         <v>43461</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5821,7 +5821,7 @@
         <v>43461</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         <v>43468</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5935,7 +5935,7 @@
         <v>43480</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>43480</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6049,7 +6049,7 @@
         <v>43482</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6106,7 +6106,7 @@
         <v>43488</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>43500</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>43501</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6277,7 +6277,7 @@
         <v>43502</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6334,7 +6334,7 @@
         <v>43503</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
         <v>43511</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>43511</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>43515</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6567,7 +6567,7 @@
         <v>43521</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6624,7 +6624,7 @@
         <v>43522</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6681,7 +6681,7 @@
         <v>43525</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6738,7 +6738,7 @@
         <v>43528</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6795,7 +6795,7 @@
         <v>43528</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6852,7 +6852,7 @@
         <v>43529</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>43529</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>43530</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>43530</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>43535</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>43538</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>43539</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>43551</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>43552</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>43556</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>43559</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>43560</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>43560</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>43562</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>43563</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>43567</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>43570</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>43570</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>43580</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>43580</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>43581</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8059,7 +8059,7 @@
         <v>43598</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8116,7 +8116,7 @@
         <v>43598</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8173,7 +8173,7 @@
         <v>43606</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8230,7 +8230,7 @@
         <v>43607</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8287,7 +8287,7 @@
         <v>43608</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8344,7 +8344,7 @@
         <v>43609</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8401,7 +8401,7 @@
         <v>43615</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8458,7 +8458,7 @@
         <v>43628</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         <v>43633</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>43636</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8634,7 +8634,7 @@
         <v>43641</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8691,7 +8691,7 @@
         <v>43641</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8753,7 +8753,7 @@
         <v>43644</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8810,7 +8810,7 @@
         <v>43651</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8867,7 +8867,7 @@
         <v>43651</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8924,7 +8924,7 @@
         <v>43654</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8986,7 +8986,7 @@
         <v>43656</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9048,7 +9048,7 @@
         <v>43676</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9105,7 +9105,7 @@
         <v>43689</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9162,7 +9162,7 @@
         <v>43689</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9219,7 +9219,7 @@
         <v>43696</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9276,7 +9276,7 @@
         <v>43697</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         <v>43705</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9390,7 +9390,7 @@
         <v>43705</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         <v>43710</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>43710</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>43711</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9618,7 +9618,7 @@
         <v>43713</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9675,7 +9675,7 @@
         <v>43717</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9732,7 +9732,7 @@
         <v>43719</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9789,7 +9789,7 @@
         <v>43719</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9846,7 +9846,7 @@
         <v>43725</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9903,7 +9903,7 @@
         <v>43731</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9965,7 +9965,7 @@
         <v>43731</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         <v>43735</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10084,7 +10084,7 @@
         <v>43735</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10141,7 +10141,7 @@
         <v>43735</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10198,7 +10198,7 @@
         <v>43737</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10255,7 +10255,7 @@
         <v>43738</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10312,7 +10312,7 @@
         <v>43740</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10369,7 +10369,7 @@
         <v>43741</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10426,7 +10426,7 @@
         <v>43742</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>43745</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10545,7 +10545,7 @@
         <v>43745</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>43747</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
         <v>43749</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10726,7 +10726,7 @@
         <v>43749</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10783,7 +10783,7 @@
         <v>43754</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10840,7 +10840,7 @@
         <v>43766</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10897,7 +10897,7 @@
         <v>43766</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10974,7 +10974,7 @@
         <v>43768</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11031,7 +11031,7 @@
         <v>43775</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11088,7 +11088,7 @@
         <v>43781</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>43782</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>43783</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>43783</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>43787</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>43787</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>43787</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>43794</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11549,7 +11549,7 @@
         <v>43797</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11606,7 +11606,7 @@
         <v>43802</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11663,7 +11663,7 @@
         <v>43808</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11720,7 +11720,7 @@
         <v>43817</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11777,7 +11777,7 @@
         <v>43818</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11834,7 +11834,7 @@
         <v>43843</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11891,7 +11891,7 @@
         <v>43844</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11948,7 +11948,7 @@
         <v>43845</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>43846</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>43847</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>43852</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12176,7 +12176,7 @@
         <v>43852</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12238,7 +12238,7 @@
         <v>43858</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12300,7 +12300,7 @@
         <v>43860</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12357,7 +12357,7 @@
         <v>43861</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12414,7 +12414,7 @@
         <v>43863</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12471,7 +12471,7 @@
         <v>43864</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12533,7 +12533,7 @@
         <v>43864</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12590,7 +12590,7 @@
         <v>43866</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
         <v>43867</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12704,7 +12704,7 @@
         <v>43867</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12761,7 +12761,7 @@
         <v>43871</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12818,7 +12818,7 @@
         <v>43871</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>43882</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>43882</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>43891</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>43891</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13103,7 +13103,7 @@
         <v>43891</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13160,7 +13160,7 @@
         <v>43891</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
         <v>43901</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13279,7 +13279,7 @@
         <v>43901</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13336,7 +13336,7 @@
         <v>43901</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13398,7 +13398,7 @@
         <v>43901</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13455,7 +13455,7 @@
         <v>43906</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13512,7 +13512,7 @@
         <v>43909</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13569,7 +13569,7 @@
         <v>43909</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13626,7 +13626,7 @@
         <v>43909</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13683,7 +13683,7 @@
         <v>43909</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13740,7 +13740,7 @@
         <v>43913</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13797,7 +13797,7 @@
         <v>43915</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13854,7 +13854,7 @@
         <v>43916</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13911,7 +13911,7 @@
         <v>43920</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13968,7 +13968,7 @@
         <v>43920</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14025,7 +14025,7 @@
         <v>43943</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14082,7 +14082,7 @@
         <v>43944</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14139,7 +14139,7 @@
         <v>43950</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14196,7 +14196,7 @@
         <v>43950</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14253,7 +14253,7 @@
         <v>43956</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14310,7 +14310,7 @@
         <v>43958</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14367,7 +14367,7 @@
         <v>43959</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14424,7 +14424,7 @@
         <v>43959</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14486,7 +14486,7 @@
         <v>43962</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14543,7 +14543,7 @@
         <v>43963</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14600,7 +14600,7 @@
         <v>43983</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14657,7 +14657,7 @@
         <v>43983</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14714,7 +14714,7 @@
         <v>43984</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14776,7 +14776,7 @@
         <v>43987</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14833,7 +14833,7 @@
         <v>44007</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14890,7 +14890,7 @@
         <v>44013</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14947,7 +14947,7 @@
         <v>44021</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15004,7 +15004,7 @@
         <v>44025</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15061,7 +15061,7 @@
         <v>44026</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15118,7 +15118,7 @@
         <v>44035</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15175,7 +15175,7 @@
         <v>44035</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15232,7 +15232,7 @@
         <v>44048</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
         <v>44048</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         <v>44053</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15408,7 +15408,7 @@
         <v>44070</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15465,7 +15465,7 @@
         <v>44089</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15522,7 +15522,7 @@
         <v>44089</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15579,7 +15579,7 @@
         <v>44095</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15636,7 +15636,7 @@
         <v>44097</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15698,7 +15698,7 @@
         <v>44098</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15755,7 +15755,7 @@
         <v>44102</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15812,7 +15812,7 @@
         <v>44103</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15869,7 +15869,7 @@
         <v>44110</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15926,7 +15926,7 @@
         <v>44110</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15983,7 +15983,7 @@
         <v>44117</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16040,7 +16040,7 @@
         <v>44117</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16097,7 +16097,7 @@
         <v>44127</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16154,7 +16154,7 @@
         <v>44134</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16211,7 +16211,7 @@
         <v>44151</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16268,7 +16268,7 @@
         <v>44158</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16325,7 +16325,7 @@
         <v>44160</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16382,7 +16382,7 @@
         <v>44161</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16439,7 +16439,7 @@
         <v>44188</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16496,7 +16496,7 @@
         <v>44193</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16553,7 +16553,7 @@
         <v>44204</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16610,7 +16610,7 @@
         <v>44225</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16667,7 +16667,7 @@
         <v>44228</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16724,7 +16724,7 @@
         <v>44231</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16781,7 +16781,7 @@
         <v>44232</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16838,7 +16838,7 @@
         <v>44232</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16895,7 +16895,7 @@
         <v>44233</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16952,7 +16952,7 @@
         <v>44235</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17009,7 +17009,7 @@
         <v>44238</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17066,7 +17066,7 @@
         <v>44238</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17123,7 +17123,7 @@
         <v>44238</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17180,7 +17180,7 @@
         <v>44242</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17237,7 +17237,7 @@
         <v>44249</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17294,7 +17294,7 @@
         <v>44259</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17351,7 +17351,7 @@
         <v>44263</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17408,7 +17408,7 @@
         <v>44264</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17470,7 +17470,7 @@
         <v>44272</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17527,7 +17527,7 @@
         <v>44272</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17584,7 +17584,7 @@
         <v>44272</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
         <v>44278</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17698,7 +17698,7 @@
         <v>44279</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17760,7 +17760,7 @@
         <v>44280</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17817,7 +17817,7 @@
         <v>44285</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17874,7 +17874,7 @@
         <v>44285</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17931,7 +17931,7 @@
         <v>44287</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>44292</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         <v>44293</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>44299</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18159,7 +18159,7 @@
         <v>44300</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18216,7 +18216,7 @@
         <v>44308</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18273,7 +18273,7 @@
         <v>44308</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18335,7 +18335,7 @@
         <v>44309</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18392,7 +18392,7 @@
         <v>44314</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18454,7 +18454,7 @@
         <v>44315</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18511,7 +18511,7 @@
         <v>44334</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>44342</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18630,7 +18630,7 @@
         <v>44349</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18687,7 +18687,7 @@
         <v>44354</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18744,7 +18744,7 @@
         <v>44360</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18801,7 +18801,7 @@
         <v>44362</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18863,7 +18863,7 @@
         <v>44364</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18925,7 +18925,7 @@
         <v>44368</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18987,7 +18987,7 @@
         <v>44368</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19044,7 +19044,7 @@
         <v>44370</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         <v>44371</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19168,7 +19168,7 @@
         <v>44389</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19225,7 +19225,7 @@
         <v>44390</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19287,7 +19287,7 @@
         <v>44391</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19344,7 +19344,7 @@
         <v>44404</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19401,7 +19401,7 @@
         <v>44404</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19458,7 +19458,7 @@
         <v>44404</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19515,7 +19515,7 @@
         <v>44404</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19572,7 +19572,7 @@
         <v>44405</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19629,7 +19629,7 @@
         <v>44411</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19686,7 +19686,7 @@
         <v>44418</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19743,7 +19743,7 @@
         <v>44431</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19800,7 +19800,7 @@
         <v>44431</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19857,7 +19857,7 @@
         <v>44431</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19914,7 +19914,7 @@
         <v>44435</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19971,7 +19971,7 @@
         <v>44445</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20028,7 +20028,7 @@
         <v>44459</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20085,7 +20085,7 @@
         <v>44459</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20142,7 +20142,7 @@
         <v>44466</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20199,7 +20199,7 @@
         <v>44467</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20256,7 +20256,7 @@
         <v>44470</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20318,7 +20318,7 @@
         <v>44470</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20380,7 +20380,7 @@
         <v>44477</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20437,7 +20437,7 @@
         <v>44477</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20499,7 +20499,7 @@
         <v>44480</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20556,7 +20556,7 @@
         <v>44480</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20613,7 +20613,7 @@
         <v>44491</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20670,7 +20670,7 @@
         <v>44495</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20727,7 +20727,7 @@
         <v>44508</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20784,7 +20784,7 @@
         <v>44509</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20841,7 +20841,7 @@
         <v>44509</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20898,7 +20898,7 @@
         <v>44509</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20955,7 +20955,7 @@
         <v>44511</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21012,7 +21012,7 @@
         <v>44512</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21074,7 +21074,7 @@
         <v>44516</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21131,7 +21131,7 @@
         <v>44516</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         <v>44519</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21250,7 +21250,7 @@
         <v>44519</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21312,7 +21312,7 @@
         <v>44519</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21374,7 +21374,7 @@
         <v>44522</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21431,7 +21431,7 @@
         <v>44524</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21488,7 +21488,7 @@
         <v>44529</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21545,7 +21545,7 @@
         <v>44529</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21602,7 +21602,7 @@
         <v>44531</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21659,7 +21659,7 @@
         <v>44532</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21716,7 +21716,7 @@
         <v>44533</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21773,7 +21773,7 @@
         <v>44533</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21830,7 +21830,7 @@
         <v>44538</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21887,7 +21887,7 @@
         <v>44543</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21944,7 +21944,7 @@
         <v>44544</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22001,7 +22001,7 @@
         <v>44545</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22058,7 +22058,7 @@
         <v>44550</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22115,7 +22115,7 @@
         <v>44551</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22172,7 +22172,7 @@
         <v>44552</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22229,7 +22229,7 @@
         <v>44565</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22286,7 +22286,7 @@
         <v>44568</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22343,7 +22343,7 @@
         <v>44573</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22400,7 +22400,7 @@
         <v>44573</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22462,7 +22462,7 @@
         <v>44574</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22519,7 +22519,7 @@
         <v>44574</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22576,7 +22576,7 @@
         <v>44574</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22633,7 +22633,7 @@
         <v>44578</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22695,7 +22695,7 @@
         <v>44578</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22752,7 +22752,7 @@
         <v>44585</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22809,7 +22809,7 @@
         <v>44586</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         <v>44587</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22923,7 +22923,7 @@
         <v>44594</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22980,7 +22980,7 @@
         <v>44595</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23037,7 +23037,7 @@
         <v>44599</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23094,7 +23094,7 @@
         <v>44601</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23151,7 +23151,7 @@
         <v>44614</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23208,7 +23208,7 @@
         <v>44616</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23265,7 +23265,7 @@
         <v>44620</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23322,7 +23322,7 @@
         <v>44624</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23379,7 +23379,7 @@
         <v>44624</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23436,7 +23436,7 @@
         <v>44644</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23493,7 +23493,7 @@
         <v>44659</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23550,7 +23550,7 @@
         <v>44662</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23612,7 +23612,7 @@
         <v>44662</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23674,7 +23674,7 @@
         <v>44673</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23736,7 +23736,7 @@
         <v>44684</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23798,7 +23798,7 @@
         <v>44685</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23855,7 +23855,7 @@
         <v>44691</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23912,7 +23912,7 @@
         <v>44694</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23969,7 +23969,7 @@
         <v>44694</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24031,7 +24031,7 @@
         <v>44694</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24088,7 +24088,7 @@
         <v>44694</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24150,7 +24150,7 @@
         <v>44697</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24212,7 +24212,7 @@
         <v>44701</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24274,7 +24274,7 @@
         <v>44711</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24331,7 +24331,7 @@
         <v>44711</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24388,7 +24388,7 @@
         <v>44712</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24445,7 +24445,7 @@
         <v>44713</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24507,7 +24507,7 @@
         <v>44715</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24564,7 +24564,7 @@
         <v>44723</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24621,7 +24621,7 @@
         <v>44732</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24678,7 +24678,7 @@
         <v>44733</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24740,7 +24740,7 @@
         <v>44734</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24797,7 +24797,7 @@
         <v>44735</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24854,7 +24854,7 @@
         <v>44739</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24911,7 +24911,7 @@
         <v>44748</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24968,7 +24968,7 @@
         <v>44753</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25025,7 +25025,7 @@
         <v>44754</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25087,7 +25087,7 @@
         <v>44754</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25144,7 +25144,7 @@
         <v>44769</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25201,7 +25201,7 @@
         <v>44788</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25258,7 +25258,7 @@
         <v>44790</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25315,7 +25315,7 @@
         <v>44791</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25372,7 +25372,7 @@
         <v>44792</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25429,7 +25429,7 @@
         <v>44802</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25486,7 +25486,7 @@
         <v>44810</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25548,7 +25548,7 @@
         <v>44810</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25610,7 +25610,7 @@
         <v>44810</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25672,7 +25672,7 @@
         <v>44820</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25729,7 +25729,7 @@
         <v>44820</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25791,7 +25791,7 @@
         <v>44820</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25853,7 +25853,7 @@
         <v>44823</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25910,7 +25910,7 @@
         <v>44823</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25972,7 +25972,7 @@
         <v>44824</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26034,7 +26034,7 @@
         <v>44826</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26091,7 +26091,7 @@
         <v>44827</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26148,7 +26148,7 @@
         <v>44832</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26205,7 +26205,7 @@
         <v>44833</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26262,7 +26262,7 @@
         <v>44838</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26319,7 +26319,7 @@
         <v>44840</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26381,7 +26381,7 @@
         <v>44844</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26438,7 +26438,7 @@
         <v>44847</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26495,7 +26495,7 @@
         <v>44847</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26552,7 +26552,7 @@
         <v>44853</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26609,7 +26609,7 @@
         <v>44862</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26666,7 +26666,7 @@
         <v>44872</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26728,7 +26728,7 @@
         <v>44875</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26785,7 +26785,7 @@
         <v>44875</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26842,7 +26842,7 @@
         <v>44886</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26899,7 +26899,7 @@
         <v>44886</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26956,7 +26956,7 @@
         <v>44887</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27013,7 +27013,7 @@
         <v>44888</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27075,7 +27075,7 @@
         <v>44888</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27157,7 +27157,7 @@
         <v>44901</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27214,7 +27214,7 @@
         <v>44903</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27271,7 +27271,7 @@
         <v>44907</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27328,7 +27328,7 @@
         <v>44909</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27390,7 +27390,7 @@
         <v>44909</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27452,7 +27452,7 @@
         <v>44910</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27514,7 +27514,7 @@
         <v>44911</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27571,7 +27571,7 @@
         <v>44913</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27628,7 +27628,7 @@
         <v>44914</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27685,7 +27685,7 @@
         <v>44914</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27742,7 +27742,7 @@
         <v>44916</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27799,7 +27799,7 @@
         <v>44917</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27856,7 +27856,7 @@
         <v>44917</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27913,7 +27913,7 @@
         <v>44939</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27970,7 +27970,7 @@
         <v>44944</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28027,7 +28027,7 @@
         <v>44944</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28084,7 +28084,7 @@
         <v>44946</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28141,7 +28141,7 @@
         <v>44950</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28198,7 +28198,7 @@
         <v>44951</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28255,7 +28255,7 @@
         <v>44956</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28317,7 +28317,7 @@
         <v>44974</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28374,7 +28374,7 @@
         <v>44974</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28431,7 +28431,7 @@
         <v>44974</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28488,7 +28488,7 @@
         <v>44978</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28545,7 +28545,7 @@
         <v>44980</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28602,7 +28602,7 @@
         <v>44981</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28659,7 +28659,7 @@
         <v>44981</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28716,7 +28716,7 @@
         <v>44981</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28773,7 +28773,7 @@
         <v>44984</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28830,7 +28830,7 @@
         <v>44984</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28892,7 +28892,7 @@
         <v>44984</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28949,7 +28949,7 @@
         <v>44987</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29006,7 +29006,7 @@
         <v>44993</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29063,7 +29063,7 @@
         <v>44999</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29125,7 +29125,7 @@
         <v>45000</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29182,7 +29182,7 @@
         <v>45005</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29244,7 +29244,7 @@
         <v>45006</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29301,7 +29301,7 @@
         <v>45006</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29358,7 +29358,7 @@
         <v>45008</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29415,7 +29415,7 @@
         <v>45008</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29472,7 +29472,7 @@
         <v>45013</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29529,7 +29529,7 @@
         <v>45019</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29586,7 +29586,7 @@
         <v>45019</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29643,7 +29643,7 @@
         <v>45020</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29700,7 +29700,7 @@
         <v>45022</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29762,7 +29762,7 @@
         <v>45022</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29824,7 +29824,7 @@
         <v>45027</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29881,7 +29881,7 @@
         <v>45029</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29938,7 +29938,7 @@
         <v>45030</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29995,7 +29995,7 @@
         <v>45035</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30052,7 +30052,7 @@
         <v>45043</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30109,7 +30109,7 @@
         <v>45043</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30166,7 +30166,7 @@
         <v>45044</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30223,7 +30223,7 @@
         <v>45050</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30285,7 +30285,7 @@
         <v>45050</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30347,7 +30347,7 @@
         <v>45050</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30409,7 +30409,7 @@
         <v>45050</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30471,7 +30471,7 @@
         <v>45050</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30533,7 +30533,7 @@
         <v>45050</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30595,7 +30595,7 @@
         <v>45050</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30677,7 +30677,7 @@
         <v>45058</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30739,7 +30739,7 @@
         <v>45058</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30801,7 +30801,7 @@
         <v>45058</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30863,7 +30863,7 @@
         <v>45058</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30925,7 +30925,7 @@
         <v>45062</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30982,7 +30982,7 @@
         <v>45062</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31039,7 +31039,7 @@
         <v>45065</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31096,7 +31096,7 @@
         <v>45068</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31153,7 +31153,7 @@
         <v>45068</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31215,7 +31215,7 @@
         <v>45071</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31272,7 +31272,7 @@
         <v>45071</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31329,7 +31329,7 @@
         <v>45075</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31386,7 +31386,7 @@
         <v>45082</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31443,7 +31443,7 @@
         <v>45082</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31500,7 +31500,7 @@
         <v>45083</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31557,7 +31557,7 @@
         <v>45083</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31614,7 +31614,7 @@
         <v>45083</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31671,7 +31671,7 @@
         <v>45083</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31728,7 +31728,7 @@
         <v>45086</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31785,7 +31785,7 @@
         <v>45089</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31842,7 +31842,7 @@
         <v>45089</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31899,7 +31899,7 @@
         <v>45090</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31961,7 +31961,7 @@
         <v>45091</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32018,7 +32018,7 @@
         <v>45091</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32080,7 +32080,7 @@
         <v>45091</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32142,7 +32142,7 @@
         <v>45092</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32199,7 +32199,7 @@
         <v>45092</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32256,7 +32256,7 @@
         <v>45092</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32313,7 +32313,7 @@
         <v>45092</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32375,7 +32375,7 @@
         <v>45092</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32432,7 +32432,7 @@
         <v>45098</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32489,7 +32489,7 @@
         <v>45099</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32546,7 +32546,7 @@
         <v>45103</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32608,7 +32608,7 @@
         <v>45103</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32665,7 +32665,7 @@
         <v>45103</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32727,7 +32727,7 @@
         <v>45105</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32784,7 +32784,7 @@
         <v>45111</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32841,7 +32841,7 @@
         <v>45112</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32903,7 +32903,7 @@
         <v>45113</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32965,7 +32965,7 @@
         <v>45113</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33022,7 +33022,7 @@
         <v>45114</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33079,7 +33079,7 @@
         <v>45117</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33136,7 +33136,7 @@
         <v>45117</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33193,7 +33193,7 @@
         <v>45117</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33270,7 +33270,7 @@
         <v>45117</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33327,7 +33327,7 @@
         <v>45117</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33384,7 +33384,7 @@
         <v>45117</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33441,7 +33441,7 @@
         <v>45117</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33498,7 +33498,7 @@
         <v>45118</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33555,7 +33555,7 @@
         <v>45119</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33617,7 +33617,7 @@
         <v>45120</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33674,7 +33674,7 @@
         <v>45126</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33731,7 +33731,7 @@
         <v>45131</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33788,7 +33788,7 @@
         <v>45133</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33845,7 +33845,7 @@
         <v>45135</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33902,7 +33902,7 @@
         <v>45166</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33959,7 +33959,7 @@
         <v>45166</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34016,7 +34016,7 @@
         <v>45168</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34078,7 +34078,7 @@
         <v>45168</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34140,7 +34140,7 @@
         <v>45181</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34197,7 +34197,7 @@
         <v>45187</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34254,7 +34254,7 @@
         <v>45195</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34311,7 +34311,7 @@
         <v>45195</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>

--- a/Översikt HEBY.xlsx
+++ b/Översikt HEBY.xlsx
@@ -572,7 +572,7 @@
         <v>44914</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>43515</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>43805</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -854,7 +854,7 @@
         <v>43689</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>44824</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1047,7 +1047,7 @@
         <v>44914</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
         <v>44915</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>45117</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>43529</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         <v>44489</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         <v>44670</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         <v>44832</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         <v>45153</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>44049</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1865,7 +1865,7 @@
         <v>44712</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1951,7 +1951,7 @@
         <v>44889</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>44895</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>45014</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         <v>45092</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2381,7 +2381,7 @@
         <v>45124</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         <v>43523</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>43559</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>43851</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
         <v>43853</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2807,7 +2807,7 @@
         <v>43901</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2897,7 +2897,7 @@
         <v>44002</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2986,7 +2986,7 @@
         <v>44161</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3071,7 +3071,7 @@
         <v>44376</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         <v>44395</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>44568</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3330,7 +3330,7 @@
         <v>44609</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3415,7 +3415,7 @@
         <v>44805</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3500,7 +3500,7 @@
         <v>44847</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         <v>45020</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>45035</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>45037</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>45093</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>45098</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>45111</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>45120</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4188,7 +4188,7 @@
         <v>45120</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>45120</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4358,7 +4358,7 @@
         <v>45133</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4443,7 +4443,7 @@
         <v>43342</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4505,7 +4505,7 @@
         <v>43349</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>43374</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>43409</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>43413</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         <v>43416</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         <v>43418</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>43419</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>43423</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>43430</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         <v>43430</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5080,7 +5080,7 @@
         <v>43430</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5137,7 +5137,7 @@
         <v>43432</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5194,7 +5194,7 @@
         <v>43437</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5251,7 +5251,7 @@
         <v>43438</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5308,7 +5308,7 @@
         <v>43440</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>43447</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5422,7 +5422,7 @@
         <v>43452</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>43454</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>43454</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>43454</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5650,7 +5650,7 @@
         <v>43455</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>43455</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5764,7 +5764,7 @@
         <v>43461</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5821,7 +5821,7 @@
         <v>43461</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         <v>43468</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5935,7 +5935,7 @@
         <v>43480</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>43480</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6049,7 +6049,7 @@
         <v>43482</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6106,7 +6106,7 @@
         <v>43488</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>43500</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>43501</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6277,7 +6277,7 @@
         <v>43502</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6334,7 +6334,7 @@
         <v>43503</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
         <v>43511</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>43511</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>43515</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6567,7 +6567,7 @@
         <v>43521</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6624,7 +6624,7 @@
         <v>43522</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6681,7 +6681,7 @@
         <v>43525</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6738,7 +6738,7 @@
         <v>43528</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6795,7 +6795,7 @@
         <v>43528</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6852,7 +6852,7 @@
         <v>43529</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>43529</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>43530</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>43530</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>43535</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>43538</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>43539</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>43551</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>43552</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>43556</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>43559</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>43560</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>43560</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>43562</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>43563</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>43567</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>43570</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>43570</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>43580</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>43580</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>43581</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8059,7 +8059,7 @@
         <v>43598</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8116,7 +8116,7 @@
         <v>43598</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8173,7 +8173,7 @@
         <v>43606</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8230,7 +8230,7 @@
         <v>43607</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8287,7 +8287,7 @@
         <v>43608</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8344,7 +8344,7 @@
         <v>43609</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8401,7 +8401,7 @@
         <v>43615</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8458,7 +8458,7 @@
         <v>43628</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         <v>43633</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>43636</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8634,7 +8634,7 @@
         <v>43641</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8691,7 +8691,7 @@
         <v>43641</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8753,7 +8753,7 @@
         <v>43644</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8810,7 +8810,7 @@
         <v>43651</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8867,7 +8867,7 @@
         <v>43651</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8924,7 +8924,7 @@
         <v>43654</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8986,7 +8986,7 @@
         <v>43656</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9048,7 +9048,7 @@
         <v>43676</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9105,7 +9105,7 @@
         <v>43689</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9162,7 +9162,7 @@
         <v>43689</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9219,7 +9219,7 @@
         <v>43696</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9276,7 +9276,7 @@
         <v>43697</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         <v>43705</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9390,7 +9390,7 @@
         <v>43705</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         <v>43710</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>43710</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>43711</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9618,7 +9618,7 @@
         <v>43713</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9675,7 +9675,7 @@
         <v>43717</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9732,7 +9732,7 @@
         <v>43719</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9789,7 +9789,7 @@
         <v>43719</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9846,7 +9846,7 @@
         <v>43725</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9903,7 +9903,7 @@
         <v>43731</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9965,7 +9965,7 @@
         <v>43731</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         <v>43735</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10084,7 +10084,7 @@
         <v>43735</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10141,7 +10141,7 @@
         <v>43735</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10198,7 +10198,7 @@
         <v>43737</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10255,7 +10255,7 @@
         <v>43738</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10312,7 +10312,7 @@
         <v>43740</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10369,7 +10369,7 @@
         <v>43741</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10426,7 +10426,7 @@
         <v>43742</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>43745</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10545,7 +10545,7 @@
         <v>43745</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>43747</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
         <v>43749</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10726,7 +10726,7 @@
         <v>43749</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10783,7 +10783,7 @@
         <v>43754</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10840,7 +10840,7 @@
         <v>43766</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10897,7 +10897,7 @@
         <v>43766</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10974,7 +10974,7 @@
         <v>43768</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11031,7 +11031,7 @@
         <v>43775</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11088,7 +11088,7 @@
         <v>43781</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>43782</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>43783</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>43783</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>43787</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>43787</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>43787</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>43794</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11549,7 +11549,7 @@
         <v>43797</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11606,7 +11606,7 @@
         <v>43802</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11663,7 +11663,7 @@
         <v>43808</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11720,7 +11720,7 @@
         <v>43817</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11777,7 +11777,7 @@
         <v>43818</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11834,7 +11834,7 @@
         <v>43843</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11891,7 +11891,7 @@
         <v>43844</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11948,7 +11948,7 @@
         <v>43845</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>43846</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>43847</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>43852</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12176,7 +12176,7 @@
         <v>43852</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12238,7 +12238,7 @@
         <v>43858</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12300,7 +12300,7 @@
         <v>43860</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12357,7 +12357,7 @@
         <v>43861</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12414,7 +12414,7 @@
         <v>43863</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12471,7 +12471,7 @@
         <v>43864</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12533,7 +12533,7 @@
         <v>43864</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12590,7 +12590,7 @@
         <v>43866</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
         <v>43867</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12704,7 +12704,7 @@
         <v>43867</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12761,7 +12761,7 @@
         <v>43871</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12818,7 +12818,7 @@
         <v>43871</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>43882</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>43882</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>43891</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>43891</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13103,7 +13103,7 @@
         <v>43891</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13160,7 +13160,7 @@
         <v>43891</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
         <v>43901</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13279,7 +13279,7 @@
         <v>43901</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13336,7 +13336,7 @@
         <v>43901</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13398,7 +13398,7 @@
         <v>43901</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13455,7 +13455,7 @@
         <v>43906</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13512,7 +13512,7 @@
         <v>43909</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13569,7 +13569,7 @@
         <v>43909</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13626,7 +13626,7 @@
         <v>43909</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13683,7 +13683,7 @@
         <v>43909</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13740,7 +13740,7 @@
         <v>43913</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13797,7 +13797,7 @@
         <v>43915</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13854,7 +13854,7 @@
         <v>43916</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13911,7 +13911,7 @@
         <v>43920</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13968,7 +13968,7 @@
         <v>43920</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14025,7 +14025,7 @@
         <v>43943</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14082,7 +14082,7 @@
         <v>43944</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14139,7 +14139,7 @@
         <v>43950</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14196,7 +14196,7 @@
         <v>43950</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14253,7 +14253,7 @@
         <v>43956</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14310,7 +14310,7 @@
         <v>43958</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14367,7 +14367,7 @@
         <v>43959</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14424,7 +14424,7 @@
         <v>43959</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14486,7 +14486,7 @@
         <v>43962</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14543,7 +14543,7 @@
         <v>43963</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14600,7 +14600,7 @@
         <v>43983</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14657,7 +14657,7 @@
         <v>43983</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14714,7 +14714,7 @@
         <v>43984</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14776,7 +14776,7 @@
         <v>43987</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14833,7 +14833,7 @@
         <v>44007</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14890,7 +14890,7 @@
         <v>44013</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14947,7 +14947,7 @@
         <v>44021</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15004,7 +15004,7 @@
         <v>44025</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15061,7 +15061,7 @@
         <v>44026</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15118,7 +15118,7 @@
         <v>44035</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15175,7 +15175,7 @@
         <v>44035</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15232,7 +15232,7 @@
         <v>44048</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
         <v>44048</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         <v>44053</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15408,7 +15408,7 @@
         <v>44070</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15465,7 +15465,7 @@
         <v>44089</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15522,7 +15522,7 @@
         <v>44089</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15579,7 +15579,7 @@
         <v>44095</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15636,7 +15636,7 @@
         <v>44097</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15698,7 +15698,7 @@
         <v>44098</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15755,7 +15755,7 @@
         <v>44102</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15812,7 +15812,7 @@
         <v>44103</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15869,7 +15869,7 @@
         <v>44110</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15926,7 +15926,7 @@
         <v>44110</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15983,7 +15983,7 @@
         <v>44117</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16040,7 +16040,7 @@
         <v>44117</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16097,7 +16097,7 @@
         <v>44127</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16154,7 +16154,7 @@
         <v>44134</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16211,7 +16211,7 @@
         <v>44151</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16268,7 +16268,7 @@
         <v>44158</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16325,7 +16325,7 @@
         <v>44160</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16382,7 +16382,7 @@
         <v>44161</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16439,7 +16439,7 @@
         <v>44188</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16496,7 +16496,7 @@
         <v>44193</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16553,7 +16553,7 @@
         <v>44204</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16610,7 +16610,7 @@
         <v>44225</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16667,7 +16667,7 @@
         <v>44228</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16724,7 +16724,7 @@
         <v>44231</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16781,7 +16781,7 @@
         <v>44232</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16838,7 +16838,7 @@
         <v>44232</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16895,7 +16895,7 @@
         <v>44233</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16952,7 +16952,7 @@
         <v>44235</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17009,7 +17009,7 @@
         <v>44238</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17066,7 +17066,7 @@
         <v>44238</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17123,7 +17123,7 @@
         <v>44238</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17180,7 +17180,7 @@
         <v>44242</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17237,7 +17237,7 @@
         <v>44249</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17294,7 +17294,7 @@
         <v>44259</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17351,7 +17351,7 @@
         <v>44263</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17408,7 +17408,7 @@
         <v>44264</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17470,7 +17470,7 @@
         <v>44272</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17527,7 +17527,7 @@
         <v>44272</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17584,7 +17584,7 @@
         <v>44272</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
         <v>44278</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17698,7 +17698,7 @@
         <v>44279</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17760,7 +17760,7 @@
         <v>44280</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17817,7 +17817,7 @@
         <v>44285</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17874,7 +17874,7 @@
         <v>44285</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17931,7 +17931,7 @@
         <v>44287</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>44292</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         <v>44293</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>44299</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18159,7 +18159,7 @@
         <v>44300</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18216,7 +18216,7 @@
         <v>44308</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18273,7 +18273,7 @@
         <v>44308</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18335,7 +18335,7 @@
         <v>44309</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18392,7 +18392,7 @@
         <v>44314</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18454,7 +18454,7 @@
         <v>44315</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18511,7 +18511,7 @@
         <v>44334</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>44342</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18630,7 +18630,7 @@
         <v>44349</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18687,7 +18687,7 @@
         <v>44354</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18744,7 +18744,7 @@
         <v>44360</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18801,7 +18801,7 @@
         <v>44362</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18863,7 +18863,7 @@
         <v>44364</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18925,7 +18925,7 @@
         <v>44368</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18987,7 +18987,7 @@
         <v>44368</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19044,7 +19044,7 @@
         <v>44370</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         <v>44371</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19168,7 +19168,7 @@
         <v>44389</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19225,7 +19225,7 @@
         <v>44390</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19287,7 +19287,7 @@
         <v>44391</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19344,7 +19344,7 @@
         <v>44404</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19401,7 +19401,7 @@
         <v>44404</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19458,7 +19458,7 @@
         <v>44404</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19515,7 +19515,7 @@
         <v>44404</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19572,7 +19572,7 @@
         <v>44405</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19629,7 +19629,7 @@
         <v>44411</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19686,7 +19686,7 @@
         <v>44418</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19743,7 +19743,7 @@
         <v>44431</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19800,7 +19800,7 @@
         <v>44431</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19857,7 +19857,7 @@
         <v>44431</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19914,7 +19914,7 @@
         <v>44435</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19971,7 +19971,7 @@
         <v>44445</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20028,7 +20028,7 @@
         <v>44459</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20085,7 +20085,7 @@
         <v>44459</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20142,7 +20142,7 @@
         <v>44466</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20199,7 +20199,7 @@
         <v>44467</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20256,7 +20256,7 @@
         <v>44470</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20318,7 +20318,7 @@
         <v>44470</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20380,7 +20380,7 @@
         <v>44477</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20437,7 +20437,7 @@
         <v>44477</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20499,7 +20499,7 @@
         <v>44480</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20556,7 +20556,7 @@
         <v>44480</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20613,7 +20613,7 @@
         <v>44491</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20670,7 +20670,7 @@
         <v>44495</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20727,7 +20727,7 @@
         <v>44508</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20784,7 +20784,7 @@
         <v>44509</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20841,7 +20841,7 @@
         <v>44509</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20898,7 +20898,7 @@
         <v>44509</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20955,7 +20955,7 @@
         <v>44511</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21012,7 +21012,7 @@
         <v>44512</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21074,7 +21074,7 @@
         <v>44516</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21131,7 +21131,7 @@
         <v>44516</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         <v>44519</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21250,7 +21250,7 @@
         <v>44519</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21312,7 +21312,7 @@
         <v>44519</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21374,7 +21374,7 @@
         <v>44522</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21431,7 +21431,7 @@
         <v>44524</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21488,7 +21488,7 @@
         <v>44529</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21545,7 +21545,7 @@
         <v>44529</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21602,7 +21602,7 @@
         <v>44531</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21659,7 +21659,7 @@
         <v>44532</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21716,7 +21716,7 @@
         <v>44533</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21773,7 +21773,7 @@
         <v>44533</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21830,7 +21830,7 @@
         <v>44538</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21887,7 +21887,7 @@
         <v>44543</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21944,7 +21944,7 @@
         <v>44544</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22001,7 +22001,7 @@
         <v>44545</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22058,7 +22058,7 @@
         <v>44550</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22115,7 +22115,7 @@
         <v>44551</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22172,7 +22172,7 @@
         <v>44552</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22229,7 +22229,7 @@
         <v>44565</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22286,7 +22286,7 @@
         <v>44568</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22343,7 +22343,7 @@
         <v>44573</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22400,7 +22400,7 @@
         <v>44573</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22462,7 +22462,7 @@
         <v>44574</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22519,7 +22519,7 @@
         <v>44574</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22576,7 +22576,7 @@
         <v>44574</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22633,7 +22633,7 @@
         <v>44578</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22695,7 +22695,7 @@
         <v>44578</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22752,7 +22752,7 @@
         <v>44585</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22809,7 +22809,7 @@
         <v>44586</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         <v>44587</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22923,7 +22923,7 @@
         <v>44594</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22980,7 +22980,7 @@
         <v>44595</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23037,7 +23037,7 @@
         <v>44599</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23094,7 +23094,7 @@
         <v>44601</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23151,7 +23151,7 @@
         <v>44614</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23208,7 +23208,7 @@
         <v>44616</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23265,7 +23265,7 @@
         <v>44620</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23322,7 +23322,7 @@
         <v>44624</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23379,7 +23379,7 @@
         <v>44624</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23436,7 +23436,7 @@
         <v>44644</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23493,7 +23493,7 @@
         <v>44659</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23550,7 +23550,7 @@
         <v>44662</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23612,7 +23612,7 @@
         <v>44662</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23674,7 +23674,7 @@
         <v>44673</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23736,7 +23736,7 @@
         <v>44684</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23798,7 +23798,7 @@
         <v>44685</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23855,7 +23855,7 @@
         <v>44691</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23912,7 +23912,7 @@
         <v>44694</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23969,7 +23969,7 @@
         <v>44694</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24031,7 +24031,7 @@
         <v>44694</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24088,7 +24088,7 @@
         <v>44694</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24150,7 +24150,7 @@
         <v>44697</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24212,7 +24212,7 @@
         <v>44701</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24274,7 +24274,7 @@
         <v>44711</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24331,7 +24331,7 @@
         <v>44711</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24388,7 +24388,7 @@
         <v>44712</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24445,7 +24445,7 @@
         <v>44713</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24507,7 +24507,7 @@
         <v>44715</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24564,7 +24564,7 @@
         <v>44723</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24621,7 +24621,7 @@
         <v>44732</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24678,7 +24678,7 @@
         <v>44733</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24740,7 +24740,7 @@
         <v>44734</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24797,7 +24797,7 @@
         <v>44735</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24854,7 +24854,7 @@
         <v>44739</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24911,7 +24911,7 @@
         <v>44748</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24968,7 +24968,7 @@
         <v>44753</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25025,7 +25025,7 @@
         <v>44754</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25087,7 +25087,7 @@
         <v>44754</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25144,7 +25144,7 @@
         <v>44769</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25201,7 +25201,7 @@
         <v>44788</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25258,7 +25258,7 @@
         <v>44790</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25315,7 +25315,7 @@
         <v>44791</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25372,7 +25372,7 @@
         <v>44792</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25429,7 +25429,7 @@
         <v>44802</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25486,7 +25486,7 @@
         <v>44810</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25548,7 +25548,7 @@
         <v>44810</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25610,7 +25610,7 @@
         <v>44810</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25672,7 +25672,7 @@
         <v>44820</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25729,7 +25729,7 @@
         <v>44820</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25791,7 +25791,7 @@
         <v>44820</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25853,7 +25853,7 @@
         <v>44823</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25910,7 +25910,7 @@
         <v>44823</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25972,7 +25972,7 @@
         <v>44824</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26034,7 +26034,7 @@
         <v>44826</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26091,7 +26091,7 @@
         <v>44827</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26148,7 +26148,7 @@
         <v>44832</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26205,7 +26205,7 @@
         <v>44833</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26262,7 +26262,7 @@
         <v>44838</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26319,7 +26319,7 @@
         <v>44840</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26381,7 +26381,7 @@
         <v>44844</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26438,7 +26438,7 @@
         <v>44847</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26495,7 +26495,7 @@
         <v>44847</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26552,7 +26552,7 @@
         <v>44853</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26609,7 +26609,7 @@
         <v>44862</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26666,7 +26666,7 @@
         <v>44872</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26728,7 +26728,7 @@
         <v>44875</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26785,7 +26785,7 @@
         <v>44875</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26842,7 +26842,7 @@
         <v>44886</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26899,7 +26899,7 @@
         <v>44886</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26956,7 +26956,7 @@
         <v>44887</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27013,7 +27013,7 @@
         <v>44888</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27075,7 +27075,7 @@
         <v>44888</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27157,7 +27157,7 @@
         <v>44901</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27214,7 +27214,7 @@
         <v>44903</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27271,7 +27271,7 @@
         <v>44907</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27328,7 +27328,7 @@
         <v>44909</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27390,7 +27390,7 @@
         <v>44909</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27452,7 +27452,7 @@
         <v>44910</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27514,7 +27514,7 @@
         <v>44911</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27571,7 +27571,7 @@
         <v>44913</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27628,7 +27628,7 @@
         <v>44914</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27685,7 +27685,7 @@
         <v>44914</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27742,7 +27742,7 @@
         <v>44916</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27799,7 +27799,7 @@
         <v>44917</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27856,7 +27856,7 @@
         <v>44917</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27913,7 +27913,7 @@
         <v>44939</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27970,7 +27970,7 @@
         <v>44944</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28027,7 +28027,7 @@
         <v>44944</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28084,7 +28084,7 @@
         <v>44946</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28141,7 +28141,7 @@
         <v>44950</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28198,7 +28198,7 @@
         <v>44951</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28255,7 +28255,7 @@
         <v>44956</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28317,7 +28317,7 @@
         <v>44974</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28374,7 +28374,7 @@
         <v>44974</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28431,7 +28431,7 @@
         <v>44974</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28488,7 +28488,7 @@
         <v>44978</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28545,7 +28545,7 @@
         <v>44980</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28602,7 +28602,7 @@
         <v>44981</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28659,7 +28659,7 @@
         <v>44981</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28716,7 +28716,7 @@
         <v>44981</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28773,7 +28773,7 @@
         <v>44984</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28830,7 +28830,7 @@
         <v>44984</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28892,7 +28892,7 @@
         <v>44984</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28949,7 +28949,7 @@
         <v>44987</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29006,7 +29006,7 @@
         <v>44993</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29063,7 +29063,7 @@
         <v>44999</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29125,7 +29125,7 @@
         <v>45000</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29182,7 +29182,7 @@
         <v>45005</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29244,7 +29244,7 @@
         <v>45006</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29301,7 +29301,7 @@
         <v>45006</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29358,7 +29358,7 @@
         <v>45008</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29415,7 +29415,7 @@
         <v>45008</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29472,7 +29472,7 @@
         <v>45013</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29529,7 +29529,7 @@
         <v>45019</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29586,7 +29586,7 @@
         <v>45019</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29643,7 +29643,7 @@
         <v>45020</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29700,7 +29700,7 @@
         <v>45022</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29762,7 +29762,7 @@
         <v>45022</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29824,7 +29824,7 @@
         <v>45027</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29881,7 +29881,7 @@
         <v>45029</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29938,7 +29938,7 @@
         <v>45030</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29995,7 +29995,7 @@
         <v>45035</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30052,7 +30052,7 @@
         <v>45043</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30109,7 +30109,7 @@
         <v>45043</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30166,7 +30166,7 @@
         <v>45044</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30223,7 +30223,7 @@
         <v>45050</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30285,7 +30285,7 @@
         <v>45050</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30347,7 +30347,7 @@
         <v>45050</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30409,7 +30409,7 @@
         <v>45050</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30471,7 +30471,7 @@
         <v>45050</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30533,7 +30533,7 @@
         <v>45050</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30595,7 +30595,7 @@
         <v>45050</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30677,7 +30677,7 @@
         <v>45058</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30739,7 +30739,7 @@
         <v>45058</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30801,7 +30801,7 @@
         <v>45058</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30863,7 +30863,7 @@
         <v>45058</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30925,7 +30925,7 @@
         <v>45062</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30982,7 +30982,7 @@
         <v>45062</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31039,7 +31039,7 @@
         <v>45065</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31096,7 +31096,7 @@
         <v>45068</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31153,7 +31153,7 @@
         <v>45068</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31215,7 +31215,7 @@
         <v>45071</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31272,7 +31272,7 @@
         <v>45071</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31329,7 +31329,7 @@
         <v>45075</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31386,7 +31386,7 @@
         <v>45082</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31443,7 +31443,7 @@
         <v>45082</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31500,7 +31500,7 @@
         <v>45083</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31557,7 +31557,7 @@
         <v>45083</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31614,7 +31614,7 @@
         <v>45083</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31671,7 +31671,7 @@
         <v>45083</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31728,7 +31728,7 @@
         <v>45086</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31785,7 +31785,7 @@
         <v>45089</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31842,7 +31842,7 @@
         <v>45089</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31899,7 +31899,7 @@
         <v>45090</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31961,7 +31961,7 @@
         <v>45091</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32018,7 +32018,7 @@
         <v>45091</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32080,7 +32080,7 @@
         <v>45091</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32142,7 +32142,7 @@
         <v>45092</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32199,7 +32199,7 @@
         <v>45092</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32256,7 +32256,7 @@
         <v>45092</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32313,7 +32313,7 @@
         <v>45092</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32375,7 +32375,7 @@
         <v>45092</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32432,7 +32432,7 @@
         <v>45098</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32489,7 +32489,7 @@
         <v>45099</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32546,7 +32546,7 @@
         <v>45103</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32608,7 +32608,7 @@
         <v>45103</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32665,7 +32665,7 @@
         <v>45103</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32727,7 +32727,7 @@
         <v>45105</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32784,7 +32784,7 @@
         <v>45111</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32841,7 +32841,7 @@
         <v>45112</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32903,7 +32903,7 @@
         <v>45113</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32965,7 +32965,7 @@
         <v>45113</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33022,7 +33022,7 @@
         <v>45114</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33079,7 +33079,7 @@
         <v>45117</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33136,7 +33136,7 @@
         <v>45117</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33193,7 +33193,7 @@
         <v>45117</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33270,7 +33270,7 @@
         <v>45117</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33327,7 +33327,7 @@
         <v>45117</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33384,7 +33384,7 @@
         <v>45117</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33441,7 +33441,7 @@
         <v>45117</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33498,7 +33498,7 @@
         <v>45118</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33555,7 +33555,7 @@
         <v>45119</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33617,7 +33617,7 @@
         <v>45120</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33674,7 +33674,7 @@
         <v>45126</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33731,7 +33731,7 @@
         <v>45131</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33788,7 +33788,7 @@
         <v>45133</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33845,7 +33845,7 @@
         <v>45135</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33902,7 +33902,7 @@
         <v>45166</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33959,7 +33959,7 @@
         <v>45166</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34016,7 +34016,7 @@
         <v>45168</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34078,7 +34078,7 @@
         <v>45168</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34140,7 +34140,7 @@
         <v>45181</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34197,7 +34197,7 @@
         <v>45187</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34254,7 +34254,7 @@
         <v>45195</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34311,7 +34311,7 @@
         <v>45195</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>

--- a/Översikt HEBY.xlsx
+++ b/Översikt HEBY.xlsx
@@ -572,7 +572,7 @@
         <v>44914</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>43515</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>43805</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -854,7 +854,7 @@
         <v>43689</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>44824</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1047,7 +1047,7 @@
         <v>44914</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
         <v>44915</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>45117</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>43529</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         <v>44489</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         <v>44670</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         <v>44832</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         <v>45153</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>44049</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1865,7 +1865,7 @@
         <v>44712</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1951,7 +1951,7 @@
         <v>44889</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>44895</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>45014</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         <v>45092</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2381,7 +2381,7 @@
         <v>45124</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         <v>43523</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>43559</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>43851</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
         <v>43853</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2807,7 +2807,7 @@
         <v>43901</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2897,7 +2897,7 @@
         <v>44002</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2986,7 +2986,7 @@
         <v>44161</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3071,7 +3071,7 @@
         <v>44376</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         <v>44395</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>44568</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3330,7 +3330,7 @@
         <v>44609</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3415,7 +3415,7 @@
         <v>44805</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3500,7 +3500,7 @@
         <v>44847</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         <v>45020</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>45035</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>45037</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>45093</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>45098</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>45111</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>45120</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4188,7 +4188,7 @@
         <v>45120</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>45120</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4358,7 +4358,7 @@
         <v>45133</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4443,7 +4443,7 @@
         <v>43342</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4505,7 +4505,7 @@
         <v>43349</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>43374</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>43409</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         <v>43413</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         <v>43416</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         <v>43418</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>43419</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>43423</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>43430</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         <v>43430</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5080,7 +5080,7 @@
         <v>43430</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5137,7 +5137,7 @@
         <v>43432</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5194,7 +5194,7 @@
         <v>43437</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5251,7 +5251,7 @@
         <v>43438</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5308,7 +5308,7 @@
         <v>43440</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>43447</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5422,7 +5422,7 @@
         <v>43452</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>43454</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>43454</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>43454</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5650,7 +5650,7 @@
         <v>43455</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>43455</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5764,7 +5764,7 @@
         <v>43461</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5821,7 +5821,7 @@
         <v>43461</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         <v>43468</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5935,7 +5935,7 @@
         <v>43480</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>43480</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6049,7 +6049,7 @@
         <v>43482</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6106,7 +6106,7 @@
         <v>43488</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>43500</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>43501</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6277,7 +6277,7 @@
         <v>43502</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6334,7 +6334,7 @@
         <v>43503</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
         <v>43511</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>43511</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>43515</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6567,7 +6567,7 @@
         <v>43521</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6624,7 +6624,7 @@
         <v>43522</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6681,7 +6681,7 @@
         <v>43525</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6738,7 +6738,7 @@
         <v>43528</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6795,7 +6795,7 @@
         <v>43528</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6852,7 +6852,7 @@
         <v>43529</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>43529</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>43530</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>43530</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>43535</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>43538</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>43539</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>43551</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>43552</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>43556</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>43559</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>43560</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>43560</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>43562</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>43563</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>43567</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>43570</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>43570</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>43580</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>43580</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>43581</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8059,7 +8059,7 @@
         <v>43598</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8116,7 +8116,7 @@
         <v>43598</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8173,7 +8173,7 @@
         <v>43606</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8230,7 +8230,7 @@
         <v>43607</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8287,7 +8287,7 @@
         <v>43608</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8344,7 +8344,7 @@
         <v>43609</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8401,7 +8401,7 @@
         <v>43615</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8458,7 +8458,7 @@
         <v>43628</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         <v>43633</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>43636</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8634,7 +8634,7 @@
         <v>43641</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8691,7 +8691,7 @@
         <v>43641</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8753,7 +8753,7 @@
         <v>43644</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8810,7 +8810,7 @@
         <v>43651</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8867,7 +8867,7 @@
         <v>43651</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8924,7 +8924,7 @@
         <v>43654</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8986,7 +8986,7 @@
         <v>43656</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9048,7 +9048,7 @@
         <v>43676</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9105,7 +9105,7 @@
         <v>43689</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9162,7 +9162,7 @@
         <v>43689</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9219,7 +9219,7 @@
         <v>43696</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9276,7 +9276,7 @@
         <v>43697</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         <v>43705</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9390,7 +9390,7 @@
         <v>43705</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         <v>43710</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>43710</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>43711</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9618,7 +9618,7 @@
         <v>43713</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9675,7 +9675,7 @@
         <v>43717</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9732,7 +9732,7 @@
         <v>43719</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9789,7 +9789,7 @@
         <v>43719</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9846,7 +9846,7 @@
         <v>43725</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9903,7 +9903,7 @@
         <v>43731</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9965,7 +9965,7 @@
         <v>43731</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         <v>43735</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10084,7 +10084,7 @@
         <v>43735</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10141,7 +10141,7 @@
         <v>43735</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10198,7 +10198,7 @@
         <v>43737</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10255,7 +10255,7 @@
         <v>43738</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10312,7 +10312,7 @@
         <v>43740</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10369,7 +10369,7 @@
         <v>43741</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10426,7 +10426,7 @@
         <v>43742</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>43745</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10545,7 +10545,7 @@
         <v>43745</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>43747</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
         <v>43749</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10726,7 +10726,7 @@
         <v>43749</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10783,7 +10783,7 @@
         <v>43754</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10840,7 +10840,7 @@
         <v>43766</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10897,7 +10897,7 @@
         <v>43766</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10974,7 +10974,7 @@
         <v>43768</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11031,7 +11031,7 @@
         <v>43775</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11088,7 +11088,7 @@
         <v>43781</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>43782</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>43783</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>43783</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>43787</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>43787</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>43787</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>43794</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11549,7 +11549,7 @@
         <v>43797</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11606,7 +11606,7 @@
         <v>43802</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11663,7 +11663,7 @@
         <v>43808</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11720,7 +11720,7 @@
         <v>43817</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11777,7 +11777,7 @@
         <v>43818</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11834,7 +11834,7 @@
         <v>43843</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11891,7 +11891,7 @@
         <v>43844</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11948,7 +11948,7 @@
         <v>43845</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>43846</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>43847</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>43852</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12176,7 +12176,7 @@
         <v>43852</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12238,7 +12238,7 @@
         <v>43858</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12300,7 +12300,7 @@
         <v>43860</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12357,7 +12357,7 @@
         <v>43861</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12414,7 +12414,7 @@
         <v>43863</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12471,7 +12471,7 @@
         <v>43864</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12533,7 +12533,7 @@
         <v>43864</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12590,7 +12590,7 @@
         <v>43866</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
         <v>43867</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12704,7 +12704,7 @@
         <v>43867</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12761,7 +12761,7 @@
         <v>43871</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12818,7 +12818,7 @@
         <v>43871</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>43882</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>43882</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>43891</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>43891</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13103,7 +13103,7 @@
         <v>43891</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13160,7 +13160,7 @@
         <v>43891</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
         <v>43901</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13279,7 +13279,7 @@
         <v>43901</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13336,7 +13336,7 @@
         <v>43901</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13398,7 +13398,7 @@
         <v>43901</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13455,7 +13455,7 @@
         <v>43906</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13512,7 +13512,7 @@
         <v>43909</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13569,7 +13569,7 @@
         <v>43909</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13626,7 +13626,7 @@
         <v>43909</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13683,7 +13683,7 @@
         <v>43909</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13740,7 +13740,7 @@
         <v>43913</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13797,7 +13797,7 @@
         <v>43915</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13854,7 +13854,7 @@
         <v>43916</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13911,7 +13911,7 @@
         <v>43920</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13968,7 +13968,7 @@
         <v>43920</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14025,7 +14025,7 @@
         <v>43943</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14082,7 +14082,7 @@
         <v>43944</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14139,7 +14139,7 @@
         <v>43950</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14196,7 +14196,7 @@
         <v>43950</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14253,7 +14253,7 @@
         <v>43956</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14310,7 +14310,7 @@
         <v>43958</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14367,7 +14367,7 @@
         <v>43959</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14424,7 +14424,7 @@
         <v>43959</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14486,7 +14486,7 @@
         <v>43962</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14543,7 +14543,7 @@
         <v>43963</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14600,7 +14600,7 @@
         <v>43983</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14657,7 +14657,7 @@
         <v>43983</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14714,7 +14714,7 @@
         <v>43984</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14776,7 +14776,7 @@
         <v>43987</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14833,7 +14833,7 @@
         <v>44007</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14890,7 +14890,7 @@
         <v>44013</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14947,7 +14947,7 @@
         <v>44021</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15004,7 +15004,7 @@
         <v>44025</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15061,7 +15061,7 @@
         <v>44026</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15118,7 +15118,7 @@
         <v>44035</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15175,7 +15175,7 @@
         <v>44035</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15232,7 +15232,7 @@
         <v>44048</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
         <v>44048</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         <v>44053</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15408,7 +15408,7 @@
         <v>44070</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15465,7 +15465,7 @@
         <v>44089</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15522,7 +15522,7 @@
         <v>44089</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15579,7 +15579,7 @@
         <v>44095</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15636,7 +15636,7 @@
         <v>44097</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15698,7 +15698,7 @@
         <v>44098</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15755,7 +15755,7 @@
         <v>44102</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15812,7 +15812,7 @@
         <v>44103</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15869,7 +15869,7 @@
         <v>44110</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15926,7 +15926,7 @@
         <v>44110</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15983,7 +15983,7 @@
         <v>44117</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16040,7 +16040,7 @@
         <v>44117</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16097,7 +16097,7 @@
         <v>44127</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16154,7 +16154,7 @@
         <v>44134</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16211,7 +16211,7 @@
         <v>44151</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16268,7 +16268,7 @@
         <v>44158</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16325,7 +16325,7 @@
         <v>44160</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16382,7 +16382,7 @@
         <v>44161</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16439,7 +16439,7 @@
         <v>44188</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16496,7 +16496,7 @@
         <v>44193</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16553,7 +16553,7 @@
         <v>44204</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16610,7 +16610,7 @@
         <v>44225</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16667,7 +16667,7 @@
         <v>44228</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16724,7 +16724,7 @@
         <v>44231</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16781,7 +16781,7 @@
         <v>44232</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16838,7 +16838,7 @@
         <v>44232</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16895,7 +16895,7 @@
         <v>44233</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16952,7 +16952,7 @@
         <v>44235</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17009,7 +17009,7 @@
         <v>44238</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17066,7 +17066,7 @@
         <v>44238</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17123,7 +17123,7 @@
         <v>44238</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17180,7 +17180,7 @@
         <v>44242</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17237,7 +17237,7 @@
         <v>44249</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17294,7 +17294,7 @@
         <v>44259</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17351,7 +17351,7 @@
         <v>44263</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17408,7 +17408,7 @@
         <v>44264</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17470,7 +17470,7 @@
         <v>44272</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17527,7 +17527,7 @@
         <v>44272</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17584,7 +17584,7 @@
         <v>44272</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
         <v>44278</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17698,7 +17698,7 @@
         <v>44279</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17760,7 +17760,7 @@
         <v>44280</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17817,7 +17817,7 @@
         <v>44285</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17874,7 +17874,7 @@
         <v>44285</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17931,7 +17931,7 @@
         <v>44287</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>44292</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         <v>44293</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>44299</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18159,7 +18159,7 @@
         <v>44300</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18216,7 +18216,7 @@
         <v>44308</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18273,7 +18273,7 @@
         <v>44308</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18335,7 +18335,7 @@
         <v>44309</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18392,7 +18392,7 @@
         <v>44314</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18454,7 +18454,7 @@
         <v>44315</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18511,7 +18511,7 @@
         <v>44334</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>44342</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18630,7 +18630,7 @@
         <v>44349</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18687,7 +18687,7 @@
         <v>44354</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18744,7 +18744,7 @@
         <v>44360</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18801,7 +18801,7 @@
         <v>44362</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18863,7 +18863,7 @@
         <v>44364</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18925,7 +18925,7 @@
         <v>44368</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18987,7 +18987,7 @@
         <v>44368</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19044,7 +19044,7 @@
         <v>44370</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         <v>44371</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19168,7 +19168,7 @@
         <v>44389</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19225,7 +19225,7 @@
         <v>44390</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19287,7 +19287,7 @@
         <v>44391</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19344,7 +19344,7 @@
         <v>44404</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19401,7 +19401,7 @@
         <v>44404</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19458,7 +19458,7 @@
         <v>44404</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19515,7 +19515,7 @@
         <v>44404</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19572,7 +19572,7 @@
         <v>44405</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19629,7 +19629,7 @@
         <v>44411</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19686,7 +19686,7 @@
         <v>44418</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19743,7 +19743,7 @@
         <v>44431</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19800,7 +19800,7 @@
         <v>44431</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19857,7 +19857,7 @@
         <v>44431</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19914,7 +19914,7 @@
         <v>44435</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19971,7 +19971,7 @@
         <v>44445</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20028,7 +20028,7 @@
         <v>44459</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20085,7 +20085,7 @@
         <v>44459</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20142,7 +20142,7 @@
         <v>44466</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20199,7 +20199,7 @@
         <v>44467</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20256,7 +20256,7 @@
         <v>44470</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20318,7 +20318,7 @@
         <v>44470</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20380,7 +20380,7 @@
         <v>44477</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20437,7 +20437,7 @@
         <v>44477</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20499,7 +20499,7 @@
         <v>44480</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20556,7 +20556,7 @@
         <v>44480</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20613,7 +20613,7 @@
         <v>44491</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20670,7 +20670,7 @@
         <v>44495</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20727,7 +20727,7 @@
         <v>44508</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20784,7 +20784,7 @@
         <v>44509</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20841,7 +20841,7 @@
         <v>44509</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20898,7 +20898,7 @@
         <v>44509</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20955,7 +20955,7 @@
         <v>44511</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21012,7 +21012,7 @@
         <v>44512</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21074,7 +21074,7 @@
         <v>44516</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21131,7 +21131,7 @@
         <v>44516</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         <v>44519</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21250,7 +21250,7 @@
         <v>44519</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21312,7 +21312,7 @@
         <v>44519</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21374,7 +21374,7 @@
         <v>44522</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21431,7 +21431,7 @@
         <v>44524</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21488,7 +21488,7 @@
         <v>44529</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21545,7 +21545,7 @@
         <v>44529</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21602,7 +21602,7 @@
         <v>44531</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21659,7 +21659,7 @@
         <v>44532</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21716,7 +21716,7 @@
         <v>44533</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21773,7 +21773,7 @@
         <v>44533</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21830,7 +21830,7 @@
         <v>44538</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21887,7 +21887,7 @@
         <v>44543</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21944,7 +21944,7 @@
         <v>44544</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22001,7 +22001,7 @@
         <v>44545</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22058,7 +22058,7 @@
         <v>44550</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22115,7 +22115,7 @@
         <v>44551</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22172,7 +22172,7 @@
         <v>44552</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22229,7 +22229,7 @@
         <v>44565</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22286,7 +22286,7 @@
         <v>44568</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22343,7 +22343,7 @@
         <v>44573</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22400,7 +22400,7 @@
         <v>44573</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22462,7 +22462,7 @@
         <v>44574</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22519,7 +22519,7 @@
         <v>44574</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22576,7 +22576,7 @@
         <v>44574</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22633,7 +22633,7 @@
         <v>44578</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22695,7 +22695,7 @@
         <v>44578</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22752,7 +22752,7 @@
         <v>44585</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22809,7 +22809,7 @@
         <v>44586</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         <v>44587</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22923,7 +22923,7 @@
         <v>44594</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22980,7 +22980,7 @@
         <v>44595</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23037,7 +23037,7 @@
         <v>44599</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23094,7 +23094,7 @@
         <v>44601</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23151,7 +23151,7 @@
         <v>44614</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23208,7 +23208,7 @@
         <v>44616</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23265,7 +23265,7 @@
         <v>44620</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23322,7 +23322,7 @@
         <v>44624</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23379,7 +23379,7 @@
         <v>44624</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23436,7 +23436,7 @@
         <v>44644</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23493,7 +23493,7 @@
         <v>44659</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23550,7 +23550,7 @@
         <v>44662</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23612,7 +23612,7 @@
         <v>44662</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23674,7 +23674,7 @@
         <v>44673</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23736,7 +23736,7 @@
         <v>44684</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23798,7 +23798,7 @@
         <v>44685</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23855,7 +23855,7 @@
         <v>44691</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23912,7 +23912,7 @@
         <v>44694</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23969,7 +23969,7 @@
         <v>44694</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24031,7 +24031,7 @@
         <v>44694</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24088,7 +24088,7 @@
         <v>44694</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24150,7 +24150,7 @@
         <v>44697</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24212,7 +24212,7 @@
         <v>44701</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24274,7 +24274,7 @@
         <v>44711</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24331,7 +24331,7 @@
         <v>44711</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24388,7 +24388,7 @@
         <v>44712</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24445,7 +24445,7 @@
         <v>44713</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24507,7 +24507,7 @@
         <v>44715</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24564,7 +24564,7 @@
         <v>44723</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24621,7 +24621,7 @@
         <v>44732</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24678,7 +24678,7 @@
         <v>44733</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24740,7 +24740,7 @@
         <v>44734</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24797,7 +24797,7 @@
         <v>44735</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24854,7 +24854,7 @@
         <v>44739</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24911,7 +24911,7 @@
         <v>44748</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24968,7 +24968,7 @@
         <v>44753</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25025,7 +25025,7 @@
         <v>44754</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25087,7 +25087,7 @@
         <v>44754</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25144,7 +25144,7 @@
         <v>44769</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25201,7 +25201,7 @@
         <v>44788</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25258,7 +25258,7 @@
         <v>44790</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25315,7 +25315,7 @@
         <v>44791</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25372,7 +25372,7 @@
         <v>44792</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25429,7 +25429,7 @@
         <v>44802</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25486,7 +25486,7 @@
         <v>44810</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25548,7 +25548,7 @@
         <v>44810</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25610,7 +25610,7 @@
         <v>44810</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25672,7 +25672,7 @@
         <v>44820</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25729,7 +25729,7 @@
         <v>44820</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25791,7 +25791,7 @@
         <v>44820</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25853,7 +25853,7 @@
         <v>44823</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25910,7 +25910,7 @@
         <v>44823</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25972,7 +25972,7 @@
         <v>44824</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26034,7 +26034,7 @@
         <v>44826</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26091,7 +26091,7 @@
         <v>44827</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26148,7 +26148,7 @@
         <v>44832</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26205,7 +26205,7 @@
         <v>44833</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26262,7 +26262,7 @@
         <v>44838</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26319,7 +26319,7 @@
         <v>44840</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26381,7 +26381,7 @@
         <v>44844</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26438,7 +26438,7 @@
         <v>44847</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26495,7 +26495,7 @@
         <v>44847</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26552,7 +26552,7 @@
         <v>44853</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26609,7 +26609,7 @@
         <v>44862</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26666,7 +26666,7 @@
         <v>44872</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26728,7 +26728,7 @@
         <v>44875</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26785,7 +26785,7 @@
         <v>44875</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26842,7 +26842,7 @@
         <v>44886</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26899,7 +26899,7 @@
         <v>44886</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26956,7 +26956,7 @@
         <v>44887</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27013,7 +27013,7 @@
         <v>44888</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27075,7 +27075,7 @@
         <v>44888</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27157,7 +27157,7 @@
         <v>44901</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27214,7 +27214,7 @@
         <v>44903</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27271,7 +27271,7 @@
         <v>44907</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27328,7 +27328,7 @@
         <v>44909</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27390,7 +27390,7 @@
         <v>44909</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27452,7 +27452,7 @@
         <v>44910</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27514,7 +27514,7 @@
         <v>44911</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27571,7 +27571,7 @@
         <v>44913</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27628,7 +27628,7 @@
         <v>44914</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27685,7 +27685,7 @@
         <v>44914</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27742,7 +27742,7 @@
         <v>44916</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27799,7 +27799,7 @@
         <v>44917</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27856,7 +27856,7 @@
         <v>44917</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27913,7 +27913,7 @@
         <v>44939</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27970,7 +27970,7 @@
         <v>44944</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28027,7 +28027,7 @@
         <v>44944</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28084,7 +28084,7 @@
         <v>44946</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28141,7 +28141,7 @@
         <v>44950</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28198,7 +28198,7 @@
         <v>44951</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28255,7 +28255,7 @@
         <v>44956</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28317,7 +28317,7 @@
         <v>44974</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28374,7 +28374,7 @@
         <v>44974</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28431,7 +28431,7 @@
         <v>44974</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28488,7 +28488,7 @@
         <v>44978</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28545,7 +28545,7 @@
         <v>44980</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28602,7 +28602,7 @@
         <v>44981</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28659,7 +28659,7 @@
         <v>44981</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28716,7 +28716,7 @@
         <v>44981</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28773,7 +28773,7 @@
         <v>44984</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28830,7 +28830,7 @@
         <v>44984</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28892,7 +28892,7 @@
     